--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,24 @@
     <t>['18', '40']</t>
   </si>
   <si>
+    <t>['38', '61']</t>
+  </si>
+  <si>
+    <t>['15', '66']</t>
+  </si>
+  <si>
+    <t>['12', '51', '90+1']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['7', '78']</t>
+  </si>
+  <si>
+    <t>['20', '45+3', '48', '86']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -836,9 +854,6 @@
   </si>
   <si>
     <t>['56']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['77', '87']</t>
@@ -1076,6 +1091,21 @@
   </si>
   <si>
     <t>['28', '55', '82']</t>
+  </si>
+  <si>
+    <t>['40', '44']</t>
+  </si>
+  <si>
+    <t>['9', '62', '90+6']</t>
+  </si>
+  <si>
+    <t>['17', '47']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['40', '53', '72']</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK276"/>
+  <dimension ref="A1:BK286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1711,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1768,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1872,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1962,7 +1992,7 @@
         <v>1.23</v>
       </c>
       <c r="AT3">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2341,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT5">
         <v>1.17</v>
@@ -2445,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2532,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT6">
         <v>1.17</v>
@@ -2723,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT7">
         <v>0.08</v>
@@ -2917,7 +2947,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3105,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -3299,7 +3329,7 @@
         <v>2.31</v>
       </c>
       <c r="AT10">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3400,7 +3430,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3490,7 +3520,7 @@
         <v>1.15</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3782,7 +3812,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3869,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3973,7 +4003,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4063,7 +4093,7 @@
         <v>1.69</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4254,7 +4284,7 @@
         <v>1.15</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4442,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4633,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.43</v>
@@ -4824,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>1.38</v>
@@ -5018,7 +5048,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5397,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT21">
         <v>1.92</v>
@@ -5591,7 +5621,7 @@
         <v>2.31</v>
       </c>
       <c r="AT22">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU22">
         <v>1.87</v>
@@ -5692,7 +5722,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5779,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
         <v>0.92</v>
@@ -5970,10 +6000,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -6355,7 +6385,7 @@
         <v>1.15</v>
       </c>
       <c r="AT26">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU26">
         <v>1.2</v>
@@ -6925,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>0.08</v>
@@ -7119,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>1.61</v>
@@ -7220,7 +7250,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7307,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
         <v>2</v>
@@ -7411,7 +7441,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7501,7 +7531,7 @@
         <v>1.69</v>
       </c>
       <c r="AT32">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -7689,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT33">
         <v>1.42</v>
@@ -7793,7 +7823,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7880,7 +7910,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT34">
         <v>1.17</v>
@@ -7984,7 +8014,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8071,10 +8101,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU35">
         <v>1.23</v>
@@ -8262,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT36">
         <v>1.92</v>
@@ -8366,7 +8396,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8453,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT37">
         <v>1.5</v>
@@ -8557,7 +8587,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8748,7 +8778,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9029,7 +9059,7 @@
         <v>1.17</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9220,7 +9250,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU41">
         <v>1.56</v>
@@ -9599,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU43">
         <v>1.76</v>
@@ -9790,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>0.5</v>
@@ -9984,7 +10014,7 @@
         <v>1.77</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU45">
         <v>0.84</v>
@@ -10085,7 +10115,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10172,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT46">
         <v>1.43</v>
@@ -10276,7 +10306,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10467,7 +10497,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -11040,7 +11070,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11130,7 +11160,7 @@
         <v>1.77</v>
       </c>
       <c r="AT51">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU51">
         <v>1.03</v>
@@ -11231,7 +11261,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11318,7 +11348,7 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>1.23</v>
@@ -11422,7 +11452,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11613,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11700,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>1.42</v>
@@ -11804,7 +11834,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11891,10 +11921,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU55">
         <v>1.84</v>
@@ -12085,7 +12115,7 @@
         <v>2</v>
       </c>
       <c r="AT56">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU56">
         <v>1.74</v>
@@ -12186,7 +12216,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12276,7 +12306,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU57">
         <v>1.08</v>
@@ -12846,10 +12876,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU60">
         <v>1.71</v>
@@ -12950,7 +12980,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13228,7 +13258,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
         <v>1.5</v>
@@ -13523,7 +13553,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13610,10 +13640,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU64">
         <v>1.45</v>
@@ -13714,7 +13744,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13801,7 +13831,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
         <v>1.42</v>
@@ -13905,7 +13935,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13992,10 +14022,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT66">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU66">
         <v>1.92</v>
@@ -14183,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>1.43</v>
@@ -14374,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT68">
         <v>1.43</v>
@@ -14568,7 +14598,7 @@
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14860,7 +14890,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15138,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
         <v>0.08</v>
@@ -15242,7 +15272,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15329,7 +15359,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15433,7 +15463,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>10</v>
@@ -15624,7 +15654,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15714,7 +15744,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.36</v>
@@ -15905,7 +15935,7 @@
         <v>2.31</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -16093,10 +16123,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU77">
         <v>1.68</v>
@@ -16284,7 +16314,7 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16388,7 +16418,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16475,10 +16505,10 @@
         <v>1.67</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU79">
         <v>1.23</v>
@@ -16579,7 +16609,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16669,7 +16699,7 @@
         <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16860,7 +16890,7 @@
         <v>1.77</v>
       </c>
       <c r="AT81">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>0.95</v>
@@ -17048,10 +17078,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU82">
         <v>1.57</v>
@@ -17152,7 +17182,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17343,7 +17373,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17534,7 +17564,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>14</v>
@@ -17621,7 +17651,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT85">
         <v>2.15</v>
@@ -17725,7 +17755,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18003,10 +18033,10 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT87">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU87">
         <v>1.46</v>
@@ -18107,7 +18137,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18194,7 +18224,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT88">
         <v>1.92</v>
@@ -18385,7 +18415,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT89">
         <v>0.5</v>
@@ -18871,7 +18901,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19062,7 +19092,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19152,7 +19182,7 @@
         <v>1.15</v>
       </c>
       <c r="AT93">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -19340,7 +19370,7 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT94">
         <v>2</v>
@@ -19531,7 +19561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.5</v>
@@ -19722,7 +19752,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT96">
         <v>0.92</v>
@@ -19913,7 +19943,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT97">
         <v>1.38</v>
@@ -20017,7 +20047,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20104,10 +20134,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
+        <v>1.21</v>
+      </c>
+      <c r="AT98">
         <v>1.23</v>
-      </c>
-      <c r="AT98">
-        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.6</v>
@@ -20298,7 +20328,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99">
         <v>1.17</v>
@@ -20486,10 +20516,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU100">
         <v>1.93</v>
@@ -20677,10 +20707,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT101">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.29</v>
@@ -20871,7 +20901,7 @@
         <v>2.31</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -20972,7 +21002,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21062,7 +21092,7 @@
         <v>1.15</v>
       </c>
       <c r="AT103">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU103">
         <v>1.26</v>
@@ -21163,7 +21193,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21250,7 +21280,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT104">
         <v>1.43</v>
@@ -21545,7 +21575,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21736,7 +21766,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21927,7 +21957,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -22208,7 +22238,7 @@
         <v>1.23</v>
       </c>
       <c r="AT109">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22309,7 +22339,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22396,10 +22426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT110">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU110">
         <v>1.32</v>
@@ -22500,7 +22530,7 @@
         <v>137</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22587,7 +22617,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT111">
         <v>1.5</v>
@@ -22691,7 +22721,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22778,10 +22808,10 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -22882,7 +22912,7 @@
         <v>157</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22969,7 +22999,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
         <v>1.23</v>
@@ -23073,7 +23103,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23160,7 +23190,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT114">
         <v>1.43</v>
@@ -23351,7 +23381,7 @@
         <v>2.5</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT115">
         <v>2</v>
@@ -23455,7 +23485,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23646,7 +23676,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23733,10 +23763,10 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU117">
         <v>1.32</v>
@@ -24219,7 +24249,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24306,7 +24336,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT120">
         <v>1.92</v>
@@ -24410,7 +24440,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24500,7 +24530,7 @@
         <v>1.15</v>
       </c>
       <c r="AT121">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24879,10 +24909,10 @@
         <v>0.2</v>
       </c>
       <c r="AS123">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT123">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU123">
         <v>1.87</v>
@@ -24983,7 +25013,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25365,7 +25395,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25452,7 +25482,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25556,7 +25586,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -26028,7 +26058,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU129">
         <v>1.4</v>
@@ -26219,7 +26249,7 @@
         <v>1.23</v>
       </c>
       <c r="AT130">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -26511,7 +26541,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26598,7 +26628,7 @@
         <v>1.2</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT132">
         <v>2.15</v>
@@ -26789,10 +26819,10 @@
         <v>1.8</v>
       </c>
       <c r="AS133">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -26980,10 +27010,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU134">
         <v>1.6</v>
@@ -27084,7 +27114,7 @@
         <v>174</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27362,10 +27392,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU136">
         <v>1.32</v>
@@ -27553,10 +27583,10 @@
         <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU137">
         <v>1.48</v>
@@ -27657,7 +27687,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27935,7 +27965,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -28126,7 +28156,7 @@
         <v>2</v>
       </c>
       <c r="AS140">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT140">
         <v>2</v>
@@ -28421,7 +28451,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28511,7 +28541,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28890,7 +28920,7 @@
         <v>1.4</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT144">
         <v>1.92</v>
@@ -29081,7 +29111,7 @@
         <v>1.4</v>
       </c>
       <c r="AS145">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>1.42</v>
@@ -29185,7 +29215,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29275,7 +29305,7 @@
         <v>1.17</v>
       </c>
       <c r="AT146">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU146">
         <v>1.22</v>
@@ -29376,7 +29406,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29466,7 +29496,7 @@
         <v>1.58</v>
       </c>
       <c r="AT147">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU147">
         <v>1.13</v>
@@ -29758,7 +29788,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29845,7 +29875,7 @@
         <v>1.17</v>
       </c>
       <c r="AS149">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -30227,7 +30257,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT151">
         <v>0.92</v>
@@ -30331,7 +30361,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30522,7 +30552,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30800,10 +30830,10 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT154">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU154">
         <v>1.23</v>
@@ -31095,7 +31125,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31182,7 +31212,7 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT156">
         <v>0.08</v>
@@ -31286,7 +31316,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31373,7 +31403,7 @@
         <v>1.43</v>
       </c>
       <c r="AS157">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31477,7 +31507,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31564,10 +31594,10 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU158">
         <v>1.7</v>
@@ -31755,10 +31785,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT159">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU159">
         <v>1.99</v>
@@ -31949,7 +31979,7 @@
         <v>1.25</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU160">
         <v>1.49</v>
@@ -32137,10 +32167,10 @@
         <v>0.71</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT161">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU161">
         <v>1.27</v>
@@ -32328,10 +32358,10 @@
         <v>1.86</v>
       </c>
       <c r="AS162">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT162">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32519,7 +32549,7 @@
         <v>2.17</v>
       </c>
       <c r="AS163">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT163">
         <v>2</v>
@@ -32623,7 +32653,7 @@
         <v>122</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32814,7 +32844,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32901,10 +32931,10 @@
         <v>0.14</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT165">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU165">
         <v>1.27</v>
@@ -33286,7 +33316,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU167">
         <v>1.26</v>
@@ -33387,7 +33417,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33665,10 +33695,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU169">
         <v>1.67</v>
@@ -34342,7 +34372,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34533,7 +34563,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34724,7 +34754,7 @@
         <v>196</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35106,7 +35136,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35488,7 +35518,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35575,10 +35605,10 @@
         <v>1.5</v>
       </c>
       <c r="AS179">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT179">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU179">
         <v>1.46</v>
@@ -35769,7 +35799,7 @@
         <v>1.69</v>
       </c>
       <c r="AT180">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU180">
         <v>1.72</v>
@@ -35870,7 +35900,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36148,7 +36178,7 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT182">
         <v>1.42</v>
@@ -36443,7 +36473,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36530,7 +36560,7 @@
         <v>1.88</v>
       </c>
       <c r="AS184">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT184">
         <v>2.15</v>
@@ -36724,7 +36754,7 @@
         <v>2</v>
       </c>
       <c r="AT185">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU185">
         <v>1.46</v>
@@ -36825,7 +36855,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36912,7 +36942,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT186">
         <v>1.5</v>
@@ -37103,7 +37133,7 @@
         <v>0.71</v>
       </c>
       <c r="AS187">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT187">
         <v>0.92</v>
@@ -37207,7 +37237,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37294,10 +37324,10 @@
         <v>1.25</v>
       </c>
       <c r="AS188">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT188">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU188">
         <v>1.43</v>
@@ -37398,7 +37428,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37589,7 +37619,7 @@
         <v>204</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37676,7 +37706,7 @@
         <v>0.13</v>
       </c>
       <c r="AS190">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT190">
         <v>0.08</v>
@@ -37870,7 +37900,7 @@
         <v>1.25</v>
       </c>
       <c r="AT191">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU191">
         <v>1.5</v>
@@ -38061,7 +38091,7 @@
         <v>1.17</v>
       </c>
       <c r="AT192">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU192">
         <v>1.29</v>
@@ -38443,7 +38473,7 @@
         <v>1.77</v>
       </c>
       <c r="AT194">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU194">
         <v>1.08</v>
@@ -38631,7 +38661,7 @@
         <v>0.75</v>
       </c>
       <c r="AS195">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT195">
         <v>0.92</v>
@@ -38822,7 +38852,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT196">
         <v>0.5</v>
@@ -38926,7 +38956,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39117,7 +39147,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39204,10 +39234,10 @@
         <v>0.9</v>
       </c>
       <c r="AS198">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT198">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU198">
         <v>1.62</v>
@@ -39395,7 +39425,7 @@
         <v>1</v>
       </c>
       <c r="AS199">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT199">
         <v>1.23</v>
@@ -39499,7 +39529,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39690,7 +39720,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39777,10 +39807,10 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT201">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU201">
         <v>1.25</v>
@@ -39881,7 +39911,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -39968,10 +39998,10 @@
         <v>1.11</v>
       </c>
       <c r="AS202">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT202">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU202">
         <v>1.43</v>
@@ -40263,7 +40293,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40350,7 +40380,7 @@
         <v>1.38</v>
       </c>
       <c r="AS204">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT204">
         <v>1.17</v>
@@ -40541,7 +40571,7 @@
         <v>1.5</v>
       </c>
       <c r="AS205">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT205">
         <v>1.38</v>
@@ -40735,7 +40765,7 @@
         <v>1.15</v>
       </c>
       <c r="AT206">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU206">
         <v>1.43</v>
@@ -40836,7 +40866,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41114,7 +41144,7 @@
         <v>1.22</v>
       </c>
       <c r="AS208">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -41218,7 +41248,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41305,10 +41335,10 @@
         <v>1.44</v>
       </c>
       <c r="AS209">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT209">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU209">
         <v>1.35</v>
@@ -41409,7 +41439,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41600,7 +41630,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42173,7 +42203,7 @@
         <v>217</v>
       </c>
       <c r="P214" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q214">
         <v>5</v>
@@ -42263,7 +42293,7 @@
         <v>2.31</v>
       </c>
       <c r="AT214">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42364,7 +42394,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42451,10 +42481,10 @@
         <v>0.89</v>
       </c>
       <c r="AS215">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT215">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU215">
         <v>1.29</v>
@@ -42642,7 +42672,7 @@
         <v>1.22</v>
       </c>
       <c r="AS216">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT216">
         <v>1.23</v>
@@ -42836,7 +42866,7 @@
         <v>1.15</v>
       </c>
       <c r="AT217">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU217">
         <v>1.19</v>
@@ -42937,7 +42967,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43024,10 +43054,10 @@
         <v>1.22</v>
       </c>
       <c r="AS218">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT218">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU218">
         <v>1.45</v>
@@ -43218,7 +43248,7 @@
         <v>1.77</v>
       </c>
       <c r="AT219">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU219">
         <v>1.07</v>
@@ -43319,7 +43349,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43406,7 +43436,7 @@
         <v>2</v>
       </c>
       <c r="AS220">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT220">
         <v>2.15</v>
@@ -43597,7 +43627,7 @@
         <v>1</v>
       </c>
       <c r="AS221">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT221">
         <v>1.43</v>
@@ -43701,7 +43731,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43979,7 +44009,7 @@
         <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT223">
         <v>1.17</v>
@@ -44173,7 +44203,7 @@
         <v>1.15</v>
       </c>
       <c r="AT224">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU224">
         <v>1.15</v>
@@ -44743,10 +44773,10 @@
         <v>1.6</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT227">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU227">
         <v>1.28</v>
@@ -44937,7 +44967,7 @@
         <v>1.23</v>
       </c>
       <c r="AT228">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU228">
         <v>1.58</v>
@@ -45229,7 +45259,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45316,10 +45346,10 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT230">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU230">
         <v>1.36</v>
@@ -45420,7 +45450,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45510,7 +45540,7 @@
         <v>1.17</v>
       </c>
       <c r="AT231">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU231">
         <v>1.31</v>
@@ -45698,7 +45728,7 @@
         <v>1.2</v>
       </c>
       <c r="AS232">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT232">
         <v>1.17</v>
@@ -45802,7 +45832,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -45889,7 +45919,7 @@
         <v>0.7</v>
       </c>
       <c r="AS233">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
         <v>0.92</v>
@@ -46080,7 +46110,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT234">
         <v>2</v>
@@ -46375,7 +46405,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46566,7 +46596,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46656,7 +46686,7 @@
         <v>1.69</v>
       </c>
       <c r="AT237">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -47139,7 +47169,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47226,7 +47256,7 @@
         <v>1.7</v>
       </c>
       <c r="AS240">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT240">
         <v>1.92</v>
@@ -47330,7 +47360,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47521,7 +47551,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47608,7 +47638,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT242">
         <v>1.38</v>
@@ -47712,7 +47742,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47799,7 +47829,7 @@
         <v>1.44</v>
       </c>
       <c r="AS243">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT243">
         <v>1.42</v>
@@ -47903,7 +47933,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48094,7 +48124,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48181,10 +48211,10 @@
         <v>1.36</v>
       </c>
       <c r="AS245">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT245">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU245">
         <v>2.02</v>
@@ -48375,7 +48405,7 @@
         <v>1.15</v>
       </c>
       <c r="AT246">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU246">
         <v>1.16</v>
@@ -48563,7 +48593,7 @@
         <v>1.4</v>
       </c>
       <c r="AS247">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT247">
         <v>1.17</v>
@@ -48945,10 +48975,10 @@
         <v>0.27</v>
       </c>
       <c r="AS249">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT249">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU249">
         <v>1.42</v>
@@ -49240,7 +49270,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49327,10 +49357,10 @@
         <v>1.36</v>
       </c>
       <c r="AS251">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT251">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU251">
         <v>1.71</v>
@@ -49521,7 +49551,7 @@
         <v>1.58</v>
       </c>
       <c r="AT252">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU252">
         <v>1.32</v>
@@ -49622,7 +49652,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49900,7 +49930,7 @@
         <v>2.18</v>
       </c>
       <c r="AS254">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT254">
         <v>2.15</v>
@@ -50091,7 +50121,7 @@
         <v>1.5</v>
       </c>
       <c r="AS255">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT255">
         <v>1.38</v>
@@ -50195,7 +50225,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50473,10 +50503,10 @@
         <v>1.08</v>
       </c>
       <c r="AS257">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT257">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU257">
         <v>1.28</v>
@@ -50664,7 +50694,7 @@
         <v>0.58</v>
       </c>
       <c r="AS258">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT258">
         <v>0.5</v>
@@ -50768,7 +50798,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -50855,10 +50885,10 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT259">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU259">
         <v>1.4</v>
@@ -50959,7 +50989,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51046,10 +51076,10 @@
         <v>1.55</v>
       </c>
       <c r="AS260">
+        <v>1.5</v>
+      </c>
+      <c r="AT260">
         <v>1.54</v>
-      </c>
-      <c r="AT260">
-        <v>1.67</v>
       </c>
       <c r="AU260">
         <v>1.44</v>
@@ -51341,7 +51371,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51428,7 +51458,7 @@
         <v>1.09</v>
       </c>
       <c r="AS262">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT262">
         <v>1</v>
@@ -51619,10 +51649,10 @@
         <v>0.82</v>
       </c>
       <c r="AS263">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT263">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU263">
         <v>1.53</v>
@@ -51813,7 +51843,7 @@
         <v>1.23</v>
       </c>
       <c r="AT264">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU264">
         <v>1.48</v>
@@ -51914,7 +51944,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52105,7 +52135,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52296,7 +52326,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52487,7 +52517,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52577,7 +52607,7 @@
         <v>1.67</v>
       </c>
       <c r="AT268">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU268">
         <v>1.28</v>
@@ -52678,7 +52708,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52869,7 +52899,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53060,7 +53090,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53633,7 +53663,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53824,7 +53854,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54157,6 +54187,1916 @@
       </c>
       <c r="BK276">
         <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>5188751</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45122.25</v>
+      </c>
+      <c r="F277">
+        <v>26</v>
+      </c>
+      <c r="G277" t="s">
+        <v>72</v>
+      </c>
+      <c r="H277" t="s">
+        <v>74</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277" t="s">
+        <v>89</v>
+      </c>
+      <c r="P277" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>3</v>
+      </c>
+      <c r="S277">
+        <v>6</v>
+      </c>
+      <c r="T277">
+        <v>2.4</v>
+      </c>
+      <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
+        <v>5</v>
+      </c>
+      <c r="W277">
+        <v>1.48</v>
+      </c>
+      <c r="X277">
+        <v>2.5</v>
+      </c>
+      <c r="Y277">
+        <v>3.22</v>
+      </c>
+      <c r="Z277">
+        <v>1.32</v>
+      </c>
+      <c r="AA277">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB277">
+        <v>1.04</v>
+      </c>
+      <c r="AC277">
+        <v>1.75</v>
+      </c>
+      <c r="AD277">
+        <v>3.3</v>
+      </c>
+      <c r="AE277">
+        <v>4.53</v>
+      </c>
+      <c r="AF277">
+        <v>1.1</v>
+      </c>
+      <c r="AG277">
+        <v>6</v>
+      </c>
+      <c r="AH277">
+        <v>1.5</v>
+      </c>
+      <c r="AI277">
+        <v>2.45</v>
+      </c>
+      <c r="AJ277">
+        <v>2.19</v>
+      </c>
+      <c r="AK277">
+        <v>1.6</v>
+      </c>
+      <c r="AL277">
+        <v>2.1</v>
+      </c>
+      <c r="AM277">
+        <v>1.7</v>
+      </c>
+      <c r="AN277">
+        <v>1.14</v>
+      </c>
+      <c r="AO277">
+        <v>1.25</v>
+      </c>
+      <c r="AP277">
+        <v>2</v>
+      </c>
+      <c r="AQ277">
+        <v>1.33</v>
+      </c>
+      <c r="AR277">
+        <v>1</v>
+      </c>
+      <c r="AS277">
+        <v>1.31</v>
+      </c>
+      <c r="AT277">
+        <v>1</v>
+      </c>
+      <c r="AU277">
+        <v>1.43</v>
+      </c>
+      <c r="AV277">
+        <v>1.21</v>
+      </c>
+      <c r="AW277">
+        <v>2.64</v>
+      </c>
+      <c r="AX277">
+        <v>1.46</v>
+      </c>
+      <c r="AY277">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ277">
+        <v>3.34</v>
+      </c>
+      <c r="BA277">
+        <v>1.37</v>
+      </c>
+      <c r="BB277">
+        <v>1.61</v>
+      </c>
+      <c r="BC277">
+        <v>1.88</v>
+      </c>
+      <c r="BD277">
+        <v>2.69</v>
+      </c>
+      <c r="BE277">
+        <v>3.5</v>
+      </c>
+      <c r="BF277">
+        <v>2</v>
+      </c>
+      <c r="BG277">
+        <v>4</v>
+      </c>
+      <c r="BH277">
+        <v>3</v>
+      </c>
+      <c r="BI277">
+        <v>3</v>
+      </c>
+      <c r="BJ277">
+        <v>5</v>
+      </c>
+      <c r="BK277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>5188752</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45122.29166666666</v>
+      </c>
+      <c r="F278">
+        <v>26</v>
+      </c>
+      <c r="G278" t="s">
+        <v>70</v>
+      </c>
+      <c r="H278" t="s">
+        <v>66</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278" t="s">
+        <v>89</v>
+      </c>
+      <c r="P278" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q278">
+        <v>4</v>
+      </c>
+      <c r="R278">
+        <v>3</v>
+      </c>
+      <c r="S278">
+        <v>7</v>
+      </c>
+      <c r="T278">
+        <v>3.3</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
+        <v>3.2</v>
+      </c>
+      <c r="W278">
+        <v>1.46</v>
+      </c>
+      <c r="X278">
+        <v>2.55</v>
+      </c>
+      <c r="Y278">
+        <v>3.1</v>
+      </c>
+      <c r="Z278">
+        <v>1.34</v>
+      </c>
+      <c r="AA278">
+        <v>7</v>
+      </c>
+      <c r="AB278">
+        <v>1.07</v>
+      </c>
+      <c r="AC278">
+        <v>2.65</v>
+      </c>
+      <c r="AD278">
+        <v>3</v>
+      </c>
+      <c r="AE278">
+        <v>2.6</v>
+      </c>
+      <c r="AF278">
+        <v>1.04</v>
+      </c>
+      <c r="AG278">
+        <v>7.9</v>
+      </c>
+      <c r="AH278">
+        <v>1.36</v>
+      </c>
+      <c r="AI278">
+        <v>2.95</v>
+      </c>
+      <c r="AJ278">
+        <v>2.03</v>
+      </c>
+      <c r="AK278">
+        <v>1.7</v>
+      </c>
+      <c r="AL278">
+        <v>1.85</v>
+      </c>
+      <c r="AM278">
+        <v>1.9</v>
+      </c>
+      <c r="AN278">
+        <v>1.44</v>
+      </c>
+      <c r="AO278">
+        <v>1.28</v>
+      </c>
+      <c r="AP278">
+        <v>1.38</v>
+      </c>
+      <c r="AQ278">
+        <v>1.17</v>
+      </c>
+      <c r="AR278">
+        <v>0.92</v>
+      </c>
+      <c r="AS278">
+        <v>1.15</v>
+      </c>
+      <c r="AT278">
+        <v>0.92</v>
+      </c>
+      <c r="AU278">
+        <v>1.28</v>
+      </c>
+      <c r="AV278">
+        <v>1.39</v>
+      </c>
+      <c r="AW278">
+        <v>2.67</v>
+      </c>
+      <c r="AX278">
+        <v>1.83</v>
+      </c>
+      <c r="AY278">
+        <v>8.9</v>
+      </c>
+      <c r="AZ278">
+        <v>2.3</v>
+      </c>
+      <c r="BA278">
+        <v>1.25</v>
+      </c>
+      <c r="BB278">
+        <v>1.49</v>
+      </c>
+      <c r="BC278">
+        <v>1.95</v>
+      </c>
+      <c r="BD278">
+        <v>2.39</v>
+      </c>
+      <c r="BE278">
+        <v>3.3</v>
+      </c>
+      <c r="BF278">
+        <v>3</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>3</v>
+      </c>
+      <c r="BI278">
+        <v>3</v>
+      </c>
+      <c r="BJ278">
+        <v>6</v>
+      </c>
+      <c r="BK278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>5188758</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="F279">
+        <v>26</v>
+      </c>
+      <c r="G279" t="s">
+        <v>79</v>
+      </c>
+      <c r="H279" t="s">
+        <v>71</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>3</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279" t="s">
+        <v>245</v>
+      </c>
+      <c r="P279" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q279">
+        <v>4</v>
+      </c>
+      <c r="R279">
+        <v>5</v>
+      </c>
+      <c r="S279">
+        <v>9</v>
+      </c>
+      <c r="T279">
+        <v>2.88</v>
+      </c>
+      <c r="U279">
+        <v>2.05</v>
+      </c>
+      <c r="V279">
+        <v>4</v>
+      </c>
+      <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>2.63</v>
+      </c>
+      <c r="Y279">
+        <v>3.25</v>
+      </c>
+      <c r="Z279">
+        <v>1.33</v>
+      </c>
+      <c r="AA279">
+        <v>9</v>
+      </c>
+      <c r="AB279">
+        <v>1.07</v>
+      </c>
+      <c r="AC279">
+        <v>2.58</v>
+      </c>
+      <c r="AD279">
+        <v>3.2</v>
+      </c>
+      <c r="AE279">
+        <v>2.8</v>
+      </c>
+      <c r="AF279">
+        <v>1.04</v>
+      </c>
+      <c r="AG279">
+        <v>7.5</v>
+      </c>
+      <c r="AH279">
+        <v>1.35</v>
+      </c>
+      <c r="AI279">
+        <v>2.88</v>
+      </c>
+      <c r="AJ279">
+        <v>2.14</v>
+      </c>
+      <c r="AK279">
+        <v>1.66</v>
+      </c>
+      <c r="AL279">
+        <v>1.83</v>
+      </c>
+      <c r="AM279">
+        <v>1.83</v>
+      </c>
+      <c r="AN279">
+        <v>1.25</v>
+      </c>
+      <c r="AO279">
+        <v>1.25</v>
+      </c>
+      <c r="AP279">
+        <v>1.66</v>
+      </c>
+      <c r="AQ279">
+        <v>1.54</v>
+      </c>
+      <c r="AR279">
+        <v>1.38</v>
+      </c>
+      <c r="AS279">
+        <v>1.5</v>
+      </c>
+      <c r="AT279">
+        <v>1.36</v>
+      </c>
+      <c r="AU279">
+        <v>1.49</v>
+      </c>
+      <c r="AV279">
+        <v>1.23</v>
+      </c>
+      <c r="AW279">
+        <v>2.72</v>
+      </c>
+      <c r="AX279">
+        <v>1.61</v>
+      </c>
+      <c r="AY279">
+        <v>9</v>
+      </c>
+      <c r="AZ279">
+        <v>2.77</v>
+      </c>
+      <c r="BA279">
+        <v>1.31</v>
+      </c>
+      <c r="BB279">
+        <v>1.61</v>
+      </c>
+      <c r="BC279">
+        <v>2.06</v>
+      </c>
+      <c r="BD279">
+        <v>2.72</v>
+      </c>
+      <c r="BE279">
+        <v>3.5</v>
+      </c>
+      <c r="BF279">
+        <v>6</v>
+      </c>
+      <c r="BG279">
+        <v>4</v>
+      </c>
+      <c r="BH279">
+        <v>8</v>
+      </c>
+      <c r="BI279">
+        <v>2</v>
+      </c>
+      <c r="BJ279">
+        <v>14</v>
+      </c>
+      <c r="BK279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>5188756</v>
+      </c>
+      <c r="C280" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="F280">
+        <v>26</v>
+      </c>
+      <c r="G280" t="s">
+        <v>65</v>
+      </c>
+      <c r="H280" t="s">
+        <v>67</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>89</v>
+      </c>
+      <c r="P280" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q280">
+        <v>9</v>
+      </c>
+      <c r="R280">
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <v>9</v>
+      </c>
+      <c r="T280">
+        <v>2.38</v>
+      </c>
+      <c r="U280">
+        <v>2.1</v>
+      </c>
+      <c r="V280">
+        <v>5.5</v>
+      </c>
+      <c r="W280">
+        <v>1.44</v>
+      </c>
+      <c r="X280">
+        <v>2.63</v>
+      </c>
+      <c r="Y280">
+        <v>3</v>
+      </c>
+      <c r="Z280">
+        <v>1.36</v>
+      </c>
+      <c r="AA280">
+        <v>9</v>
+      </c>
+      <c r="AB280">
+        <v>1.07</v>
+      </c>
+      <c r="AC280">
+        <v>1.78</v>
+      </c>
+      <c r="AD280">
+        <v>3.75</v>
+      </c>
+      <c r="AE280">
+        <v>4.44</v>
+      </c>
+      <c r="AF280">
+        <v>1.07</v>
+      </c>
+      <c r="AG280">
+        <v>7.5</v>
+      </c>
+      <c r="AH280">
+        <v>1.33</v>
+      </c>
+      <c r="AI280">
+        <v>3.1</v>
+      </c>
+      <c r="AJ280">
+        <v>1.98</v>
+      </c>
+      <c r="AK280">
+        <v>1.78</v>
+      </c>
+      <c r="AL280">
+        <v>2</v>
+      </c>
+      <c r="AM280">
+        <v>1.73</v>
+      </c>
+      <c r="AN280">
+        <v>1.12</v>
+      </c>
+      <c r="AO280">
+        <v>1.22</v>
+      </c>
+      <c r="AP280">
+        <v>2.1</v>
+      </c>
+      <c r="AQ280">
+        <v>2</v>
+      </c>
+      <c r="AR280">
+        <v>1.08</v>
+      </c>
+      <c r="AS280">
+        <v>1.86</v>
+      </c>
+      <c r="AT280">
+        <v>1.23</v>
+      </c>
+      <c r="AU280">
+        <v>1.35</v>
+      </c>
+      <c r="AV280">
+        <v>1.23</v>
+      </c>
+      <c r="AW280">
+        <v>2.58</v>
+      </c>
+      <c r="AX280">
+        <v>1.37</v>
+      </c>
+      <c r="AY280">
+        <v>10.5</v>
+      </c>
+      <c r="AZ280">
+        <v>3.74</v>
+      </c>
+      <c r="BA280">
+        <v>1.24</v>
+      </c>
+      <c r="BB280">
+        <v>1.42</v>
+      </c>
+      <c r="BC280">
+        <v>1.88</v>
+      </c>
+      <c r="BD280">
+        <v>2.19</v>
+      </c>
+      <c r="BE280">
+        <v>2.75</v>
+      </c>
+      <c r="BF280">
+        <v>5</v>
+      </c>
+      <c r="BG280">
+        <v>7</v>
+      </c>
+      <c r="BH280">
+        <v>12</v>
+      </c>
+      <c r="BI280">
+        <v>2</v>
+      </c>
+      <c r="BJ280">
+        <v>17</v>
+      </c>
+      <c r="BK280">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:63">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>5188757</v>
+      </c>
+      <c r="C281" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="F281">
+        <v>26</v>
+      </c>
+      <c r="G281" t="s">
+        <v>68</v>
+      </c>
+      <c r="H281" t="s">
+        <v>76</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>246</v>
+      </c>
+      <c r="P281" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q281">
+        <v>6</v>
+      </c>
+      <c r="R281">
+        <v>4</v>
+      </c>
+      <c r="S281">
+        <v>10</v>
+      </c>
+      <c r="T281">
+        <v>2.38</v>
+      </c>
+      <c r="U281">
+        <v>2.2</v>
+      </c>
+      <c r="V281">
+        <v>5</v>
+      </c>
+      <c r="W281">
+        <v>1.4</v>
+      </c>
+      <c r="X281">
+        <v>2.75</v>
+      </c>
+      <c r="Y281">
+        <v>3</v>
+      </c>
+      <c r="Z281">
+        <v>1.36</v>
+      </c>
+      <c r="AA281">
+        <v>8</v>
+      </c>
+      <c r="AB281">
+        <v>1.08</v>
+      </c>
+      <c r="AC281">
+        <v>1.53</v>
+      </c>
+      <c r="AD281">
+        <v>4.1</v>
+      </c>
+      <c r="AE281">
+        <v>6.36</v>
+      </c>
+      <c r="AF281">
+        <v>1.06</v>
+      </c>
+      <c r="AG281">
+        <v>8</v>
+      </c>
+      <c r="AH281">
+        <v>1.3</v>
+      </c>
+      <c r="AI281">
+        <v>3.3</v>
+      </c>
+      <c r="AJ281">
+        <v>1.83</v>
+      </c>
+      <c r="AK281">
+        <v>1.92</v>
+      </c>
+      <c r="AL281">
+        <v>1.83</v>
+      </c>
+      <c r="AM281">
+        <v>1.83</v>
+      </c>
+      <c r="AN281">
+        <v>1.14</v>
+      </c>
+      <c r="AO281">
+        <v>1.2</v>
+      </c>
+      <c r="AP281">
+        <v>2.1</v>
+      </c>
+      <c r="AQ281">
+        <v>1.91</v>
+      </c>
+      <c r="AR281">
+        <v>0.75</v>
+      </c>
+      <c r="AS281">
+        <v>1.83</v>
+      </c>
+      <c r="AT281">
+        <v>0.77</v>
+      </c>
+      <c r="AU281">
+        <v>2.06</v>
+      </c>
+      <c r="AV281">
+        <v>1.35</v>
+      </c>
+      <c r="AW281">
+        <v>3.41</v>
+      </c>
+      <c r="AX281">
+        <v>1.44</v>
+      </c>
+      <c r="AY281">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ281">
+        <v>3.38</v>
+      </c>
+      <c r="BA281">
+        <v>1.27</v>
+      </c>
+      <c r="BB281">
+        <v>1.47</v>
+      </c>
+      <c r="BC281">
+        <v>1.98</v>
+      </c>
+      <c r="BD281">
+        <v>2.33</v>
+      </c>
+      <c r="BE281">
+        <v>3.1</v>
+      </c>
+      <c r="BF281">
+        <v>7</v>
+      </c>
+      <c r="BG281">
+        <v>3</v>
+      </c>
+      <c r="BH281">
+        <v>9</v>
+      </c>
+      <c r="BI281">
+        <v>6</v>
+      </c>
+      <c r="BJ281">
+        <v>16</v>
+      </c>
+      <c r="BK281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>5188755</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="F282">
+        <v>26</v>
+      </c>
+      <c r="G282" t="s">
+        <v>83</v>
+      </c>
+      <c r="H282" t="s">
+        <v>86</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>247</v>
+      </c>
+      <c r="P282" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q282">
+        <v>5</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>7</v>
+      </c>
+      <c r="T282">
+        <v>3.25</v>
+      </c>
+      <c r="U282">
+        <v>2.2</v>
+      </c>
+      <c r="V282">
+        <v>3.2</v>
+      </c>
+      <c r="W282">
+        <v>1.36</v>
+      </c>
+      <c r="X282">
+        <v>3</v>
+      </c>
+      <c r="Y282">
+        <v>2.75</v>
+      </c>
+      <c r="Z282">
+        <v>1.4</v>
+      </c>
+      <c r="AA282">
+        <v>7</v>
+      </c>
+      <c r="AB282">
+        <v>1.1</v>
+      </c>
+      <c r="AC282">
+        <v>2.74</v>
+      </c>
+      <c r="AD282">
+        <v>3.24</v>
+      </c>
+      <c r="AE282">
+        <v>2.61</v>
+      </c>
+      <c r="AF282">
+        <v>1.05</v>
+      </c>
+      <c r="AG282">
+        <v>8</v>
+      </c>
+      <c r="AH282">
+        <v>1.25</v>
+      </c>
+      <c r="AI282">
+        <v>3.6</v>
+      </c>
+      <c r="AJ282">
+        <v>1.78</v>
+      </c>
+      <c r="AK282">
+        <v>1.98</v>
+      </c>
+      <c r="AL282">
+        <v>1.67</v>
+      </c>
+      <c r="AM282">
+        <v>2.1</v>
+      </c>
+      <c r="AN282">
+        <v>1.42</v>
+      </c>
+      <c r="AO282">
+        <v>1.32</v>
+      </c>
+      <c r="AP282">
+        <v>1.42</v>
+      </c>
+      <c r="AQ282">
+        <v>1</v>
+      </c>
+      <c r="AR282">
+        <v>1</v>
+      </c>
+      <c r="AS282">
+        <v>1.14</v>
+      </c>
+      <c r="AT282">
+        <v>0.93</v>
+      </c>
+      <c r="AU282">
+        <v>1.29</v>
+      </c>
+      <c r="AV282">
+        <v>1.28</v>
+      </c>
+      <c r="AW282">
+        <v>2.57</v>
+      </c>
+      <c r="AX282">
+        <v>1.98</v>
+      </c>
+      <c r="AY282">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ282">
+        <v>2.11</v>
+      </c>
+      <c r="BA282">
+        <v>1.27</v>
+      </c>
+      <c r="BB282">
+        <v>1.47</v>
+      </c>
+      <c r="BC282">
+        <v>2</v>
+      </c>
+      <c r="BD282">
+        <v>2.34</v>
+      </c>
+      <c r="BE282">
+        <v>2.9</v>
+      </c>
+      <c r="BF282">
+        <v>6</v>
+      </c>
+      <c r="BG282">
+        <v>3</v>
+      </c>
+      <c r="BH282">
+        <v>6</v>
+      </c>
+      <c r="BI282">
+        <v>3</v>
+      </c>
+      <c r="BJ282">
+        <v>12</v>
+      </c>
+      <c r="BK282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>5188753</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F283">
+        <v>26</v>
+      </c>
+      <c r="G283" t="s">
+        <v>80</v>
+      </c>
+      <c r="H283" t="s">
+        <v>82</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>248</v>
+      </c>
+      <c r="P283" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q283">
+        <v>8</v>
+      </c>
+      <c r="R283">
+        <v>5</v>
+      </c>
+      <c r="S283">
+        <v>13</v>
+      </c>
+      <c r="T283">
+        <v>2.88</v>
+      </c>
+      <c r="U283">
+        <v>2.1</v>
+      </c>
+      <c r="V283">
+        <v>3.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>2.75</v>
+      </c>
+      <c r="Y283">
+        <v>3</v>
+      </c>
+      <c r="Z283">
+        <v>1.36</v>
+      </c>
+      <c r="AA283">
+        <v>8</v>
+      </c>
+      <c r="AB283">
+        <v>1.08</v>
+      </c>
+      <c r="AC283">
+        <v>3.08</v>
+      </c>
+      <c r="AD283">
+        <v>3.2</v>
+      </c>
+      <c r="AE283">
+        <v>2.4</v>
+      </c>
+      <c r="AF283">
+        <v>1.06</v>
+      </c>
+      <c r="AG283">
+        <v>8</v>
+      </c>
+      <c r="AH283">
+        <v>1.3</v>
+      </c>
+      <c r="AI283">
+        <v>3.3</v>
+      </c>
+      <c r="AJ283">
+        <v>1.98</v>
+      </c>
+      <c r="AK283">
+        <v>1.78</v>
+      </c>
+      <c r="AL283">
+        <v>1.73</v>
+      </c>
+      <c r="AM283">
+        <v>2</v>
+      </c>
+      <c r="AN283">
+        <v>1.28</v>
+      </c>
+      <c r="AO283">
+        <v>1.25</v>
+      </c>
+      <c r="AP283">
+        <v>1.63</v>
+      </c>
+      <c r="AQ283">
+        <v>1.08</v>
+      </c>
+      <c r="AR283">
+        <v>1.33</v>
+      </c>
+      <c r="AS283">
+        <v>1</v>
+      </c>
+      <c r="AT283">
+        <v>1.46</v>
+      </c>
+      <c r="AU283">
+        <v>1.48</v>
+      </c>
+      <c r="AV283">
+        <v>1.23</v>
+      </c>
+      <c r="AW283">
+        <v>2.71</v>
+      </c>
+      <c r="AX283">
+        <v>1.86</v>
+      </c>
+      <c r="AY283">
+        <v>8.5</v>
+      </c>
+      <c r="AZ283">
+        <v>2.28</v>
+      </c>
+      <c r="BA283">
+        <v>1.43</v>
+      </c>
+      <c r="BB283">
+        <v>1.66</v>
+      </c>
+      <c r="BC283">
+        <v>2.14</v>
+      </c>
+      <c r="BD283">
+        <v>2.84</v>
+      </c>
+      <c r="BE283">
+        <v>4</v>
+      </c>
+      <c r="BF283">
+        <v>9</v>
+      </c>
+      <c r="BG283">
+        <v>6</v>
+      </c>
+      <c r="BH283">
+        <v>8</v>
+      </c>
+      <c r="BI283">
+        <v>8</v>
+      </c>
+      <c r="BJ283">
+        <v>17</v>
+      </c>
+      <c r="BK283">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>5188759</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F284">
+        <v>26</v>
+      </c>
+      <c r="G284" t="s">
+        <v>78</v>
+      </c>
+      <c r="H284" t="s">
+        <v>75</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284" t="s">
+        <v>89</v>
+      </c>
+      <c r="P284" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q284">
+        <v>6</v>
+      </c>
+      <c r="R284">
+        <v>6</v>
+      </c>
+      <c r="S284">
+        <v>12</v>
+      </c>
+      <c r="T284">
+        <v>3.5</v>
+      </c>
+      <c r="U284">
+        <v>2</v>
+      </c>
+      <c r="V284">
+        <v>3.5</v>
+      </c>
+      <c r="W284">
+        <v>1.5</v>
+      </c>
+      <c r="X284">
+        <v>2.5</v>
+      </c>
+      <c r="Y284">
+        <v>3.5</v>
+      </c>
+      <c r="Z284">
+        <v>1.29</v>
+      </c>
+      <c r="AA284">
+        <v>10</v>
+      </c>
+      <c r="AB284">
+        <v>1.06</v>
+      </c>
+      <c r="AC284">
+        <v>2.48</v>
+      </c>
+      <c r="AD284">
+        <v>3.26</v>
+      </c>
+      <c r="AE284">
+        <v>2.88</v>
+      </c>
+      <c r="AF284">
+        <v>1.05</v>
+      </c>
+      <c r="AG284">
+        <v>7.1</v>
+      </c>
+      <c r="AH284">
+        <v>1.41</v>
+      </c>
+      <c r="AI284">
+        <v>2.64</v>
+      </c>
+      <c r="AJ284">
+        <v>2.35</v>
+      </c>
+      <c r="AK284">
+        <v>1.56</v>
+      </c>
+      <c r="AL284">
+        <v>1.91</v>
+      </c>
+      <c r="AM284">
+        <v>1.8</v>
+      </c>
+      <c r="AN284">
+        <v>1.47</v>
+      </c>
+      <c r="AO284">
+        <v>1.35</v>
+      </c>
+      <c r="AP284">
+        <v>1.46</v>
+      </c>
+      <c r="AQ284">
+        <v>1.23</v>
+      </c>
+      <c r="AR284">
+        <v>0.46</v>
+      </c>
+      <c r="AS284">
+        <v>1.21</v>
+      </c>
+      <c r="AT284">
+        <v>0.5</v>
+      </c>
+      <c r="AU284">
+        <v>1.51</v>
+      </c>
+      <c r="AV284">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW284">
+        <v>2.45</v>
+      </c>
+      <c r="AX284">
+        <v>1.82</v>
+      </c>
+      <c r="AY284">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ284">
+        <v>2.33</v>
+      </c>
+      <c r="BA284">
+        <v>1.31</v>
+      </c>
+      <c r="BB284">
+        <v>1.55</v>
+      </c>
+      <c r="BC284">
+        <v>1.96</v>
+      </c>
+      <c r="BD284">
+        <v>2.55</v>
+      </c>
+      <c r="BE284">
+        <v>3.3</v>
+      </c>
+      <c r="BF284">
+        <v>5</v>
+      </c>
+      <c r="BG284">
+        <v>4</v>
+      </c>
+      <c r="BH284">
+        <v>5</v>
+      </c>
+      <c r="BI284">
+        <v>7</v>
+      </c>
+      <c r="BJ284">
+        <v>10</v>
+      </c>
+      <c r="BK284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>5188760</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285" t="s">
+        <v>64</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F285">
+        <v>26</v>
+      </c>
+      <c r="G285" t="s">
+        <v>84</v>
+      </c>
+      <c r="H285" t="s">
+        <v>81</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>249</v>
+      </c>
+      <c r="P285" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q285">
+        <v>2</v>
+      </c>
+      <c r="R285">
+        <v>4</v>
+      </c>
+      <c r="S285">
+        <v>6</v>
+      </c>
+      <c r="T285">
+        <v>3.2</v>
+      </c>
+      <c r="U285">
+        <v>2.3</v>
+      </c>
+      <c r="V285">
+        <v>3.1</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>3.25</v>
+      </c>
+      <c r="Y285">
+        <v>2.5</v>
+      </c>
+      <c r="Z285">
+        <v>1.5</v>
+      </c>
+      <c r="AA285">
+        <v>6.5</v>
+      </c>
+      <c r="AB285">
+        <v>1.11</v>
+      </c>
+      <c r="AC285">
+        <v>2.47</v>
+      </c>
+      <c r="AD285">
+        <v>3.52</v>
+      </c>
+      <c r="AE285">
+        <v>2.71</v>
+      </c>
+      <c r="AF285">
+        <v>1.04</v>
+      </c>
+      <c r="AG285">
+        <v>10</v>
+      </c>
+      <c r="AH285">
+        <v>1.25</v>
+      </c>
+      <c r="AI285">
+        <v>3.75</v>
+      </c>
+      <c r="AJ285">
+        <v>1.68</v>
+      </c>
+      <c r="AK285">
+        <v>2.1</v>
+      </c>
+      <c r="AL285">
+        <v>1.57</v>
+      </c>
+      <c r="AM285">
+        <v>2.25</v>
+      </c>
+      <c r="AN285">
+        <v>1.44</v>
+      </c>
+      <c r="AO285">
+        <v>1.22</v>
+      </c>
+      <c r="AP285">
+        <v>1.42</v>
+      </c>
+      <c r="AQ285">
+        <v>1.55</v>
+      </c>
+      <c r="AR285">
+        <v>1.31</v>
+      </c>
+      <c r="AS285">
+        <v>1.67</v>
+      </c>
+      <c r="AT285">
+        <v>1.21</v>
+      </c>
+      <c r="AU285">
+        <v>1.43</v>
+      </c>
+      <c r="AV285">
+        <v>1.32</v>
+      </c>
+      <c r="AW285">
+        <v>2.75</v>
+      </c>
+      <c r="AX285">
+        <v>2.19</v>
+      </c>
+      <c r="AY285">
+        <v>8.9</v>
+      </c>
+      <c r="AZ285">
+        <v>1.91</v>
+      </c>
+      <c r="BA285">
+        <v>1.27</v>
+      </c>
+      <c r="BB285">
+        <v>1.47</v>
+      </c>
+      <c r="BC285">
+        <v>1.84</v>
+      </c>
+      <c r="BD285">
+        <v>2.34</v>
+      </c>
+      <c r="BE285">
+        <v>3</v>
+      </c>
+      <c r="BF285">
+        <v>9</v>
+      </c>
+      <c r="BG285">
+        <v>5</v>
+      </c>
+      <c r="BH285">
+        <v>8</v>
+      </c>
+      <c r="BI285">
+        <v>6</v>
+      </c>
+      <c r="BJ285">
+        <v>17</v>
+      </c>
+      <c r="BK285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>5188761</v>
+      </c>
+      <c r="C286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" t="s">
+        <v>64</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F286">
+        <v>26</v>
+      </c>
+      <c r="G286" t="s">
+        <v>69</v>
+      </c>
+      <c r="H286" t="s">
+        <v>77</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>5</v>
+      </c>
+      <c r="O286" t="s">
+        <v>250</v>
+      </c>
+      <c r="P286" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q286">
+        <v>3</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>5</v>
+      </c>
+      <c r="T286">
+        <v>2.25</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
+        <v>4.33</v>
+      </c>
+      <c r="W286">
+        <v>1.29</v>
+      </c>
+      <c r="X286">
+        <v>3.5</v>
+      </c>
+      <c r="Y286">
+        <v>2.25</v>
+      </c>
+      <c r="Z286">
+        <v>1.57</v>
+      </c>
+      <c r="AA286">
+        <v>5.5</v>
+      </c>
+      <c r="AB286">
+        <v>1.14</v>
+      </c>
+      <c r="AC286">
+        <v>2.35</v>
+      </c>
+      <c r="AD286">
+        <v>3.62</v>
+      </c>
+      <c r="AE286">
+        <v>2.84</v>
+      </c>
+      <c r="AF286">
+        <v>1.02</v>
+      </c>
+      <c r="AG286">
+        <v>12</v>
+      </c>
+      <c r="AH286">
+        <v>1.18</v>
+      </c>
+      <c r="AI286">
+        <v>4.5</v>
+      </c>
+      <c r="AJ286">
+        <v>1.53</v>
+      </c>
+      <c r="AK286">
+        <v>2.38</v>
+      </c>
+      <c r="AL286">
+        <v>1.53</v>
+      </c>
+      <c r="AM286">
+        <v>2.38</v>
+      </c>
+      <c r="AN286">
+        <v>1.18</v>
+      </c>
+      <c r="AO286">
+        <v>1.18</v>
+      </c>
+      <c r="AP286">
+        <v>1.95</v>
+      </c>
+      <c r="AQ286">
+        <v>1.62</v>
+      </c>
+      <c r="AR286">
+        <v>1.67</v>
+      </c>
+      <c r="AS286">
+        <v>1.71</v>
+      </c>
+      <c r="AT286">
+        <v>1.54</v>
+      </c>
+      <c r="AU286">
+        <v>1.7</v>
+      </c>
+      <c r="AV286">
+        <v>1.62</v>
+      </c>
+      <c r="AW286">
+        <v>3.32</v>
+      </c>
+      <c r="AX286">
+        <v>1.46</v>
+      </c>
+      <c r="AY286">
+        <v>9.6</v>
+      </c>
+      <c r="AZ286">
+        <v>3.28</v>
+      </c>
+      <c r="BA286">
+        <v>1.27</v>
+      </c>
+      <c r="BB286">
+        <v>1.46</v>
+      </c>
+      <c r="BC286">
+        <v>1.88</v>
+      </c>
+      <c r="BD286">
+        <v>2.29</v>
+      </c>
+      <c r="BE286">
+        <v>3</v>
+      </c>
+      <c r="BF286">
+        <v>6</v>
+      </c>
+      <c r="BG286">
+        <v>2</v>
+      </c>
+      <c r="BH286">
+        <v>5</v>
+      </c>
+      <c r="BI286">
+        <v>7</v>
+      </c>
+      <c r="BJ286">
+        <v>11</v>
+      </c>
+      <c r="BK286">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -55197,10 +55197,10 @@
         <v>5</v>
       </c>
       <c r="R282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S282">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T282">
         <v>3.25</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,27 @@
     <t>['20', '45+3', '48', '86']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['4', '23', '49', '62', '90+1']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['22', '45+1', '71']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -868,9 +889,6 @@
     <t>['12', '79']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['6']</t>
   </si>
   <si>
@@ -899,9 +917,6 @@
   </si>
   <si>
     <t>['15', '43', '67', '78']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['40', '61']</t>
@@ -937,9 +952,6 @@
     <t>['79', '83']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['8', '82']</t>
   </si>
   <si>
@@ -968,9 +980,6 @@
   </si>
   <si>
     <t>['14', '67']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['7']</t>
@@ -1106,6 +1115,21 @@
   </si>
   <si>
     <t>['40', '53', '72']</t>
+  </si>
+  <si>
+    <t>['11', '28', '73']</t>
+  </si>
+  <si>
+    <t>['45+5', '58']</t>
+  </si>
+  <si>
+    <t>['83', '90']</t>
+  </si>
+  <si>
+    <t>['6', '33', '42', '46']</t>
+  </si>
+  <si>
+    <t>['25', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK286"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1735,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1902,7 +1926,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2180,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT4">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2475,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2565,7 +2589,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2753,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT7">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2947,7 +2971,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3138,7 +3162,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3326,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT10">
         <v>1.21</v>
@@ -3430,7 +3454,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3517,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT11">
         <v>1.46</v>
@@ -3708,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3812,7 +3836,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4003,7 +4027,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4281,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4475,7 +4499,7 @@
         <v>1.21</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4666,7 +4690,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4854,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5045,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -5236,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5427,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT21">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5618,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT22">
         <v>1.23</v>
@@ -5722,7 +5746,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5809,10 +5833,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6191,10 +6215,10 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT25">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU25">
         <v>2.22</v>
@@ -6382,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT26">
         <v>1.21</v>
@@ -6576,7 +6600,7 @@
         <v>1.92</v>
       </c>
       <c r="AT27">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6955,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT29">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU29">
         <v>1.32</v>
@@ -7146,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7250,7 +7274,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7441,7 +7465,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7722,7 +7746,7 @@
         <v>1.31</v>
       </c>
       <c r="AT33">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU33">
         <v>1.69</v>
@@ -7823,7 +7847,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7910,10 +7934,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -8014,7 +8038,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8295,7 +8319,7 @@
         <v>1.21</v>
       </c>
       <c r="AT36">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU36">
         <v>2.03</v>
@@ -8396,7 +8420,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8483,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT37">
         <v>1.5</v>
@@ -8587,7 +8611,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8674,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT38">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8778,7 +8802,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8865,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT39">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU39">
         <v>1.18</v>
@@ -9059,7 +9083,7 @@
         <v>1.17</v>
       </c>
       <c r="AT40">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9247,10 +9271,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT41">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU41">
         <v>1.56</v>
@@ -9438,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT42">
         <v>1.17</v>
@@ -9823,7 +9847,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU44">
         <v>1.49</v>
@@ -10011,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
         <v>0.93</v>
@@ -10115,7 +10139,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10205,7 +10229,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>1.63</v>
@@ -10306,7 +10330,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10497,7 +10521,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10584,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10966,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT50">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -11070,7 +11094,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11157,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT51">
         <v>1.21</v>
@@ -11261,7 +11285,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11452,7 +11476,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11539,10 +11563,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11643,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11733,7 +11757,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11834,7 +11858,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11921,10 +11945,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT55">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU55">
         <v>1.84</v>
@@ -12112,10 +12136,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT56">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU56">
         <v>1.74</v>
@@ -12216,7 +12240,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12494,10 +12518,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT58">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.34</v>
@@ -12688,7 +12712,7 @@
         <v>1.69</v>
       </c>
       <c r="AT59">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU59">
         <v>2.11</v>
@@ -12980,7 +13004,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13067,10 +13091,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -13553,7 +13577,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13640,7 +13664,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT64">
         <v>1.54</v>
@@ -13744,7 +13768,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13831,10 +13855,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT65">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13935,7 +13959,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14407,7 +14431,7 @@
         <v>1.86</v>
       </c>
       <c r="AT68">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14595,10 +14619,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT69">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14890,7 +14914,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14977,10 +15001,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT71">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15171,7 +15195,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15272,7 +15296,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15359,7 +15383,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15550,7 +15574,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
         <v>1.17</v>
@@ -15654,7 +15678,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15741,7 +15765,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT75">
         <v>1.23</v>
@@ -15932,7 +15956,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT76">
         <v>1.54</v>
@@ -16126,7 +16150,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU77">
         <v>1.68</v>
@@ -16317,7 +16341,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU78">
         <v>1.7</v>
@@ -16418,7 +16442,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16609,7 +16633,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16887,10 +16911,10 @@
         <v>1.75</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU81">
         <v>0.95</v>
@@ -17182,7 +17206,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17373,7 +17397,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17460,10 +17484,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT84">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.51</v>
@@ -17564,7 +17588,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q85">
         <v>14</v>
@@ -17654,7 +17678,7 @@
         <v>1.83</v>
       </c>
       <c r="AT85">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU85">
         <v>1.9</v>
@@ -17755,7 +17779,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17842,10 +17866,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT86">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU86">
         <v>1.59</v>
@@ -18033,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT87">
         <v>0.5</v>
@@ -18137,7 +18161,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18224,10 +18248,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU88">
         <v>1.38</v>
@@ -18415,10 +18439,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT89">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU89">
         <v>1.53</v>
@@ -18606,7 +18630,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT90">
         <v>1.23</v>
@@ -18800,7 +18824,7 @@
         <v>1.92</v>
       </c>
       <c r="AT91">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU91">
         <v>1.31</v>
@@ -18901,7 +18925,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18988,7 +19012,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT92">
         <v>1.17</v>
@@ -19092,7 +19116,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19179,10 +19203,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT93">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -19755,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AT96">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU96">
         <v>1.44</v>
@@ -19946,7 +19970,7 @@
         <v>1.31</v>
       </c>
       <c r="AT97">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -20047,7 +20071,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20325,7 +20349,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT99">
         <v>0.93</v>
@@ -20898,7 +20922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT102">
         <v>1.46</v>
@@ -21002,7 +21026,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21089,10 +21113,10 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>1.26</v>
@@ -21193,7 +21217,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21280,10 +21304,10 @@
         <v>0.75</v>
       </c>
       <c r="AS104">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT104">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21474,7 +21498,7 @@
         <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU105">
         <v>2.09</v>
@@ -21575,7 +21599,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21662,10 +21686,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU106">
         <v>1.5</v>
@@ -21766,7 +21790,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21853,10 +21877,10 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU107">
         <v>0.98</v>
@@ -22047,7 +22071,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU108">
         <v>1.23</v>
@@ -22339,7 +22363,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22426,7 +22450,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
         <v>1.54</v>
@@ -22530,7 +22554,7 @@
         <v>137</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22721,7 +22745,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22808,10 +22832,10 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT112">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -22912,7 +22936,7 @@
         <v>157</v>
       </c>
       <c r="P113" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -23103,7 +23127,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23193,7 +23217,7 @@
         <v>1.21</v>
       </c>
       <c r="AT114">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>1.62</v>
@@ -23485,7 +23509,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23575,7 +23599,7 @@
         <v>1.92</v>
       </c>
       <c r="AT116">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.27</v>
@@ -23676,7 +23700,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23954,10 +23978,10 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT118">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU118">
         <v>1.16</v>
@@ -24145,7 +24169,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24249,7 +24273,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24339,7 +24363,7 @@
         <v>1.67</v>
       </c>
       <c r="AT120">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24440,7 +24464,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24527,7 +24551,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT121">
         <v>1.21</v>
@@ -24718,7 +24742,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT122">
         <v>1.17</v>
@@ -25013,7 +25037,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25100,7 +25124,7 @@
         <v>1.2</v>
       </c>
       <c r="AS124">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT124">
         <v>1.5</v>
@@ -25291,10 +25315,10 @@
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT125">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25395,7 +25419,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25586,7 +25610,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25673,7 +25697,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT127">
         <v>1.23</v>
@@ -25867,7 +25891,7 @@
         <v>1.17</v>
       </c>
       <c r="AT128">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU128">
         <v>1.22</v>
@@ -26055,7 +26079,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
         <v>1.46</v>
@@ -26249,7 +26273,7 @@
         <v>1.23</v>
       </c>
       <c r="AT130">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -26440,7 +26464,7 @@
         <v>1.69</v>
       </c>
       <c r="AT131">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU131">
         <v>1.9</v>
@@ -26541,7 +26565,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26628,10 +26652,10 @@
         <v>1.2</v>
       </c>
       <c r="AS132">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT132">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU132">
         <v>1.24</v>
@@ -27010,7 +27034,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT134">
         <v>1.23</v>
@@ -27114,7 +27138,7 @@
         <v>174</v>
       </c>
       <c r="P135" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27201,10 +27225,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT135">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27392,10 +27416,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT136">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU136">
         <v>1.32</v>
@@ -27687,7 +27711,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27774,10 +27798,10 @@
         <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT138">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU138">
         <v>1.45</v>
@@ -27968,7 +27992,7 @@
         <v>1.86</v>
       </c>
       <c r="AT139">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU139">
         <v>1.23</v>
@@ -28451,7 +28475,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28538,7 +28562,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT142">
         <v>1.46</v>
@@ -28729,10 +28753,10 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT143">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU143">
         <v>1.24</v>
@@ -28923,7 +28947,7 @@
         <v>1.31</v>
       </c>
       <c r="AT144">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -29111,10 +29135,10 @@
         <v>1.4</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT145">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU145">
         <v>1.66</v>
@@ -29215,7 +29239,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29406,7 +29430,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29493,7 +29517,7 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT147">
         <v>1.54</v>
@@ -29684,7 +29708,7 @@
         <v>1.33</v>
       </c>
       <c r="AS148">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT148">
         <v>1.23</v>
@@ -29788,7 +29812,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30066,10 +30090,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT150">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU150">
         <v>1.41</v>
@@ -30260,7 +30284,7 @@
         <v>1.83</v>
       </c>
       <c r="AT151">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU151">
         <v>1.86</v>
@@ -30361,7 +30385,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30451,7 +30475,7 @@
         <v>1.92</v>
       </c>
       <c r="AT152">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU152">
         <v>1.43</v>
@@ -30552,7 +30576,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30639,10 +30663,10 @@
         <v>0.86</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT153">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU153">
         <v>1.45</v>
@@ -30830,7 +30854,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT154">
         <v>1.21</v>
@@ -31024,7 +31048,7 @@
         <v>1.69</v>
       </c>
       <c r="AT155">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU155">
         <v>1.89</v>
@@ -31125,7 +31149,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31215,7 +31239,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU156">
         <v>1.46</v>
@@ -31316,7 +31340,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31403,7 +31427,7 @@
         <v>1.43</v>
       </c>
       <c r="AS157">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31507,7 +31531,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31976,7 +32000,7 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT160">
         <v>0.93</v>
@@ -32170,7 +32194,7 @@
         <v>1.86</v>
       </c>
       <c r="AT161">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU161">
         <v>1.27</v>
@@ -32361,7 +32385,7 @@
         <v>1.67</v>
       </c>
       <c r="AT162">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32653,7 +32677,7 @@
         <v>122</v>
       </c>
       <c r="P164" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32740,7 +32764,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT164">
         <v>1.5</v>
@@ -32844,7 +32868,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32931,7 +32955,7 @@
         <v>0.14</v>
       </c>
       <c r="AS165">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT165">
         <v>0.5</v>
@@ -33125,7 +33149,7 @@
         <v>1.23</v>
       </c>
       <c r="AT166">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU166">
         <v>1.7</v>
@@ -33313,7 +33337,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT167">
         <v>1.46</v>
@@ -33417,7 +33441,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33504,10 +33528,10 @@
         <v>1.57</v>
       </c>
       <c r="AS168">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT168">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU168">
         <v>1.54</v>
@@ -33695,7 +33719,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT169">
         <v>1.21</v>
@@ -33889,7 +33913,7 @@
         <v>1.92</v>
       </c>
       <c r="AT170">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU170">
         <v>1.37</v>
@@ -34077,7 +34101,7 @@
         <v>1.14</v>
       </c>
       <c r="AS171">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT171">
         <v>1.23</v>
@@ -34268,10 +34292,10 @@
         <v>0.75</v>
       </c>
       <c r="AS172">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT172">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU172">
         <v>1.18</v>
@@ -34372,7 +34396,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34459,7 +34483,7 @@
         <v>1.57</v>
       </c>
       <c r="AS173">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT173">
         <v>1.17</v>
@@ -34563,7 +34587,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34653,7 +34677,7 @@
         <v>1.17</v>
       </c>
       <c r="AT174">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU174">
         <v>1.22</v>
@@ -34754,7 +34778,7 @@
         <v>196</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34844,7 +34868,7 @@
         <v>1.23</v>
       </c>
       <c r="AT175">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU175">
         <v>1.61</v>
@@ -35035,7 +35059,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU176">
         <v>1.82</v>
@@ -35136,7 +35160,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35223,10 +35247,10 @@
         <v>1.71</v>
       </c>
       <c r="AS177">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT177">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU177">
         <v>1.32</v>
@@ -35414,10 +35438,10 @@
         <v>1.67</v>
       </c>
       <c r="AS178">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU178">
         <v>1.37</v>
@@ -35518,7 +35542,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35900,7 +35924,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35987,10 +36011,10 @@
         <v>1.25</v>
       </c>
       <c r="AS181">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT181">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU181">
         <v>1.49</v>
@@ -36181,7 +36205,7 @@
         <v>1.67</v>
       </c>
       <c r="AT182">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU182">
         <v>1.43</v>
@@ -36369,7 +36393,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -36473,7 +36497,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36560,10 +36584,10 @@
         <v>1.88</v>
       </c>
       <c r="AS184">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT184">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU184">
         <v>1.34</v>
@@ -36751,10 +36775,10 @@
         <v>1.63</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT185">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU185">
         <v>1.46</v>
@@ -36855,7 +36879,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36942,7 +36966,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT186">
         <v>1.5</v>
@@ -37136,7 +37160,7 @@
         <v>1.71</v>
       </c>
       <c r="AT187">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU187">
         <v>1.8</v>
@@ -37237,7 +37261,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37428,7 +37452,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37518,7 +37542,7 @@
         <v>1.92</v>
       </c>
       <c r="AT189">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU189">
         <v>1.38</v>
@@ -37619,7 +37643,7 @@
         <v>204</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37709,7 +37733,7 @@
         <v>1.86</v>
       </c>
       <c r="AT190">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU190">
         <v>1.29</v>
@@ -37897,10 +37921,10 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT191">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU191">
         <v>1.5</v>
@@ -38279,10 +38303,10 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT193">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU193">
         <v>1.28</v>
@@ -38470,7 +38494,7 @@
         <v>1.25</v>
       </c>
       <c r="AS194">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT194">
         <v>1.54</v>
@@ -38664,7 +38688,7 @@
         <v>1.31</v>
       </c>
       <c r="AT195">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU195">
         <v>1.38</v>
@@ -38855,7 +38879,7 @@
         <v>1.83</v>
       </c>
       <c r="AT196">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU196">
         <v>2.03</v>
@@ -38956,7 +38980,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39043,7 +39067,7 @@
         <v>2.29</v>
       </c>
       <c r="AS197">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT197">
         <v>2</v>
@@ -39147,7 +39171,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39234,7 +39258,7 @@
         <v>0.9</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT198">
         <v>0.93</v>
@@ -39425,7 +39449,7 @@
         <v>1</v>
       </c>
       <c r="AS199">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT199">
         <v>1.23</v>
@@ -39529,7 +39553,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39720,7 +39744,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39807,10 +39831,10 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT201">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU201">
         <v>1.25</v>
@@ -39911,7 +39935,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40189,10 +40213,10 @@
         <v>1.11</v>
       </c>
       <c r="AS203">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT203">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU203">
         <v>1.36</v>
@@ -40293,7 +40317,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40574,7 +40598,7 @@
         <v>1.71</v>
       </c>
       <c r="AT205">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU205">
         <v>1.79</v>
@@ -40762,7 +40786,7 @@
         <v>0.22</v>
       </c>
       <c r="AS206">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT206">
         <v>0.5</v>
@@ -40866,7 +40890,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41248,7 +41272,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41439,7 +41463,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41526,10 +41550,10 @@
         <v>1.63</v>
       </c>
       <c r="AS210">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT210">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU210">
         <v>1.48</v>
@@ -41630,7 +41654,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41717,10 +41741,10 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT211">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU211">
         <v>1.47</v>
@@ -41911,7 +41935,7 @@
         <v>1.17</v>
       </c>
       <c r="AT212">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU212">
         <v>1.36</v>
@@ -42099,10 +42123,10 @@
         <v>0.78</v>
       </c>
       <c r="AS213">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT213">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU213">
         <v>1.31</v>
@@ -42203,7 +42227,7 @@
         <v>217</v>
       </c>
       <c r="P214" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q214">
         <v>5</v>
@@ -42290,10 +42314,10 @@
         <v>1.5</v>
       </c>
       <c r="AS214">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT214">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42394,7 +42418,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42481,10 +42505,10 @@
         <v>0.89</v>
       </c>
       <c r="AS215">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT215">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU215">
         <v>1.29</v>
@@ -42863,7 +42887,7 @@
         <v>0.3</v>
       </c>
       <c r="AS217">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT217">
         <v>0.5</v>
@@ -42967,7 +42991,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43245,7 +43269,7 @@
         <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT219">
         <v>1.46</v>
@@ -43349,7 +43373,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43439,7 +43463,7 @@
         <v>1.5</v>
       </c>
       <c r="AT220">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU220">
         <v>1.49</v>
@@ -43627,10 +43651,10 @@
         <v>1</v>
       </c>
       <c r="AS221">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT221">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU221">
         <v>1.56</v>
@@ -43731,7 +43755,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43818,7 +43842,7 @@
         <v>1.44</v>
       </c>
       <c r="AS222">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT222">
         <v>1.5</v>
@@ -44200,7 +44224,7 @@
         <v>1.09</v>
       </c>
       <c r="AS224">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT224">
         <v>0.93</v>
@@ -44394,7 +44418,7 @@
         <v>1.92</v>
       </c>
       <c r="AT225">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU225">
         <v>1.37</v>
@@ -44582,10 +44606,10 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT226">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -44773,7 +44797,7 @@
         <v>1.6</v>
       </c>
       <c r="AS227">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT227">
         <v>1.21</v>
@@ -44967,7 +44991,7 @@
         <v>1.23</v>
       </c>
       <c r="AT228">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU228">
         <v>1.58</v>
@@ -45155,7 +45179,7 @@
         <v>2.11</v>
       </c>
       <c r="AS229">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT229">
         <v>2</v>
@@ -45259,7 +45283,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45450,7 +45474,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45731,7 +45755,7 @@
         <v>1.86</v>
       </c>
       <c r="AT232">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU232">
         <v>1.35</v>
@@ -45832,7 +45856,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -45922,7 +45946,7 @@
         <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU233">
         <v>1.5</v>
@@ -46110,7 +46134,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT234">
         <v>2</v>
@@ -46301,7 +46325,7 @@
         <v>1.1</v>
       </c>
       <c r="AS235">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT235">
         <v>1.23</v>
@@ -46405,7 +46429,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46492,10 +46516,10 @@
         <v>2.1</v>
       </c>
       <c r="AS236">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT236">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU236">
         <v>1.35</v>
@@ -46596,7 +46620,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46877,7 +46901,7 @@
         <v>1.92</v>
       </c>
       <c r="AT238">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU238">
         <v>1.38</v>
@@ -47065,7 +47089,7 @@
         <v>1.1</v>
       </c>
       <c r="AS239">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT239">
         <v>1</v>
@@ -47169,7 +47193,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47256,10 +47280,10 @@
         <v>1.7</v>
       </c>
       <c r="AS240">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT240">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47360,7 +47384,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47447,10 +47471,10 @@
         <v>1.18</v>
       </c>
       <c r="AS241">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT241">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU241">
         <v>0.99</v>
@@ -47551,7 +47575,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47641,7 +47665,7 @@
         <v>1.83</v>
       </c>
       <c r="AT242">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU242">
         <v>2.01</v>
@@ -47742,7 +47766,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47832,7 +47856,7 @@
         <v>1.71</v>
       </c>
       <c r="AT243">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -47933,7 +47957,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48020,10 +48044,10 @@
         <v>0.1</v>
       </c>
       <c r="AS244">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT244">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48124,7 +48148,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48214,7 +48238,7 @@
         <v>1.83</v>
       </c>
       <c r="AT245">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU245">
         <v>2.02</v>
@@ -48402,7 +48426,7 @@
         <v>1.09</v>
       </c>
       <c r="AS246">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT246">
         <v>1.23</v>
@@ -48784,7 +48808,7 @@
         <v>1.09</v>
       </c>
       <c r="AS248">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT248">
         <v>1.23</v>
@@ -49169,7 +49193,7 @@
         <v>1.69</v>
       </c>
       <c r="AT250">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU250">
         <v>1.59</v>
@@ -49270,7 +49294,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49548,7 +49572,7 @@
         <v>1.45</v>
       </c>
       <c r="AS252">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT252">
         <v>1.21</v>
@@ -49652,7 +49676,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49742,7 +49766,7 @@
         <v>1.17</v>
       </c>
       <c r="AT253">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU253">
         <v>1.29</v>
@@ -49930,10 +49954,10 @@
         <v>2.18</v>
       </c>
       <c r="AS254">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT254">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU254">
         <v>1.51</v>
@@ -50124,7 +50148,7 @@
         <v>1.86</v>
       </c>
       <c r="AT255">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU255">
         <v>1.33</v>
@@ -50225,7 +50249,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50312,7 +50336,7 @@
         <v>1.91</v>
       </c>
       <c r="AS256">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT256">
         <v>2</v>
@@ -50503,7 +50527,7 @@
         <v>1.08</v>
       </c>
       <c r="AS257">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT257">
         <v>0.93</v>
@@ -50697,7 +50721,7 @@
         <v>1.71</v>
       </c>
       <c r="AT258">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU258">
         <v>1.67</v>
@@ -50798,7 +50822,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -50888,7 +50912,7 @@
         <v>1.31</v>
       </c>
       <c r="AT259">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU259">
         <v>1.4</v>
@@ -50989,7 +51013,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51267,7 +51291,7 @@
         <v>1.6</v>
       </c>
       <c r="AS261">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT261">
         <v>1.5</v>
@@ -51371,7 +51395,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51458,7 +51482,7 @@
         <v>1.09</v>
       </c>
       <c r="AS262">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT262">
         <v>1</v>
@@ -51652,7 +51676,7 @@
         <v>1.21</v>
       </c>
       <c r="AT263">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU263">
         <v>1.53</v>
@@ -51944,7 +51968,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52031,10 +52055,10 @@
         <v>1.17</v>
       </c>
       <c r="AS265">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT265">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU265">
         <v>1.45</v>
@@ -52135,7 +52159,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52326,7 +52350,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52517,7 +52541,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52604,7 +52628,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT268">
         <v>1.21</v>
@@ -52708,7 +52732,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52795,10 +52819,10 @@
         <v>2.25</v>
       </c>
       <c r="AS269">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT269">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU269">
         <v>1.55</v>
@@ -52899,7 +52923,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -52986,10 +53010,10 @@
         <v>1.27</v>
       </c>
       <c r="AS270">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT270">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU270">
         <v>1.47</v>
@@ -53090,7 +53114,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53368,10 +53392,10 @@
         <v>1.18</v>
       </c>
       <c r="AS272">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT272">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU272">
         <v>1.16</v>
@@ -53562,7 +53586,7 @@
         <v>1.69</v>
       </c>
       <c r="AT273">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU273">
         <v>1.62</v>
@@ -53663,7 +53687,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53750,10 +53774,10 @@
         <v>1.31</v>
       </c>
       <c r="AS274">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT274">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU274">
         <v>1.37</v>
@@ -53854,7 +53878,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -53941,10 +53965,10 @@
         <v>1.82</v>
       </c>
       <c r="AS275">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT275">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU275">
         <v>1.37</v>
@@ -54132,10 +54156,10 @@
         <v>0.09</v>
       </c>
       <c r="AS276">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT276">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AU276">
         <v>1.04</v>
@@ -54514,10 +54538,10 @@
         <v>0.92</v>
       </c>
       <c r="AS278">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT278">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU278">
         <v>1.28</v>
@@ -54618,7 +54642,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54708,7 +54732,7 @@
         <v>1.5</v>
       </c>
       <c r="AT279">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU279">
         <v>1.49</v>
@@ -54809,7 +54833,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -55000,7 +55024,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55090,7 +55114,7 @@
         <v>1.83</v>
       </c>
       <c r="AT281">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU281">
         <v>2.06</v>
@@ -55191,7 +55215,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55278,7 +55302,7 @@
         <v>1</v>
       </c>
       <c r="AS282">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT282">
         <v>0.93</v>
@@ -55382,7 +55406,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55469,7 +55493,7 @@
         <v>1.33</v>
       </c>
       <c r="AS283">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT283">
         <v>1.46</v>
@@ -55955,7 +55979,7 @@
         <v>250</v>
       </c>
       <c r="P286" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q286">
         <v>3</v>
@@ -56097,6 +56121,2107 @@
       </c>
       <c r="BK286">
         <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>5188762</v>
+      </c>
+      <c r="C287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45129.25</v>
+      </c>
+      <c r="F287">
+        <v>27</v>
+      </c>
+      <c r="G287" t="s">
+        <v>75</v>
+      </c>
+      <c r="H287" t="s">
+        <v>68</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
+        <v>251</v>
+      </c>
+      <c r="P287" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q287">
+        <v>4</v>
+      </c>
+      <c r="R287">
+        <v>6</v>
+      </c>
+      <c r="S287">
+        <v>10</v>
+      </c>
+      <c r="T287">
+        <v>5.83</v>
+      </c>
+      <c r="U287">
+        <v>2.24</v>
+      </c>
+      <c r="V287">
+        <v>2.31</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>2.83</v>
+      </c>
+      <c r="Y287">
+        <v>3.18</v>
+      </c>
+      <c r="Z287">
+        <v>1.36</v>
+      </c>
+      <c r="AA287">
+        <v>7.4</v>
+      </c>
+      <c r="AB287">
+        <v>1.06</v>
+      </c>
+      <c r="AC287">
+        <v>5.07</v>
+      </c>
+      <c r="AD287">
+        <v>4.04</v>
+      </c>
+      <c r="AE287">
+        <v>1.66</v>
+      </c>
+      <c r="AF287">
+        <v>1.05</v>
+      </c>
+      <c r="AG287">
+        <v>8</v>
+      </c>
+      <c r="AH287">
+        <v>1.33</v>
+      </c>
+      <c r="AI287">
+        <v>3.1</v>
+      </c>
+      <c r="AJ287">
+        <v>2.04</v>
+      </c>
+      <c r="AK287">
+        <v>1.73</v>
+      </c>
+      <c r="AL287">
+        <v>2</v>
+      </c>
+      <c r="AM287">
+        <v>1.75</v>
+      </c>
+      <c r="AN287">
+        <v>2.1</v>
+      </c>
+      <c r="AO287">
+        <v>1.2</v>
+      </c>
+      <c r="AP287">
+        <v>1.12</v>
+      </c>
+      <c r="AQ287">
+        <v>1.67</v>
+      </c>
+      <c r="AR287">
+        <v>1.43</v>
+      </c>
+      <c r="AS287">
+        <v>1.62</v>
+      </c>
+      <c r="AT287">
+        <v>1.4</v>
+      </c>
+      <c r="AU287">
+        <v>1.35</v>
+      </c>
+      <c r="AV287">
+        <v>1.74</v>
+      </c>
+      <c r="AW287">
+        <v>3.09</v>
+      </c>
+      <c r="AX287">
+        <v>3.01</v>
+      </c>
+      <c r="AY287">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ287">
+        <v>1.57</v>
+      </c>
+      <c r="BA287">
+        <v>1.39</v>
+      </c>
+      <c r="BB287">
+        <v>1.66</v>
+      </c>
+      <c r="BC287">
+        <v>2.1</v>
+      </c>
+      <c r="BD287">
+        <v>2.75</v>
+      </c>
+      <c r="BE287">
+        <v>3.8</v>
+      </c>
+      <c r="BF287">
+        <v>3</v>
+      </c>
+      <c r="BG287">
+        <v>3</v>
+      </c>
+      <c r="BH287">
+        <v>4</v>
+      </c>
+      <c r="BI287">
+        <v>6</v>
+      </c>
+      <c r="BJ287">
+        <v>7</v>
+      </c>
+      <c r="BK287">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>5188763</v>
+      </c>
+      <c r="C288" t="s">
+        <v>63</v>
+      </c>
+      <c r="D288" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45129.25</v>
+      </c>
+      <c r="F288">
+        <v>27</v>
+      </c>
+      <c r="G288" t="s">
+        <v>73</v>
+      </c>
+      <c r="H288" t="s">
+        <v>76</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>2</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>3</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288" t="s">
+        <v>91</v>
+      </c>
+      <c r="P288" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q288">
+        <v>6</v>
+      </c>
+      <c r="R288">
+        <v>3</v>
+      </c>
+      <c r="S288">
+        <v>9</v>
+      </c>
+      <c r="T288">
+        <v>3.05</v>
+      </c>
+      <c r="U288">
+        <v>2.01</v>
+      </c>
+      <c r="V288">
+        <v>4.42</v>
+      </c>
+      <c r="W288">
+        <v>1.56</v>
+      </c>
+      <c r="X288">
+        <v>2.47</v>
+      </c>
+      <c r="Y288">
+        <v>3.3</v>
+      </c>
+      <c r="Z288">
+        <v>1.29</v>
+      </c>
+      <c r="AA288">
+        <v>8</v>
+      </c>
+      <c r="AB288">
+        <v>1.05</v>
+      </c>
+      <c r="AC288">
+        <v>2.22</v>
+      </c>
+      <c r="AD288">
+        <v>3.04</v>
+      </c>
+      <c r="AE288">
+        <v>3.77</v>
+      </c>
+      <c r="AF288">
+        <v>1.09</v>
+      </c>
+      <c r="AG288">
+        <v>6</v>
+      </c>
+      <c r="AH288">
+        <v>1.47</v>
+      </c>
+      <c r="AI288">
+        <v>2.55</v>
+      </c>
+      <c r="AJ288">
+        <v>2.47</v>
+      </c>
+      <c r="AK288">
+        <v>1.5</v>
+      </c>
+      <c r="AL288">
+        <v>2.1</v>
+      </c>
+      <c r="AM288">
+        <v>1.7</v>
+      </c>
+      <c r="AN288">
+        <v>1.26</v>
+      </c>
+      <c r="AO288">
+        <v>1.29</v>
+      </c>
+      <c r="AP288">
+        <v>1.53</v>
+      </c>
+      <c r="AQ288">
+        <v>2.31</v>
+      </c>
+      <c r="AR288">
+        <v>0.77</v>
+      </c>
+      <c r="AS288">
+        <v>2.14</v>
+      </c>
+      <c r="AT288">
+        <v>0.93</v>
+      </c>
+      <c r="AU288">
+        <v>1.5</v>
+      </c>
+      <c r="AV288">
+        <v>1.33</v>
+      </c>
+      <c r="AW288">
+        <v>2.83</v>
+      </c>
+      <c r="AX288">
+        <v>1.89</v>
+      </c>
+      <c r="AY288">
+        <v>7.5</v>
+      </c>
+      <c r="AZ288">
+        <v>2.34</v>
+      </c>
+      <c r="BA288">
+        <v>1.49</v>
+      </c>
+      <c r="BB288">
+        <v>1.85</v>
+      </c>
+      <c r="BC288">
+        <v>2.4</v>
+      </c>
+      <c r="BD288">
+        <v>3.2</v>
+      </c>
+      <c r="BE288">
+        <v>4.7</v>
+      </c>
+      <c r="BF288">
+        <v>3</v>
+      </c>
+      <c r="BG288">
+        <v>4</v>
+      </c>
+      <c r="BH288">
+        <v>11</v>
+      </c>
+      <c r="BI288">
+        <v>3</v>
+      </c>
+      <c r="BJ288">
+        <v>14</v>
+      </c>
+      <c r="BK288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>5188768</v>
+      </c>
+      <c r="C289" t="s">
+        <v>63</v>
+      </c>
+      <c r="D289" t="s">
+        <v>64</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F289">
+        <v>27</v>
+      </c>
+      <c r="G289" t="s">
+        <v>82</v>
+      </c>
+      <c r="H289" t="s">
+        <v>66</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>252</v>
+      </c>
+      <c r="P289" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q289">
+        <v>2</v>
+      </c>
+      <c r="R289">
+        <v>4</v>
+      </c>
+      <c r="S289">
+        <v>6</v>
+      </c>
+      <c r="T289">
+        <v>2.94</v>
+      </c>
+      <c r="U289">
+        <v>2.12</v>
+      </c>
+      <c r="V289">
+        <v>4.17</v>
+      </c>
+      <c r="W289">
+        <v>1.47</v>
+      </c>
+      <c r="X289">
+        <v>2.74</v>
+      </c>
+      <c r="Y289">
+        <v>3.28</v>
+      </c>
+      <c r="Z289">
+        <v>1.35</v>
+      </c>
+      <c r="AA289">
+        <v>6.5</v>
+      </c>
+      <c r="AB289">
+        <v>1.08</v>
+      </c>
+      <c r="AC289">
+        <v>2.15</v>
+      </c>
+      <c r="AD289">
+        <v>3.39</v>
+      </c>
+      <c r="AE289">
+        <v>3.51</v>
+      </c>
+      <c r="AF289">
+        <v>1.05</v>
+      </c>
+      <c r="AG289">
+        <v>8</v>
+      </c>
+      <c r="AH289">
+        <v>1.33</v>
+      </c>
+      <c r="AI289">
+        <v>3.1</v>
+      </c>
+      <c r="AJ289">
+        <v>2.05</v>
+      </c>
+      <c r="AK289">
+        <v>1.8</v>
+      </c>
+      <c r="AL289">
+        <v>1.8</v>
+      </c>
+      <c r="AM289">
+        <v>1.95</v>
+      </c>
+      <c r="AN289">
+        <v>1.28</v>
+      </c>
+      <c r="AO289">
+        <v>1.25</v>
+      </c>
+      <c r="AP289">
+        <v>1.66</v>
+      </c>
+      <c r="AQ289">
+        <v>2</v>
+      </c>
+      <c r="AR289">
+        <v>0.92</v>
+      </c>
+      <c r="AS289">
+        <v>1.86</v>
+      </c>
+      <c r="AT289">
+        <v>1.07</v>
+      </c>
+      <c r="AU289">
+        <v>1.35</v>
+      </c>
+      <c r="AV289">
+        <v>1.32</v>
+      </c>
+      <c r="AW289">
+        <v>2.67</v>
+      </c>
+      <c r="AX289">
+        <v>1.59</v>
+      </c>
+      <c r="AY289">
+        <v>8</v>
+      </c>
+      <c r="AZ289">
+        <v>2.9</v>
+      </c>
+      <c r="BA289">
+        <v>1.29</v>
+      </c>
+      <c r="BB289">
+        <v>1.57</v>
+      </c>
+      <c r="BC289">
+        <v>2</v>
+      </c>
+      <c r="BD289">
+        <v>2.65</v>
+      </c>
+      <c r="BE289">
+        <v>3.1</v>
+      </c>
+      <c r="BF289">
+        <v>4</v>
+      </c>
+      <c r="BG289">
+        <v>4</v>
+      </c>
+      <c r="BH289">
+        <v>1</v>
+      </c>
+      <c r="BI289">
+        <v>6</v>
+      </c>
+      <c r="BJ289">
+        <v>5</v>
+      </c>
+      <c r="BK289">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>5188767</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F290">
+        <v>27</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>65</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>253</v>
+      </c>
+      <c r="P290" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q290">
+        <v>6</v>
+      </c>
+      <c r="R290">
+        <v>4</v>
+      </c>
+      <c r="S290">
+        <v>10</v>
+      </c>
+      <c r="T290">
+        <v>3.88</v>
+      </c>
+      <c r="U290">
+        <v>2.11</v>
+      </c>
+      <c r="V290">
+        <v>3.14</v>
+      </c>
+      <c r="W290">
+        <v>1.48</v>
+      </c>
+      <c r="X290">
+        <v>2.7</v>
+      </c>
+      <c r="Y290">
+        <v>3.38</v>
+      </c>
+      <c r="Z290">
+        <v>1.33</v>
+      </c>
+      <c r="AA290">
+        <v>7</v>
+      </c>
+      <c r="AB290">
+        <v>1.07</v>
+      </c>
+      <c r="AC290">
+        <v>3.09</v>
+      </c>
+      <c r="AD290">
+        <v>3.19</v>
+      </c>
+      <c r="AE290">
+        <v>2.46</v>
+      </c>
+      <c r="AF290">
+        <v>1.07</v>
+      </c>
+      <c r="AG290">
+        <v>7</v>
+      </c>
+      <c r="AH290">
+        <v>1.38</v>
+      </c>
+      <c r="AI290">
+        <v>3.03</v>
+      </c>
+      <c r="AJ290">
+        <v>2.2</v>
+      </c>
+      <c r="AK290">
+        <v>1.63</v>
+      </c>
+      <c r="AL290">
+        <v>1.83</v>
+      </c>
+      <c r="AM290">
+        <v>1.83</v>
+      </c>
+      <c r="AN290">
+        <v>1.55</v>
+      </c>
+      <c r="AO290">
+        <v>1.35</v>
+      </c>
+      <c r="AP290">
+        <v>1.4</v>
+      </c>
+      <c r="AQ290">
+        <v>1.15</v>
+      </c>
+      <c r="AR290">
+        <v>1.42</v>
+      </c>
+      <c r="AS290">
+        <v>1.07</v>
+      </c>
+      <c r="AT290">
+        <v>1.54</v>
+      </c>
+      <c r="AU290">
+        <v>1.13</v>
+      </c>
+      <c r="AV290">
+        <v>1.27</v>
+      </c>
+      <c r="AW290">
+        <v>2.4</v>
+      </c>
+      <c r="AX290">
+        <v>2.2</v>
+      </c>
+      <c r="AY290">
+        <v>8</v>
+      </c>
+      <c r="AZ290">
+        <v>1.91</v>
+      </c>
+      <c r="BA290">
+        <v>1.29</v>
+      </c>
+      <c r="BB290">
+        <v>1.52</v>
+      </c>
+      <c r="BC290">
+        <v>1.95</v>
+      </c>
+      <c r="BD290">
+        <v>2.47</v>
+      </c>
+      <c r="BE290">
+        <v>3.6</v>
+      </c>
+      <c r="BF290">
+        <v>5</v>
+      </c>
+      <c r="BG290">
+        <v>6</v>
+      </c>
+      <c r="BH290">
+        <v>6</v>
+      </c>
+      <c r="BI290">
+        <v>5</v>
+      </c>
+      <c r="BJ290">
+        <v>11</v>
+      </c>
+      <c r="BK290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>5188765</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F291">
+        <v>27</v>
+      </c>
+      <c r="G291" t="s">
+        <v>77</v>
+      </c>
+      <c r="H291" t="s">
+        <v>84</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>117</v>
+      </c>
+      <c r="P291" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q291">
+        <v>5</v>
+      </c>
+      <c r="R291">
+        <v>8</v>
+      </c>
+      <c r="S291">
+        <v>13</v>
+      </c>
+      <c r="T291">
+        <v>2.7</v>
+      </c>
+      <c r="U291">
+        <v>2.49</v>
+      </c>
+      <c r="V291">
+        <v>3.59</v>
+      </c>
+      <c r="W291">
+        <v>1.29</v>
+      </c>
+      <c r="X291">
+        <v>3.4</v>
+      </c>
+      <c r="Y291">
+        <v>2.36</v>
+      </c>
+      <c r="Z291">
+        <v>1.6</v>
+      </c>
+      <c r="AA291">
+        <v>4.75</v>
+      </c>
+      <c r="AB291">
+        <v>1.15</v>
+      </c>
+      <c r="AC291">
+        <v>2.11</v>
+      </c>
+      <c r="AD291">
+        <v>3.68</v>
+      </c>
+      <c r="AE291">
+        <v>3.34</v>
+      </c>
+      <c r="AF291">
+        <v>1.02</v>
+      </c>
+      <c r="AG291">
+        <v>12</v>
+      </c>
+      <c r="AH291">
+        <v>1.18</v>
+      </c>
+      <c r="AI291">
+        <v>4.5</v>
+      </c>
+      <c r="AJ291">
+        <v>1.57</v>
+      </c>
+      <c r="AK291">
+        <v>2.3</v>
+      </c>
+      <c r="AL291">
+        <v>1.45</v>
+      </c>
+      <c r="AM291">
+        <v>2.6</v>
+      </c>
+      <c r="AN291">
+        <v>1.3</v>
+      </c>
+      <c r="AO291">
+        <v>1.2</v>
+      </c>
+      <c r="AP291">
+        <v>1.68</v>
+      </c>
+      <c r="AQ291">
+        <v>1.15</v>
+      </c>
+      <c r="AR291">
+        <v>0.5</v>
+      </c>
+      <c r="AS291">
+        <v>1.14</v>
+      </c>
+      <c r="AT291">
+        <v>0.53</v>
+      </c>
+      <c r="AU291">
+        <v>1.48</v>
+      </c>
+      <c r="AV291">
+        <v>1.24</v>
+      </c>
+      <c r="AW291">
+        <v>2.72</v>
+      </c>
+      <c r="AX291">
+        <v>1.69</v>
+      </c>
+      <c r="AY291">
+        <v>8</v>
+      </c>
+      <c r="AZ291">
+        <v>2.63</v>
+      </c>
+      <c r="BA291">
+        <v>1.3</v>
+      </c>
+      <c r="BB291">
+        <v>1.55</v>
+      </c>
+      <c r="BC291">
+        <v>2</v>
+      </c>
+      <c r="BD291">
+        <v>2.55</v>
+      </c>
+      <c r="BE291">
+        <v>2.8</v>
+      </c>
+      <c r="BF291">
+        <v>3</v>
+      </c>
+      <c r="BG291">
+        <v>5</v>
+      </c>
+      <c r="BH291">
+        <v>4</v>
+      </c>
+      <c r="BI291">
+        <v>6</v>
+      </c>
+      <c r="BJ291">
+        <v>7</v>
+      </c>
+      <c r="BK291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>5188764</v>
+      </c>
+      <c r="C292" t="s">
+        <v>63</v>
+      </c>
+      <c r="D292" t="s">
+        <v>64</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F292">
+        <v>27</v>
+      </c>
+      <c r="G292" t="s">
+        <v>86</v>
+      </c>
+      <c r="H292" t="s">
+        <v>71</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>5</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>6</v>
+      </c>
+      <c r="O292" t="s">
+        <v>254</v>
+      </c>
+      <c r="P292" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q292">
+        <v>10</v>
+      </c>
+      <c r="R292">
+        <v>7</v>
+      </c>
+      <c r="S292">
+        <v>17</v>
+      </c>
+      <c r="T292">
+        <v>3.11</v>
+      </c>
+      <c r="U292">
+        <v>2.29</v>
+      </c>
+      <c r="V292">
+        <v>3.44</v>
+      </c>
+      <c r="W292">
+        <v>1.36</v>
+      </c>
+      <c r="X292">
+        <v>3.18</v>
+      </c>
+      <c r="Y292">
+        <v>2.78</v>
+      </c>
+      <c r="Z292">
+        <v>1.45</v>
+      </c>
+      <c r="AA292">
+        <v>5.5</v>
+      </c>
+      <c r="AB292">
+        <v>1.11</v>
+      </c>
+      <c r="AC292">
+        <v>2.23</v>
+      </c>
+      <c r="AD292">
+        <v>3.31</v>
+      </c>
+      <c r="AE292">
+        <v>3.23</v>
+      </c>
+      <c r="AF292">
+        <v>1.02</v>
+      </c>
+      <c r="AG292">
+        <v>9.5</v>
+      </c>
+      <c r="AH292">
+        <v>1.25</v>
+      </c>
+      <c r="AI292">
+        <v>3.75</v>
+      </c>
+      <c r="AJ292">
+        <v>1.83</v>
+      </c>
+      <c r="AK292">
+        <v>1.96</v>
+      </c>
+      <c r="AL292">
+        <v>1.6</v>
+      </c>
+      <c r="AM292">
+        <v>2.25</v>
+      </c>
+      <c r="AN292">
+        <v>1.37</v>
+      </c>
+      <c r="AO292">
+        <v>1.27</v>
+      </c>
+      <c r="AP292">
+        <v>1.43</v>
+      </c>
+      <c r="AQ292">
+        <v>1.58</v>
+      </c>
+      <c r="AR292">
+        <v>1.36</v>
+      </c>
+      <c r="AS292">
+        <v>1.69</v>
+      </c>
+      <c r="AT292">
+        <v>1.27</v>
+      </c>
+      <c r="AU292">
+        <v>1.38</v>
+      </c>
+      <c r="AV292">
+        <v>1.22</v>
+      </c>
+      <c r="AW292">
+        <v>2.6</v>
+      </c>
+      <c r="AX292">
+        <v>1.51</v>
+      </c>
+      <c r="AY292">
+        <v>8.5</v>
+      </c>
+      <c r="AZ292">
+        <v>3.07</v>
+      </c>
+      <c r="BA292">
+        <v>1.25</v>
+      </c>
+      <c r="BB292">
+        <v>1.51</v>
+      </c>
+      <c r="BC292">
+        <v>1.98</v>
+      </c>
+      <c r="BD292">
+        <v>2.5</v>
+      </c>
+      <c r="BE292">
+        <v>3.1</v>
+      </c>
+      <c r="BF292">
+        <v>8</v>
+      </c>
+      <c r="BG292">
+        <v>7</v>
+      </c>
+      <c r="BH292">
+        <v>9</v>
+      </c>
+      <c r="BI292">
+        <v>7</v>
+      </c>
+      <c r="BJ292">
+        <v>17</v>
+      </c>
+      <c r="BK292">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>5188766</v>
+      </c>
+      <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D293" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F293">
+        <v>27</v>
+      </c>
+      <c r="G293" t="s">
+        <v>70</v>
+      </c>
+      <c r="H293" t="s">
+        <v>85</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>255</v>
+      </c>
+      <c r="P293" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q293">
+        <v>2</v>
+      </c>
+      <c r="R293">
+        <v>7</v>
+      </c>
+      <c r="S293">
+        <v>9</v>
+      </c>
+      <c r="T293">
+        <v>3.63</v>
+      </c>
+      <c r="U293">
+        <v>1.95</v>
+      </c>
+      <c r="V293">
+        <v>3.79</v>
+      </c>
+      <c r="W293">
+        <v>1.6</v>
+      </c>
+      <c r="X293">
+        <v>2.37</v>
+      </c>
+      <c r="Y293">
+        <v>3.4</v>
+      </c>
+      <c r="Z293">
+        <v>1.29</v>
+      </c>
+      <c r="AA293">
+        <v>13</v>
+      </c>
+      <c r="AB293">
+        <v>1.04</v>
+      </c>
+      <c r="AC293">
+        <v>2.68</v>
+      </c>
+      <c r="AD293">
+        <v>2.98</v>
+      </c>
+      <c r="AE293">
+        <v>2.99</v>
+      </c>
+      <c r="AF293">
+        <v>1.11</v>
+      </c>
+      <c r="AG293">
+        <v>6</v>
+      </c>
+      <c r="AH293">
+        <v>1.57</v>
+      </c>
+      <c r="AI293">
+        <v>2.32</v>
+      </c>
+      <c r="AJ293">
+        <v>2.5</v>
+      </c>
+      <c r="AK293">
+        <v>1.5</v>
+      </c>
+      <c r="AL293">
+        <v>2.2</v>
+      </c>
+      <c r="AM293">
+        <v>1.62</v>
+      </c>
+      <c r="AN293">
+        <v>1.43</v>
+      </c>
+      <c r="AO293">
+        <v>1.4</v>
+      </c>
+      <c r="AP293">
+        <v>1.45</v>
+      </c>
+      <c r="AQ293">
+        <v>1.15</v>
+      </c>
+      <c r="AR293">
+        <v>1.38</v>
+      </c>
+      <c r="AS293">
+        <v>1.07</v>
+      </c>
+      <c r="AT293">
+        <v>1.5</v>
+      </c>
+      <c r="AU293">
+        <v>1.24</v>
+      </c>
+      <c r="AV293">
+        <v>1.33</v>
+      </c>
+      <c r="AW293">
+        <v>2.57</v>
+      </c>
+      <c r="AX293">
+        <v>1.95</v>
+      </c>
+      <c r="AY293">
+        <v>7.5</v>
+      </c>
+      <c r="AZ293">
+        <v>2.1</v>
+      </c>
+      <c r="BA293">
+        <v>1.29</v>
+      </c>
+      <c r="BB293">
+        <v>1.6</v>
+      </c>
+      <c r="BC293">
+        <v>2</v>
+      </c>
+      <c r="BD293">
+        <v>2.65</v>
+      </c>
+      <c r="BE293">
+        <v>3.3</v>
+      </c>
+      <c r="BF293">
+        <v>2</v>
+      </c>
+      <c r="BG293">
+        <v>3</v>
+      </c>
+      <c r="BH293">
+        <v>1</v>
+      </c>
+      <c r="BI293">
+        <v>4</v>
+      </c>
+      <c r="BJ293">
+        <v>3</v>
+      </c>
+      <c r="BK293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>5188769</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45130.25</v>
+      </c>
+      <c r="F294">
+        <v>27</v>
+      </c>
+      <c r="G294" t="s">
+        <v>83</v>
+      </c>
+      <c r="H294" t="s">
+        <v>78</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294" t="s">
+        <v>89</v>
+      </c>
+      <c r="P294" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q294">
+        <v>6</v>
+      </c>
+      <c r="R294">
+        <v>1</v>
+      </c>
+      <c r="S294">
+        <v>7</v>
+      </c>
+      <c r="T294">
+        <v>2.6</v>
+      </c>
+      <c r="U294">
+        <v>2.25</v>
+      </c>
+      <c r="V294">
+        <v>4</v>
+      </c>
+      <c r="W294">
+        <v>1.33</v>
+      </c>
+      <c r="X294">
+        <v>3.25</v>
+      </c>
+      <c r="Y294">
+        <v>2.63</v>
+      </c>
+      <c r="Z294">
+        <v>1.44</v>
+      </c>
+      <c r="AA294">
+        <v>6.5</v>
+      </c>
+      <c r="AB294">
+        <v>1.11</v>
+      </c>
+      <c r="AC294">
+        <v>2.3</v>
+      </c>
+      <c r="AD294">
+        <v>3.15</v>
+      </c>
+      <c r="AE294">
+        <v>2.9</v>
+      </c>
+      <c r="AF294">
+        <v>1.04</v>
+      </c>
+      <c r="AG294">
+        <v>8.5</v>
+      </c>
+      <c r="AH294">
+        <v>1.25</v>
+      </c>
+      <c r="AI294">
+        <v>4.01</v>
+      </c>
+      <c r="AJ294">
+        <v>1.67</v>
+      </c>
+      <c r="AK294">
+        <v>2</v>
+      </c>
+      <c r="AL294">
+        <v>1.67</v>
+      </c>
+      <c r="AM294">
+        <v>2.1</v>
+      </c>
+      <c r="AN294">
+        <v>1.3</v>
+      </c>
+      <c r="AO294">
+        <v>1.3</v>
+      </c>
+      <c r="AP294">
+        <v>1.78</v>
+      </c>
+      <c r="AQ294">
+        <v>1.14</v>
+      </c>
+      <c r="AR294">
+        <v>0.08</v>
+      </c>
+      <c r="AS294">
+        <v>1.13</v>
+      </c>
+      <c r="AT294">
+        <v>0.15</v>
+      </c>
+      <c r="AU294">
+        <v>1.29</v>
+      </c>
+      <c r="AV294">
+        <v>1.31</v>
+      </c>
+      <c r="AW294">
+        <v>2.6</v>
+      </c>
+      <c r="AX294">
+        <v>1.75</v>
+      </c>
+      <c r="AY294">
+        <v>8</v>
+      </c>
+      <c r="AZ294">
+        <v>2.44</v>
+      </c>
+      <c r="BA294">
+        <v>1.35</v>
+      </c>
+      <c r="BB294">
+        <v>1.63</v>
+      </c>
+      <c r="BC294">
+        <v>2.1</v>
+      </c>
+      <c r="BD294">
+        <v>2.8</v>
+      </c>
+      <c r="BE294">
+        <v>3.35</v>
+      </c>
+      <c r="BF294">
+        <v>6</v>
+      </c>
+      <c r="BG294">
+        <v>4</v>
+      </c>
+      <c r="BH294">
+        <v>7</v>
+      </c>
+      <c r="BI294">
+        <v>1</v>
+      </c>
+      <c r="BJ294">
+        <v>13</v>
+      </c>
+      <c r="BK294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:63">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>5188770</v>
+      </c>
+      <c r="C295" t="s">
+        <v>63</v>
+      </c>
+      <c r="D295" t="s">
+        <v>64</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45130.29166666666</v>
+      </c>
+      <c r="F295">
+        <v>27</v>
+      </c>
+      <c r="G295" t="s">
+        <v>81</v>
+      </c>
+      <c r="H295" t="s">
+        <v>72</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>3</v>
+      </c>
+      <c r="K295">
+        <v>5</v>
+      </c>
+      <c r="L295">
+        <v>3</v>
+      </c>
+      <c r="M295">
+        <v>4</v>
+      </c>
+      <c r="N295">
+        <v>7</v>
+      </c>
+      <c r="O295" t="s">
+        <v>256</v>
+      </c>
+      <c r="P295" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q295">
+        <v>3</v>
+      </c>
+      <c r="R295">
+        <v>3</v>
+      </c>
+      <c r="S295">
+        <v>6</v>
+      </c>
+      <c r="T295">
+        <v>3.75</v>
+      </c>
+      <c r="U295">
+        <v>2.2</v>
+      </c>
+      <c r="V295">
+        <v>2.88</v>
+      </c>
+      <c r="W295">
+        <v>1.4</v>
+      </c>
+      <c r="X295">
+        <v>2.75</v>
+      </c>
+      <c r="Y295">
+        <v>2.75</v>
+      </c>
+      <c r="Z295">
+        <v>1.4</v>
+      </c>
+      <c r="AA295">
+        <v>8</v>
+      </c>
+      <c r="AB295">
+        <v>1.08</v>
+      </c>
+      <c r="AC295">
+        <v>2.75</v>
+      </c>
+      <c r="AD295">
+        <v>3.05</v>
+      </c>
+      <c r="AE295">
+        <v>2.44</v>
+      </c>
+      <c r="AF295">
+        <v>1.03</v>
+      </c>
+      <c r="AG295">
+        <v>8.5</v>
+      </c>
+      <c r="AH295">
+        <v>1.29</v>
+      </c>
+      <c r="AI295">
+        <v>3.3</v>
+      </c>
+      <c r="AJ295">
+        <v>1.83</v>
+      </c>
+      <c r="AK295">
+        <v>1.8</v>
+      </c>
+      <c r="AL295">
+        <v>1.73</v>
+      </c>
+      <c r="AM295">
+        <v>2</v>
+      </c>
+      <c r="AN295">
+        <v>1.68</v>
+      </c>
+      <c r="AO295">
+        <v>1.3</v>
+      </c>
+      <c r="AP295">
+        <v>1.33</v>
+      </c>
+      <c r="AQ295">
+        <v>1.25</v>
+      </c>
+      <c r="AR295">
+        <v>2.15</v>
+      </c>
+      <c r="AS295">
+        <v>1.15</v>
+      </c>
+      <c r="AT295">
+        <v>2.21</v>
+      </c>
+      <c r="AU295">
+        <v>1.47</v>
+      </c>
+      <c r="AV295">
+        <v>1.41</v>
+      </c>
+      <c r="AW295">
+        <v>2.88</v>
+      </c>
+      <c r="AX295">
+        <v>2.2</v>
+      </c>
+      <c r="AY295">
+        <v>7.5</v>
+      </c>
+      <c r="AZ295">
+        <v>1.91</v>
+      </c>
+      <c r="BA295">
+        <v>1.35</v>
+      </c>
+      <c r="BB295">
+        <v>1.56</v>
+      </c>
+      <c r="BC295">
+        <v>1.97</v>
+      </c>
+      <c r="BD295">
+        <v>2.57</v>
+      </c>
+      <c r="BE295">
+        <v>3.5</v>
+      </c>
+      <c r="BF295">
+        <v>5</v>
+      </c>
+      <c r="BG295">
+        <v>7</v>
+      </c>
+      <c r="BH295">
+        <v>8</v>
+      </c>
+      <c r="BI295">
+        <v>7</v>
+      </c>
+      <c r="BJ295">
+        <v>13</v>
+      </c>
+      <c r="BK295">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:63">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>5188771</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>64</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45130.29166666666</v>
+      </c>
+      <c r="F296">
+        <v>27</v>
+      </c>
+      <c r="G296" t="s">
+        <v>67</v>
+      </c>
+      <c r="H296" t="s">
+        <v>69</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>257</v>
+      </c>
+      <c r="P296" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q296">
+        <v>4</v>
+      </c>
+      <c r="R296">
+        <v>12</v>
+      </c>
+      <c r="S296">
+        <v>16</v>
+      </c>
+      <c r="T296">
+        <v>5.5</v>
+      </c>
+      <c r="U296">
+        <v>2.3</v>
+      </c>
+      <c r="V296">
+        <v>2.1</v>
+      </c>
+      <c r="W296">
+        <v>1.36</v>
+      </c>
+      <c r="X296">
+        <v>3</v>
+      </c>
+      <c r="Y296">
+        <v>2.63</v>
+      </c>
+      <c r="Z296">
+        <v>1.44</v>
+      </c>
+      <c r="AA296">
+        <v>7</v>
+      </c>
+      <c r="AB296">
+        <v>1.1</v>
+      </c>
+      <c r="AC296">
+        <v>4.3</v>
+      </c>
+      <c r="AD296">
+        <v>3.75</v>
+      </c>
+      <c r="AE296">
+        <v>1.68</v>
+      </c>
+      <c r="AF296">
+        <v>1.01</v>
+      </c>
+      <c r="AG296">
+        <v>11</v>
+      </c>
+      <c r="AH296">
+        <v>1.24</v>
+      </c>
+      <c r="AI296">
+        <v>3.55</v>
+      </c>
+      <c r="AJ296">
+        <v>1.73</v>
+      </c>
+      <c r="AK296">
+        <v>1.91</v>
+      </c>
+      <c r="AL296">
+        <v>1.83</v>
+      </c>
+      <c r="AM296">
+        <v>1.83</v>
+      </c>
+      <c r="AN296">
+        <v>2.39</v>
+      </c>
+      <c r="AO296">
+        <v>1.23</v>
+      </c>
+      <c r="AP296">
+        <v>1.14</v>
+      </c>
+      <c r="AQ296">
+        <v>1.77</v>
+      </c>
+      <c r="AR296">
+        <v>1.92</v>
+      </c>
+      <c r="AS296">
+        <v>1.71</v>
+      </c>
+      <c r="AT296">
+        <v>1.85</v>
+      </c>
+      <c r="AU296">
+        <v>1.07</v>
+      </c>
+      <c r="AV296">
+        <v>1.63</v>
+      </c>
+      <c r="AW296">
+        <v>2.7</v>
+      </c>
+      <c r="AX296">
+        <v>3.58</v>
+      </c>
+      <c r="AY296">
+        <v>9</v>
+      </c>
+      <c r="AZ296">
+        <v>1.41</v>
+      </c>
+      <c r="BA296">
+        <v>1.25</v>
+      </c>
+      <c r="BB296">
+        <v>1.44</v>
+      </c>
+      <c r="BC296">
+        <v>1.85</v>
+      </c>
+      <c r="BD296">
+        <v>2.27</v>
+      </c>
+      <c r="BE296">
+        <v>2.9</v>
+      </c>
+      <c r="BF296">
+        <v>6</v>
+      </c>
+      <c r="BG296">
+        <v>2</v>
+      </c>
+      <c r="BH296">
+        <v>3</v>
+      </c>
+      <c r="BI296">
+        <v>5</v>
+      </c>
+      <c r="BJ296">
+        <v>9</v>
+      </c>
+      <c r="BK296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>5188772</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45131.29166666666</v>
+      </c>
+      <c r="F297">
+        <v>27</v>
+      </c>
+      <c r="G297" t="s">
+        <v>80</v>
+      </c>
+      <c r="H297" t="s">
+        <v>79</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>162</v>
+      </c>
+      <c r="P297" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q297">
+        <v>4</v>
+      </c>
+      <c r="R297">
+        <v>4</v>
+      </c>
+      <c r="S297">
+        <v>8</v>
+      </c>
+      <c r="T297">
+        <v>3.1</v>
+      </c>
+      <c r="U297">
+        <v>2.05</v>
+      </c>
+      <c r="V297">
+        <v>3.6</v>
+      </c>
+      <c r="W297">
+        <v>1.44</v>
+      </c>
+      <c r="X297">
+        <v>2.63</v>
+      </c>
+      <c r="Y297">
+        <v>3.25</v>
+      </c>
+      <c r="Z297">
+        <v>1.33</v>
+      </c>
+      <c r="AA297">
+        <v>9</v>
+      </c>
+      <c r="AB297">
+        <v>1.07</v>
+      </c>
+      <c r="AC297">
+        <v>2.45</v>
+      </c>
+      <c r="AD297">
+        <v>3.05</v>
+      </c>
+      <c r="AE297">
+        <v>2.75</v>
+      </c>
+      <c r="AF297">
+        <v>1.06</v>
+      </c>
+      <c r="AG297">
+        <v>7</v>
+      </c>
+      <c r="AH297">
+        <v>1.32</v>
+      </c>
+      <c r="AI297">
+        <v>3.1</v>
+      </c>
+      <c r="AJ297">
+        <v>2.08</v>
+      </c>
+      <c r="AK297">
+        <v>1.7</v>
+      </c>
+      <c r="AL297">
+        <v>1.83</v>
+      </c>
+      <c r="AM297">
+        <v>1.83</v>
+      </c>
+      <c r="AN297">
+        <v>1.39</v>
+      </c>
+      <c r="AO297">
+        <v>1.33</v>
+      </c>
+      <c r="AP297">
+        <v>1.58</v>
+      </c>
+      <c r="AQ297">
+        <v>1</v>
+      </c>
+      <c r="AR297">
+        <v>1.17</v>
+      </c>
+      <c r="AS297">
+        <v>0.93</v>
+      </c>
+      <c r="AT297">
+        <v>1.31</v>
+      </c>
+      <c r="AU297">
+        <v>1.52</v>
+      </c>
+      <c r="AV297">
+        <v>1.31</v>
+      </c>
+      <c r="AW297">
+        <v>2.83</v>
+      </c>
+      <c r="AX297">
+        <v>1.63</v>
+      </c>
+      <c r="AY297">
+        <v>8.9</v>
+      </c>
+      <c r="AZ297">
+        <v>2.72</v>
+      </c>
+      <c r="BA297">
+        <v>1.39</v>
+      </c>
+      <c r="BB297">
+        <v>1.61</v>
+      </c>
+      <c r="BC297">
+        <v>1.96</v>
+      </c>
+      <c r="BD297">
+        <v>2.45</v>
+      </c>
+      <c r="BE297">
+        <v>3.8</v>
+      </c>
+      <c r="BF297">
+        <v>3</v>
+      </c>
+      <c r="BG297">
+        <v>5</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>0</v>
+      </c>
+      <c r="BJ297">
+        <v>3</v>
+      </c>
+      <c r="BK297">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,21 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['32', '68']</t>
+  </si>
+  <si>
+    <t>['38', '62', '90+2']</t>
+  </si>
+  <si>
+    <t>['23', '33', '45+1', '81']</t>
+  </si>
+  <si>
+    <t>['1', '5', '68', '82']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -1000,9 +1015,6 @@
     <t>['76']</t>
   </si>
   <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -1130,6 +1142,9 @@
   </si>
   <si>
     <t>['25', '90+1']</t>
+  </si>
+  <si>
+    <t>['35', '37']</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK297"/>
+  <dimension ref="A1:BK308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1750,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1825,7 +1840,7 @@
         <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1926,7 +1941,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2013,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT3">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2395,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT5">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2499,7 +2514,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2589,7 +2604,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2780,7 +2795,7 @@
         <v>1.07</v>
       </c>
       <c r="AT7">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.93</v>
@@ -3159,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT9">
         <v>0.53</v>
@@ -3350,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT10">
         <v>1.21</v>
@@ -3454,7 +3469,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3732,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3836,7 +3851,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3926,7 +3941,7 @@
         <v>1.86</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13">
         <v>1.28</v>
@@ -4027,7 +4042,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4114,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT14">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -5069,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -5260,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT20">
         <v>2.21</v>
@@ -5454,7 +5469,7 @@
         <v>1.07</v>
       </c>
       <c r="AT21">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5642,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT22">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU22">
         <v>1.87</v>
@@ -5746,7 +5761,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6027,7 +6042,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -6597,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1.4</v>
@@ -6788,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>1.24</v>
@@ -6982,7 +6997,7 @@
         <v>0.93</v>
       </c>
       <c r="AT29">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU29">
         <v>1.32</v>
@@ -7170,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7274,7 +7289,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7361,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
         <v>2</v>
@@ -7465,7 +7480,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7552,10 +7567,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT32">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -7743,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT33">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU33">
         <v>1.69</v>
@@ -7847,7 +7862,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7937,7 +7952,7 @@
         <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -8038,7 +8053,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8128,7 +8143,7 @@
         <v>1.86</v>
       </c>
       <c r="AT35">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU35">
         <v>1.23</v>
@@ -8319,7 +8334,7 @@
         <v>1.21</v>
       </c>
       <c r="AT36">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU36">
         <v>2.03</v>
@@ -8420,7 +8435,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8510,7 +8525,7 @@
         <v>1.07</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8611,7 +8626,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8802,7 +8817,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8889,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT39">
         <v>1.07</v>
@@ -9080,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT40">
         <v>0.93</v>
@@ -9271,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT41">
         <v>1.27</v>
@@ -9462,10 +9477,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT42">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU42">
         <v>1.7</v>
@@ -9653,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT43">
         <v>1.46</v>
@@ -10038,7 +10053,7 @@
         <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU45">
         <v>0.84</v>
@@ -10139,7 +10154,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10330,7 +10345,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10417,10 +10432,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT47">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU47">
         <v>1</v>
@@ -10521,7 +10536,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10799,10 +10814,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49">
         <v>1.78</v>
@@ -10990,10 +11005,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT50">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -11094,7 +11109,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11285,7 +11300,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11372,10 +11387,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT52">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU52">
         <v>1.6</v>
@@ -11476,7 +11491,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11667,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11757,7 +11772,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11858,7 +11873,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12136,7 +12151,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT56">
         <v>0.93</v>
@@ -12240,7 +12255,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12327,10 +12342,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU57">
         <v>1.08</v>
@@ -12709,10 +12724,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT59">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU59">
         <v>2.11</v>
@@ -13004,7 +13019,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13091,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT61">
         <v>0.53</v>
@@ -13282,10 +13297,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.34</v>
@@ -13473,7 +13488,7 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT63">
         <v>2</v>
@@ -13577,7 +13592,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13667,7 +13682,7 @@
         <v>1.07</v>
       </c>
       <c r="AT64">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.45</v>
@@ -13768,7 +13783,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13858,7 +13873,7 @@
         <v>1.13</v>
       </c>
       <c r="AT65">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13959,7 +13974,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14046,10 +14061,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT66">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU66">
         <v>1.92</v>
@@ -14619,7 +14634,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT69">
         <v>1.27</v>
@@ -14810,10 +14825,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT70">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU70">
         <v>1.27</v>
@@ -14914,7 +14929,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15001,10 +15016,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT71">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15192,10 +15207,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15296,7 +15311,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15386,7 +15401,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU73">
         <v>1.44</v>
@@ -15577,7 +15592,7 @@
         <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU74">
         <v>0.52</v>
@@ -15678,7 +15693,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15765,10 +15780,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT75">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU75">
         <v>1.36</v>
@@ -15956,10 +15971,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT76">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -16147,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT77">
         <v>0.93</v>
@@ -16442,7 +16457,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16633,7 +16648,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16720,7 +16735,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT80">
         <v>1.46</v>
@@ -17105,7 +17120,7 @@
         <v>1.21</v>
       </c>
       <c r="AT82">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU82">
         <v>1.57</v>
@@ -17206,7 +17221,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17293,10 +17308,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>2.13</v>
@@ -17484,7 +17499,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT84">
         <v>1.5</v>
@@ -17588,7 +17603,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>14</v>
@@ -17675,7 +17690,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
         <v>2.21</v>
@@ -17779,7 +17794,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17869,7 +17884,7 @@
         <v>1.14</v>
       </c>
       <c r="AT86">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU86">
         <v>1.59</v>
@@ -18161,7 +18176,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18251,7 +18266,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU88">
         <v>1.38</v>
@@ -18630,10 +18645,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT90">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.55</v>
@@ -18821,10 +18836,10 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU91">
         <v>1.31</v>
@@ -18925,7 +18940,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19015,7 +19030,7 @@
         <v>1.07</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU92">
         <v>1.26</v>
@@ -19116,7 +19131,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19588,7 +19603,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19776,7 +19791,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT96">
         <v>1.07</v>
@@ -19967,7 +19982,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT97">
         <v>1.5</v>
@@ -20071,7 +20086,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20161,7 +20176,7 @@
         <v>1.21</v>
       </c>
       <c r="AT98">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU98">
         <v>1.6</v>
@@ -20349,10 +20364,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU99">
         <v>1.17</v>
@@ -20540,7 +20555,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT100">
         <v>1.21</v>
@@ -20922,7 +20937,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT102">
         <v>1.46</v>
@@ -21026,7 +21041,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21217,7 +21232,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21495,7 +21510,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT105">
         <v>2.21</v>
@@ -21599,7 +21614,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21686,10 +21701,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU106">
         <v>1.5</v>
@@ -21790,7 +21805,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22068,10 +22083,10 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT108">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU108">
         <v>1.23</v>
@@ -22259,10 +22274,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT109">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22363,7 +22378,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22453,7 +22468,7 @@
         <v>1.13</v>
       </c>
       <c r="AT110">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU110">
         <v>1.32</v>
@@ -22644,7 +22659,7 @@
         <v>1.71</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU111">
         <v>1.51</v>
@@ -22745,7 +22760,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22936,7 +22951,7 @@
         <v>157</v>
       </c>
       <c r="P113" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -23026,7 +23041,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU113">
         <v>1.53</v>
@@ -23127,7 +23142,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23509,7 +23524,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23596,7 +23611,7 @@
         <v>1.83</v>
       </c>
       <c r="AS116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.5</v>
@@ -23700,7 +23715,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23787,10 +23802,10 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT117">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU117">
         <v>1.32</v>
@@ -23978,7 +23993,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
         <v>1.07</v>
@@ -24172,7 +24187,7 @@
         <v>1.71</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU119">
         <v>0.99</v>
@@ -24273,7 +24288,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24360,10 +24375,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT120">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24464,7 +24479,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24742,10 +24757,10 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT122">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU122">
         <v>1.54</v>
@@ -24933,7 +24948,7 @@
         <v>0.2</v>
       </c>
       <c r="AS123">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT123">
         <v>0.5</v>
@@ -25037,7 +25052,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25124,10 +25139,10 @@
         <v>1.2</v>
       </c>
       <c r="AS124">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT124">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25318,7 +25333,7 @@
         <v>1.71</v>
       </c>
       <c r="AT125">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25419,7 +25434,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25509,7 +25524,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU126">
         <v>1.61</v>
@@ -25610,7 +25625,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25700,7 +25715,7 @@
         <v>1.69</v>
       </c>
       <c r="AT127">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU127">
         <v>1.15</v>
@@ -25888,10 +25903,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT128">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU128">
         <v>1.22</v>
@@ -26079,7 +26094,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT129">
         <v>1.46</v>
@@ -26270,7 +26285,7 @@
         <v>1.67</v>
       </c>
       <c r="AS130">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT130">
         <v>1.27</v>
@@ -26461,10 +26476,10 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT131">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU131">
         <v>1.9</v>
@@ -26565,7 +26580,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26843,10 +26858,10 @@
         <v>1.8</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT133">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -27037,7 +27052,7 @@
         <v>0.93</v>
       </c>
       <c r="AT134">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU134">
         <v>1.6</v>
@@ -27610,7 +27625,7 @@
         <v>1.5</v>
       </c>
       <c r="AT137">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU137">
         <v>1.48</v>
@@ -27711,7 +27726,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27798,7 +27813,7 @@
         <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT138">
         <v>1.5</v>
@@ -28371,10 +28386,10 @@
         <v>1.83</v>
       </c>
       <c r="AS141">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU141">
         <v>1.31</v>
@@ -28475,7 +28490,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28753,7 +28768,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT143">
         <v>0.53</v>
@@ -28944,10 +28959,10 @@
         <v>1.4</v>
       </c>
       <c r="AS144">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT144">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -29138,7 +29153,7 @@
         <v>0.93</v>
       </c>
       <c r="AT145">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU145">
         <v>1.66</v>
@@ -29239,7 +29254,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29326,7 +29341,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT146">
         <v>0.5</v>
@@ -29430,7 +29445,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29520,7 +29535,7 @@
         <v>1.69</v>
       </c>
       <c r="AT147">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.13</v>
@@ -29711,7 +29726,7 @@
         <v>1.71</v>
       </c>
       <c r="AT148">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU148">
         <v>1.11</v>
@@ -29812,7 +29827,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29902,7 +29917,7 @@
         <v>1.21</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149">
         <v>1.52</v>
@@ -30090,10 +30105,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT150">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU150">
         <v>1.41</v>
@@ -30281,7 +30296,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT151">
         <v>1.07</v>
@@ -30385,7 +30400,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30472,7 +30487,7 @@
         <v>1.5</v>
       </c>
       <c r="AS152">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>2.21</v>
@@ -30576,7 +30591,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30663,7 +30678,7 @@
         <v>0.86</v>
       </c>
       <c r="AS153">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT153">
         <v>0.53</v>
@@ -31045,10 +31060,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT155">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU155">
         <v>1.89</v>
@@ -31149,7 +31164,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31239,7 +31254,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU156">
         <v>1.46</v>
@@ -31340,7 +31355,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31430,7 +31445,7 @@
         <v>1.07</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU157">
         <v>1.27</v>
@@ -31531,7 +31546,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31621,7 +31636,7 @@
         <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU158">
         <v>1.7</v>
@@ -31809,10 +31824,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT159">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU159">
         <v>1.99</v>
@@ -32000,10 +32015,10 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT160">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU160">
         <v>1.49</v>
@@ -32382,7 +32397,7 @@
         <v>1.86</v>
       </c>
       <c r="AS162">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT162">
         <v>1.27</v>
@@ -32573,7 +32588,7 @@
         <v>2.17</v>
       </c>
       <c r="AS163">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT163">
         <v>2</v>
@@ -32764,10 +32779,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT164">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU164">
         <v>1.44</v>
@@ -32868,7 +32883,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33146,7 +33161,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT166">
         <v>1.5</v>
@@ -33531,7 +33546,7 @@
         <v>1.14</v>
       </c>
       <c r="AT168">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU168">
         <v>1.54</v>
@@ -33910,10 +33925,10 @@
         <v>1.57</v>
       </c>
       <c r="AS170">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU170">
         <v>1.37</v>
@@ -34101,10 +34116,10 @@
         <v>1.14</v>
       </c>
       <c r="AS171">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT171">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU171">
         <v>1.49</v>
@@ -34396,7 +34411,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34486,7 +34501,7 @@
         <v>1.71</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU173">
         <v>1.04</v>
@@ -34674,10 +34689,10 @@
         <v>1.17</v>
       </c>
       <c r="AS174">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT174">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU174">
         <v>1.22</v>
@@ -34778,7 +34793,7 @@
         <v>196</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34865,10 +34880,10 @@
         <v>0.14</v>
       </c>
       <c r="AS175">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT175">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU175">
         <v>1.61</v>
@@ -35056,7 +35071,7 @@
         <v>1.43</v>
       </c>
       <c r="AS176">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT176">
         <v>1.4</v>
@@ -35160,7 +35175,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35247,7 +35262,7 @@
         <v>1.71</v>
       </c>
       <c r="AS177">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
         <v>2.21</v>
@@ -35542,7 +35557,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35820,7 +35835,7 @@
         <v>0.25</v>
       </c>
       <c r="AS180">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT180">
         <v>0.5</v>
@@ -35924,7 +35939,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36011,7 +36026,7 @@
         <v>1.25</v>
       </c>
       <c r="AS181">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT181">
         <v>1.4</v>
@@ -36202,10 +36217,10 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT182">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU182">
         <v>1.43</v>
@@ -36396,7 +36411,7 @@
         <v>1.14</v>
       </c>
       <c r="AT183">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU183">
         <v>1.44</v>
@@ -36497,7 +36512,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36775,7 +36790,7 @@
         <v>1.63</v>
       </c>
       <c r="AS185">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT185">
         <v>1.27</v>
@@ -36879,7 +36894,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36969,7 +36984,7 @@
         <v>1.13</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU186">
         <v>1.32</v>
@@ -37261,7 +37276,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37351,7 +37366,7 @@
         <v>1.5</v>
       </c>
       <c r="AT188">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU188">
         <v>1.43</v>
@@ -37452,7 +37467,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37539,10 +37554,10 @@
         <v>1.75</v>
       </c>
       <c r="AS189">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT189">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU189">
         <v>1.38</v>
@@ -37643,7 +37658,7 @@
         <v>204</v>
       </c>
       <c r="P190" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37733,7 +37748,7 @@
         <v>1.86</v>
       </c>
       <c r="AT190">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU190">
         <v>1.29</v>
@@ -37921,7 +37936,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT191">
         <v>0.93</v>
@@ -38112,7 +38127,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT192">
         <v>1.46</v>
@@ -38303,10 +38318,10 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT193">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU193">
         <v>1.28</v>
@@ -38497,7 +38512,7 @@
         <v>1.71</v>
       </c>
       <c r="AT194">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU194">
         <v>1.08</v>
@@ -38685,7 +38700,7 @@
         <v>0.75</v>
       </c>
       <c r="AS195">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT195">
         <v>1.07</v>
@@ -38876,7 +38891,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT196">
         <v>0.53</v>
@@ -38980,7 +38995,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39171,7 +39186,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39261,7 +39276,7 @@
         <v>0.93</v>
       </c>
       <c r="AT198">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU198">
         <v>1.62</v>
@@ -39452,7 +39467,7 @@
         <v>1.13</v>
       </c>
       <c r="AT199">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU199">
         <v>1.29</v>
@@ -39553,7 +39568,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39640,10 +39655,10 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU200">
         <v>1.61</v>
@@ -39744,7 +39759,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39935,7 +39950,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40022,10 +40037,10 @@
         <v>1.11</v>
       </c>
       <c r="AS202">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT202">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU202">
         <v>1.43</v>
@@ -40317,7 +40332,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40407,7 +40422,7 @@
         <v>1.21</v>
       </c>
       <c r="AT204">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU204">
         <v>1.44</v>
@@ -40890,7 +40905,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -40977,7 +40992,7 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT207">
         <v>2</v>
@@ -41171,7 +41186,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU208">
         <v>1.47</v>
@@ -41272,7 +41287,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41359,7 +41374,7 @@
         <v>1.44</v>
       </c>
       <c r="AS209">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT209">
         <v>1.21</v>
@@ -41463,7 +41478,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41550,10 +41565,10 @@
         <v>1.63</v>
       </c>
       <c r="AS210">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT210">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU210">
         <v>1.48</v>
@@ -41654,7 +41669,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41741,10 +41756,10 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT211">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU211">
         <v>1.47</v>
@@ -41932,7 +41947,7 @@
         <v>0.6</v>
       </c>
       <c r="AS212">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT212">
         <v>0.53</v>
@@ -42314,7 +42329,7 @@
         <v>1.5</v>
       </c>
       <c r="AS214">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT214">
         <v>1.27</v>
@@ -42418,7 +42433,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42699,7 +42714,7 @@
         <v>1.86</v>
       </c>
       <c r="AT216">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU216">
         <v>1.32</v>
@@ -42991,7 +43006,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43081,7 +43096,7 @@
         <v>1.21</v>
       </c>
       <c r="AT218">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU218">
         <v>1.45</v>
@@ -43373,7 +43388,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43755,7 +43770,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43845,7 +43860,7 @@
         <v>1.14</v>
       </c>
       <c r="AT222">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU222">
         <v>1.5</v>
@@ -44033,10 +44048,10 @@
         <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU223">
         <v>1.4</v>
@@ -44227,7 +44242,7 @@
         <v>1.07</v>
       </c>
       <c r="AT224">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU224">
         <v>1.15</v>
@@ -44415,10 +44430,10 @@
         <v>0.11</v>
       </c>
       <c r="AS225">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT225">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU225">
         <v>1.37</v>
@@ -44606,10 +44621,10 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT226">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -44988,7 +45003,7 @@
         <v>0.8</v>
       </c>
       <c r="AS228">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT228">
         <v>0.93</v>
@@ -45179,7 +45194,7 @@
         <v>2.11</v>
       </c>
       <c r="AS229">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT229">
         <v>2</v>
@@ -45283,7 +45298,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45370,10 +45385,10 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT230">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU230">
         <v>1.36</v>
@@ -45474,7 +45489,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45561,10 +45576,10 @@
         <v>1.4</v>
       </c>
       <c r="AS231">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT231">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU231">
         <v>1.31</v>
@@ -45755,7 +45770,7 @@
         <v>1.86</v>
       </c>
       <c r="AT232">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU232">
         <v>1.35</v>
@@ -45856,7 +45871,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46325,10 +46340,10 @@
         <v>1.1</v>
       </c>
       <c r="AS235">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT235">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU235">
         <v>1.25</v>
@@ -46429,7 +46444,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46620,7 +46635,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46707,7 +46722,7 @@
         <v>1.4</v>
       </c>
       <c r="AS237">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT237">
         <v>1.46</v>
@@ -46898,7 +46913,7 @@
         <v>0.64</v>
       </c>
       <c r="AS238">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT238">
         <v>0.53</v>
@@ -47089,10 +47104,10 @@
         <v>1.1</v>
       </c>
       <c r="AS239">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU239">
         <v>1.45</v>
@@ -47193,7 +47208,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47283,7 +47298,7 @@
         <v>0.93</v>
       </c>
       <c r="AT240">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47384,7 +47399,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47575,7 +47590,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47662,7 +47677,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT242">
         <v>1.5</v>
@@ -47766,7 +47781,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47856,7 +47871,7 @@
         <v>1.71</v>
       </c>
       <c r="AT243">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -47957,7 +47972,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48044,10 +48059,10 @@
         <v>0.1</v>
       </c>
       <c r="AS244">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT244">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48148,7 +48163,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48235,7 +48250,7 @@
         <v>1.36</v>
       </c>
       <c r="AS245">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT245">
         <v>1.27</v>
@@ -48429,7 +48444,7 @@
         <v>1.07</v>
       </c>
       <c r="AT246">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU246">
         <v>1.16</v>
@@ -48620,7 +48635,7 @@
         <v>1.5</v>
       </c>
       <c r="AT247">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU247">
         <v>1.49</v>
@@ -48811,7 +48826,7 @@
         <v>1.14</v>
       </c>
       <c r="AT248">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU248">
         <v>1.49</v>
@@ -48999,7 +49014,7 @@
         <v>0.27</v>
       </c>
       <c r="AS249">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT249">
         <v>0.5</v>
@@ -49190,10 +49205,10 @@
         <v>1.4</v>
       </c>
       <c r="AS250">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT250">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU250">
         <v>1.59</v>
@@ -49294,7 +49309,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49676,7 +49691,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49763,7 +49778,7 @@
         <v>0.91</v>
       </c>
       <c r="AS253">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT253">
         <v>1.07</v>
@@ -50249,7 +50264,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50336,7 +50351,7 @@
         <v>1.91</v>
       </c>
       <c r="AS256">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT256">
         <v>2</v>
@@ -50530,7 +50545,7 @@
         <v>1.07</v>
       </c>
       <c r="AT257">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU257">
         <v>1.28</v>
@@ -50822,7 +50837,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -50909,7 +50924,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT259">
         <v>1.27</v>
@@ -51013,7 +51028,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51103,7 +51118,7 @@
         <v>1.5</v>
       </c>
       <c r="AT260">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU260">
         <v>1.44</v>
@@ -51294,7 +51309,7 @@
         <v>1.71</v>
       </c>
       <c r="AT261">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU261">
         <v>1.02</v>
@@ -51395,7 +51410,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51485,7 +51500,7 @@
         <v>1.13</v>
       </c>
       <c r="AT262">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU262">
         <v>1.29</v>
@@ -51864,7 +51879,7 @@
         <v>0.5</v>
       </c>
       <c r="AS264">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT264">
         <v>0.5</v>
@@ -51968,7 +51983,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52055,7 +52070,7 @@
         <v>1.17</v>
       </c>
       <c r="AS265">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT265">
         <v>1.4</v>
@@ -52159,7 +52174,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52246,10 +52261,10 @@
         <v>1.55</v>
       </c>
       <c r="AS266">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT266">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU266">
         <v>1.27</v>
@@ -52350,7 +52365,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52437,10 +52452,10 @@
         <v>1.27</v>
       </c>
       <c r="AS267">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT267">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU267">
         <v>1.49</v>
@@ -52541,7 +52556,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52628,7 +52643,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT268">
         <v>1.21</v>
@@ -52732,7 +52747,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52819,7 +52834,7 @@
         <v>2.25</v>
       </c>
       <c r="AS269">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT269">
         <v>2.21</v>
@@ -52923,7 +52938,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53013,7 +53028,7 @@
         <v>1.14</v>
       </c>
       <c r="AT270">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU270">
         <v>1.47</v>
@@ -53114,7 +53129,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53201,10 +53216,10 @@
         <v>1.08</v>
       </c>
       <c r="AS271">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU271">
         <v>1.4</v>
@@ -53395,7 +53410,7 @@
         <v>1.07</v>
       </c>
       <c r="AT272">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU272">
         <v>1.16</v>
@@ -53583,7 +53598,7 @@
         <v>0.54</v>
       </c>
       <c r="AS273">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT273">
         <v>0.53</v>
@@ -53687,7 +53702,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53774,7 +53789,7 @@
         <v>1.31</v>
       </c>
       <c r="AS274">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT274">
         <v>1.4</v>
@@ -53878,7 +53893,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -53968,7 +53983,7 @@
         <v>1.69</v>
       </c>
       <c r="AT275">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU275">
         <v>1.37</v>
@@ -54159,7 +54174,7 @@
         <v>1.71</v>
       </c>
       <c r="AT276">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU276">
         <v>1.04</v>
@@ -54347,10 +54362,10 @@
         <v>1</v>
       </c>
       <c r="AS277">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT277">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU277">
         <v>1.43</v>
@@ -54642,7 +54657,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54833,7 +54848,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -54923,7 +54938,7 @@
         <v>1.86</v>
       </c>
       <c r="AT280">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU280">
         <v>1.35</v>
@@ -55024,7 +55039,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55111,7 +55126,7 @@
         <v>0.75</v>
       </c>
       <c r="AS281">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT281">
         <v>0.93</v>
@@ -55215,7 +55230,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55305,7 +55320,7 @@
         <v>1.13</v>
       </c>
       <c r="AT282">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU282">
         <v>1.29</v>
@@ -55406,7 +55421,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55875,7 +55890,7 @@
         <v>1.31</v>
       </c>
       <c r="AS285">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT285">
         <v>1.21</v>
@@ -55979,7 +55994,7 @@
         <v>250</v>
       </c>
       <c r="P286" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q286">
         <v>3</v>
@@ -56069,7 +56084,7 @@
         <v>1.71</v>
       </c>
       <c r="AT286">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU286">
         <v>1.7</v>
@@ -56170,7 +56185,7 @@
         <v>251</v>
       </c>
       <c r="P287" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56257,7 +56272,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT287">
         <v>1.4</v>
@@ -56361,7 +56376,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56448,7 +56463,7 @@
         <v>0.77</v>
       </c>
       <c r="AS288">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT288">
         <v>0.93</v>
@@ -56552,7 +56567,7 @@
         <v>252</v>
       </c>
       <c r="P289" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q289">
         <v>2</v>
@@ -56639,7 +56654,7 @@
         <v>0.92</v>
       </c>
       <c r="AS289">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT289">
         <v>1.07</v>
@@ -56833,7 +56848,7 @@
         <v>1.07</v>
       </c>
       <c r="AT290">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU290">
         <v>1.13</v>
@@ -56934,7 +56949,7 @@
         <v>117</v>
       </c>
       <c r="P291" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q291">
         <v>5</v>
@@ -57316,7 +57331,7 @@
         <v>255</v>
       </c>
       <c r="P293" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57597,7 +57612,7 @@
         <v>1.13</v>
       </c>
       <c r="AT294">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AU294">
         <v>1.29</v>
@@ -57698,7 +57713,7 @@
         <v>256</v>
       </c>
       <c r="P295" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57785,7 +57800,7 @@
         <v>2.15</v>
       </c>
       <c r="AS295">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT295">
         <v>2.21</v>
@@ -57889,7 +57904,7 @@
         <v>257</v>
       </c>
       <c r="P296" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -57979,7 +57994,7 @@
         <v>1.71</v>
       </c>
       <c r="AT296">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU296">
         <v>1.07</v>
@@ -58080,7 +58095,7 @@
         <v>162</v>
       </c>
       <c r="P297" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58170,7 +58185,7 @@
         <v>0.93</v>
       </c>
       <c r="AT297">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU297">
         <v>1.52</v>
@@ -58222,6 +58237,2107 @@
       </c>
       <c r="BK297">
         <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>5188778</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F298">
+        <v>28</v>
+      </c>
+      <c r="G298" t="s">
+        <v>68</v>
+      </c>
+      <c r="H298" t="s">
+        <v>79</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>258</v>
+      </c>
+      <c r="P298" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q298">
+        <v>4</v>
+      </c>
+      <c r="R298">
+        <v>1</v>
+      </c>
+      <c r="S298">
+        <v>5</v>
+      </c>
+      <c r="T298">
+        <v>2.15</v>
+      </c>
+      <c r="U298">
+        <v>2.2</v>
+      </c>
+      <c r="V298">
+        <v>5</v>
+      </c>
+      <c r="W298">
+        <v>1.4</v>
+      </c>
+      <c r="X298">
+        <v>2.75</v>
+      </c>
+      <c r="Y298">
+        <v>2.65</v>
+      </c>
+      <c r="Z298">
+        <v>1.43</v>
+      </c>
+      <c r="AA298">
+        <v>6.5</v>
+      </c>
+      <c r="AB298">
+        <v>1.1</v>
+      </c>
+      <c r="AC298">
+        <v>1.78</v>
+      </c>
+      <c r="AD298">
+        <v>3.65</v>
+      </c>
+      <c r="AE298">
+        <v>4.58</v>
+      </c>
+      <c r="AF298">
+        <v>1.05</v>
+      </c>
+      <c r="AG298">
+        <v>9</v>
+      </c>
+      <c r="AH298">
+        <v>1.25</v>
+      </c>
+      <c r="AI298">
+        <v>3.6</v>
+      </c>
+      <c r="AJ298">
+        <v>1.95</v>
+      </c>
+      <c r="AK298">
+        <v>1.75</v>
+      </c>
+      <c r="AL298">
+        <v>1.83</v>
+      </c>
+      <c r="AM298">
+        <v>1.9</v>
+      </c>
+      <c r="AN298">
+        <v>1.12</v>
+      </c>
+      <c r="AO298">
+        <v>1.2</v>
+      </c>
+      <c r="AP298">
+        <v>2.1</v>
+      </c>
+      <c r="AQ298">
+        <v>1.83</v>
+      </c>
+      <c r="AR298">
+        <v>1.31</v>
+      </c>
+      <c r="AS298">
+        <v>1.92</v>
+      </c>
+      <c r="AT298">
+        <v>1.21</v>
+      </c>
+      <c r="AU298">
+        <v>2.05</v>
+      </c>
+      <c r="AV298">
+        <v>1.28</v>
+      </c>
+      <c r="AW298">
+        <v>3.33</v>
+      </c>
+      <c r="AX298">
+        <v>1.25</v>
+      </c>
+      <c r="AY298">
+        <v>7.25</v>
+      </c>
+      <c r="AZ298">
+        <v>4.65</v>
+      </c>
+      <c r="BA298">
+        <v>1.25</v>
+      </c>
+      <c r="BB298">
+        <v>1.42</v>
+      </c>
+      <c r="BC298">
+        <v>1.78</v>
+      </c>
+      <c r="BD298">
+        <v>2.18</v>
+      </c>
+      <c r="BE298">
+        <v>3</v>
+      </c>
+      <c r="BF298">
+        <v>5</v>
+      </c>
+      <c r="BG298">
+        <v>4</v>
+      </c>
+      <c r="BH298">
+        <v>4</v>
+      </c>
+      <c r="BI298">
+        <v>3</v>
+      </c>
+      <c r="BJ298">
+        <v>9</v>
+      </c>
+      <c r="BK298">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>5188776</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F299">
+        <v>28</v>
+      </c>
+      <c r="G299" t="s">
+        <v>72</v>
+      </c>
+      <c r="H299" t="s">
+        <v>83</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299" t="s">
+        <v>89</v>
+      </c>
+      <c r="P299" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q299">
+        <v>2</v>
+      </c>
+      <c r="R299">
+        <v>1</v>
+      </c>
+      <c r="S299">
+        <v>3</v>
+      </c>
+      <c r="T299">
+        <v>2.4</v>
+      </c>
+      <c r="U299">
+        <v>2.1</v>
+      </c>
+      <c r="V299">
+        <v>4.33</v>
+      </c>
+      <c r="W299">
+        <v>1.4</v>
+      </c>
+      <c r="X299">
+        <v>2.75</v>
+      </c>
+      <c r="Y299">
+        <v>2.75</v>
+      </c>
+      <c r="Z299">
+        <v>1.4</v>
+      </c>
+      <c r="AA299">
+        <v>7</v>
+      </c>
+      <c r="AB299">
+        <v>1.08</v>
+      </c>
+      <c r="AC299">
+        <v>1.73</v>
+      </c>
+      <c r="AD299">
+        <v>3.78</v>
+      </c>
+      <c r="AE299">
+        <v>4.72</v>
+      </c>
+      <c r="AF299">
+        <v>1.06</v>
+      </c>
+      <c r="AG299">
+        <v>8</v>
+      </c>
+      <c r="AH299">
+        <v>1.33</v>
+      </c>
+      <c r="AI299">
+        <v>3.1</v>
+      </c>
+      <c r="AJ299">
+        <v>1.95</v>
+      </c>
+      <c r="AK299">
+        <v>1.75</v>
+      </c>
+      <c r="AL299">
+        <v>1.87</v>
+      </c>
+      <c r="AM299">
+        <v>1.87</v>
+      </c>
+      <c r="AN299">
+        <v>1.17</v>
+      </c>
+      <c r="AO299">
+        <v>1.22</v>
+      </c>
+      <c r="AP299">
+        <v>1.95</v>
+      </c>
+      <c r="AQ299">
+        <v>1.31</v>
+      </c>
+      <c r="AR299">
+        <v>1.17</v>
+      </c>
+      <c r="AS299">
+        <v>1.29</v>
+      </c>
+      <c r="AT299">
+        <v>1.15</v>
+      </c>
+      <c r="AU299">
+        <v>1.39</v>
+      </c>
+      <c r="AV299">
+        <v>1.26</v>
+      </c>
+      <c r="AW299">
+        <v>2.65</v>
+      </c>
+      <c r="AX299">
+        <v>1.38</v>
+      </c>
+      <c r="AY299">
+        <v>6.25</v>
+      </c>
+      <c r="AZ299">
+        <v>3.55</v>
+      </c>
+      <c r="BA299">
+        <v>1.3</v>
+      </c>
+      <c r="BB299">
+        <v>1.59</v>
+      </c>
+      <c r="BC299">
+        <v>2</v>
+      </c>
+      <c r="BD299">
+        <v>2.7</v>
+      </c>
+      <c r="BE299">
+        <v>3.5</v>
+      </c>
+      <c r="BF299">
+        <v>2</v>
+      </c>
+      <c r="BG299">
+        <v>2</v>
+      </c>
+      <c r="BH299">
+        <v>4</v>
+      </c>
+      <c r="BI299">
+        <v>3</v>
+      </c>
+      <c r="BJ299">
+        <v>6</v>
+      </c>
+      <c r="BK299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>5188777</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F300">
+        <v>28</v>
+      </c>
+      <c r="G300" t="s">
+        <v>73</v>
+      </c>
+      <c r="H300" t="s">
+        <v>74</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300" t="s">
+        <v>259</v>
+      </c>
+      <c r="P300" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q300">
+        <v>6</v>
+      </c>
+      <c r="R300">
+        <v>2</v>
+      </c>
+      <c r="S300">
+        <v>8</v>
+      </c>
+      <c r="T300">
+        <v>2.3</v>
+      </c>
+      <c r="U300">
+        <v>2.05</v>
+      </c>
+      <c r="V300">
+        <v>6.5</v>
+      </c>
+      <c r="W300">
+        <v>1.5</v>
+      </c>
+      <c r="X300">
+        <v>2.5</v>
+      </c>
+      <c r="Y300">
+        <v>3.5</v>
+      </c>
+      <c r="Z300">
+        <v>1.29</v>
+      </c>
+      <c r="AA300">
+        <v>11</v>
+      </c>
+      <c r="AB300">
+        <v>1.05</v>
+      </c>
+      <c r="AC300">
+        <v>1.74</v>
+      </c>
+      <c r="AD300">
+        <v>3.58</v>
+      </c>
+      <c r="AE300">
+        <v>5</v>
+      </c>
+      <c r="AF300">
+        <v>1.1</v>
+      </c>
+      <c r="AG300">
+        <v>6.5</v>
+      </c>
+      <c r="AH300">
+        <v>1.45</v>
+      </c>
+      <c r="AI300">
+        <v>2.65</v>
+      </c>
+      <c r="AJ300">
+        <v>2.35</v>
+      </c>
+      <c r="AK300">
+        <v>1.53</v>
+      </c>
+      <c r="AL300">
+        <v>2.38</v>
+      </c>
+      <c r="AM300">
+        <v>1.53</v>
+      </c>
+      <c r="AN300">
+        <v>1.12</v>
+      </c>
+      <c r="AO300">
+        <v>1.25</v>
+      </c>
+      <c r="AP300">
+        <v>2.05</v>
+      </c>
+      <c r="AQ300">
+        <v>2.14</v>
+      </c>
+      <c r="AR300">
+        <v>1</v>
+      </c>
+      <c r="AS300">
+        <v>2.2</v>
+      </c>
+      <c r="AT300">
+        <v>0.93</v>
+      </c>
+      <c r="AU300">
+        <v>1.52</v>
+      </c>
+      <c r="AV300">
+        <v>1.2</v>
+      </c>
+      <c r="AW300">
+        <v>2.72</v>
+      </c>
+      <c r="AX300">
+        <v>1.42</v>
+      </c>
+      <c r="AY300">
+        <v>6</v>
+      </c>
+      <c r="AZ300">
+        <v>3.35</v>
+      </c>
+      <c r="BA300">
+        <v>1.51</v>
+      </c>
+      <c r="BB300">
+        <v>2</v>
+      </c>
+      <c r="BC300">
+        <v>2.27</v>
+      </c>
+      <c r="BD300">
+        <v>3.2</v>
+      </c>
+      <c r="BE300">
+        <v>4.6</v>
+      </c>
+      <c r="BF300">
+        <v>8</v>
+      </c>
+      <c r="BG300">
+        <v>2</v>
+      </c>
+      <c r="BH300">
+        <v>7</v>
+      </c>
+      <c r="BI300">
+        <v>2</v>
+      </c>
+      <c r="BJ300">
+        <v>15</v>
+      </c>
+      <c r="BK300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>5188774</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F301">
+        <v>28</v>
+      </c>
+      <c r="G301" t="s">
+        <v>66</v>
+      </c>
+      <c r="H301" t="s">
+        <v>69</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
+        <v>89</v>
+      </c>
+      <c r="P301" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q301">
+        <v>8</v>
+      </c>
+      <c r="R301">
+        <v>3</v>
+      </c>
+      <c r="S301">
+        <v>11</v>
+      </c>
+      <c r="T301">
+        <v>4.33</v>
+      </c>
+      <c r="U301">
+        <v>2.2</v>
+      </c>
+      <c r="V301">
+        <v>2.3</v>
+      </c>
+      <c r="W301">
+        <v>1.45</v>
+      </c>
+      <c r="X301">
+        <v>2.6</v>
+      </c>
+      <c r="Y301">
+        <v>2.55</v>
+      </c>
+      <c r="Z301">
+        <v>1.46</v>
+      </c>
+      <c r="AA301">
+        <v>6</v>
+      </c>
+      <c r="AB301">
+        <v>1.11</v>
+      </c>
+      <c r="AC301">
+        <v>3.42</v>
+      </c>
+      <c r="AD301">
+        <v>3.44</v>
+      </c>
+      <c r="AE301">
+        <v>2.13</v>
+      </c>
+      <c r="AF301">
+        <v>1.05</v>
+      </c>
+      <c r="AG301">
+        <v>9</v>
+      </c>
+      <c r="AH301">
+        <v>1.22</v>
+      </c>
+      <c r="AI301">
+        <v>4</v>
+      </c>
+      <c r="AJ301">
+        <v>1.7</v>
+      </c>
+      <c r="AK301">
+        <v>2</v>
+      </c>
+      <c r="AL301">
+        <v>1.68</v>
+      </c>
+      <c r="AM301">
+        <v>2.1</v>
+      </c>
+      <c r="AN301">
+        <v>1.9</v>
+      </c>
+      <c r="AO301">
+        <v>1.22</v>
+      </c>
+      <c r="AP301">
+        <v>1.17</v>
+      </c>
+      <c r="AQ301">
+        <v>1.23</v>
+      </c>
+      <c r="AR301">
+        <v>1.85</v>
+      </c>
+      <c r="AS301">
+        <v>1.14</v>
+      </c>
+      <c r="AT301">
+        <v>1.93</v>
+      </c>
+      <c r="AU301">
+        <v>1.48</v>
+      </c>
+      <c r="AV301">
+        <v>1.58</v>
+      </c>
+      <c r="AW301">
+        <v>3.06</v>
+      </c>
+      <c r="AX301">
+        <v>3</v>
+      </c>
+      <c r="AY301">
+        <v>6</v>
+      </c>
+      <c r="AZ301">
+        <v>1.48</v>
+      </c>
+      <c r="BA301">
+        <v>1.17</v>
+      </c>
+      <c r="BB301">
+        <v>1.28</v>
+      </c>
+      <c r="BC301">
+        <v>1.5</v>
+      </c>
+      <c r="BD301">
+        <v>1.9</v>
+      </c>
+      <c r="BE301">
+        <v>2.45</v>
+      </c>
+      <c r="BF301">
+        <v>4</v>
+      </c>
+      <c r="BG301">
+        <v>3</v>
+      </c>
+      <c r="BH301">
+        <v>16</v>
+      </c>
+      <c r="BI301">
+        <v>6</v>
+      </c>
+      <c r="BJ301">
+        <v>20</v>
+      </c>
+      <c r="BK301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>5188773</v>
+      </c>
+      <c r="C302" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F302">
+        <v>28</v>
+      </c>
+      <c r="G302" t="s">
+        <v>85</v>
+      </c>
+      <c r="H302" t="s">
+        <v>67</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302" t="s">
+        <v>89</v>
+      </c>
+      <c r="P302" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q302">
+        <v>11</v>
+      </c>
+      <c r="R302">
+        <v>6</v>
+      </c>
+      <c r="S302">
+        <v>17</v>
+      </c>
+      <c r="T302">
+        <v>2.9</v>
+      </c>
+      <c r="U302">
+        <v>1.87</v>
+      </c>
+      <c r="V302">
+        <v>4.2</v>
+      </c>
+      <c r="W302">
+        <v>1.58</v>
+      </c>
+      <c r="X302">
+        <v>2.26</v>
+      </c>
+      <c r="Y302">
+        <v>3.4</v>
+      </c>
+      <c r="Z302">
+        <v>1.3</v>
+      </c>
+      <c r="AA302">
+        <v>9</v>
+      </c>
+      <c r="AB302">
+        <v>1.05</v>
+      </c>
+      <c r="AC302">
+        <v>2.54</v>
+      </c>
+      <c r="AD302">
+        <v>3.1</v>
+      </c>
+      <c r="AE302">
+        <v>2.93</v>
+      </c>
+      <c r="AF302">
+        <v>1.11</v>
+      </c>
+      <c r="AG302">
+        <v>6</v>
+      </c>
+      <c r="AH302">
+        <v>1.5</v>
+      </c>
+      <c r="AI302">
+        <v>2.4</v>
+      </c>
+      <c r="AJ302">
+        <v>2.55</v>
+      </c>
+      <c r="AK302">
+        <v>1.45</v>
+      </c>
+      <c r="AL302">
+        <v>2.2</v>
+      </c>
+      <c r="AM302">
+        <v>1.62</v>
+      </c>
+      <c r="AN302">
+        <v>1.22</v>
+      </c>
+      <c r="AO302">
+        <v>1.3</v>
+      </c>
+      <c r="AP302">
+        <v>1.68</v>
+      </c>
+      <c r="AQ302">
+        <v>1.17</v>
+      </c>
+      <c r="AR302">
+        <v>1.23</v>
+      </c>
+      <c r="AS302">
+        <v>1.15</v>
+      </c>
+      <c r="AT302">
+        <v>1.21</v>
+      </c>
+      <c r="AU302">
+        <v>1.27</v>
+      </c>
+      <c r="AV302">
+        <v>1.23</v>
+      </c>
+      <c r="AW302">
+        <v>2.5</v>
+      </c>
+      <c r="AX302">
+        <v>1.33</v>
+      </c>
+      <c r="AY302">
+        <v>6.75</v>
+      </c>
+      <c r="AZ302">
+        <v>3.8</v>
+      </c>
+      <c r="BA302">
+        <v>1.17</v>
+      </c>
+      <c r="BB302">
+        <v>1.29</v>
+      </c>
+      <c r="BC302">
+        <v>1.62</v>
+      </c>
+      <c r="BD302">
+        <v>1.8</v>
+      </c>
+      <c r="BE302">
+        <v>2.44</v>
+      </c>
+      <c r="BF302">
+        <v>5</v>
+      </c>
+      <c r="BG302">
+        <v>0</v>
+      </c>
+      <c r="BH302">
+        <v>7</v>
+      </c>
+      <c r="BI302">
+        <v>4</v>
+      </c>
+      <c r="BJ302">
+        <v>12</v>
+      </c>
+      <c r="BK302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>5188775</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45136.25</v>
+      </c>
+      <c r="F303">
+        <v>28</v>
+      </c>
+      <c r="G303" t="s">
+        <v>75</v>
+      </c>
+      <c r="H303" t="s">
+        <v>65</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>3</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>260</v>
+      </c>
+      <c r="P303" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q303">
+        <v>1</v>
+      </c>
+      <c r="R303">
+        <v>4</v>
+      </c>
+      <c r="S303">
+        <v>5</v>
+      </c>
+      <c r="T303">
+        <v>3.75</v>
+      </c>
+      <c r="U303">
+        <v>1.95</v>
+      </c>
+      <c r="V303">
+        <v>3.25</v>
+      </c>
+      <c r="W303">
+        <v>1.53</v>
+      </c>
+      <c r="X303">
+        <v>2.38</v>
+      </c>
+      <c r="Y303">
+        <v>3.5</v>
+      </c>
+      <c r="Z303">
+        <v>1.29</v>
+      </c>
+      <c r="AA303">
+        <v>11</v>
+      </c>
+      <c r="AB303">
+        <v>1.05</v>
+      </c>
+      <c r="AC303">
+        <v>3.1</v>
+      </c>
+      <c r="AD303">
+        <v>3.14</v>
+      </c>
+      <c r="AE303">
+        <v>2.42</v>
+      </c>
+      <c r="AF303">
+        <v>1.1</v>
+      </c>
+      <c r="AG303">
+        <v>6.5</v>
+      </c>
+      <c r="AH303">
+        <v>1.45</v>
+      </c>
+      <c r="AI303">
+        <v>2.6</v>
+      </c>
+      <c r="AJ303">
+        <v>2.35</v>
+      </c>
+      <c r="AK303">
+        <v>1.53</v>
+      </c>
+      <c r="AL303">
+        <v>2</v>
+      </c>
+      <c r="AM303">
+        <v>1.73</v>
+      </c>
+      <c r="AN303">
+        <v>1.47</v>
+      </c>
+      <c r="AO303">
+        <v>1.3</v>
+      </c>
+      <c r="AP303">
+        <v>1.3</v>
+      </c>
+      <c r="AQ303">
+        <v>1.62</v>
+      </c>
+      <c r="AR303">
+        <v>1.54</v>
+      </c>
+      <c r="AS303">
+        <v>1.71</v>
+      </c>
+      <c r="AT303">
+        <v>1.43</v>
+      </c>
+      <c r="AU303">
+        <v>1.32</v>
+      </c>
+      <c r="AV303">
+        <v>1.28</v>
+      </c>
+      <c r="AW303">
+        <v>2.6</v>
+      </c>
+      <c r="AX303">
+        <v>2.1</v>
+      </c>
+      <c r="AY303">
+        <v>5.75</v>
+      </c>
+      <c r="AZ303">
+        <v>1.95</v>
+      </c>
+      <c r="BA303">
+        <v>1.3</v>
+      </c>
+      <c r="BB303">
+        <v>1.54</v>
+      </c>
+      <c r="BC303">
+        <v>2</v>
+      </c>
+      <c r="BD303">
+        <v>2.3</v>
+      </c>
+      <c r="BE303">
+        <v>3.2</v>
+      </c>
+      <c r="BF303">
+        <v>4</v>
+      </c>
+      <c r="BG303">
+        <v>0</v>
+      </c>
+      <c r="BH303">
+        <v>0</v>
+      </c>
+      <c r="BI303">
+        <v>0</v>
+      </c>
+      <c r="BJ303">
+        <v>4</v>
+      </c>
+      <c r="BK303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>5188779</v>
+      </c>
+      <c r="C304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45136.29166666666</v>
+      </c>
+      <c r="F304">
+        <v>28</v>
+      </c>
+      <c r="G304" t="s">
+        <v>81</v>
+      </c>
+      <c r="H304" t="s">
+        <v>77</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>162</v>
+      </c>
+      <c r="P304" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q304">
+        <v>6</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>8</v>
+      </c>
+      <c r="T304">
+        <v>2.55</v>
+      </c>
+      <c r="U304">
+        <v>2.25</v>
+      </c>
+      <c r="V304">
+        <v>3.5</v>
+      </c>
+      <c r="W304">
+        <v>1.29</v>
+      </c>
+      <c r="X304">
+        <v>3.5</v>
+      </c>
+      <c r="Y304">
+        <v>2.26</v>
+      </c>
+      <c r="Z304">
+        <v>1.58</v>
+      </c>
+      <c r="AA304">
+        <v>4.75</v>
+      </c>
+      <c r="AB304">
+        <v>1.15</v>
+      </c>
+      <c r="AC304">
+        <v>1.97</v>
+      </c>
+      <c r="AD304">
+        <v>3.72</v>
+      </c>
+      <c r="AE304">
+        <v>3.6</v>
+      </c>
+      <c r="AF304">
+        <v>1.03</v>
+      </c>
+      <c r="AG304">
+        <v>11</v>
+      </c>
+      <c r="AH304">
+        <v>1.22</v>
+      </c>
+      <c r="AI304">
+        <v>4</v>
+      </c>
+      <c r="AJ304">
+        <v>1.53</v>
+      </c>
+      <c r="AK304">
+        <v>2.35</v>
+      </c>
+      <c r="AL304">
+        <v>1.47</v>
+      </c>
+      <c r="AM304">
+        <v>2.55</v>
+      </c>
+      <c r="AN304">
+        <v>1.28</v>
+      </c>
+      <c r="AO304">
+        <v>1.22</v>
+      </c>
+      <c r="AP304">
+        <v>1.72</v>
+      </c>
+      <c r="AQ304">
+        <v>1.15</v>
+      </c>
+      <c r="AR304">
+        <v>1.54</v>
+      </c>
+      <c r="AS304">
+        <v>1.14</v>
+      </c>
+      <c r="AT304">
+        <v>1.5</v>
+      </c>
+      <c r="AU304">
+        <v>1.47</v>
+      </c>
+      <c r="AV304">
+        <v>1.57</v>
+      </c>
+      <c r="AW304">
+        <v>3.04</v>
+      </c>
+      <c r="AX304">
+        <v>1.66</v>
+      </c>
+      <c r="AY304">
+        <v>5.75</v>
+      </c>
+      <c r="AZ304">
+        <v>2.5</v>
+      </c>
+      <c r="BA304">
+        <v>1.31</v>
+      </c>
+      <c r="BB304">
+        <v>1.49</v>
+      </c>
+      <c r="BC304">
+        <v>1.85</v>
+      </c>
+      <c r="BD304">
+        <v>2.37</v>
+      </c>
+      <c r="BE304">
+        <v>3.3</v>
+      </c>
+      <c r="BF304">
+        <v>4</v>
+      </c>
+      <c r="BG304">
+        <v>2</v>
+      </c>
+      <c r="BH304">
+        <v>18</v>
+      </c>
+      <c r="BI304">
+        <v>3</v>
+      </c>
+      <c r="BJ304">
+        <v>22</v>
+      </c>
+      <c r="BK304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:63">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>5188780</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45136.29166666666</v>
+      </c>
+      <c r="F305">
+        <v>28</v>
+      </c>
+      <c r="G305" t="s">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s">
+        <v>70</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <v>4</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>4</v>
+      </c>
+      <c r="O305" t="s">
+        <v>261</v>
+      </c>
+      <c r="P305" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q305">
+        <v>5</v>
+      </c>
+      <c r="R305">
+        <v>0</v>
+      </c>
+      <c r="S305">
+        <v>5</v>
+      </c>
+      <c r="T305">
+        <v>2.5</v>
+      </c>
+      <c r="U305">
+        <v>2.05</v>
+      </c>
+      <c r="V305">
+        <v>5</v>
+      </c>
+      <c r="W305">
+        <v>1.5</v>
+      </c>
+      <c r="X305">
+        <v>2.5</v>
+      </c>
+      <c r="Y305">
+        <v>3.4</v>
+      </c>
+      <c r="Z305">
+        <v>1.3</v>
+      </c>
+      <c r="AA305">
+        <v>10</v>
+      </c>
+      <c r="AB305">
+        <v>1.06</v>
+      </c>
+      <c r="AC305">
+        <v>1.82</v>
+      </c>
+      <c r="AD305">
+        <v>3.5</v>
+      </c>
+      <c r="AE305">
+        <v>4.58</v>
+      </c>
+      <c r="AF305">
+        <v>1.1</v>
+      </c>
+      <c r="AG305">
+        <v>6</v>
+      </c>
+      <c r="AH305">
+        <v>1.53</v>
+      </c>
+      <c r="AI305">
+        <v>2.35</v>
+      </c>
+      <c r="AJ305">
+        <v>2.2</v>
+      </c>
+      <c r="AK305">
+        <v>1.6</v>
+      </c>
+      <c r="AL305">
+        <v>2.1</v>
+      </c>
+      <c r="AM305">
+        <v>1.67</v>
+      </c>
+      <c r="AN305">
+        <v>1.15</v>
+      </c>
+      <c r="AO305">
+        <v>1.25</v>
+      </c>
+      <c r="AP305">
+        <v>1.95</v>
+      </c>
+      <c r="AQ305">
+        <v>1.69</v>
+      </c>
+      <c r="AR305">
+        <v>1.23</v>
+      </c>
+      <c r="AS305">
+        <v>1.79</v>
+      </c>
+      <c r="AT305">
+        <v>1.14</v>
+      </c>
+      <c r="AU305">
+        <v>1.59</v>
+      </c>
+      <c r="AV305">
+        <v>1.1</v>
+      </c>
+      <c r="AW305">
+        <v>2.69</v>
+      </c>
+      <c r="AX305">
+        <v>1.4</v>
+      </c>
+      <c r="AY305">
+        <v>6</v>
+      </c>
+      <c r="AZ305">
+        <v>3.45</v>
+      </c>
+      <c r="BA305">
+        <v>1.42</v>
+      </c>
+      <c r="BB305">
+        <v>1.8</v>
+      </c>
+      <c r="BC305">
+        <v>2.33</v>
+      </c>
+      <c r="BD305">
+        <v>3.2</v>
+      </c>
+      <c r="BE305">
+        <v>4.4</v>
+      </c>
+      <c r="BF305">
+        <v>10</v>
+      </c>
+      <c r="BG305">
+        <v>3</v>
+      </c>
+      <c r="BH305">
+        <v>5</v>
+      </c>
+      <c r="BI305">
+        <v>4</v>
+      </c>
+      <c r="BJ305">
+        <v>15</v>
+      </c>
+      <c r="BK305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:63">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>5188781</v>
+      </c>
+      <c r="C306" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" t="s">
+        <v>64</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45136.29166666666</v>
+      </c>
+      <c r="F306">
+        <v>28</v>
+      </c>
+      <c r="G306" t="s">
+        <v>71</v>
+      </c>
+      <c r="H306" t="s">
+        <v>80</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>2</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>5</v>
+      </c>
+      <c r="O306" t="s">
+        <v>262</v>
+      </c>
+      <c r="P306" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q306">
+        <v>6</v>
+      </c>
+      <c r="R306">
+        <v>5</v>
+      </c>
+      <c r="S306">
+        <v>11</v>
+      </c>
+      <c r="T306">
+        <v>3.1</v>
+      </c>
+      <c r="U306">
+        <v>2.1</v>
+      </c>
+      <c r="V306">
+        <v>3.1</v>
+      </c>
+      <c r="W306">
+        <v>1.4</v>
+      </c>
+      <c r="X306">
+        <v>2.75</v>
+      </c>
+      <c r="Y306">
+        <v>2.75</v>
+      </c>
+      <c r="Z306">
+        <v>1.4</v>
+      </c>
+      <c r="AA306">
+        <v>6.5</v>
+      </c>
+      <c r="AB306">
+        <v>1.1</v>
+      </c>
+      <c r="AC306">
+        <v>2</v>
+      </c>
+      <c r="AD306">
+        <v>3.56</v>
+      </c>
+      <c r="AE306">
+        <v>3.66</v>
+      </c>
+      <c r="AF306">
+        <v>1.05</v>
+      </c>
+      <c r="AG306">
+        <v>9</v>
+      </c>
+      <c r="AH306">
+        <v>1.28</v>
+      </c>
+      <c r="AI306">
+        <v>3.5</v>
+      </c>
+      <c r="AJ306">
+        <v>1.85</v>
+      </c>
+      <c r="AK306">
+        <v>1.85</v>
+      </c>
+      <c r="AL306">
+        <v>1.68</v>
+      </c>
+      <c r="AM306">
+        <v>2.1</v>
+      </c>
+      <c r="AN306">
+        <v>1.4</v>
+      </c>
+      <c r="AO306">
+        <v>1.25</v>
+      </c>
+      <c r="AP306">
+        <v>1.47</v>
+      </c>
+      <c r="AQ306">
+        <v>1.92</v>
+      </c>
+      <c r="AR306">
+        <v>1.5</v>
+      </c>
+      <c r="AS306">
+        <v>2</v>
+      </c>
+      <c r="AT306">
+        <v>1.38</v>
+      </c>
+      <c r="AU306">
+        <v>1.37</v>
+      </c>
+      <c r="AV306">
+        <v>1.54</v>
+      </c>
+      <c r="AW306">
+        <v>2.91</v>
+      </c>
+      <c r="AX306">
+        <v>2.4</v>
+      </c>
+      <c r="AY306">
+        <v>5.75</v>
+      </c>
+      <c r="AZ306">
+        <v>1.74</v>
+      </c>
+      <c r="BA306">
+        <v>1.3</v>
+      </c>
+      <c r="BB306">
+        <v>1.63</v>
+      </c>
+      <c r="BC306">
+        <v>2.01</v>
+      </c>
+      <c r="BD306">
+        <v>2.5</v>
+      </c>
+      <c r="BE306">
+        <v>3.4</v>
+      </c>
+      <c r="BF306">
+        <v>7</v>
+      </c>
+      <c r="BG306">
+        <v>4</v>
+      </c>
+      <c r="BH306">
+        <v>5</v>
+      </c>
+      <c r="BI306">
+        <v>10</v>
+      </c>
+      <c r="BJ306">
+        <v>12</v>
+      </c>
+      <c r="BK306">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>5188782</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45136.29166666666</v>
+      </c>
+      <c r="F307">
+        <v>28</v>
+      </c>
+      <c r="G307" t="s">
+        <v>82</v>
+      </c>
+      <c r="H307" t="s">
+        <v>86</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>89</v>
+      </c>
+      <c r="P307" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q307">
+        <v>8</v>
+      </c>
+      <c r="R307">
+        <v>3</v>
+      </c>
+      <c r="S307">
+        <v>11</v>
+      </c>
+      <c r="T307">
+        <v>2.75</v>
+      </c>
+      <c r="U307">
+        <v>2.25</v>
+      </c>
+      <c r="V307">
+        <v>3.6</v>
+      </c>
+      <c r="W307">
+        <v>1.36</v>
+      </c>
+      <c r="X307">
+        <v>3</v>
+      </c>
+      <c r="Y307">
+        <v>2.63</v>
+      </c>
+      <c r="Z307">
+        <v>1.44</v>
+      </c>
+      <c r="AA307">
+        <v>7</v>
+      </c>
+      <c r="AB307">
+        <v>1.1</v>
+      </c>
+      <c r="AC307">
+        <v>2.08</v>
+      </c>
+      <c r="AD307">
+        <v>3.62</v>
+      </c>
+      <c r="AE307">
+        <v>3.36</v>
+      </c>
+      <c r="AF307">
+        <v>1.05</v>
+      </c>
+      <c r="AG307">
+        <v>9</v>
+      </c>
+      <c r="AH307">
+        <v>1.25</v>
+      </c>
+      <c r="AI307">
+        <v>3.6</v>
+      </c>
+      <c r="AJ307">
+        <v>1.75</v>
+      </c>
+      <c r="AK307">
+        <v>1.95</v>
+      </c>
+      <c r="AL307">
+        <v>1.67</v>
+      </c>
+      <c r="AM307">
+        <v>2.1</v>
+      </c>
+      <c r="AN307">
+        <v>1.3</v>
+      </c>
+      <c r="AO307">
+        <v>1.25</v>
+      </c>
+      <c r="AP307">
+        <v>1.6</v>
+      </c>
+      <c r="AQ307">
+        <v>1.86</v>
+      </c>
+      <c r="AR307">
+        <v>0.93</v>
+      </c>
+      <c r="AS307">
+        <v>1.73</v>
+      </c>
+      <c r="AT307">
+        <v>1.07</v>
+      </c>
+      <c r="AU307">
+        <v>1.33</v>
+      </c>
+      <c r="AV307">
+        <v>1.24</v>
+      </c>
+      <c r="AW307">
+        <v>2.57</v>
+      </c>
+      <c r="AX307">
+        <v>1.58</v>
+      </c>
+      <c r="AY307">
+        <v>5.75</v>
+      </c>
+      <c r="AZ307">
+        <v>2.7</v>
+      </c>
+      <c r="BA307">
+        <v>1.31</v>
+      </c>
+      <c r="BB307">
+        <v>1.57</v>
+      </c>
+      <c r="BC307">
+        <v>1.91</v>
+      </c>
+      <c r="BD307">
+        <v>2.38</v>
+      </c>
+      <c r="BE307">
+        <v>3.3</v>
+      </c>
+      <c r="BF307">
+        <v>0</v>
+      </c>
+      <c r="BG307">
+        <v>3</v>
+      </c>
+      <c r="BH307">
+        <v>13</v>
+      </c>
+      <c r="BI307">
+        <v>2</v>
+      </c>
+      <c r="BJ307">
+        <v>13</v>
+      </c>
+      <c r="BK307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:63">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>5188783</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" t="s">
+        <v>64</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45137.29166666666</v>
+      </c>
+      <c r="F308">
+        <v>28</v>
+      </c>
+      <c r="G308" t="s">
+        <v>84</v>
+      </c>
+      <c r="H308" t="s">
+        <v>78</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>2</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>2</v>
+      </c>
+      <c r="N308">
+        <v>3</v>
+      </c>
+      <c r="O308" t="s">
+        <v>99</v>
+      </c>
+      <c r="P308" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>2</v>
+      </c>
+      <c r="S308">
+        <v>2</v>
+      </c>
+      <c r="T308">
+        <v>2.6</v>
+      </c>
+      <c r="U308">
+        <v>2.3</v>
+      </c>
+      <c r="V308">
+        <v>4</v>
+      </c>
+      <c r="W308">
+        <v>1.33</v>
+      </c>
+      <c r="X308">
+        <v>3.25</v>
+      </c>
+      <c r="Y308">
+        <v>2.63</v>
+      </c>
+      <c r="Z308">
+        <v>1.44</v>
+      </c>
+      <c r="AA308">
+        <v>6.5</v>
+      </c>
+      <c r="AB308">
+        <v>1.11</v>
+      </c>
+      <c r="AC308">
+        <v>2</v>
+      </c>
+      <c r="AD308">
+        <v>3.45</v>
+      </c>
+      <c r="AE308">
+        <v>3.4</v>
+      </c>
+      <c r="AF308">
+        <v>1.04</v>
+      </c>
+      <c r="AG308">
+        <v>10</v>
+      </c>
+      <c r="AH308">
+        <v>1.22</v>
+      </c>
+      <c r="AI308">
+        <v>4</v>
+      </c>
+      <c r="AJ308">
+        <v>1.7</v>
+      </c>
+      <c r="AK308">
+        <v>2.07</v>
+      </c>
+      <c r="AL308">
+        <v>1.67</v>
+      </c>
+      <c r="AM308">
+        <v>2.1</v>
+      </c>
+      <c r="AN308">
+        <v>1.22</v>
+      </c>
+      <c r="AO308">
+        <v>1.22</v>
+      </c>
+      <c r="AP308">
+        <v>1.8</v>
+      </c>
+      <c r="AQ308">
+        <v>1.67</v>
+      </c>
+      <c r="AR308">
+        <v>0.15</v>
+      </c>
+      <c r="AS308">
+        <v>1.54</v>
+      </c>
+      <c r="AT308">
+        <v>0.36</v>
+      </c>
+      <c r="AU308">
+        <v>1.48</v>
+      </c>
+      <c r="AV308">
+        <v>1.27</v>
+      </c>
+      <c r="AW308">
+        <v>2.75</v>
+      </c>
+      <c r="AX308">
+        <v>1.66</v>
+      </c>
+      <c r="AY308">
+        <v>5.75</v>
+      </c>
+      <c r="AZ308">
+        <v>2.45</v>
+      </c>
+      <c r="BA308">
+        <v>1.22</v>
+      </c>
+      <c r="BB308">
+        <v>1.44</v>
+      </c>
+      <c r="BC308">
+        <v>1.93</v>
+      </c>
+      <c r="BD308">
+        <v>2.12</v>
+      </c>
+      <c r="BE308">
+        <v>3.05</v>
+      </c>
+      <c r="BF308">
+        <v>3</v>
+      </c>
+      <c r="BG308">
+        <v>5</v>
+      </c>
+      <c r="BH308">
+        <v>8</v>
+      </c>
+      <c r="BI308">
+        <v>10</v>
+      </c>
+      <c r="BJ308">
+        <v>11</v>
+      </c>
+      <c r="BK308">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['1', '5', '68', '82']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -902,9 +905,6 @@
   </si>
   <si>
     <t>['12', '79']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['22', '90+1']</t>
@@ -1145,6 +1145,12 @@
   </si>
   <si>
     <t>['35', '37']</t>
+  </si>
+  <si>
+    <t>['3', '90+2']</t>
+  </si>
+  <si>
+    <t>['39', '47', '72']</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK308"/>
+  <dimension ref="A1:BK310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1756,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1840,7 +1846,7 @@
         <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1941,7 +1947,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2514,7 +2520,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -3469,7 +3475,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3851,7 +3857,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4042,7 +4048,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4132,7 +4138,7 @@
         <v>1.79</v>
       </c>
       <c r="AT14">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4320,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT15">
         <v>1.27</v>
@@ -4702,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
         <v>1.4</v>
@@ -5761,7 +5767,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6042,7 +6048,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -6230,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -7289,7 +7295,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7379,7 +7385,7 @@
         <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7480,7 +7486,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7862,7 +7868,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8053,7 +8059,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8435,7 +8441,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8626,7 +8632,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8817,7 +8823,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9859,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT44">
         <v>0.53</v>
@@ -10053,7 +10059,7 @@
         <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU45">
         <v>0.84</v>
@@ -10154,7 +10160,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10345,7 +10351,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10536,7 +10542,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10626,7 +10632,7 @@
         <v>1.69</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -11109,7 +11115,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11300,7 +11306,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11491,7 +11497,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11578,7 +11584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT53">
         <v>2.21</v>
@@ -11682,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11769,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT54">
         <v>1.43</v>
@@ -11873,7 +11879,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12255,7 +12261,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12345,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU57">
         <v>1.08</v>
@@ -13019,7 +13025,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13491,7 +13497,7 @@
         <v>1.14</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU63">
         <v>2.1</v>
@@ -13592,7 +13598,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13783,7 +13789,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13974,7 +13980,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14929,7 +14935,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15311,7 +15317,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15693,7 +15699,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16353,7 +16359,7 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT78">
         <v>1.07</v>
@@ -16457,7 +16463,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16648,7 +16654,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17120,7 +17126,7 @@
         <v>1.21</v>
       </c>
       <c r="AT82">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU82">
         <v>1.57</v>
@@ -17221,7 +17227,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17603,7 +17609,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>14</v>
@@ -17881,7 +17887,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT86">
         <v>1.21</v>
@@ -19131,7 +19137,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19218,7 +19224,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT93">
         <v>0.93</v>
@@ -19412,7 +19418,7 @@
         <v>1.71</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU94">
         <v>1.45</v>
@@ -19600,7 +19606,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT95">
         <v>1.38</v>
@@ -20367,7 +20373,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU99">
         <v>1.17</v>
@@ -23038,7 +23044,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT113">
         <v>1.14</v>
@@ -23423,7 +23429,7 @@
         <v>1.86</v>
       </c>
       <c r="AT115">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU115">
         <v>1.26</v>
@@ -23805,7 +23811,7 @@
         <v>1.29</v>
       </c>
       <c r="AT117">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU117">
         <v>1.32</v>
@@ -24566,7 +24572,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT121">
         <v>1.21</v>
@@ -27622,10 +27628,10 @@
         <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT137">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU137">
         <v>1.48</v>
@@ -28198,7 +28204,7 @@
         <v>1.21</v>
       </c>
       <c r="AT140">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU140">
         <v>1.55</v>
@@ -28577,7 +28583,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT142">
         <v>1.46</v>
@@ -29254,7 +29260,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -31251,7 +31257,7 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
         <v>0.36</v>
@@ -32018,7 +32024,7 @@
         <v>1.14</v>
       </c>
       <c r="AT160">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU160">
         <v>1.49</v>
@@ -32591,7 +32597,7 @@
         <v>1.29</v>
       </c>
       <c r="AT163">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU163">
         <v>1.43</v>
@@ -33543,7 +33549,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT168">
         <v>1.93</v>
@@ -35939,7 +35945,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36408,7 +36414,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT183">
         <v>0.93</v>
@@ -37276,7 +37282,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37363,7 +37369,7 @@
         <v>1.25</v>
       </c>
       <c r="AS188">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT188">
         <v>1.21</v>
@@ -39085,7 +39091,7 @@
         <v>1.07</v>
       </c>
       <c r="AT197">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU197">
         <v>1.14</v>
@@ -39276,7 +39282,7 @@
         <v>0.93</v>
       </c>
       <c r="AT198">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU198">
         <v>1.62</v>
@@ -40801,7 +40807,7 @@
         <v>0.22</v>
       </c>
       <c r="AS206">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT206">
         <v>0.5</v>
@@ -40995,7 +41001,7 @@
         <v>1.79</v>
       </c>
       <c r="AT207">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41183,7 +41189,7 @@
         <v>1.22</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT208">
         <v>0.93</v>
@@ -43475,7 +43481,7 @@
         <v>2</v>
       </c>
       <c r="AS220">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT220">
         <v>2.21</v>
@@ -43857,7 +43863,7 @@
         <v>1.44</v>
       </c>
       <c r="AS222">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT222">
         <v>1.38</v>
@@ -44242,7 +44248,7 @@
         <v>1.07</v>
       </c>
       <c r="AT224">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU224">
         <v>1.15</v>
@@ -45197,7 +45203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT229">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU229">
         <v>1.29</v>
@@ -46152,7 +46158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT234">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU234">
         <v>1.31</v>
@@ -47590,7 +47596,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -48632,7 +48638,7 @@
         <v>1.4</v>
       </c>
       <c r="AS247">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT247">
         <v>1.15</v>
@@ -48823,7 +48829,7 @@
         <v>1.09</v>
       </c>
       <c r="AS248">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT248">
         <v>1.14</v>
@@ -49691,7 +49697,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -50354,7 +50360,7 @@
         <v>1.73</v>
       </c>
       <c r="AT256">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU256">
         <v>1.41</v>
@@ -50545,7 +50551,7 @@
         <v>1.07</v>
       </c>
       <c r="AT257">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU257">
         <v>1.28</v>
@@ -51115,7 +51121,7 @@
         <v>1.55</v>
       </c>
       <c r="AS260">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT260">
         <v>1.5</v>
@@ -53025,7 +53031,7 @@
         <v>1.27</v>
       </c>
       <c r="AS270">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT270">
         <v>1.43</v>
@@ -54744,7 +54750,7 @@
         <v>1.38</v>
       </c>
       <c r="AS279">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT279">
         <v>1.27</v>
@@ -55320,7 +55326,7 @@
         <v>1.13</v>
       </c>
       <c r="AT282">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU282">
         <v>1.29</v>
@@ -55994,7 +56000,7 @@
         <v>250</v>
       </c>
       <c r="P286" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="Q286">
         <v>3</v>
@@ -57036,7 +57042,7 @@
         <v>0.5</v>
       </c>
       <c r="AS291">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT291">
         <v>0.53</v>
@@ -60095,7 +60101,7 @@
         <v>1.73</v>
       </c>
       <c r="AT307">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU307">
         <v>1.33</v>
@@ -60338,6 +60344,388 @@
       </c>
       <c r="BK308">
         <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:63">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>5188784</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="D309" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F309">
+        <v>29</v>
+      </c>
+      <c r="G309" t="s">
+        <v>77</v>
+      </c>
+      <c r="H309" t="s">
+        <v>86</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>2</v>
+      </c>
+      <c r="N309">
+        <v>3</v>
+      </c>
+      <c r="O309" t="s">
+        <v>230</v>
+      </c>
+      <c r="P309" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q309">
+        <v>6</v>
+      </c>
+      <c r="R309">
+        <v>3</v>
+      </c>
+      <c r="S309">
+        <v>9</v>
+      </c>
+      <c r="T309">
+        <v>3.1</v>
+      </c>
+      <c r="U309">
+        <v>2.3</v>
+      </c>
+      <c r="V309">
+        <v>2.75</v>
+      </c>
+      <c r="W309">
+        <v>1.29</v>
+      </c>
+      <c r="X309">
+        <v>3.5</v>
+      </c>
+      <c r="Y309">
+        <v>2.31</v>
+      </c>
+      <c r="Z309">
+        <v>1.56</v>
+      </c>
+      <c r="AA309">
+        <v>4.75</v>
+      </c>
+      <c r="AB309">
+        <v>1.15</v>
+      </c>
+      <c r="AC309">
+        <v>2.57</v>
+      </c>
+      <c r="AD309">
+        <v>3.59</v>
+      </c>
+      <c r="AE309">
+        <v>2.66</v>
+      </c>
+      <c r="AF309">
+        <v>1.02</v>
+      </c>
+      <c r="AG309">
+        <v>12</v>
+      </c>
+      <c r="AH309">
+        <v>1.17</v>
+      </c>
+      <c r="AI309">
+        <v>4.75</v>
+      </c>
+      <c r="AJ309">
+        <v>1.53</v>
+      </c>
+      <c r="AK309">
+        <v>2.25</v>
+      </c>
+      <c r="AL309">
+        <v>1.47</v>
+      </c>
+      <c r="AM309">
+        <v>2.55</v>
+      </c>
+      <c r="AN309">
+        <v>1.53</v>
+      </c>
+      <c r="AO309">
+        <v>1.22</v>
+      </c>
+      <c r="AP309">
+        <v>1.36</v>
+      </c>
+      <c r="AQ309">
+        <v>1.14</v>
+      </c>
+      <c r="AR309">
+        <v>1.07</v>
+      </c>
+      <c r="AS309">
+        <v>1.07</v>
+      </c>
+      <c r="AT309">
+        <v>1.19</v>
+      </c>
+      <c r="AU309">
+        <v>1.44</v>
+      </c>
+      <c r="AV309">
+        <v>1.21</v>
+      </c>
+      <c r="AW309">
+        <v>2.65</v>
+      </c>
+      <c r="AX309">
+        <v>1.9</v>
+      </c>
+      <c r="AY309">
+        <v>9</v>
+      </c>
+      <c r="AZ309">
+        <v>2.19</v>
+      </c>
+      <c r="BA309">
+        <v>1.21</v>
+      </c>
+      <c r="BB309">
+        <v>1.41</v>
+      </c>
+      <c r="BC309">
+        <v>1.74</v>
+      </c>
+      <c r="BD309">
+        <v>2.19</v>
+      </c>
+      <c r="BE309">
+        <v>2.95</v>
+      </c>
+      <c r="BF309">
+        <v>3</v>
+      </c>
+      <c r="BG309">
+        <v>3</v>
+      </c>
+      <c r="BH309">
+        <v>12</v>
+      </c>
+      <c r="BI309">
+        <v>5</v>
+      </c>
+      <c r="BJ309">
+        <v>15</v>
+      </c>
+      <c r="BK309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:63">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>5188785</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310" t="s">
+        <v>64</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F310">
+        <v>29</v>
+      </c>
+      <c r="G310" t="s">
+        <v>79</v>
+      </c>
+      <c r="H310" t="s">
+        <v>73</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310">
+        <v>3</v>
+      </c>
+      <c r="N310">
+        <v>4</v>
+      </c>
+      <c r="O310" t="s">
+        <v>263</v>
+      </c>
+      <c r="P310" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q310">
+        <v>5</v>
+      </c>
+      <c r="R310">
+        <v>7</v>
+      </c>
+      <c r="S310">
+        <v>12</v>
+      </c>
+      <c r="T310">
+        <v>4</v>
+      </c>
+      <c r="U310">
+        <v>1.95</v>
+      </c>
+      <c r="V310">
+        <v>2.85</v>
+      </c>
+      <c r="W310">
+        <v>1.48</v>
+      </c>
+      <c r="X310">
+        <v>2.5</v>
+      </c>
+      <c r="Y310">
+        <v>3.25</v>
+      </c>
+      <c r="Z310">
+        <v>1.33</v>
+      </c>
+      <c r="AA310">
+        <v>8</v>
+      </c>
+      <c r="AB310">
+        <v>1.06</v>
+      </c>
+      <c r="AC310">
+        <v>3.44</v>
+      </c>
+      <c r="AD310">
+        <v>3.07</v>
+      </c>
+      <c r="AE310">
+        <v>2.25</v>
+      </c>
+      <c r="AF310">
+        <v>1.08</v>
+      </c>
+      <c r="AG310">
+        <v>6.5</v>
+      </c>
+      <c r="AH310">
+        <v>1.42</v>
+      </c>
+      <c r="AI310">
+        <v>2.75</v>
+      </c>
+      <c r="AJ310">
+        <v>2.22</v>
+      </c>
+      <c r="AK310">
+        <v>1.58</v>
+      </c>
+      <c r="AL310">
+        <v>1.95</v>
+      </c>
+      <c r="AM310">
+        <v>1.78</v>
+      </c>
+      <c r="AN310">
+        <v>1.57</v>
+      </c>
+      <c r="AO310">
+        <v>1.28</v>
+      </c>
+      <c r="AP310">
+        <v>1.25</v>
+      </c>
+      <c r="AQ310">
+        <v>1.5</v>
+      </c>
+      <c r="AR310">
+        <v>2</v>
+      </c>
+      <c r="AS310">
+        <v>1.4</v>
+      </c>
+      <c r="AT310">
+        <v>2.08</v>
+      </c>
+      <c r="AU310">
+        <v>1.51</v>
+      </c>
+      <c r="AV310">
+        <v>1.08</v>
+      </c>
+      <c r="AW310">
+        <v>2.59</v>
+      </c>
+      <c r="AX310">
+        <v>2.29</v>
+      </c>
+      <c r="AY310">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ310">
+        <v>1.87</v>
+      </c>
+      <c r="BA310">
+        <v>1.5</v>
+      </c>
+      <c r="BB310">
+        <v>1.89</v>
+      </c>
+      <c r="BC310">
+        <v>2.49</v>
+      </c>
+      <c r="BD310">
+        <v>3.4</v>
+      </c>
+      <c r="BE310">
+        <v>4.7</v>
+      </c>
+      <c r="BF310">
+        <v>8</v>
+      </c>
+      <c r="BG310">
+        <v>5</v>
+      </c>
+      <c r="BH310">
+        <v>0</v>
+      </c>
+      <c r="BI310">
+        <v>7</v>
+      </c>
+      <c r="BJ310">
+        <v>8</v>
+      </c>
+      <c r="BK310">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,15 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['11', '37', '56']</t>
+  </si>
+  <si>
+    <t>['29', '43']</t>
+  </si>
+  <si>
+    <t>['21', '41', '69', '80']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -1151,6 +1160,15 @@
   </si>
   <si>
     <t>['39', '47', '72']</t>
+  </si>
+  <si>
+    <t>['16', '43']</t>
+  </si>
+  <si>
+    <t>['17', '86', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1756,7 +1774,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1843,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
         <v>1.19</v>
@@ -1947,7 +1965,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2225,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2419,7 +2437,7 @@
         <v>1.92</v>
       </c>
       <c r="AT5">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2520,7 +2538,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2607,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT6">
         <v>1.21</v>
@@ -2989,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT8">
         <v>0.93</v>
@@ -3180,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3374,7 +3392,7 @@
         <v>2.2</v>
       </c>
       <c r="AT10">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3475,7 +3493,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3565,7 +3583,7 @@
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3857,7 +3875,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3944,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
         <v>0.93</v>
@@ -4048,7 +4066,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4517,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4711,7 +4729,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4899,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5093,7 +5111,7 @@
         <v>1.14</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5767,7 +5785,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6045,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT24">
         <v>1.19</v>
@@ -6239,7 +6257,7 @@
         <v>1.07</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU25">
         <v>2.22</v>
@@ -6430,7 +6448,7 @@
         <v>1.07</v>
       </c>
       <c r="AT26">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU26">
         <v>1.2</v>
@@ -6618,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT27">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -7000,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT29">
         <v>0.36</v>
@@ -7194,7 +7212,7 @@
         <v>1.73</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU30">
         <v>1.61</v>
@@ -7295,7 +7313,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7486,7 +7504,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7764,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT33">
         <v>1.43</v>
@@ -7868,7 +7886,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8059,7 +8077,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8146,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT35">
         <v>1.5</v>
@@ -8337,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
         <v>1.93</v>
@@ -8441,7 +8459,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8632,7 +8650,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8823,7 +8841,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9486,7 +9504,7 @@
         <v>2.2</v>
       </c>
       <c r="AT42">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU42">
         <v>1.7</v>
@@ -9677,7 +9695,7 @@
         <v>1.92</v>
       </c>
       <c r="AT43">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU43">
         <v>1.76</v>
@@ -9868,7 +9886,7 @@
         <v>1.4</v>
       </c>
       <c r="AT44">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU44">
         <v>1.49</v>
@@ -10056,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT45">
         <v>1.19</v>
@@ -10160,7 +10178,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10247,10 +10265,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.63</v>
@@ -10351,7 +10369,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10441,7 +10459,7 @@
         <v>1.15</v>
       </c>
       <c r="AT47">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU47">
         <v>1</v>
@@ -10542,7 +10560,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -11115,7 +11133,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11202,10 +11220,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU51">
         <v>1.03</v>
@@ -11306,7 +11324,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11497,7 +11515,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11688,7 +11706,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11879,7 +11897,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11966,7 +11984,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT55">
         <v>1.27</v>
@@ -12261,7 +12279,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12348,7 +12366,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT57">
         <v>1.19</v>
@@ -12542,7 +12560,7 @@
         <v>1.07</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU58">
         <v>1.34</v>
@@ -12921,10 +12939,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU60">
         <v>1.71</v>
@@ -13025,7 +13043,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13115,7 +13133,7 @@
         <v>1.14</v>
       </c>
       <c r="AT61">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -13303,7 +13321,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
         <v>1.38</v>
@@ -13598,7 +13616,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13789,7 +13807,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13980,7 +13998,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14258,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU67">
         <v>1.43</v>
@@ -14449,10 +14467,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14935,7 +14953,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15213,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT72">
         <v>0.36</v>
@@ -15317,7 +15335,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15404,7 +15422,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT73">
         <v>0.93</v>
@@ -15598,7 +15616,7 @@
         <v>1.69</v>
       </c>
       <c r="AT74">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU74">
         <v>0.52</v>
@@ -15699,7 +15717,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16463,7 +16481,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16550,10 +16568,10 @@
         <v>1.67</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU79">
         <v>1.23</v>
@@ -16654,7 +16672,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16744,7 +16762,7 @@
         <v>1.14</v>
       </c>
       <c r="AT80">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16932,7 +16950,7 @@
         <v>1.75</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
         <v>1.27</v>
@@ -17123,7 +17141,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT82">
         <v>1.19</v>
@@ -17227,7 +17245,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17508,7 +17526,7 @@
         <v>2.2</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU84">
         <v>1.51</v>
@@ -17800,7 +17818,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18081,7 +18099,7 @@
         <v>1.07</v>
       </c>
       <c r="AT87">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU87">
         <v>1.46</v>
@@ -18182,7 +18200,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18460,10 +18478,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT89">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU89">
         <v>1.53</v>
@@ -18842,7 +18860,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
         <v>1.43</v>
@@ -18946,7 +18964,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19036,7 +19054,7 @@
         <v>1.07</v>
       </c>
       <c r="AT92">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU92">
         <v>1.26</v>
@@ -19137,7 +19155,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19415,7 +19433,7 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT94">
         <v>2.08</v>
@@ -19988,10 +20006,10 @@
         <v>2.2</v>
       </c>
       <c r="AS97">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT97">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -20092,7 +20110,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20179,7 +20197,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>1.21</v>
@@ -20564,7 +20582,7 @@
         <v>1.92</v>
       </c>
       <c r="AT100">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU100">
         <v>1.93</v>
@@ -20752,10 +20770,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT101">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU101">
         <v>1.29</v>
@@ -20946,7 +20964,7 @@
         <v>2.2</v>
       </c>
       <c r="AT102">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -21047,7 +21065,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21238,7 +21256,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21328,7 +21346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT104">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21620,7 +21638,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21811,7 +21829,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21901,7 +21919,7 @@
         <v>1.69</v>
       </c>
       <c r="AT107">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU107">
         <v>0.98</v>
@@ -22384,7 +22402,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22662,7 +22680,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT111">
         <v>1.38</v>
@@ -22766,7 +22784,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22853,7 +22871,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT112">
         <v>0.93</v>
@@ -22957,7 +22975,7 @@
         <v>157</v>
       </c>
       <c r="P113" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -23148,7 +23166,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23235,10 +23253,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU114">
         <v>1.62</v>
@@ -23426,7 +23444,7 @@
         <v>2.5</v>
       </c>
       <c r="AS115">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT115">
         <v>2.08</v>
@@ -23530,7 +23548,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23617,10 +23635,10 @@
         <v>1.83</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU116">
         <v>1.27</v>
@@ -23721,7 +23739,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23808,7 +23826,7 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT117">
         <v>1.19</v>
@@ -24190,7 +24208,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT119">
         <v>0.93</v>
@@ -24294,7 +24312,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24485,7 +24503,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24575,7 +24593,7 @@
         <v>1.07</v>
       </c>
       <c r="AT121">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24766,7 +24784,7 @@
         <v>1.73</v>
       </c>
       <c r="AT122">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>1.54</v>
@@ -24957,7 +24975,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU123">
         <v>1.87</v>
@@ -25058,7 +25076,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25336,7 +25354,7 @@
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT125">
         <v>1.43</v>
@@ -25440,7 +25458,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25527,7 +25545,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT126">
         <v>0.93</v>
@@ -25631,7 +25649,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -26103,7 +26121,7 @@
         <v>1.14</v>
       </c>
       <c r="AT129">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU129">
         <v>1.4</v>
@@ -26586,7 +26604,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -27055,7 +27073,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT134">
         <v>1.21</v>
@@ -27249,7 +27267,7 @@
         <v>1.07</v>
       </c>
       <c r="AT135">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27732,7 +27750,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27822,7 +27840,7 @@
         <v>1.14</v>
       </c>
       <c r="AT138">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU138">
         <v>1.45</v>
@@ -28010,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT139">
         <v>1.07</v>
@@ -28201,7 +28219,7 @@
         <v>2</v>
       </c>
       <c r="AS140">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT140">
         <v>2.08</v>
@@ -28392,10 +28410,10 @@
         <v>1.83</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT141">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU141">
         <v>1.31</v>
@@ -28496,7 +28514,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28586,7 +28604,7 @@
         <v>1.07</v>
       </c>
       <c r="AT142">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28777,7 +28795,7 @@
         <v>1.71</v>
       </c>
       <c r="AT143">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU143">
         <v>1.24</v>
@@ -28965,7 +28983,7 @@
         <v>1.4</v>
       </c>
       <c r="AS144">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT144">
         <v>1.93</v>
@@ -29156,7 +29174,7 @@
         <v>1.4</v>
       </c>
       <c r="AS145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT145">
         <v>1.43</v>
@@ -29260,7 +29278,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29350,7 +29368,7 @@
         <v>1.15</v>
       </c>
       <c r="AT146">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU146">
         <v>1.22</v>
@@ -29451,7 +29469,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29729,7 +29747,7 @@
         <v>1.33</v>
       </c>
       <c r="AS148">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT148">
         <v>1.14</v>
@@ -29833,7 +29851,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29920,7 +29938,7 @@
         <v>1.17</v>
       </c>
       <c r="AS149">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT149">
         <v>0.93</v>
@@ -30406,7 +30424,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30493,7 +30511,7 @@
         <v>1.5</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT152">
         <v>2.21</v>
@@ -30597,7 +30615,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30687,7 +30705,7 @@
         <v>1.73</v>
       </c>
       <c r="AT153">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU153">
         <v>1.45</v>
@@ -30878,7 +30896,7 @@
         <v>1.13</v>
       </c>
       <c r="AT154">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU154">
         <v>1.23</v>
@@ -31170,7 +31188,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31361,7 +31379,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31552,7 +31570,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31639,7 +31657,7 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT158">
         <v>1.21</v>
@@ -32212,7 +32230,7 @@
         <v>0.71</v>
       </c>
       <c r="AS161">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT161">
         <v>0.93</v>
@@ -32594,7 +32612,7 @@
         <v>2.17</v>
       </c>
       <c r="AS163">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT163">
         <v>2.08</v>
@@ -32889,7 +32907,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32979,7 +32997,7 @@
         <v>1.13</v>
       </c>
       <c r="AT165">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU165">
         <v>1.27</v>
@@ -33170,7 +33188,7 @@
         <v>1.14</v>
       </c>
       <c r="AT166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU166">
         <v>1.7</v>
@@ -33361,7 +33379,7 @@
         <v>1.69</v>
       </c>
       <c r="AT167">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU167">
         <v>1.26</v>
@@ -33740,10 +33758,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT169">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU169">
         <v>1.67</v>
@@ -33931,7 +33949,7 @@
         <v>1.57</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT170">
         <v>1.21</v>
@@ -34316,7 +34334,7 @@
         <v>1.07</v>
       </c>
       <c r="AT172">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU172">
         <v>1.18</v>
@@ -34417,7 +34435,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34504,10 +34522,10 @@
         <v>1.57</v>
       </c>
       <c r="AS173">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT173">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU173">
         <v>1.04</v>
@@ -34799,7 +34817,7 @@
         <v>196</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35080,7 +35098,7 @@
         <v>1.79</v>
       </c>
       <c r="AT176">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU176">
         <v>1.82</v>
@@ -35181,7 +35199,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35462,7 +35480,7 @@
         <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU178">
         <v>1.37</v>
@@ -35563,7 +35581,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35650,10 +35668,10 @@
         <v>1.5</v>
       </c>
       <c r="AS179">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT179">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU179">
         <v>1.46</v>
@@ -35844,7 +35862,7 @@
         <v>1.79</v>
       </c>
       <c r="AT180">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU180">
         <v>1.72</v>
@@ -35945,7 +35963,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36035,7 +36053,7 @@
         <v>2.2</v>
       </c>
       <c r="AT181">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU181">
         <v>1.49</v>
@@ -36518,7 +36536,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36900,7 +36918,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -37178,7 +37196,7 @@
         <v>0.71</v>
       </c>
       <c r="AS187">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT187">
         <v>1.07</v>
@@ -37282,7 +37300,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37473,7 +37491,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37560,7 +37578,7 @@
         <v>1.75</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT189">
         <v>1.93</v>
@@ -37751,7 +37769,7 @@
         <v>0.13</v>
       </c>
       <c r="AS190">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT190">
         <v>0.36</v>
@@ -38136,7 +38154,7 @@
         <v>1.15</v>
       </c>
       <c r="AT192">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU192">
         <v>1.29</v>
@@ -38515,7 +38533,7 @@
         <v>1.25</v>
       </c>
       <c r="AS194">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT194">
         <v>1.5</v>
@@ -38706,7 +38724,7 @@
         <v>0.75</v>
       </c>
       <c r="AS195">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT195">
         <v>1.07</v>
@@ -38900,7 +38918,7 @@
         <v>1.92</v>
       </c>
       <c r="AT196">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU196">
         <v>2.03</v>
@@ -39001,7 +39019,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39192,7 +39210,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39279,7 +39297,7 @@
         <v>0.9</v>
       </c>
       <c r="AS198">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT198">
         <v>1.19</v>
@@ -39574,7 +39592,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39765,7 +39783,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39956,7 +39974,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40237,7 +40255,7 @@
         <v>1.69</v>
       </c>
       <c r="AT203">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU203">
         <v>1.36</v>
@@ -40338,7 +40356,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40425,10 +40443,10 @@
         <v>1.38</v>
       </c>
       <c r="AS204">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT204">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU204">
         <v>1.44</v>
@@ -40616,10 +40634,10 @@
         <v>1.5</v>
       </c>
       <c r="AS205">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT205">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU205">
         <v>1.79</v>
@@ -40810,7 +40828,7 @@
         <v>1.07</v>
       </c>
       <c r="AT206">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU206">
         <v>1.43</v>
@@ -40911,7 +40929,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41293,7 +41311,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41380,10 +41398,10 @@
         <v>1.44</v>
       </c>
       <c r="AS209">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT209">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU209">
         <v>1.35</v>
@@ -41484,7 +41502,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41675,7 +41693,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41956,7 +41974,7 @@
         <v>1.15</v>
       </c>
       <c r="AT212">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU212">
         <v>1.36</v>
@@ -42439,7 +42457,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42717,7 +42735,7 @@
         <v>1.22</v>
       </c>
       <c r="AS216">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT216">
         <v>1.14</v>
@@ -42911,7 +42929,7 @@
         <v>1.07</v>
       </c>
       <c r="AT217">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU217">
         <v>1.19</v>
@@ -43012,7 +43030,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43099,7 +43117,7 @@
         <v>1.22</v>
       </c>
       <c r="AS218">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT218">
         <v>1.5</v>
@@ -43290,10 +43308,10 @@
         <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT219">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU219">
         <v>1.07</v>
@@ -43394,7 +43412,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43672,10 +43690,10 @@
         <v>1</v>
       </c>
       <c r="AS221">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT221">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU221">
         <v>1.56</v>
@@ -43776,7 +43794,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44057,7 +44075,7 @@
         <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU223">
         <v>1.4</v>
@@ -44436,7 +44454,7 @@
         <v>0.11</v>
       </c>
       <c r="AS225">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT225">
         <v>0.36</v>
@@ -44821,7 +44839,7 @@
         <v>1.07</v>
       </c>
       <c r="AT227">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU227">
         <v>1.28</v>
@@ -45304,7 +45322,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45391,7 +45409,7 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT230">
         <v>1.21</v>
@@ -45495,7 +45513,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45773,7 +45791,7 @@
         <v>1.2</v>
       </c>
       <c r="AS232">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT232">
         <v>1.21</v>
@@ -45877,7 +45895,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -45964,7 +45982,7 @@
         <v>0.7</v>
       </c>
       <c r="AS233">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT233">
         <v>1.07</v>
@@ -46450,7 +46468,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46641,7 +46659,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46731,7 +46749,7 @@
         <v>1.79</v>
       </c>
       <c r="AT237">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -46919,10 +46937,10 @@
         <v>0.64</v>
       </c>
       <c r="AS238">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT238">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU238">
         <v>1.38</v>
@@ -47214,7 +47232,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47301,7 +47319,7 @@
         <v>1.7</v>
       </c>
       <c r="AS240">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT240">
         <v>1.93</v>
@@ -47405,7 +47423,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47492,10 +47510,10 @@
         <v>1.18</v>
       </c>
       <c r="AS241">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT241">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU241">
         <v>0.99</v>
@@ -47596,7 +47614,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47686,7 +47704,7 @@
         <v>1.92</v>
       </c>
       <c r="AT242">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU242">
         <v>2.01</v>
@@ -47787,7 +47805,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47874,7 +47892,7 @@
         <v>1.44</v>
       </c>
       <c r="AS243">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT243">
         <v>1.43</v>
@@ -47978,7 +47996,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48169,7 +48187,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48641,7 +48659,7 @@
         <v>1.4</v>
       </c>
       <c r="AT247">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU247">
         <v>1.49</v>
@@ -49023,7 +49041,7 @@
         <v>1.54</v>
       </c>
       <c r="AT249">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU249">
         <v>1.42</v>
@@ -49315,7 +49333,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49402,10 +49420,10 @@
         <v>1.36</v>
       </c>
       <c r="AS251">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT251">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU251">
         <v>1.71</v>
@@ -49596,7 +49614,7 @@
         <v>1.69</v>
       </c>
       <c r="AT252">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU252">
         <v>1.32</v>
@@ -49697,7 +49715,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49975,7 +49993,7 @@
         <v>2.18</v>
       </c>
       <c r="AS254">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT254">
         <v>2.21</v>
@@ -50166,10 +50184,10 @@
         <v>1.5</v>
       </c>
       <c r="AS255">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT255">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU255">
         <v>1.33</v>
@@ -50270,7 +50288,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50739,10 +50757,10 @@
         <v>0.58</v>
       </c>
       <c r="AS258">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT258">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU258">
         <v>1.67</v>
@@ -50843,7 +50861,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -50930,7 +50948,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT259">
         <v>1.27</v>
@@ -51034,7 +51052,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51312,7 +51330,7 @@
         <v>1.6</v>
       </c>
       <c r="AS261">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT261">
         <v>1.38</v>
@@ -51416,7 +51434,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51694,7 +51712,7 @@
         <v>0.82</v>
       </c>
       <c r="AS263">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT263">
         <v>0.93</v>
@@ -51888,7 +51906,7 @@
         <v>1.14</v>
       </c>
       <c r="AT264">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU264">
         <v>1.48</v>
@@ -51989,7 +52007,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52079,7 +52097,7 @@
         <v>1.14</v>
       </c>
       <c r="AT265">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU265">
         <v>1.45</v>
@@ -52180,7 +52198,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52371,7 +52389,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52461,7 +52479,7 @@
         <v>1.14</v>
       </c>
       <c r="AT267">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU267">
         <v>1.49</v>
@@ -52562,7 +52580,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52652,7 +52670,7 @@
         <v>1.71</v>
       </c>
       <c r="AT268">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU268">
         <v>1.28</v>
@@ -52753,7 +52771,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52944,7 +52962,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53135,7 +53153,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53222,7 +53240,7 @@
         <v>1.08</v>
       </c>
       <c r="AS271">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT271">
         <v>1.14</v>
@@ -53607,7 +53625,7 @@
         <v>1.79</v>
       </c>
       <c r="AT273">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU273">
         <v>1.62</v>
@@ -53708,7 +53726,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53798,7 +53816,7 @@
         <v>1.73</v>
       </c>
       <c r="AT274">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU274">
         <v>1.37</v>
@@ -53899,7 +53917,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54177,7 +54195,7 @@
         <v>0.09</v>
       </c>
       <c r="AS276">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT276">
         <v>0.36</v>
@@ -54368,7 +54386,7 @@
         <v>1</v>
       </c>
       <c r="AS277">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT277">
         <v>0.93</v>
@@ -54663,7 +54681,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54854,7 +54872,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -54941,7 +54959,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT280">
         <v>1.21</v>
@@ -55045,7 +55063,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55236,7 +55254,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55427,7 +55445,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55514,10 +55532,10 @@
         <v>1.33</v>
       </c>
       <c r="AS283">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT283">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU283">
         <v>1.48</v>
@@ -55705,10 +55723,10 @@
         <v>0.46</v>
       </c>
       <c r="AS284">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT284">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU284">
         <v>1.51</v>
@@ -55899,7 +55917,7 @@
         <v>1.54</v>
       </c>
       <c r="AT285">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU285">
         <v>1.43</v>
@@ -56087,7 +56105,7 @@
         <v>1.67</v>
       </c>
       <c r="AS286">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT286">
         <v>1.5</v>
@@ -56191,7 +56209,7 @@
         <v>251</v>
       </c>
       <c r="P287" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56281,7 +56299,7 @@
         <v>1.71</v>
       </c>
       <c r="AT287">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU287">
         <v>1.35</v>
@@ -56382,7 +56400,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56573,7 +56591,7 @@
         <v>252</v>
       </c>
       <c r="P289" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q289">
         <v>2</v>
@@ -56955,7 +56973,7 @@
         <v>117</v>
       </c>
       <c r="P291" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q291">
         <v>5</v>
@@ -57045,7 +57063,7 @@
         <v>1.07</v>
       </c>
       <c r="AT291">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU291">
         <v>1.48</v>
@@ -57337,7 +57355,7 @@
         <v>255</v>
       </c>
       <c r="P293" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57427,7 +57445,7 @@
         <v>1.07</v>
       </c>
       <c r="AT293">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU293">
         <v>1.24</v>
@@ -57719,7 +57737,7 @@
         <v>256</v>
       </c>
       <c r="P295" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57910,7 +57928,7 @@
         <v>257</v>
       </c>
       <c r="P296" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -57997,7 +58015,7 @@
         <v>1.92</v>
       </c>
       <c r="AS296">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT296">
         <v>1.93</v>
@@ -58101,7 +58119,7 @@
         <v>162</v>
       </c>
       <c r="P297" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58188,7 +58206,7 @@
         <v>1.17</v>
       </c>
       <c r="AS297">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT297">
         <v>1.21</v>
@@ -58570,10 +58588,10 @@
         <v>1.17</v>
       </c>
       <c r="AS299">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT299">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU299">
         <v>1.39</v>
@@ -59907,7 +59925,7 @@
         <v>1.5</v>
       </c>
       <c r="AS306">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT306">
         <v>1.38</v>
@@ -60202,7 +60220,7 @@
         <v>99</v>
       </c>
       <c r="P308" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q308">
         <v>0</v>
@@ -60393,7 +60411,7 @@
         <v>230</v>
       </c>
       <c r="P309" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q309">
         <v>6</v>
@@ -60584,7 +60602,7 @@
         <v>263</v>
       </c>
       <c r="P310" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q310">
         <v>5</v>
@@ -60726,6 +60744,1725 @@
       </c>
       <c r="BK310">
         <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:63">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>5188787</v>
+      </c>
+      <c r="C311" t="s">
+        <v>63</v>
+      </c>
+      <c r="D311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45144.25</v>
+      </c>
+      <c r="F311">
+        <v>29</v>
+      </c>
+      <c r="G311" t="s">
+        <v>65</v>
+      </c>
+      <c r="H311" t="s">
+        <v>84</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>2</v>
+      </c>
+      <c r="K311">
+        <v>2</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>2</v>
+      </c>
+      <c r="N311">
+        <v>2</v>
+      </c>
+      <c r="O311" t="s">
+        <v>89</v>
+      </c>
+      <c r="P311" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q311">
+        <v>6</v>
+      </c>
+      <c r="R311">
+        <v>0</v>
+      </c>
+      <c r="S311">
+        <v>6</v>
+      </c>
+      <c r="T311">
+        <v>2.5</v>
+      </c>
+      <c r="U311">
+        <v>2.25</v>
+      </c>
+      <c r="V311">
+        <v>4</v>
+      </c>
+      <c r="W311">
+        <v>1.33</v>
+      </c>
+      <c r="X311">
+        <v>3.25</v>
+      </c>
+      <c r="Y311">
+        <v>2.63</v>
+      </c>
+      <c r="Z311">
+        <v>1.44</v>
+      </c>
+      <c r="AA311">
+        <v>6.5</v>
+      </c>
+      <c r="AB311">
+        <v>1.11</v>
+      </c>
+      <c r="AC311">
+        <v>1.83</v>
+      </c>
+      <c r="AD311">
+        <v>3.5</v>
+      </c>
+      <c r="AE311">
+        <v>3.6</v>
+      </c>
+      <c r="AF311">
+        <v>1.04</v>
+      </c>
+      <c r="AG311">
+        <v>8.5</v>
+      </c>
+      <c r="AH311">
+        <v>1.2</v>
+      </c>
+      <c r="AI311">
+        <v>3.9</v>
+      </c>
+      <c r="AJ311">
+        <v>1.73</v>
+      </c>
+      <c r="AK311">
+        <v>2</v>
+      </c>
+      <c r="AL311">
+        <v>1.67</v>
+      </c>
+      <c r="AM311">
+        <v>2.1</v>
+      </c>
+      <c r="AN311">
+        <v>1.23</v>
+      </c>
+      <c r="AO311">
+        <v>1.24</v>
+      </c>
+      <c r="AP311">
+        <v>1.66</v>
+      </c>
+      <c r="AQ311">
+        <v>1.86</v>
+      </c>
+      <c r="AR311">
+        <v>0.53</v>
+      </c>
+      <c r="AS311">
+        <v>1.73</v>
+      </c>
+      <c r="AT311">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU311">
+        <v>1.38</v>
+      </c>
+      <c r="AV311">
+        <v>1.25</v>
+      </c>
+      <c r="AW311">
+        <v>2.63</v>
+      </c>
+      <c r="AX311">
+        <v>1.44</v>
+      </c>
+      <c r="AY311">
+        <v>6</v>
+      </c>
+      <c r="AZ311">
+        <v>3.1</v>
+      </c>
+      <c r="BA311">
+        <v>1.25</v>
+      </c>
+      <c r="BB311">
+        <v>1.44</v>
+      </c>
+      <c r="BC311">
+        <v>1.77</v>
+      </c>
+      <c r="BD311">
+        <v>2.27</v>
+      </c>
+      <c r="BE311">
+        <v>3.05</v>
+      </c>
+      <c r="BF311">
+        <v>2</v>
+      </c>
+      <c r="BG311">
+        <v>8</v>
+      </c>
+      <c r="BH311">
+        <v>7</v>
+      </c>
+      <c r="BI311">
+        <v>6</v>
+      </c>
+      <c r="BJ311">
+        <v>9</v>
+      </c>
+      <c r="BK311">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:63">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>5188786</v>
+      </c>
+      <c r="C312" t="s">
+        <v>63</v>
+      </c>
+      <c r="D312" t="s">
+        <v>64</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45144.25</v>
+      </c>
+      <c r="F312">
+        <v>29</v>
+      </c>
+      <c r="G312" t="s">
+        <v>72</v>
+      </c>
+      <c r="H312" t="s">
+        <v>68</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312" t="s">
+        <v>89</v>
+      </c>
+      <c r="P312" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q312">
+        <v>9</v>
+      </c>
+      <c r="R312">
+        <v>1</v>
+      </c>
+      <c r="S312">
+        <v>10</v>
+      </c>
+      <c r="T312">
+        <v>3.6</v>
+      </c>
+      <c r="U312">
+        <v>2.2</v>
+      </c>
+      <c r="V312">
+        <v>3</v>
+      </c>
+      <c r="W312">
+        <v>1.4</v>
+      </c>
+      <c r="X312">
+        <v>2.75</v>
+      </c>
+      <c r="Y312">
+        <v>2.75</v>
+      </c>
+      <c r="Z312">
+        <v>1.4</v>
+      </c>
+      <c r="AA312">
+        <v>8</v>
+      </c>
+      <c r="AB312">
+        <v>1.08</v>
+      </c>
+      <c r="AC312">
+        <v>2.88</v>
+      </c>
+      <c r="AD312">
+        <v>3.25</v>
+      </c>
+      <c r="AE312">
+        <v>2.2</v>
+      </c>
+      <c r="AF312">
+        <v>1.06</v>
+      </c>
+      <c r="AG312">
+        <v>7.2</v>
+      </c>
+      <c r="AH312">
+        <v>1.27</v>
+      </c>
+      <c r="AI312">
+        <v>3.4</v>
+      </c>
+      <c r="AJ312">
+        <v>1.91</v>
+      </c>
+      <c r="AK312">
+        <v>1.8</v>
+      </c>
+      <c r="AL312">
+        <v>1.73</v>
+      </c>
+      <c r="AM312">
+        <v>2</v>
+      </c>
+      <c r="AN312">
+        <v>1.53</v>
+      </c>
+      <c r="AO312">
+        <v>1.25</v>
+      </c>
+      <c r="AP312">
+        <v>1.33</v>
+      </c>
+      <c r="AQ312">
+        <v>1.29</v>
+      </c>
+      <c r="AR312">
+        <v>1.4</v>
+      </c>
+      <c r="AS312">
+        <v>1.2</v>
+      </c>
+      <c r="AT312">
+        <v>1.5</v>
+      </c>
+      <c r="AU312">
+        <v>1.35</v>
+      </c>
+      <c r="AV312">
+        <v>1.7</v>
+      </c>
+      <c r="AW312">
+        <v>3.05</v>
+      </c>
+      <c r="AX312">
+        <v>2.1</v>
+      </c>
+      <c r="AY312">
+        <v>5.5</v>
+      </c>
+      <c r="AZ312">
+        <v>1.9</v>
+      </c>
+      <c r="BA312">
+        <v>1.29</v>
+      </c>
+      <c r="BB312">
+        <v>1.62</v>
+      </c>
+      <c r="BC312">
+        <v>2.08</v>
+      </c>
+      <c r="BD312">
+        <v>2.72</v>
+      </c>
+      <c r="BE312">
+        <v>3.6</v>
+      </c>
+      <c r="BF312">
+        <v>4</v>
+      </c>
+      <c r="BG312">
+        <v>5</v>
+      </c>
+      <c r="BH312">
+        <v>7</v>
+      </c>
+      <c r="BI312">
+        <v>4</v>
+      </c>
+      <c r="BJ312">
+        <v>11</v>
+      </c>
+      <c r="BK312">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>5188788</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45144.25</v>
+      </c>
+      <c r="F313">
+        <v>29</v>
+      </c>
+      <c r="G313" t="s">
+        <v>71</v>
+      </c>
+      <c r="H313" t="s">
+        <v>66</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313" t="s">
+        <v>89</v>
+      </c>
+      <c r="P313" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q313">
+        <v>3</v>
+      </c>
+      <c r="R313">
+        <v>8</v>
+      </c>
+      <c r="S313">
+        <v>11</v>
+      </c>
+      <c r="T313">
+        <v>3</v>
+      </c>
+      <c r="U313">
+        <v>2.2</v>
+      </c>
+      <c r="V313">
+        <v>3.5</v>
+      </c>
+      <c r="W313">
+        <v>1.36</v>
+      </c>
+      <c r="X313">
+        <v>3</v>
+      </c>
+      <c r="Y313">
+        <v>2.75</v>
+      </c>
+      <c r="Z313">
+        <v>1.4</v>
+      </c>
+      <c r="AA313">
+        <v>8</v>
+      </c>
+      <c r="AB313">
+        <v>1.08</v>
+      </c>
+      <c r="AC313">
+        <v>2.15</v>
+      </c>
+      <c r="AD313">
+        <v>3.4</v>
+      </c>
+      <c r="AE313">
+        <v>2.9</v>
+      </c>
+      <c r="AF313">
+        <v>1.05</v>
+      </c>
+      <c r="AG313">
+        <v>9</v>
+      </c>
+      <c r="AH313">
+        <v>1.3</v>
+      </c>
+      <c r="AI313">
+        <v>3.4</v>
+      </c>
+      <c r="AJ313">
+        <v>1.8</v>
+      </c>
+      <c r="AK313">
+        <v>1.91</v>
+      </c>
+      <c r="AL313">
+        <v>1.67</v>
+      </c>
+      <c r="AM313">
+        <v>2.1</v>
+      </c>
+      <c r="AN313">
+        <v>1.36</v>
+      </c>
+      <c r="AO313">
+        <v>1.3</v>
+      </c>
+      <c r="AP313">
+        <v>1.6</v>
+      </c>
+      <c r="AQ313">
+        <v>2</v>
+      </c>
+      <c r="AR313">
+        <v>1.07</v>
+      </c>
+      <c r="AS313">
+        <v>1.93</v>
+      </c>
+      <c r="AT313">
+        <v>1.07</v>
+      </c>
+      <c r="AU313">
+        <v>1.39</v>
+      </c>
+      <c r="AV313">
+        <v>1.32</v>
+      </c>
+      <c r="AW313">
+        <v>2.71</v>
+      </c>
+      <c r="AX313">
+        <v>2</v>
+      </c>
+      <c r="AY313">
+        <v>5.5</v>
+      </c>
+      <c r="AZ313">
+        <v>1.95</v>
+      </c>
+      <c r="BA313">
+        <v>1.21</v>
+      </c>
+      <c r="BB313">
+        <v>1.39</v>
+      </c>
+      <c r="BC313">
+        <v>1.7</v>
+      </c>
+      <c r="BD313">
+        <v>1.98</v>
+      </c>
+      <c r="BE313">
+        <v>2.9</v>
+      </c>
+      <c r="BF313">
+        <v>3</v>
+      </c>
+      <c r="BG313">
+        <v>0</v>
+      </c>
+      <c r="BH313">
+        <v>8</v>
+      </c>
+      <c r="BI313">
+        <v>10</v>
+      </c>
+      <c r="BJ313">
+        <v>11</v>
+      </c>
+      <c r="BK313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:63">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>5188794</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F314">
+        <v>29</v>
+      </c>
+      <c r="G314" t="s">
+        <v>80</v>
+      </c>
+      <c r="H314" t="s">
+        <v>83</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314" t="s">
+        <v>89</v>
+      </c>
+      <c r="P314" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q314">
+        <v>6</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+      <c r="S314">
+        <v>10</v>
+      </c>
+      <c r="T314">
+        <v>2.88</v>
+      </c>
+      <c r="U314">
+        <v>2.2</v>
+      </c>
+      <c r="V314">
+        <v>3.6</v>
+      </c>
+      <c r="W314">
+        <v>1.36</v>
+      </c>
+      <c r="X314">
+        <v>3</v>
+      </c>
+      <c r="Y314">
+        <v>2.75</v>
+      </c>
+      <c r="Z314">
+        <v>1.4</v>
+      </c>
+      <c r="AA314">
+        <v>8</v>
+      </c>
+      <c r="AB314">
+        <v>1.08</v>
+      </c>
+      <c r="AC314">
+        <v>2.1</v>
+      </c>
+      <c r="AD314">
+        <v>3.5</v>
+      </c>
+      <c r="AE314">
+        <v>2.88</v>
+      </c>
+      <c r="AF314">
+        <v>1.02</v>
+      </c>
+      <c r="AG314">
+        <v>9.5</v>
+      </c>
+      <c r="AH314">
+        <v>1.22</v>
+      </c>
+      <c r="AI314">
+        <v>3.7</v>
+      </c>
+      <c r="AJ314">
+        <v>1.83</v>
+      </c>
+      <c r="AK314">
+        <v>1.87</v>
+      </c>
+      <c r="AL314">
+        <v>1.73</v>
+      </c>
+      <c r="AM314">
+        <v>2</v>
+      </c>
+      <c r="AN314">
+        <v>1.3</v>
+      </c>
+      <c r="AO314">
+        <v>1.25</v>
+      </c>
+      <c r="AP314">
+        <v>1.66</v>
+      </c>
+      <c r="AQ314">
+        <v>0.93</v>
+      </c>
+      <c r="AR314">
+        <v>1.15</v>
+      </c>
+      <c r="AS314">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT314">
+        <v>1.14</v>
+      </c>
+      <c r="AU314">
+        <v>1.47</v>
+      </c>
+      <c r="AV314">
+        <v>1.22</v>
+      </c>
+      <c r="AW314">
+        <v>2.69</v>
+      </c>
+      <c r="AX314">
+        <v>1.58</v>
+      </c>
+      <c r="AY314">
+        <v>5.5</v>
+      </c>
+      <c r="AZ314">
+        <v>2.7</v>
+      </c>
+      <c r="BA314">
+        <v>1.4</v>
+      </c>
+      <c r="BB314">
+        <v>1.65</v>
+      </c>
+      <c r="BC314">
+        <v>2.13</v>
+      </c>
+      <c r="BD314">
+        <v>2.8</v>
+      </c>
+      <c r="BE314">
+        <v>3.7</v>
+      </c>
+      <c r="BF314">
+        <v>4</v>
+      </c>
+      <c r="BG314">
+        <v>3</v>
+      </c>
+      <c r="BH314">
+        <v>11</v>
+      </c>
+      <c r="BI314">
+        <v>10</v>
+      </c>
+      <c r="BJ314">
+        <v>15</v>
+      </c>
+      <c r="BK314">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:63">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>5188793</v>
+      </c>
+      <c r="C315" t="s">
+        <v>63</v>
+      </c>
+      <c r="D315" t="s">
+        <v>64</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F315">
+        <v>29</v>
+      </c>
+      <c r="G315" t="s">
+        <v>74</v>
+      </c>
+      <c r="H315" t="s">
+        <v>76</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>3</v>
+      </c>
+      <c r="M315">
+        <v>3</v>
+      </c>
+      <c r="N315">
+        <v>6</v>
+      </c>
+      <c r="O315" t="s">
+        <v>264</v>
+      </c>
+      <c r="P315" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q315">
+        <v>3</v>
+      </c>
+      <c r="R315">
+        <v>7</v>
+      </c>
+      <c r="S315">
+        <v>10</v>
+      </c>
+      <c r="T315">
+        <v>4</v>
+      </c>
+      <c r="U315">
+        <v>2</v>
+      </c>
+      <c r="V315">
+        <v>3</v>
+      </c>
+      <c r="W315">
+        <v>1.5</v>
+      </c>
+      <c r="X315">
+        <v>2.5</v>
+      </c>
+      <c r="Y315">
+        <v>3.4</v>
+      </c>
+      <c r="Z315">
+        <v>1.3</v>
+      </c>
+      <c r="AA315">
+        <v>10</v>
+      </c>
+      <c r="AB315">
+        <v>1.06</v>
+      </c>
+      <c r="AC315">
+        <v>2.88</v>
+      </c>
+      <c r="AD315">
+        <v>3.1</v>
+      </c>
+      <c r="AE315">
+        <v>2.25</v>
+      </c>
+      <c r="AF315">
+        <v>1.08</v>
+      </c>
+      <c r="AG315">
+        <v>6.5</v>
+      </c>
+      <c r="AH315">
+        <v>1.37</v>
+      </c>
+      <c r="AI315">
+        <v>2.8</v>
+      </c>
+      <c r="AJ315">
+        <v>2.25</v>
+      </c>
+      <c r="AK315">
+        <v>1.57</v>
+      </c>
+      <c r="AL315">
+        <v>1.91</v>
+      </c>
+      <c r="AM315">
+        <v>1.8</v>
+      </c>
+      <c r="AN315">
+        <v>1.53</v>
+      </c>
+      <c r="AO315">
+        <v>1.28</v>
+      </c>
+      <c r="AP315">
+        <v>1.28</v>
+      </c>
+      <c r="AQ315">
+        <v>1.07</v>
+      </c>
+      <c r="AR315">
+        <v>0.93</v>
+      </c>
+      <c r="AS315">
+        <v>1.07</v>
+      </c>
+      <c r="AT315">
+        <v>0.93</v>
+      </c>
+      <c r="AU315">
+        <v>1.15</v>
+      </c>
+      <c r="AV315">
+        <v>1.31</v>
+      </c>
+      <c r="AW315">
+        <v>2.46</v>
+      </c>
+      <c r="AX315">
+        <v>2</v>
+      </c>
+      <c r="AY315">
+        <v>5.25</v>
+      </c>
+      <c r="AZ315">
+        <v>2</v>
+      </c>
+      <c r="BA315">
+        <v>1.46</v>
+      </c>
+      <c r="BB315">
+        <v>1.83</v>
+      </c>
+      <c r="BC315">
+        <v>2.39</v>
+      </c>
+      <c r="BD315">
+        <v>3.1</v>
+      </c>
+      <c r="BE315">
+        <v>4.4</v>
+      </c>
+      <c r="BF315">
+        <v>6</v>
+      </c>
+      <c r="BG315">
+        <v>7</v>
+      </c>
+      <c r="BH315">
+        <v>4</v>
+      </c>
+      <c r="BI315">
+        <v>10</v>
+      </c>
+      <c r="BJ315">
+        <v>10</v>
+      </c>
+      <c r="BK315">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:63">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>5188792</v>
+      </c>
+      <c r="C316" t="s">
+        <v>63</v>
+      </c>
+      <c r="D316" t="s">
+        <v>64</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F316">
+        <v>29</v>
+      </c>
+      <c r="G316" t="s">
+        <v>70</v>
+      </c>
+      <c r="H316" t="s">
+        <v>82</v>
+      </c>
+      <c r="I316">
+        <v>2</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>3</v>
+      </c>
+      <c r="L316">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>2</v>
+      </c>
+      <c r="N316">
+        <v>4</v>
+      </c>
+      <c r="O316" t="s">
+        <v>265</v>
+      </c>
+      <c r="P316" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q316">
+        <v>2</v>
+      </c>
+      <c r="R316">
+        <v>7</v>
+      </c>
+      <c r="S316">
+        <v>9</v>
+      </c>
+      <c r="T316">
+        <v>4</v>
+      </c>
+      <c r="U316">
+        <v>2.05</v>
+      </c>
+      <c r="V316">
+        <v>3</v>
+      </c>
+      <c r="W316">
+        <v>1.5</v>
+      </c>
+      <c r="X316">
+        <v>2.5</v>
+      </c>
+      <c r="Y316">
+        <v>3.4</v>
+      </c>
+      <c r="Z316">
+        <v>1.3</v>
+      </c>
+      <c r="AA316">
+        <v>10</v>
+      </c>
+      <c r="AB316">
+        <v>1.06</v>
+      </c>
+      <c r="AC316">
+        <v>3.1</v>
+      </c>
+      <c r="AD316">
+        <v>3.2</v>
+      </c>
+      <c r="AE316">
+        <v>2.1</v>
+      </c>
+      <c r="AF316">
+        <v>1.08</v>
+      </c>
+      <c r="AG316">
+        <v>6.5</v>
+      </c>
+      <c r="AH316">
+        <v>1.37</v>
+      </c>
+      <c r="AI316">
+        <v>2.8</v>
+      </c>
+      <c r="AJ316">
+        <v>2.25</v>
+      </c>
+      <c r="AK316">
+        <v>1.57</v>
+      </c>
+      <c r="AL316">
+        <v>1.91</v>
+      </c>
+      <c r="AM316">
+        <v>1.8</v>
+      </c>
+      <c r="AN316">
+        <v>1.57</v>
+      </c>
+      <c r="AO316">
+        <v>1.28</v>
+      </c>
+      <c r="AP316">
+        <v>1.28</v>
+      </c>
+      <c r="AQ316">
+        <v>1.07</v>
+      </c>
+      <c r="AR316">
+        <v>1.46</v>
+      </c>
+      <c r="AS316">
+        <v>1.07</v>
+      </c>
+      <c r="AT316">
+        <v>1.43</v>
+      </c>
+      <c r="AU316">
+        <v>1.18</v>
+      </c>
+      <c r="AV316">
+        <v>1.25</v>
+      </c>
+      <c r="AW316">
+        <v>2.43</v>
+      </c>
+      <c r="AX316">
+        <v>2.54</v>
+      </c>
+      <c r="AY316">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ316">
+        <v>1.73</v>
+      </c>
+      <c r="BA316">
+        <v>1.54</v>
+      </c>
+      <c r="BB316">
+        <v>1.97</v>
+      </c>
+      <c r="BC316">
+        <v>2.62</v>
+      </c>
+      <c r="BD316">
+        <v>3.5</v>
+      </c>
+      <c r="BE316">
+        <v>5.1</v>
+      </c>
+      <c r="BF316">
+        <v>5</v>
+      </c>
+      <c r="BG316">
+        <v>7</v>
+      </c>
+      <c r="BH316">
+        <v>7</v>
+      </c>
+      <c r="BI316">
+        <v>4</v>
+      </c>
+      <c r="BJ316">
+        <v>12</v>
+      </c>
+      <c r="BK316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:63">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>5188790</v>
+      </c>
+      <c r="C317" t="s">
+        <v>63</v>
+      </c>
+      <c r="D317" t="s">
+        <v>64</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F317">
+        <v>29</v>
+      </c>
+      <c r="G317" t="s">
+        <v>78</v>
+      </c>
+      <c r="H317" t="s">
+        <v>85</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>1</v>
+      </c>
+      <c r="O317" t="s">
+        <v>99</v>
+      </c>
+      <c r="P317" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q317">
+        <v>4</v>
+      </c>
+      <c r="R317">
+        <v>6</v>
+      </c>
+      <c r="S317">
+        <v>10</v>
+      </c>
+      <c r="T317">
+        <v>3.6</v>
+      </c>
+      <c r="U317">
+        <v>1.95</v>
+      </c>
+      <c r="V317">
+        <v>3.4</v>
+      </c>
+      <c r="W317">
+        <v>1.53</v>
+      </c>
+      <c r="X317">
+        <v>2.38</v>
+      </c>
+      <c r="Y317">
+        <v>3.5</v>
+      </c>
+      <c r="Z317">
+        <v>1.29</v>
+      </c>
+      <c r="AA317">
+        <v>11</v>
+      </c>
+      <c r="AB317">
+        <v>1.05</v>
+      </c>
+      <c r="AC317">
+        <v>2.62</v>
+      </c>
+      <c r="AD317">
+        <v>3.1</v>
+      </c>
+      <c r="AE317">
+        <v>2.45</v>
+      </c>
+      <c r="AF317">
+        <v>1.09</v>
+      </c>
+      <c r="AG317">
+        <v>6.2</v>
+      </c>
+      <c r="AH317">
+        <v>1.4</v>
+      </c>
+      <c r="AI317">
+        <v>2.7</v>
+      </c>
+      <c r="AJ317">
+        <v>2.37</v>
+      </c>
+      <c r="AK317">
+        <v>1.53</v>
+      </c>
+      <c r="AL317">
+        <v>2</v>
+      </c>
+      <c r="AM317">
+        <v>1.73</v>
+      </c>
+      <c r="AN317">
+        <v>1.44</v>
+      </c>
+      <c r="AO317">
+        <v>1.28</v>
+      </c>
+      <c r="AP317">
+        <v>1.36</v>
+      </c>
+      <c r="AQ317">
+        <v>1.21</v>
+      </c>
+      <c r="AR317">
+        <v>1.5</v>
+      </c>
+      <c r="AS317">
+        <v>1.33</v>
+      </c>
+      <c r="AT317">
+        <v>1.4</v>
+      </c>
+      <c r="AU317">
+        <v>1.5</v>
+      </c>
+      <c r="AV317">
+        <v>1.29</v>
+      </c>
+      <c r="AW317">
+        <v>2.79</v>
+      </c>
+      <c r="AX317">
+        <v>2</v>
+      </c>
+      <c r="AY317">
+        <v>5.5</v>
+      </c>
+      <c r="AZ317">
+        <v>2</v>
+      </c>
+      <c r="BA317">
+        <v>1.29</v>
+      </c>
+      <c r="BB317">
+        <v>1.49</v>
+      </c>
+      <c r="BC317">
+        <v>1.87</v>
+      </c>
+      <c r="BD317">
+        <v>2.41</v>
+      </c>
+      <c r="BE317">
+        <v>3.1</v>
+      </c>
+      <c r="BF317">
+        <v>2</v>
+      </c>
+      <c r="BG317">
+        <v>0</v>
+      </c>
+      <c r="BH317">
+        <v>7</v>
+      </c>
+      <c r="BI317">
+        <v>7</v>
+      </c>
+      <c r="BJ317">
+        <v>9</v>
+      </c>
+      <c r="BK317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:63">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>5188789</v>
+      </c>
+      <c r="C318" t="s">
+        <v>63</v>
+      </c>
+      <c r="D318" t="s">
+        <v>64</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F318">
+        <v>29</v>
+      </c>
+      <c r="G318" t="s">
+        <v>67</v>
+      </c>
+      <c r="H318" t="s">
+        <v>75</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318" t="s">
+        <v>230</v>
+      </c>
+      <c r="P318" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q318">
+        <v>3</v>
+      </c>
+      <c r="R318">
+        <v>5</v>
+      </c>
+      <c r="S318">
+        <v>8</v>
+      </c>
+      <c r="T318">
+        <v>3.6</v>
+      </c>
+      <c r="U318">
+        <v>1.91</v>
+      </c>
+      <c r="V318">
+        <v>3.6</v>
+      </c>
+      <c r="W318">
+        <v>1.57</v>
+      </c>
+      <c r="X318">
+        <v>2.25</v>
+      </c>
+      <c r="Y318">
+        <v>3.75</v>
+      </c>
+      <c r="Z318">
+        <v>1.25</v>
+      </c>
+      <c r="AA318">
+        <v>13</v>
+      </c>
+      <c r="AB318">
+        <v>1.04</v>
+      </c>
+      <c r="AC318">
+        <v>2.9</v>
+      </c>
+      <c r="AD318">
+        <v>3</v>
+      </c>
+      <c r="AE318">
+        <v>2.3</v>
+      </c>
+      <c r="AF318">
+        <v>1.12</v>
+      </c>
+      <c r="AG318">
+        <v>5.3</v>
+      </c>
+      <c r="AH318">
+        <v>1.5</v>
+      </c>
+      <c r="AI318">
+        <v>2.4</v>
+      </c>
+      <c r="AJ318">
+        <v>2.5</v>
+      </c>
+      <c r="AK318">
+        <v>1.47</v>
+      </c>
+      <c r="AL318">
+        <v>2.2</v>
+      </c>
+      <c r="AM318">
+        <v>1.62</v>
+      </c>
+      <c r="AN318">
+        <v>1.4</v>
+      </c>
+      <c r="AO318">
+        <v>1.3</v>
+      </c>
+      <c r="AP318">
+        <v>1.38</v>
+      </c>
+      <c r="AQ318">
+        <v>1.71</v>
+      </c>
+      <c r="AR318">
+        <v>0.5</v>
+      </c>
+      <c r="AS318">
+        <v>1.8</v>
+      </c>
+      <c r="AT318">
+        <v>0.47</v>
+      </c>
+      <c r="AU318">
+        <v>1.09</v>
+      </c>
+      <c r="AV318">
+        <v>0.97</v>
+      </c>
+      <c r="AW318">
+        <v>2.06</v>
+      </c>
+      <c r="AX318">
+        <v>2.15</v>
+      </c>
+      <c r="AY318">
+        <v>5.75</v>
+      </c>
+      <c r="AZ318">
+        <v>1.83</v>
+      </c>
+      <c r="BA318">
+        <v>1.25</v>
+      </c>
+      <c r="BB318">
+        <v>1.42</v>
+      </c>
+      <c r="BC318">
+        <v>1.95</v>
+      </c>
+      <c r="BD318">
+        <v>2.19</v>
+      </c>
+      <c r="BE318">
+        <v>2.9</v>
+      </c>
+      <c r="BF318">
+        <v>2</v>
+      </c>
+      <c r="BG318">
+        <v>4</v>
+      </c>
+      <c r="BH318">
+        <v>2</v>
+      </c>
+      <c r="BI318">
+        <v>6</v>
+      </c>
+      <c r="BJ318">
+        <v>4</v>
+      </c>
+      <c r="BK318">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:63">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>5188791</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319" t="s">
+        <v>64</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F319">
+        <v>29</v>
+      </c>
+      <c r="G319" t="s">
+        <v>69</v>
+      </c>
+      <c r="H319" t="s">
+        <v>81</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>2</v>
+      </c>
+      <c r="L319">
+        <v>4</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+      <c r="N319">
+        <v>5</v>
+      </c>
+      <c r="O319" t="s">
+        <v>266</v>
+      </c>
+      <c r="P319" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q319">
+        <v>3</v>
+      </c>
+      <c r="R319">
+        <v>2</v>
+      </c>
+      <c r="S319">
+        <v>5</v>
+      </c>
+      <c r="T319">
+        <v>2.3</v>
+      </c>
+      <c r="U319">
+        <v>2.38</v>
+      </c>
+      <c r="V319">
+        <v>4.5</v>
+      </c>
+      <c r="W319">
+        <v>1.33</v>
+      </c>
+      <c r="X319">
+        <v>3.25</v>
+      </c>
+      <c r="Y319">
+        <v>2.5</v>
+      </c>
+      <c r="Z319">
+        <v>1.5</v>
+      </c>
+      <c r="AA319">
+        <v>6</v>
+      </c>
+      <c r="AB319">
+        <v>1.13</v>
+      </c>
+      <c r="AC319">
+        <v>1.65</v>
+      </c>
+      <c r="AD319">
+        <v>3.8</v>
+      </c>
+      <c r="AE319">
+        <v>4.2</v>
+      </c>
+      <c r="AF319">
+        <v>1.04</v>
+      </c>
+      <c r="AG319">
+        <v>8.5</v>
+      </c>
+      <c r="AH319">
+        <v>1.22</v>
+      </c>
+      <c r="AI319">
+        <v>3.8</v>
+      </c>
+      <c r="AJ319">
+        <v>1.61</v>
+      </c>
+      <c r="AK319">
+        <v>2.15</v>
+      </c>
+      <c r="AL319">
+        <v>1.67</v>
+      </c>
+      <c r="AM319">
+        <v>2.1</v>
+      </c>
+      <c r="AN319">
+        <v>1.17</v>
+      </c>
+      <c r="AO319">
+        <v>1.2</v>
+      </c>
+      <c r="AP319">
+        <v>2</v>
+      </c>
+      <c r="AQ319">
+        <v>1.71</v>
+      </c>
+      <c r="AR319">
+        <v>1.21</v>
+      </c>
+      <c r="AS319">
+        <v>1.8</v>
+      </c>
+      <c r="AT319">
+        <v>1.13</v>
+      </c>
+      <c r="AU319">
+        <v>1.69</v>
+      </c>
+      <c r="AV319">
+        <v>1.33</v>
+      </c>
+      <c r="AW319">
+        <v>3.02</v>
+      </c>
+      <c r="AX319">
+        <v>1.47</v>
+      </c>
+      <c r="AY319">
+        <v>6.25</v>
+      </c>
+      <c r="AZ319">
+        <v>2.95</v>
+      </c>
+      <c r="BA319">
+        <v>1.28</v>
+      </c>
+      <c r="BB319">
+        <v>1.48</v>
+      </c>
+      <c r="BC319">
+        <v>1.93</v>
+      </c>
+      <c r="BD319">
+        <v>2.36</v>
+      </c>
+      <c r="BE319">
+        <v>3.1</v>
+      </c>
+      <c r="BF319">
+        <v>15</v>
+      </c>
+      <c r="BG319">
+        <v>6</v>
+      </c>
+      <c r="BH319">
+        <v>8</v>
+      </c>
+      <c r="BI319">
+        <v>1</v>
+      </c>
+      <c r="BJ319">
+        <v>23</v>
+      </c>
+      <c r="BK319">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,21 @@
     <t>['21', '41', '69', '80']</t>
   </si>
   <si>
+    <t>['7', '12', '69']</t>
+  </si>
+  <si>
+    <t>['45', '56']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['18', '89']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -946,9 +961,6 @@
     <t>['40', '61']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['20', '56', '87']</t>
   </si>
   <si>
@@ -992,9 +1004,6 @@
   </si>
   <si>
     <t>['18', '32', '55']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['28', '40']</t>
@@ -1169,6 +1178,15 @@
   </si>
   <si>
     <t>['10', '90+6']</t>
+  </si>
+  <si>
+    <t>['28', '79', '83']</t>
+  </si>
+  <si>
+    <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['10', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1965,7 +1983,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2052,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2434,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>1.14</v>
@@ -2538,7 +2556,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2628,7 +2646,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3010,7 +3028,7 @@
         <v>1.93</v>
       </c>
       <c r="AT8">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3389,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT10">
         <v>1.13</v>
@@ -3493,7 +3511,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3771,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3875,7 +3893,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4066,7 +4084,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4347,7 +4365,7 @@
         <v>1.07</v>
       </c>
       <c r="AT15">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4535,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT16">
         <v>0.6899999999999999</v>
@@ -5108,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
         <v>0.47</v>
@@ -5299,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT20">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5493,7 +5511,7 @@
         <v>1.07</v>
       </c>
       <c r="AT21">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5681,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.87</v>
@@ -5785,7 +5803,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6827,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU28">
         <v>1.24</v>
@@ -7209,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT30">
         <v>0.47</v>
@@ -7313,7 +7331,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7400,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>2.08</v>
@@ -7504,7 +7522,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7594,7 +7612,7 @@
         <v>1.79</v>
       </c>
       <c r="AT32">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -7785,7 +7803,7 @@
         <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>1.69</v>
@@ -7886,7 +7904,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7976,7 +7994,7 @@
         <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -8077,7 +8095,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8167,7 +8185,7 @@
         <v>1.73</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU35">
         <v>1.23</v>
@@ -8355,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT36">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU36">
         <v>2.03</v>
@@ -8459,7 +8477,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8549,7 +8567,7 @@
         <v>1.07</v>
       </c>
       <c r="AT37">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8650,7 +8668,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8740,7 +8758,7 @@
         <v>1.07</v>
       </c>
       <c r="AT38">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8841,7 +8859,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8928,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
         <v>1.07</v>
@@ -9119,10 +9137,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT40">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9310,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.56</v>
@@ -9501,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT42">
         <v>1.14</v>
@@ -9692,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>1.43</v>
@@ -10178,7 +10196,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10369,7 +10387,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10456,7 +10474,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT47">
         <v>1.14</v>
@@ -10560,7 +10578,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10647,7 +10665,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT48">
         <v>2.08</v>
@@ -10838,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT49">
         <v>0.93</v>
@@ -11029,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>0.36</v>
@@ -11133,7 +11151,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11324,7 +11342,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11411,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU52">
         <v>1.6</v>
@@ -11515,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11605,7 +11623,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11706,7 +11724,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11796,7 +11814,7 @@
         <v>1.4</v>
       </c>
       <c r="AT54">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11897,7 +11915,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11987,7 +12005,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU55">
         <v>1.84</v>
@@ -12175,10 +12193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT56">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU56">
         <v>1.74</v>
@@ -12279,7 +12297,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12751,7 +12769,7 @@
         <v>1.79</v>
       </c>
       <c r="AT59">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>2.11</v>
@@ -12939,7 +12957,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT60">
         <v>1.43</v>
@@ -13043,7 +13061,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13130,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT61">
         <v>0.6899999999999999</v>
@@ -13324,7 +13342,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>1.34</v>
@@ -13512,7 +13530,7 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT63">
         <v>2.08</v>
@@ -13616,7 +13634,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13706,7 +13724,7 @@
         <v>1.07</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU64">
         <v>1.45</v>
@@ -13807,7 +13825,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13897,7 +13915,7 @@
         <v>1.13</v>
       </c>
       <c r="AT65">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13998,7 +14016,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14085,10 +14103,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.92</v>
@@ -14658,10 +14676,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT69">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14849,10 +14867,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU70">
         <v>1.27</v>
@@ -14953,7 +14971,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15040,10 +15058,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT71">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15335,7 +15353,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15613,7 +15631,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT74">
         <v>1.14</v>
@@ -15717,7 +15735,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15804,10 +15822,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT75">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.36</v>
@@ -15995,10 +16013,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -16186,10 +16204,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU77">
         <v>1.68</v>
@@ -16481,7 +16499,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16672,7 +16690,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16759,7 +16777,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT80">
         <v>1.43</v>
@@ -16953,7 +16971,7 @@
         <v>1.8</v>
       </c>
       <c r="AT81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU81">
         <v>0.95</v>
@@ -17141,7 +17159,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
         <v>1.19</v>
@@ -17245,7 +17263,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17523,7 +17541,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT84">
         <v>1.4</v>
@@ -17714,10 +17732,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU85">
         <v>1.9</v>
@@ -17818,7 +17836,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17908,7 +17926,7 @@
         <v>1.07</v>
       </c>
       <c r="AT86">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU86">
         <v>1.59</v>
@@ -18200,7 +18218,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18290,7 +18308,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU88">
         <v>1.38</v>
@@ -18669,10 +18687,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU90">
         <v>1.55</v>
@@ -18863,7 +18881,7 @@
         <v>1.93</v>
       </c>
       <c r="AT91">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU91">
         <v>1.31</v>
@@ -18964,7 +18982,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19155,7 +19173,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19245,7 +19263,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -19627,7 +19645,7 @@
         <v>1.4</v>
       </c>
       <c r="AT95">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19815,7 +19833,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
         <v>1.07</v>
@@ -20110,7 +20128,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20197,10 +20215,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
+        <v>1.31</v>
+      </c>
+      <c r="AT98">
         <v>1.33</v>
-      </c>
-      <c r="AT98">
-        <v>1.21</v>
       </c>
       <c r="AU98">
         <v>1.6</v>
@@ -20388,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>1.19</v>
@@ -20579,7 +20597,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>1.13</v>
@@ -20961,7 +20979,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT102">
         <v>1.43</v>
@@ -21065,7 +21083,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21155,7 +21173,7 @@
         <v>1.07</v>
       </c>
       <c r="AT103">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU103">
         <v>1.26</v>
@@ -21256,7 +21274,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21537,7 +21555,7 @@
         <v>1.79</v>
       </c>
       <c r="AT105">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU105">
         <v>2.09</v>
@@ -21638,7 +21656,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21725,10 +21743,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT106">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU106">
         <v>1.5</v>
@@ -21829,7 +21847,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21916,7 +21934,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT107">
         <v>0.6899999999999999</v>
@@ -22107,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT108">
         <v>0.36</v>
@@ -22298,10 +22316,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT109">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22402,7 +22420,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22492,7 +22510,7 @@
         <v>1.13</v>
       </c>
       <c r="AT110">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU110">
         <v>1.32</v>
@@ -22683,7 +22701,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU111">
         <v>1.51</v>
@@ -22784,7 +22802,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22874,7 +22892,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT112">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -22975,7 +22993,7 @@
         <v>157</v>
       </c>
       <c r="P113" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -23065,7 +23083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU113">
         <v>1.53</v>
@@ -23166,7 +23184,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23253,7 +23271,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT114">
         <v>1.5</v>
@@ -23548,7 +23566,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23739,7 +23757,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -24017,7 +24035,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
         <v>1.07</v>
@@ -24312,7 +24330,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24399,10 +24417,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24503,7 +24521,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24781,7 +24799,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -24972,7 +24990,7 @@
         <v>0.2</v>
       </c>
       <c r="AS123">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>0.47</v>
@@ -25076,7 +25094,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25163,10 +25181,10 @@
         <v>1.2</v>
       </c>
       <c r="AS124">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT124">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25357,7 +25375,7 @@
         <v>1.8</v>
       </c>
       <c r="AT125">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25458,7 +25476,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25649,7 +25667,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25736,10 +25754,10 @@
         <v>1.4</v>
       </c>
       <c r="AS127">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT127">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU127">
         <v>1.15</v>
@@ -25927,10 +25945,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU128">
         <v>1.22</v>
@@ -26118,7 +26136,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT129">
         <v>1.43</v>
@@ -26309,10 +26327,10 @@
         <v>1.67</v>
       </c>
       <c r="AS130">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -26604,7 +26622,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26694,7 +26712,7 @@
         <v>1.13</v>
       </c>
       <c r="AT132">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU132">
         <v>1.24</v>
@@ -26882,10 +26900,10 @@
         <v>1.8</v>
       </c>
       <c r="AS133">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -27076,7 +27094,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT134">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.6</v>
@@ -27458,7 +27476,7 @@
         <v>1.07</v>
       </c>
       <c r="AT136">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU136">
         <v>1.32</v>
@@ -27750,7 +27768,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27837,7 +27855,7 @@
         <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT138">
         <v>1.4</v>
@@ -28219,7 +28237,7 @@
         <v>2</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT140">
         <v>2.08</v>
@@ -28514,7 +28532,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28792,7 +28810,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT143">
         <v>0.6899999999999999</v>
@@ -28986,7 +29004,7 @@
         <v>1.2</v>
       </c>
       <c r="AT144">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -29177,7 +29195,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT145">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU145">
         <v>1.66</v>
@@ -29278,7 +29296,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29365,7 +29383,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT146">
         <v>0.47</v>
@@ -29469,7 +29487,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29556,10 +29574,10 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT147">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU147">
         <v>1.13</v>
@@ -29750,7 +29768,7 @@
         <v>1.8</v>
       </c>
       <c r="AT148">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU148">
         <v>1.11</v>
@@ -29851,7 +29869,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29938,7 +29956,7 @@
         <v>1.17</v>
       </c>
       <c r="AS149">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
         <v>0.93</v>
@@ -30129,10 +30147,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT150">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>1.41</v>
@@ -30320,7 +30338,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT151">
         <v>1.07</v>
@@ -30424,7 +30442,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30514,7 +30532,7 @@
         <v>1.93</v>
       </c>
       <c r="AT152">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU152">
         <v>1.43</v>
@@ -30615,7 +30633,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30702,7 +30720,7 @@
         <v>0.86</v>
       </c>
       <c r="AS153">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT153">
         <v>0.6899999999999999</v>
@@ -31087,7 +31105,7 @@
         <v>1.79</v>
       </c>
       <c r="AT155">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU155">
         <v>1.89</v>
@@ -31188,7 +31206,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31379,7 +31397,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31570,7 +31588,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31660,7 +31678,7 @@
         <v>1.8</v>
       </c>
       <c r="AT158">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU158">
         <v>1.7</v>
@@ -31848,10 +31866,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT159">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU159">
         <v>1.99</v>
@@ -32039,7 +32057,7 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT160">
         <v>1.19</v>
@@ -32233,7 +32251,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU161">
         <v>1.27</v>
@@ -32421,10 +32439,10 @@
         <v>1.86</v>
       </c>
       <c r="AS162">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT162">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32803,10 +32821,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT164">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU164">
         <v>1.44</v>
@@ -32907,7 +32925,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33185,7 +33203,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT166">
         <v>1.4</v>
@@ -33376,7 +33394,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT167">
         <v>1.43</v>
@@ -33570,7 +33588,7 @@
         <v>1.07</v>
       </c>
       <c r="AT168">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU168">
         <v>1.54</v>
@@ -33952,7 +33970,7 @@
         <v>1.93</v>
       </c>
       <c r="AT170">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU170">
         <v>1.37</v>
@@ -34140,10 +34158,10 @@
         <v>1.14</v>
       </c>
       <c r="AS171">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT171">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU171">
         <v>1.49</v>
@@ -34435,7 +34453,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34713,10 +34731,10 @@
         <v>1.17</v>
       </c>
       <c r="AS174">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT174">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU174">
         <v>1.22</v>
@@ -34817,7 +34835,7 @@
         <v>196</v>
       </c>
       <c r="P175" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34904,7 +34922,7 @@
         <v>0.14</v>
       </c>
       <c r="AS175">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT175">
         <v>0.36</v>
@@ -35199,7 +35217,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35286,10 +35304,10 @@
         <v>1.71</v>
       </c>
       <c r="AS177">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT177">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU177">
         <v>1.32</v>
@@ -35477,7 +35495,7 @@
         <v>1.67</v>
       </c>
       <c r="AS178">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT178">
         <v>1.4</v>
@@ -35581,7 +35599,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35668,7 +35686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS179">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT179">
         <v>1.13</v>
@@ -35963,7 +35981,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36050,7 +36068,7 @@
         <v>1.25</v>
       </c>
       <c r="AS181">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT181">
         <v>1.5</v>
@@ -36241,10 +36259,10 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU182">
         <v>1.43</v>
@@ -36536,7 +36554,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36626,7 +36644,7 @@
         <v>1.07</v>
       </c>
       <c r="AT184">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU184">
         <v>1.34</v>
@@ -36814,10 +36832,10 @@
         <v>1.63</v>
       </c>
       <c r="AS185">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT185">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU185">
         <v>1.46</v>
@@ -36918,7 +36936,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -37008,7 +37026,7 @@
         <v>1.13</v>
       </c>
       <c r="AT186">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU186">
         <v>1.32</v>
@@ -37300,7 +37318,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37390,7 +37408,7 @@
         <v>1.4</v>
       </c>
       <c r="AT188">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU188">
         <v>1.43</v>
@@ -37491,7 +37509,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37581,7 +37599,7 @@
         <v>1.93</v>
       </c>
       <c r="AT189">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU189">
         <v>1.38</v>
@@ -37960,10 +37978,10 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT191">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU191">
         <v>1.5</v>
@@ -38151,7 +38169,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT192">
         <v>1.43</v>
@@ -38342,10 +38360,10 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT193">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU193">
         <v>1.28</v>
@@ -38536,7 +38554,7 @@
         <v>1.8</v>
       </c>
       <c r="AT194">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU194">
         <v>1.08</v>
@@ -38915,7 +38933,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT196">
         <v>0.6899999999999999</v>
@@ -39019,7 +39037,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39210,7 +39228,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39491,7 +39509,7 @@
         <v>1.13</v>
       </c>
       <c r="AT199">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU199">
         <v>1.29</v>
@@ -39592,7 +39610,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39679,10 +39697,10 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT200">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU200">
         <v>1.61</v>
@@ -39783,7 +39801,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39873,7 +39891,7 @@
         <v>1.07</v>
       </c>
       <c r="AT201">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU201">
         <v>1.25</v>
@@ -39974,7 +39992,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40061,10 +40079,10 @@
         <v>1.11</v>
       </c>
       <c r="AS202">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT202">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU202">
         <v>1.43</v>
@@ -40252,7 +40270,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT203">
         <v>1.5</v>
@@ -40356,7 +40374,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40443,7 +40461,7 @@
         <v>1.38</v>
       </c>
       <c r="AS204">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT204">
         <v>1.14</v>
@@ -40929,7 +40947,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41311,7 +41329,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41502,7 +41520,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41589,10 +41607,10 @@
         <v>1.63</v>
       </c>
       <c r="AS210">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT210">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU210">
         <v>1.48</v>
@@ -41693,7 +41711,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41780,10 +41798,10 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT211">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU211">
         <v>1.47</v>
@@ -41971,7 +41989,7 @@
         <v>0.6</v>
       </c>
       <c r="AS212">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT212">
         <v>0.6899999999999999</v>
@@ -42162,7 +42180,7 @@
         <v>0.78</v>
       </c>
       <c r="AS213">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT213">
         <v>1.07</v>
@@ -42353,10 +42371,10 @@
         <v>1.5</v>
       </c>
       <c r="AS214">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT214">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42457,7 +42475,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42547,7 +42565,7 @@
         <v>1.13</v>
       </c>
       <c r="AT215">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU215">
         <v>1.29</v>
@@ -42738,7 +42756,7 @@
         <v>1.73</v>
       </c>
       <c r="AT216">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU216">
         <v>1.32</v>
@@ -43030,7 +43048,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43117,10 +43135,10 @@
         <v>1.22</v>
       </c>
       <c r="AS218">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT218">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU218">
         <v>1.45</v>
@@ -43412,7 +43430,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43502,7 +43520,7 @@
         <v>1.4</v>
       </c>
       <c r="AT220">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU220">
         <v>1.49</v>
@@ -43794,7 +43812,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43884,7 +43902,7 @@
         <v>1.07</v>
       </c>
       <c r="AT222">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU222">
         <v>1.5</v>
@@ -44072,7 +44090,7 @@
         <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT223">
         <v>1.14</v>
@@ -44645,10 +44663,10 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT226">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -45027,10 +45045,10 @@
         <v>0.8</v>
       </c>
       <c r="AS228">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT228">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU228">
         <v>1.58</v>
@@ -45218,7 +45236,7 @@
         <v>2.11</v>
       </c>
       <c r="AS229">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT229">
         <v>2.08</v>
@@ -45322,7 +45340,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45412,7 +45430,7 @@
         <v>1.2</v>
       </c>
       <c r="AT230">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU230">
         <v>1.36</v>
@@ -45513,7 +45531,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45600,10 +45618,10 @@
         <v>1.4</v>
       </c>
       <c r="AS231">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT231">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU231">
         <v>1.31</v>
@@ -45794,7 +45812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT232">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU232">
         <v>1.35</v>
@@ -45895,7 +45913,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -45982,7 +46000,7 @@
         <v>0.7</v>
       </c>
       <c r="AS233">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT233">
         <v>1.07</v>
@@ -46364,10 +46382,10 @@
         <v>1.1</v>
       </c>
       <c r="AS235">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT235">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU235">
         <v>1.25</v>
@@ -46468,7 +46486,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46555,10 +46573,10 @@
         <v>2.1</v>
       </c>
       <c r="AS236">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT236">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU236">
         <v>1.35</v>
@@ -46659,7 +46677,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -47128,7 +47146,7 @@
         <v>1.1</v>
       </c>
       <c r="AS239">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT239">
         <v>0.93</v>
@@ -47232,7 +47250,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47322,7 +47340,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT240">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47423,7 +47441,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47614,7 +47632,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47701,7 +47719,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT242">
         <v>1.4</v>
@@ -47805,7 +47823,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47895,7 +47913,7 @@
         <v>1.8</v>
       </c>
       <c r="AT243">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -47996,7 +48014,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48083,7 +48101,7 @@
         <v>0.1</v>
       </c>
       <c r="AS244">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT244">
         <v>0.36</v>
@@ -48187,7 +48205,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48274,10 +48292,10 @@
         <v>1.36</v>
       </c>
       <c r="AS245">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT245">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU245">
         <v>2.02</v>
@@ -48468,7 +48486,7 @@
         <v>1.07</v>
       </c>
       <c r="AT246">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU246">
         <v>1.16</v>
@@ -48850,7 +48868,7 @@
         <v>1.07</v>
       </c>
       <c r="AT248">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU248">
         <v>1.49</v>
@@ -49038,7 +49056,7 @@
         <v>0.27</v>
       </c>
       <c r="AS249">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT249">
         <v>0.47</v>
@@ -49232,7 +49250,7 @@
         <v>1.79</v>
       </c>
       <c r="AT250">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU250">
         <v>1.59</v>
@@ -49333,7 +49351,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49611,7 +49629,7 @@
         <v>1.45</v>
       </c>
       <c r="AS252">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT252">
         <v>1.13</v>
@@ -49715,7 +49733,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49802,7 +49820,7 @@
         <v>0.91</v>
       </c>
       <c r="AS253">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT253">
         <v>1.07</v>
@@ -49996,7 +50014,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT254">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU254">
         <v>1.51</v>
@@ -50288,7 +50306,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50375,7 +50393,7 @@
         <v>1.91</v>
       </c>
       <c r="AS256">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT256">
         <v>2.08</v>
@@ -50861,7 +50879,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -50951,7 +50969,7 @@
         <v>1.2</v>
       </c>
       <c r="AT259">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU259">
         <v>1.4</v>
@@ -51052,7 +51070,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51142,7 +51160,7 @@
         <v>1.4</v>
       </c>
       <c r="AT260">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU260">
         <v>1.44</v>
@@ -51333,7 +51351,7 @@
         <v>1.8</v>
       </c>
       <c r="AT261">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU261">
         <v>1.02</v>
@@ -51434,7 +51452,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51712,10 +51730,10 @@
         <v>0.82</v>
       </c>
       <c r="AS263">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT263">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU263">
         <v>1.53</v>
@@ -51903,7 +51921,7 @@
         <v>0.5</v>
       </c>
       <c r="AS264">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT264">
         <v>0.47</v>
@@ -52007,7 +52025,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52094,7 +52112,7 @@
         <v>1.17</v>
       </c>
       <c r="AS265">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT265">
         <v>1.5</v>
@@ -52198,7 +52216,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52285,10 +52303,10 @@
         <v>1.55</v>
       </c>
       <c r="AS266">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT266">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU266">
         <v>1.27</v>
@@ -52389,7 +52407,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52476,7 +52494,7 @@
         <v>1.27</v>
       </c>
       <c r="AS267">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT267">
         <v>1.14</v>
@@ -52580,7 +52598,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52667,7 +52685,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT268">
         <v>1.13</v>
@@ -52771,7 +52789,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52858,10 +52876,10 @@
         <v>2.25</v>
       </c>
       <c r="AS269">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT269">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU269">
         <v>1.55</v>
@@ -52962,7 +52980,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53052,7 +53070,7 @@
         <v>1.07</v>
       </c>
       <c r="AT270">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU270">
         <v>1.47</v>
@@ -53153,7 +53171,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53243,7 +53261,7 @@
         <v>1.93</v>
       </c>
       <c r="AT271">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU271">
         <v>1.4</v>
@@ -53434,7 +53452,7 @@
         <v>1.07</v>
       </c>
       <c r="AT272">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU272">
         <v>1.16</v>
@@ -53726,7 +53744,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53813,7 +53831,7 @@
         <v>1.31</v>
       </c>
       <c r="AS274">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT274">
         <v>1.5</v>
@@ -53917,7 +53935,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54004,10 +54022,10 @@
         <v>1.82</v>
       </c>
       <c r="AS275">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT275">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU275">
         <v>1.37</v>
@@ -54681,7 +54699,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54771,7 +54789,7 @@
         <v>1.4</v>
       </c>
       <c r="AT279">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU279">
         <v>1.49</v>
@@ -54872,7 +54890,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -54962,7 +54980,7 @@
         <v>1.73</v>
       </c>
       <c r="AT280">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU280">
         <v>1.35</v>
@@ -55063,7 +55081,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55150,10 +55168,10 @@
         <v>0.75</v>
       </c>
       <c r="AS281">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT281">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU281">
         <v>2.06</v>
@@ -55254,7 +55272,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55445,7 +55463,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55723,7 +55741,7 @@
         <v>0.46</v>
       </c>
       <c r="AS284">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT284">
         <v>0.47</v>
@@ -55914,7 +55932,7 @@
         <v>1.31</v>
       </c>
       <c r="AS285">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT285">
         <v>1.13</v>
@@ -56108,7 +56126,7 @@
         <v>1.8</v>
       </c>
       <c r="AT286">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU286">
         <v>1.7</v>
@@ -56209,7 +56227,7 @@
         <v>251</v>
       </c>
       <c r="P287" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56296,7 +56314,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT287">
         <v>1.5</v>
@@ -56400,7 +56418,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56487,10 +56505,10 @@
         <v>0.77</v>
       </c>
       <c r="AS288">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT288">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU288">
         <v>1.5</v>
@@ -56591,7 +56609,7 @@
         <v>252</v>
       </c>
       <c r="P289" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q289">
         <v>2</v>
@@ -56678,7 +56696,7 @@
         <v>0.92</v>
       </c>
       <c r="AS289">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT289">
         <v>1.07</v>
@@ -56872,7 +56890,7 @@
         <v>1.07</v>
       </c>
       <c r="AT290">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU290">
         <v>1.13</v>
@@ -56973,7 +56991,7 @@
         <v>117</v>
       </c>
       <c r="P291" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q291">
         <v>5</v>
@@ -57251,10 +57269,10 @@
         <v>1.36</v>
       </c>
       <c r="AS292">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT292">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU292">
         <v>1.38</v>
@@ -57355,7 +57373,7 @@
         <v>255</v>
       </c>
       <c r="P293" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57737,7 +57755,7 @@
         <v>256</v>
       </c>
       <c r="P295" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57824,10 +57842,10 @@
         <v>2.15</v>
       </c>
       <c r="AS295">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT295">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU295">
         <v>1.47</v>
@@ -57928,7 +57946,7 @@
         <v>257</v>
       </c>
       <c r="P296" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -58018,7 +58036,7 @@
         <v>1.8</v>
       </c>
       <c r="AT296">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU296">
         <v>1.07</v>
@@ -58119,7 +58137,7 @@
         <v>162</v>
       </c>
       <c r="P297" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58209,7 +58227,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT297">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU297">
         <v>1.52</v>
@@ -58397,10 +58415,10 @@
         <v>1.31</v>
       </c>
       <c r="AS298">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT298">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU298">
         <v>2.05</v>
@@ -58779,7 +58797,7 @@
         <v>1</v>
       </c>
       <c r="AS300">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT300">
         <v>0.93</v>
@@ -58970,10 +58988,10 @@
         <v>1.85</v>
       </c>
       <c r="AS301">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT301">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU301">
         <v>1.48</v>
@@ -59161,10 +59179,10 @@
         <v>1.23</v>
       </c>
       <c r="AS302">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT302">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU302">
         <v>1.27</v>
@@ -59352,10 +59370,10 @@
         <v>1.54</v>
       </c>
       <c r="AS303">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT303">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU303">
         <v>1.32</v>
@@ -59543,10 +59561,10 @@
         <v>1.54</v>
       </c>
       <c r="AS304">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT304">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU304">
         <v>1.47</v>
@@ -59737,7 +59755,7 @@
         <v>1.79</v>
       </c>
       <c r="AT305">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU305">
         <v>1.59</v>
@@ -59928,7 +59946,7 @@
         <v>1.93</v>
       </c>
       <c r="AT306">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU306">
         <v>1.37</v>
@@ -60116,7 +60134,7 @@
         <v>0.93</v>
       </c>
       <c r="AS307">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT307">
         <v>1.19</v>
@@ -60220,7 +60238,7 @@
         <v>99</v>
       </c>
       <c r="P308" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q308">
         <v>0</v>
@@ -60307,7 +60325,7 @@
         <v>0.15</v>
       </c>
       <c r="AS308">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT308">
         <v>0.36</v>
@@ -60411,7 +60429,7 @@
         <v>230</v>
       </c>
       <c r="P309" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q309">
         <v>6</v>
@@ -60602,7 +60620,7 @@
         <v>263</v>
       </c>
       <c r="P310" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q310">
         <v>5</v>
@@ -60793,7 +60811,7 @@
         <v>89</v>
       </c>
       <c r="P311" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q311">
         <v>6</v>
@@ -61557,7 +61575,7 @@
         <v>264</v>
       </c>
       <c r="P315" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -61647,7 +61665,7 @@
         <v>1.07</v>
       </c>
       <c r="AT315">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU315">
         <v>1.15</v>
@@ -61748,7 +61766,7 @@
         <v>265</v>
       </c>
       <c r="P316" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q316">
         <v>2</v>
@@ -62026,7 +62044,7 @@
         <v>1.5</v>
       </c>
       <c r="AS317">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT317">
         <v>1.4</v>
@@ -62321,7 +62339,7 @@
         <v>266</v>
       </c>
       <c r="P319" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -62463,6 +62481,2107 @@
       </c>
       <c r="BK319">
         <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:63">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>5188795</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>64</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45150.25</v>
+      </c>
+      <c r="F320">
+        <v>30</v>
+      </c>
+      <c r="G320" t="s">
+        <v>83</v>
+      </c>
+      <c r="H320" t="s">
+        <v>71</v>
+      </c>
+      <c r="I320">
+        <v>2</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320">
+        <v>3</v>
+      </c>
+      <c r="L320">
+        <v>3</v>
+      </c>
+      <c r="M320">
+        <v>3</v>
+      </c>
+      <c r="N320">
+        <v>6</v>
+      </c>
+      <c r="O320" t="s">
+        <v>267</v>
+      </c>
+      <c r="P320" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q320">
+        <v>5</v>
+      </c>
+      <c r="R320">
+        <v>3</v>
+      </c>
+      <c r="S320">
+        <v>8</v>
+      </c>
+      <c r="T320">
+        <v>2.8</v>
+      </c>
+      <c r="U320">
+        <v>2.18</v>
+      </c>
+      <c r="V320">
+        <v>3.62</v>
+      </c>
+      <c r="W320">
+        <v>1.36</v>
+      </c>
+      <c r="X320">
+        <v>2.99</v>
+      </c>
+      <c r="Y320">
+        <v>2.68</v>
+      </c>
+      <c r="Z320">
+        <v>1.44</v>
+      </c>
+      <c r="AA320">
+        <v>6.5</v>
+      </c>
+      <c r="AB320">
+        <v>1.08</v>
+      </c>
+      <c r="AC320">
+        <v>2.25</v>
+      </c>
+      <c r="AD320">
+        <v>3.15</v>
+      </c>
+      <c r="AE320">
+        <v>2.8</v>
+      </c>
+      <c r="AF320">
+        <v>1.01</v>
+      </c>
+      <c r="AG320">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH320">
+        <v>1.25</v>
+      </c>
+      <c r="AI320">
+        <v>3.48</v>
+      </c>
+      <c r="AJ320">
+        <v>1.85</v>
+      </c>
+      <c r="AK320">
+        <v>1.85</v>
+      </c>
+      <c r="AL320">
+        <v>1.7</v>
+      </c>
+      <c r="AM320">
+        <v>2.1</v>
+      </c>
+      <c r="AN320">
+        <v>1.34</v>
+      </c>
+      <c r="AO320">
+        <v>1.27</v>
+      </c>
+      <c r="AP320">
+        <v>1.46</v>
+      </c>
+      <c r="AQ320">
+        <v>1.13</v>
+      </c>
+      <c r="AR320">
+        <v>1.27</v>
+      </c>
+      <c r="AS320">
+        <v>1.13</v>
+      </c>
+      <c r="AT320">
+        <v>1.25</v>
+      </c>
+      <c r="AU320">
+        <v>1.32</v>
+      </c>
+      <c r="AV320">
+        <v>1.25</v>
+      </c>
+      <c r="AW320">
+        <v>2.57</v>
+      </c>
+      <c r="AX320">
+        <v>1.46</v>
+      </c>
+      <c r="AY320">
+        <v>6</v>
+      </c>
+      <c r="AZ320">
+        <v>3.15</v>
+      </c>
+      <c r="BA320">
+        <v>1.33</v>
+      </c>
+      <c r="BB320">
+        <v>1.61</v>
+      </c>
+      <c r="BC320">
+        <v>2.1</v>
+      </c>
+      <c r="BD320">
+        <v>2.77</v>
+      </c>
+      <c r="BE320">
+        <v>4</v>
+      </c>
+      <c r="BF320">
+        <v>8</v>
+      </c>
+      <c r="BG320">
+        <v>6</v>
+      </c>
+      <c r="BH320">
+        <v>5</v>
+      </c>
+      <c r="BI320">
+        <v>8</v>
+      </c>
+      <c r="BJ320">
+        <v>13</v>
+      </c>
+      <c r="BK320">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:63">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>5188796</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
+      </c>
+      <c r="D321" t="s">
+        <v>64</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45150.25</v>
+      </c>
+      <c r="F321">
+        <v>30</v>
+      </c>
+      <c r="G321" t="s">
+        <v>73</v>
+      </c>
+      <c r="H321" t="s">
+        <v>69</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>2</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="N321">
+        <v>3</v>
+      </c>
+      <c r="O321" t="s">
+        <v>268</v>
+      </c>
+      <c r="P321" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q321">
+        <v>5</v>
+      </c>
+      <c r="R321">
+        <v>7</v>
+      </c>
+      <c r="S321">
+        <v>12</v>
+      </c>
+      <c r="T321">
+        <v>2.9</v>
+      </c>
+      <c r="U321">
+        <v>2.05</v>
+      </c>
+      <c r="V321">
+        <v>3.75</v>
+      </c>
+      <c r="W321">
+        <v>1.44</v>
+      </c>
+      <c r="X321">
+        <v>2.6</v>
+      </c>
+      <c r="Y321">
+        <v>3</v>
+      </c>
+      <c r="Z321">
+        <v>1.33</v>
+      </c>
+      <c r="AA321">
+        <v>7</v>
+      </c>
+      <c r="AB321">
+        <v>1.07</v>
+      </c>
+      <c r="AC321">
+        <v>2.35</v>
+      </c>
+      <c r="AD321">
+        <v>2.95</v>
+      </c>
+      <c r="AE321">
+        <v>2.8</v>
+      </c>
+      <c r="AF321">
+        <v>1.06</v>
+      </c>
+      <c r="AG321">
+        <v>7.5</v>
+      </c>
+      <c r="AH321">
+        <v>1.36</v>
+      </c>
+      <c r="AI321">
+        <v>2.9</v>
+      </c>
+      <c r="AJ321">
+        <v>2.1</v>
+      </c>
+      <c r="AK321">
+        <v>1.65</v>
+      </c>
+      <c r="AL321">
+        <v>1.83</v>
+      </c>
+      <c r="AM321">
+        <v>1.88</v>
+      </c>
+      <c r="AN321">
+        <v>1.4</v>
+      </c>
+      <c r="AO321">
+        <v>1.33</v>
+      </c>
+      <c r="AP321">
+        <v>1.57</v>
+      </c>
+      <c r="AQ321">
+        <v>2.2</v>
+      </c>
+      <c r="AR321">
+        <v>1.93</v>
+      </c>
+      <c r="AS321">
+        <v>2.25</v>
+      </c>
+      <c r="AT321">
+        <v>1.8</v>
+      </c>
+      <c r="AU321">
+        <v>1.56</v>
+      </c>
+      <c r="AV321">
+        <v>1.55</v>
+      </c>
+      <c r="AW321">
+        <v>3.11</v>
+      </c>
+      <c r="AX321">
+        <v>1.8</v>
+      </c>
+      <c r="AY321">
+        <v>5.75</v>
+      </c>
+      <c r="AZ321">
+        <v>2.35</v>
+      </c>
+      <c r="BA321">
+        <v>1.32</v>
+      </c>
+      <c r="BB321">
+        <v>1.65</v>
+      </c>
+      <c r="BC321">
+        <v>2.1</v>
+      </c>
+      <c r="BD321">
+        <v>2.85</v>
+      </c>
+      <c r="BE321">
+        <v>0</v>
+      </c>
+      <c r="BF321">
+        <v>5</v>
+      </c>
+      <c r="BG321">
+        <v>4</v>
+      </c>
+      <c r="BH321">
+        <v>5</v>
+      </c>
+      <c r="BI321">
+        <v>9</v>
+      </c>
+      <c r="BJ321">
+        <v>10</v>
+      </c>
+      <c r="BK321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:63">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>5188797</v>
+      </c>
+      <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45150.25</v>
+      </c>
+      <c r="F322">
+        <v>30</v>
+      </c>
+      <c r="G322" t="s">
+        <v>68</v>
+      </c>
+      <c r="H322" t="s">
+        <v>70</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>113</v>
+      </c>
+      <c r="P322" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q322">
+        <v>10</v>
+      </c>
+      <c r="R322">
+        <v>4</v>
+      </c>
+      <c r="S322">
+        <v>14</v>
+      </c>
+      <c r="T322">
+        <v>1.78</v>
+      </c>
+      <c r="U322">
+        <v>2.6</v>
+      </c>
+      <c r="V322">
+        <v>6.5</v>
+      </c>
+      <c r="W322">
+        <v>1.29</v>
+      </c>
+      <c r="X322">
+        <v>3.3</v>
+      </c>
+      <c r="Y322">
+        <v>2.37</v>
+      </c>
+      <c r="Z322">
+        <v>1.53</v>
+      </c>
+      <c r="AA322">
+        <v>5.25</v>
+      </c>
+      <c r="AB322">
+        <v>1.13</v>
+      </c>
+      <c r="AC322">
+        <v>1.28</v>
+      </c>
+      <c r="AD322">
+        <v>4.75</v>
+      </c>
+      <c r="AE322">
+        <v>7.5</v>
+      </c>
+      <c r="AF322">
+        <v>1</v>
+      </c>
+      <c r="AG322">
+        <v>10.5</v>
+      </c>
+      <c r="AH322">
+        <v>1.2</v>
+      </c>
+      <c r="AI322">
+        <v>4</v>
+      </c>
+      <c r="AJ322">
+        <v>1.6</v>
+      </c>
+      <c r="AK322">
+        <v>2.2</v>
+      </c>
+      <c r="AL322">
+        <v>1.95</v>
+      </c>
+      <c r="AM322">
+        <v>1.75</v>
+      </c>
+      <c r="AN322">
+        <v>1.08</v>
+      </c>
+      <c r="AO322">
+        <v>1.17</v>
+      </c>
+      <c r="AP322">
+        <v>3.2</v>
+      </c>
+      <c r="AQ322">
+        <v>1.92</v>
+      </c>
+      <c r="AR322">
+        <v>1.14</v>
+      </c>
+      <c r="AS322">
+        <v>2</v>
+      </c>
+      <c r="AT322">
+        <v>1.07</v>
+      </c>
+      <c r="AU322">
+        <v>2</v>
+      </c>
+      <c r="AV322">
+        <v>1.09</v>
+      </c>
+      <c r="AW322">
+        <v>3.09</v>
+      </c>
+      <c r="AX322">
+        <v>1.15</v>
+      </c>
+      <c r="AY322">
+        <v>7.75</v>
+      </c>
+      <c r="AZ322">
+        <v>6</v>
+      </c>
+      <c r="BA322">
+        <v>1.4</v>
+      </c>
+      <c r="BB322">
+        <v>1.5</v>
+      </c>
+      <c r="BC322">
+        <v>1.98</v>
+      </c>
+      <c r="BD322">
+        <v>2.47</v>
+      </c>
+      <c r="BE322">
+        <v>3.5</v>
+      </c>
+      <c r="BF322">
+        <v>5</v>
+      </c>
+      <c r="BG322">
+        <v>0</v>
+      </c>
+      <c r="BH322">
+        <v>5</v>
+      </c>
+      <c r="BI322">
+        <v>2</v>
+      </c>
+      <c r="BJ322">
+        <v>10</v>
+      </c>
+      <c r="BK322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:63">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>5188798</v>
+      </c>
+      <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323" t="s">
+        <v>64</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F323">
+        <v>30</v>
+      </c>
+      <c r="G323" t="s">
+        <v>86</v>
+      </c>
+      <c r="H323" t="s">
+        <v>76</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>1</v>
+      </c>
+      <c r="O323" t="s">
+        <v>134</v>
+      </c>
+      <c r="P323" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>7</v>
+      </c>
+      <c r="S323">
+        <v>7</v>
+      </c>
+      <c r="T323">
+        <v>3.61</v>
+      </c>
+      <c r="U323">
+        <v>2.19</v>
+      </c>
+      <c r="V323">
+        <v>3.15</v>
+      </c>
+      <c r="W323">
+        <v>1.42</v>
+      </c>
+      <c r="X323">
+        <v>2.92</v>
+      </c>
+      <c r="Y323">
+        <v>3.05</v>
+      </c>
+      <c r="Z323">
+        <v>1.39</v>
+      </c>
+      <c r="AA323">
+        <v>8</v>
+      </c>
+      <c r="AB323">
+        <v>1.08</v>
+      </c>
+      <c r="AC323">
+        <v>2.7</v>
+      </c>
+      <c r="AD323">
+        <v>3.15</v>
+      </c>
+      <c r="AE323">
+        <v>2.35</v>
+      </c>
+      <c r="AF323">
+        <v>1.06</v>
+      </c>
+      <c r="AG323">
+        <v>8</v>
+      </c>
+      <c r="AH323">
+        <v>1.28</v>
+      </c>
+      <c r="AI323">
+        <v>3.5</v>
+      </c>
+      <c r="AJ323">
+        <v>1.85</v>
+      </c>
+      <c r="AK323">
+        <v>1.85</v>
+      </c>
+      <c r="AL323">
+        <v>1.68</v>
+      </c>
+      <c r="AM323">
+        <v>2.1</v>
+      </c>
+      <c r="AN323">
+        <v>1.46</v>
+      </c>
+      <c r="AO323">
+        <v>1.27</v>
+      </c>
+      <c r="AP323">
+        <v>1.33</v>
+      </c>
+      <c r="AQ323">
+        <v>1.69</v>
+      </c>
+      <c r="AR323">
+        <v>0.93</v>
+      </c>
+      <c r="AS323">
+        <v>1.79</v>
+      </c>
+      <c r="AT323">
+        <v>0.88</v>
+      </c>
+      <c r="AU323">
+        <v>1.42</v>
+      </c>
+      <c r="AV323">
+        <v>1.35</v>
+      </c>
+      <c r="AW323">
+        <v>2.77</v>
+      </c>
+      <c r="AX323">
+        <v>2.25</v>
+      </c>
+      <c r="AY323">
+        <v>6</v>
+      </c>
+      <c r="AZ323">
+        <v>1.83</v>
+      </c>
+      <c r="BA323">
+        <v>1.33</v>
+      </c>
+      <c r="BB323">
+        <v>1.6</v>
+      </c>
+      <c r="BC323">
+        <v>2.03</v>
+      </c>
+      <c r="BD323">
+        <v>2.7</v>
+      </c>
+      <c r="BE323">
+        <v>3.3</v>
+      </c>
+      <c r="BF323">
+        <v>3</v>
+      </c>
+      <c r="BG323">
+        <v>0</v>
+      </c>
+      <c r="BH323">
+        <v>1</v>
+      </c>
+      <c r="BI323">
+        <v>12</v>
+      </c>
+      <c r="BJ323">
+        <v>4</v>
+      </c>
+      <c r="BK323">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:63">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>5188799</v>
+      </c>
+      <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F324">
+        <v>30</v>
+      </c>
+      <c r="G324" t="s">
+        <v>84</v>
+      </c>
+      <c r="H324" t="s">
+        <v>80</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324">
+        <v>2</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324" t="s">
+        <v>269</v>
+      </c>
+      <c r="P324" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q324">
+        <v>7</v>
+      </c>
+      <c r="R324">
+        <v>3</v>
+      </c>
+      <c r="S324">
+        <v>10</v>
+      </c>
+      <c r="T324">
+        <v>3.3</v>
+      </c>
+      <c r="U324">
+        <v>2.15</v>
+      </c>
+      <c r="V324">
+        <v>3</v>
+      </c>
+      <c r="W324">
+        <v>1.36</v>
+      </c>
+      <c r="X324">
+        <v>2.9</v>
+      </c>
+      <c r="Y324">
+        <v>2.6</v>
+      </c>
+      <c r="Z324">
+        <v>1.44</v>
+      </c>
+      <c r="AA324">
+        <v>5.75</v>
+      </c>
+      <c r="AB324">
+        <v>1.1</v>
+      </c>
+      <c r="AC324">
+        <v>2.65</v>
+      </c>
+      <c r="AD324">
+        <v>3.15</v>
+      </c>
+      <c r="AE324">
+        <v>2.35</v>
+      </c>
+      <c r="AF324">
+        <v>1.05</v>
+      </c>
+      <c r="AG324">
+        <v>8</v>
+      </c>
+      <c r="AH324">
+        <v>1.25</v>
+      </c>
+      <c r="AI324">
+        <v>3.6</v>
+      </c>
+      <c r="AJ324">
+        <v>1.75</v>
+      </c>
+      <c r="AK324">
+        <v>1.95</v>
+      </c>
+      <c r="AL324">
+        <v>1.62</v>
+      </c>
+      <c r="AM324">
+        <v>2.2</v>
+      </c>
+      <c r="AN324">
+        <v>1.53</v>
+      </c>
+      <c r="AO324">
+        <v>1.33</v>
+      </c>
+      <c r="AP324">
+        <v>1.44</v>
+      </c>
+      <c r="AQ324">
+        <v>1.54</v>
+      </c>
+      <c r="AR324">
+        <v>1.38</v>
+      </c>
+      <c r="AS324">
+        <v>1.5</v>
+      </c>
+      <c r="AT324">
+        <v>1.36</v>
+      </c>
+      <c r="AU324">
+        <v>1.48</v>
+      </c>
+      <c r="AV324">
+        <v>1.54</v>
+      </c>
+      <c r="AW324">
+        <v>3.02</v>
+      </c>
+      <c r="AX324">
+        <v>2.4</v>
+      </c>
+      <c r="AY324">
+        <v>5.75</v>
+      </c>
+      <c r="AZ324">
+        <v>1.74</v>
+      </c>
+      <c r="BA324">
+        <v>1.29</v>
+      </c>
+      <c r="BB324">
+        <v>1.52</v>
+      </c>
+      <c r="BC324">
+        <v>1.95</v>
+      </c>
+      <c r="BD324">
+        <v>2.47</v>
+      </c>
+      <c r="BE324">
+        <v>3.3</v>
+      </c>
+      <c r="BF324">
+        <v>3</v>
+      </c>
+      <c r="BG324">
+        <v>4</v>
+      </c>
+      <c r="BH324">
+        <v>4</v>
+      </c>
+      <c r="BI324">
+        <v>4</v>
+      </c>
+      <c r="BJ324">
+        <v>7</v>
+      </c>
+      <c r="BK324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:63">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>5188800</v>
+      </c>
+      <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325" t="s">
+        <v>64</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F325">
+        <v>30</v>
+      </c>
+      <c r="G325" t="s">
+        <v>82</v>
+      </c>
+      <c r="H325" t="s">
+        <v>77</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>1</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325" t="s">
+        <v>119</v>
+      </c>
+      <c r="P325" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q325">
+        <v>5</v>
+      </c>
+      <c r="R325">
+        <v>4</v>
+      </c>
+      <c r="S325">
+        <v>9</v>
+      </c>
+      <c r="T325">
+        <v>2.4</v>
+      </c>
+      <c r="U325">
+        <v>2.3</v>
+      </c>
+      <c r="V325">
+        <v>4</v>
+      </c>
+      <c r="W325">
+        <v>1.33</v>
+      </c>
+      <c r="X325">
+        <v>3</v>
+      </c>
+      <c r="Y325">
+        <v>2.4</v>
+      </c>
+      <c r="Z325">
+        <v>1.5</v>
+      </c>
+      <c r="AA325">
+        <v>5.5</v>
+      </c>
+      <c r="AB325">
+        <v>1.11</v>
+      </c>
+      <c r="AC325">
+        <v>1.85</v>
+      </c>
+      <c r="AD325">
+        <v>3.45</v>
+      </c>
+      <c r="AE325">
+        <v>3.4</v>
+      </c>
+      <c r="AF325">
+        <v>1.01</v>
+      </c>
+      <c r="AG325">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH325">
+        <v>1.22</v>
+      </c>
+      <c r="AI325">
+        <v>3.8</v>
+      </c>
+      <c r="AJ325">
+        <v>1.62</v>
+      </c>
+      <c r="AK325">
+        <v>2.15</v>
+      </c>
+      <c r="AL325">
+        <v>1.6</v>
+      </c>
+      <c r="AM325">
+        <v>2.2</v>
+      </c>
+      <c r="AN325">
+        <v>1.33</v>
+      </c>
+      <c r="AO325">
+        <v>1.25</v>
+      </c>
+      <c r="AP325">
+        <v>1.83</v>
+      </c>
+      <c r="AQ325">
+        <v>1.73</v>
+      </c>
+      <c r="AR325">
+        <v>1.5</v>
+      </c>
+      <c r="AS325">
+        <v>1.81</v>
+      </c>
+      <c r="AT325">
+        <v>1.4</v>
+      </c>
+      <c r="AU325">
+        <v>1.33</v>
+      </c>
+      <c r="AV325">
+        <v>1.5</v>
+      </c>
+      <c r="AW325">
+        <v>2.83</v>
+      </c>
+      <c r="AX325">
+        <v>1.42</v>
+      </c>
+      <c r="AY325">
+        <v>6.5</v>
+      </c>
+      <c r="AZ325">
+        <v>3.25</v>
+      </c>
+      <c r="BA325">
+        <v>1.32</v>
+      </c>
+      <c r="BB325">
+        <v>1.53</v>
+      </c>
+      <c r="BC325">
+        <v>1.94</v>
+      </c>
+      <c r="BD325">
+        <v>2.52</v>
+      </c>
+      <c r="BE325">
+        <v>4</v>
+      </c>
+      <c r="BF325">
+        <v>3</v>
+      </c>
+      <c r="BG325">
+        <v>2</v>
+      </c>
+      <c r="BH325">
+        <v>10</v>
+      </c>
+      <c r="BI325">
+        <v>5</v>
+      </c>
+      <c r="BJ325">
+        <v>13</v>
+      </c>
+      <c r="BK325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:63">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>5188801</v>
+      </c>
+      <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45151.25</v>
+      </c>
+      <c r="F326">
+        <v>30</v>
+      </c>
+      <c r="G326" t="s">
+        <v>85</v>
+      </c>
+      <c r="H326" t="s">
+        <v>72</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
+        <v>89</v>
+      </c>
+      <c r="P326" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q326">
+        <v>4</v>
+      </c>
+      <c r="R326">
+        <v>3</v>
+      </c>
+      <c r="S326">
+        <v>7</v>
+      </c>
+      <c r="T326">
+        <v>4.75</v>
+      </c>
+      <c r="U326">
+        <v>1.95</v>
+      </c>
+      <c r="V326">
+        <v>2.75</v>
+      </c>
+      <c r="W326">
+        <v>1.57</v>
+      </c>
+      <c r="X326">
+        <v>2.25</v>
+      </c>
+      <c r="Y326">
+        <v>3.75</v>
+      </c>
+      <c r="Z326">
+        <v>1.25</v>
+      </c>
+      <c r="AA326">
+        <v>11</v>
+      </c>
+      <c r="AB326">
+        <v>1.05</v>
+      </c>
+      <c r="AC326">
+        <v>3.45</v>
+      </c>
+      <c r="AD326">
+        <v>3.1</v>
+      </c>
+      <c r="AE326">
+        <v>1.9</v>
+      </c>
+      <c r="AF326">
+        <v>1.08</v>
+      </c>
+      <c r="AG326">
+        <v>6.2</v>
+      </c>
+      <c r="AH326">
+        <v>1.44</v>
+      </c>
+      <c r="AI326">
+        <v>2.4</v>
+      </c>
+      <c r="AJ326">
+        <v>2.05</v>
+      </c>
+      <c r="AK326">
+        <v>1.81</v>
+      </c>
+      <c r="AL326">
+        <v>2.2</v>
+      </c>
+      <c r="AM326">
+        <v>1.62</v>
+      </c>
+      <c r="AN326">
+        <v>1.68</v>
+      </c>
+      <c r="AO326">
+        <v>1.28</v>
+      </c>
+      <c r="AP326">
+        <v>1.2</v>
+      </c>
+      <c r="AQ326">
+        <v>1.15</v>
+      </c>
+      <c r="AR326">
+        <v>2.21</v>
+      </c>
+      <c r="AS326">
+        <v>1.07</v>
+      </c>
+      <c r="AT326">
+        <v>2.27</v>
+      </c>
+      <c r="AU326">
+        <v>1.29</v>
+      </c>
+      <c r="AV326">
+        <v>1.43</v>
+      </c>
+      <c r="AW326">
+        <v>2.72</v>
+      </c>
+      <c r="AX326">
+        <v>2.35</v>
+      </c>
+      <c r="AY326">
+        <v>5.5</v>
+      </c>
+      <c r="AZ326">
+        <v>1.8</v>
+      </c>
+      <c r="BA326">
+        <v>1.27</v>
+      </c>
+      <c r="BB326">
+        <v>1.46</v>
+      </c>
+      <c r="BC326">
+        <v>1.85</v>
+      </c>
+      <c r="BD326">
+        <v>2.32</v>
+      </c>
+      <c r="BE326">
+        <v>3.15</v>
+      </c>
+      <c r="BF326">
+        <v>2</v>
+      </c>
+      <c r="BG326">
+        <v>4</v>
+      </c>
+      <c r="BH326">
+        <v>8</v>
+      </c>
+      <c r="BI326">
+        <v>2</v>
+      </c>
+      <c r="BJ326">
+        <v>10</v>
+      </c>
+      <c r="BK326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:63">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>5188802</v>
+      </c>
+      <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" t="s">
+        <v>64</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45151.25</v>
+      </c>
+      <c r="F327">
+        <v>30</v>
+      </c>
+      <c r="G327" t="s">
+        <v>66</v>
+      </c>
+      <c r="H327" t="s">
+        <v>65</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327">
+        <v>2</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327" t="s">
+        <v>157</v>
+      </c>
+      <c r="P327" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q327">
+        <v>7</v>
+      </c>
+      <c r="R327">
+        <v>6</v>
+      </c>
+      <c r="S327">
+        <v>13</v>
+      </c>
+      <c r="T327">
+        <v>3.2</v>
+      </c>
+      <c r="U327">
+        <v>2.2</v>
+      </c>
+      <c r="V327">
+        <v>3.4</v>
+      </c>
+      <c r="W327">
+        <v>1.4</v>
+      </c>
+      <c r="X327">
+        <v>2.75</v>
+      </c>
+      <c r="Y327">
+        <v>2.75</v>
+      </c>
+      <c r="Z327">
+        <v>1.4</v>
+      </c>
+      <c r="AA327">
+        <v>8</v>
+      </c>
+      <c r="AB327">
+        <v>1.08</v>
+      </c>
+      <c r="AC327">
+        <v>2.4</v>
+      </c>
+      <c r="AD327">
+        <v>3</v>
+      </c>
+      <c r="AE327">
+        <v>2.55</v>
+      </c>
+      <c r="AF327">
+        <v>1.06</v>
+      </c>
+      <c r="AG327">
+        <v>8</v>
+      </c>
+      <c r="AH327">
+        <v>1.28</v>
+      </c>
+      <c r="AI327">
+        <v>3.5</v>
+      </c>
+      <c r="AJ327">
+        <v>1.82</v>
+      </c>
+      <c r="AK327">
+        <v>1.82</v>
+      </c>
+      <c r="AL327">
+        <v>1.73</v>
+      </c>
+      <c r="AM327">
+        <v>2</v>
+      </c>
+      <c r="AN327">
+        <v>1.38</v>
+      </c>
+      <c r="AO327">
+        <v>1.25</v>
+      </c>
+      <c r="AP327">
+        <v>1.5</v>
+      </c>
+      <c r="AQ327">
+        <v>1.14</v>
+      </c>
+      <c r="AR327">
+        <v>1.43</v>
+      </c>
+      <c r="AS327">
+        <v>1.13</v>
+      </c>
+      <c r="AT327">
+        <v>1.4</v>
+      </c>
+      <c r="AU327">
+        <v>1.51</v>
+      </c>
+      <c r="AV327">
+        <v>1.21</v>
+      </c>
+      <c r="AW327">
+        <v>2.72</v>
+      </c>
+      <c r="AX327">
+        <v>1.71</v>
+      </c>
+      <c r="AY327">
+        <v>6</v>
+      </c>
+      <c r="AZ327">
+        <v>2.4</v>
+      </c>
+      <c r="BA327">
+        <v>1.25</v>
+      </c>
+      <c r="BB327">
+        <v>1.51</v>
+      </c>
+      <c r="BC327">
+        <v>1.85</v>
+      </c>
+      <c r="BD327">
+        <v>2.4</v>
+      </c>
+      <c r="BE327">
+        <v>3.2</v>
+      </c>
+      <c r="BF327">
+        <v>5</v>
+      </c>
+      <c r="BG327">
+        <v>2</v>
+      </c>
+      <c r="BH327">
+        <v>7</v>
+      </c>
+      <c r="BI327">
+        <v>6</v>
+      </c>
+      <c r="BJ327">
+        <v>12</v>
+      </c>
+      <c r="BK327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:63">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>5188804</v>
+      </c>
+      <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45151.29166666666</v>
+      </c>
+      <c r="F328">
+        <v>30</v>
+      </c>
+      <c r="G328" t="s">
+        <v>81</v>
+      </c>
+      <c r="H328" t="s">
+        <v>67</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>2</v>
+      </c>
+      <c r="N328">
+        <v>2</v>
+      </c>
+      <c r="O328" t="s">
+        <v>89</v>
+      </c>
+      <c r="P328" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q328">
+        <v>5</v>
+      </c>
+      <c r="R328">
+        <v>1</v>
+      </c>
+      <c r="S328">
+        <v>6</v>
+      </c>
+      <c r="T328">
+        <v>2.5</v>
+      </c>
+      <c r="U328">
+        <v>2.3</v>
+      </c>
+      <c r="V328">
+        <v>4.33</v>
+      </c>
+      <c r="W328">
+        <v>1.33</v>
+      </c>
+      <c r="X328">
+        <v>3.25</v>
+      </c>
+      <c r="Y328">
+        <v>2.63</v>
+      </c>
+      <c r="Z328">
+        <v>1.44</v>
+      </c>
+      <c r="AA328">
+        <v>6.5</v>
+      </c>
+      <c r="AB328">
+        <v>1.11</v>
+      </c>
+      <c r="AC328">
+        <v>1.83</v>
+      </c>
+      <c r="AD328">
+        <v>3.35</v>
+      </c>
+      <c r="AE328">
+        <v>3.4</v>
+      </c>
+      <c r="AF328">
+        <v>1.01</v>
+      </c>
+      <c r="AG328">
+        <v>10.5</v>
+      </c>
+      <c r="AH328">
+        <v>1.25</v>
+      </c>
+      <c r="AI328">
+        <v>3.6</v>
+      </c>
+      <c r="AJ328">
+        <v>1.89</v>
+      </c>
+      <c r="AK328">
+        <v>1.99</v>
+      </c>
+      <c r="AL328">
+        <v>1.67</v>
+      </c>
+      <c r="AM328">
+        <v>2.1</v>
+      </c>
+      <c r="AN328">
+        <v>1.2</v>
+      </c>
+      <c r="AO328">
+        <v>1.22</v>
+      </c>
+      <c r="AP328">
+        <v>1.87</v>
+      </c>
+      <c r="AQ328">
+        <v>1.14</v>
+      </c>
+      <c r="AR328">
+        <v>1.21</v>
+      </c>
+      <c r="AS328">
+        <v>1.07</v>
+      </c>
+      <c r="AT328">
+        <v>1.33</v>
+      </c>
+      <c r="AU328">
+        <v>1.52</v>
+      </c>
+      <c r="AV328">
+        <v>1.18</v>
+      </c>
+      <c r="AW328">
+        <v>2.7</v>
+      </c>
+      <c r="AX328">
+        <v>1.3</v>
+      </c>
+      <c r="AY328">
+        <v>6.75</v>
+      </c>
+      <c r="AZ328">
+        <v>3.9</v>
+      </c>
+      <c r="BA328">
+        <v>1.23</v>
+      </c>
+      <c r="BB328">
+        <v>1.5</v>
+      </c>
+      <c r="BC328">
+        <v>2</v>
+      </c>
+      <c r="BD328">
+        <v>2.29</v>
+      </c>
+      <c r="BE328">
+        <v>3.15</v>
+      </c>
+      <c r="BF328">
+        <v>4</v>
+      </c>
+      <c r="BG328">
+        <v>4</v>
+      </c>
+      <c r="BH328">
+        <v>6</v>
+      </c>
+      <c r="BI328">
+        <v>4</v>
+      </c>
+      <c r="BJ328">
+        <v>10</v>
+      </c>
+      <c r="BK328">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:63">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>5188805</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45151.29166666666</v>
+      </c>
+      <c r="F329">
+        <v>30</v>
+      </c>
+      <c r="G329" t="s">
+        <v>78</v>
+      </c>
+      <c r="H329" t="s">
+        <v>79</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>1</v>
+      </c>
+      <c r="N329">
+        <v>2</v>
+      </c>
+      <c r="O329" t="s">
+        <v>270</v>
+      </c>
+      <c r="P329" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q329">
+        <v>9</v>
+      </c>
+      <c r="R329">
+        <v>7</v>
+      </c>
+      <c r="S329">
+        <v>16</v>
+      </c>
+      <c r="T329">
+        <v>3.75</v>
+      </c>
+      <c r="U329">
+        <v>2.1</v>
+      </c>
+      <c r="V329">
+        <v>3</v>
+      </c>
+      <c r="W329">
+        <v>1.4</v>
+      </c>
+      <c r="X329">
+        <v>2.75</v>
+      </c>
+      <c r="Y329">
+        <v>3</v>
+      </c>
+      <c r="Z329">
+        <v>1.36</v>
+      </c>
+      <c r="AA329">
+        <v>8</v>
+      </c>
+      <c r="AB329">
+        <v>1.08</v>
+      </c>
+      <c r="AC329">
+        <v>2.9</v>
+      </c>
+      <c r="AD329">
+        <v>3</v>
+      </c>
+      <c r="AE329">
+        <v>2.2</v>
+      </c>
+      <c r="AF329">
+        <v>1.03</v>
+      </c>
+      <c r="AG329">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH329">
+        <v>1.3</v>
+      </c>
+      <c r="AI329">
+        <v>3.14</v>
+      </c>
+      <c r="AJ329">
+        <v>1.93</v>
+      </c>
+      <c r="AK329">
+        <v>1.72</v>
+      </c>
+      <c r="AL329">
+        <v>1.73</v>
+      </c>
+      <c r="AM329">
+        <v>2</v>
+      </c>
+      <c r="AN329">
+        <v>1.63</v>
+      </c>
+      <c r="AO329">
+        <v>1.33</v>
+      </c>
+      <c r="AP329">
+        <v>1.35</v>
+      </c>
+      <c r="AQ329">
+        <v>1.33</v>
+      </c>
+      <c r="AR329">
+        <v>1.21</v>
+      </c>
+      <c r="AS329">
+        <v>1.31</v>
+      </c>
+      <c r="AT329">
+        <v>1.2</v>
+      </c>
+      <c r="AU329">
+        <v>1.46</v>
+      </c>
+      <c r="AV329">
+        <v>1.27</v>
+      </c>
+      <c r="AW329">
+        <v>2.73</v>
+      </c>
+      <c r="AX329">
+        <v>2.1</v>
+      </c>
+      <c r="AY329">
+        <v>5.5</v>
+      </c>
+      <c r="AZ329">
+        <v>2</v>
+      </c>
+      <c r="BA329">
+        <v>1.29</v>
+      </c>
+      <c r="BB329">
+        <v>1.62</v>
+      </c>
+      <c r="BC329">
+        <v>1.98</v>
+      </c>
+      <c r="BD329">
+        <v>2.48</v>
+      </c>
+      <c r="BE329">
+        <v>3.55</v>
+      </c>
+      <c r="BF329">
+        <v>8</v>
+      </c>
+      <c r="BG329">
+        <v>6</v>
+      </c>
+      <c r="BH329">
+        <v>6</v>
+      </c>
+      <c r="BI329">
+        <v>9</v>
+      </c>
+      <c r="BJ329">
+        <v>14</v>
+      </c>
+      <c r="BK329">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:63">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>5188803</v>
+      </c>
+      <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45151.29166666666</v>
+      </c>
+      <c r="F330">
+        <v>30</v>
+      </c>
+      <c r="G330" t="s">
+        <v>75</v>
+      </c>
+      <c r="H330" t="s">
+        <v>74</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330">
+        <v>2</v>
+      </c>
+      <c r="L330">
+        <v>2</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>4</v>
+      </c>
+      <c r="O330" t="s">
+        <v>271</v>
+      </c>
+      <c r="P330" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q330">
+        <v>5</v>
+      </c>
+      <c r="R330">
+        <v>3</v>
+      </c>
+      <c r="S330">
+        <v>8</v>
+      </c>
+      <c r="T330">
+        <v>3.1</v>
+      </c>
+      <c r="U330">
+        <v>1.91</v>
+      </c>
+      <c r="V330">
+        <v>4.33</v>
+      </c>
+      <c r="W330">
+        <v>1.57</v>
+      </c>
+      <c r="X330">
+        <v>2.25</v>
+      </c>
+      <c r="Y330">
+        <v>3.75</v>
+      </c>
+      <c r="Z330">
+        <v>1.25</v>
+      </c>
+      <c r="AA330">
+        <v>13</v>
+      </c>
+      <c r="AB330">
+        <v>1.04</v>
+      </c>
+      <c r="AC330">
+        <v>2.1</v>
+      </c>
+      <c r="AD330">
+        <v>2.85</v>
+      </c>
+      <c r="AE330">
+        <v>3.15</v>
+      </c>
+      <c r="AF330">
+        <v>1.09</v>
+      </c>
+      <c r="AG330">
+        <v>5.8</v>
+      </c>
+      <c r="AH330">
+        <v>1.5</v>
+      </c>
+      <c r="AI330">
+        <v>2.35</v>
+      </c>
+      <c r="AJ330">
+        <v>2.6</v>
+      </c>
+      <c r="AK330">
+        <v>1.43</v>
+      </c>
+      <c r="AL330">
+        <v>2.2</v>
+      </c>
+      <c r="AM330">
+        <v>1.62</v>
+      </c>
+      <c r="AN330">
+        <v>1.25</v>
+      </c>
+      <c r="AO330">
+        <v>1.3</v>
+      </c>
+      <c r="AP330">
+        <v>1.57</v>
+      </c>
+      <c r="AQ330">
+        <v>1.71</v>
+      </c>
+      <c r="AR330">
+        <v>0.93</v>
+      </c>
+      <c r="AS330">
+        <v>1.67</v>
+      </c>
+      <c r="AT330">
+        <v>0.93</v>
+      </c>
+      <c r="AU330">
+        <v>1.28</v>
+      </c>
+      <c r="AV330">
+        <v>1.16</v>
+      </c>
+      <c r="AW330">
+        <v>2.44</v>
+      </c>
+      <c r="AX330">
+        <v>1.68</v>
+      </c>
+      <c r="AY330">
+        <v>5.75</v>
+      </c>
+      <c r="AZ330">
+        <v>2.5</v>
+      </c>
+      <c r="BA330">
+        <v>1.3</v>
+      </c>
+      <c r="BB330">
+        <v>1.51</v>
+      </c>
+      <c r="BC330">
+        <v>2</v>
+      </c>
+      <c r="BD330">
+        <v>2.5</v>
+      </c>
+      <c r="BE330">
+        <v>3.6</v>
+      </c>
+      <c r="BF330">
+        <v>4</v>
+      </c>
+      <c r="BG330">
+        <v>4</v>
+      </c>
+      <c r="BH330">
+        <v>6</v>
+      </c>
+      <c r="BI330">
+        <v>5</v>
+      </c>
+      <c r="BJ330">
+        <v>10</v>
+      </c>
+      <c r="BK330">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -63488,13 +63488,13 @@
         <v>89</v>
       </c>
       <c r="Q325">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R325">
         <v>4</v>
       </c>
       <c r="S325">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T325">
         <v>2.4</v>
@@ -63802,10 +63802,10 @@
         <v>3.15</v>
       </c>
       <c r="BF326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG326">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH326">
         <v>8</v>
@@ -63814,10 +63814,10 @@
         <v>2</v>
       </c>
       <c r="BJ326">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK326">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:63">
@@ -63993,19 +63993,19 @@
         <v>3.2</v>
       </c>
       <c r="BF327">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH327">
         <v>7</v>
       </c>
       <c r="BI327">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ327">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK327">
         <v>8</v>
@@ -64187,19 +64187,19 @@
         <v>4</v>
       </c>
       <c r="BG328">
+        <v>0</v>
+      </c>
+      <c r="BH328">
         <v>4</v>
-      </c>
-      <c r="BH328">
-        <v>6</v>
       </c>
       <c r="BI328">
         <v>4</v>
       </c>
       <c r="BJ328">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK328">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:63">
@@ -64375,22 +64375,22 @@
         <v>3.55</v>
       </c>
       <c r="BF329">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG329">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH329">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI329">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ329">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK329">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:63">
@@ -64446,10 +64446,10 @@
         <v>5</v>
       </c>
       <c r="R330">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S330">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T330">
         <v>3.1</v>
@@ -64566,19 +64566,19 @@
         <v>3.6</v>
       </c>
       <c r="BF330">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG330">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH330">
         <v>6</v>
       </c>
       <c r="BI330">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ330">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK330">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -63802,10 +63802,10 @@
         <v>3.15</v>
       </c>
       <c r="BF326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG326">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH326">
         <v>8</v>
@@ -63814,10 +63814,10 @@
         <v>2</v>
       </c>
       <c r="BJ326">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK326">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:63">
@@ -63993,19 +63993,19 @@
         <v>3.2</v>
       </c>
       <c r="BF327">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH327">
         <v>7</v>
       </c>
       <c r="BI327">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ327">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK327">
         <v>8</v>
@@ -64187,19 +64187,19 @@
         <v>4</v>
       </c>
       <c r="BG328">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH328">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI328">
         <v>4</v>
       </c>
       <c r="BJ328">
+        <v>10</v>
+      </c>
+      <c r="BK328">
         <v>8</v>
-      </c>
-      <c r="BK328">
-        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:63">
@@ -64375,22 +64375,22 @@
         <v>3.55</v>
       </c>
       <c r="BF329">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG329">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH329">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI329">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ329">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK329">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:63">
@@ -64566,19 +64566,19 @@
         <v>3.6</v>
       </c>
       <c r="BF330">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG330">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH330">
         <v>6</v>
       </c>
       <c r="BI330">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ330">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK330">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,9 @@
     <t>['18', '36', '45']</t>
   </si>
   <si>
+    <t>['6', '26']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -1569,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK339"/>
+  <dimension ref="A1:BK340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1816,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2004,7 +2007,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2577,7 +2580,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -3532,7 +3535,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3619,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3914,7 +3917,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4105,7 +4108,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -5824,7 +5827,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6484,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT26">
         <v>1.13</v>
@@ -6869,7 +6872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.24</v>
@@ -7352,7 +7355,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7543,7 +7546,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7925,7 +7928,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8116,7 +8119,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8498,7 +8501,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8689,7 +8692,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8776,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT38">
         <v>2.19</v>
@@ -8880,7 +8883,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -10217,7 +10220,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10408,7 +10411,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10599,7 +10602,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -11172,7 +11175,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11363,7 +11366,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11453,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.6</v>
@@ -11554,7 +11557,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11745,7 +11748,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11936,7 +11939,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12318,7 +12321,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12596,7 +12599,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT58">
         <v>1.38</v>
@@ -13082,7 +13085,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13655,7 +13658,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13846,7 +13849,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14037,7 +14040,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14891,7 +14894,7 @@
         <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.27</v>
@@ -14992,7 +14995,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15374,7 +15377,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15756,7 +15759,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16520,7 +16523,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16711,7 +16714,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -17284,7 +17287,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17857,7 +17860,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18239,7 +18242,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18711,7 +18714,7 @@
         <v>1.81</v>
       </c>
       <c r="AT90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.55</v>
@@ -19003,7 +19006,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19090,7 +19093,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT92">
         <v>1.14</v>
@@ -19194,7 +19197,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -20149,7 +20152,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -21104,7 +21107,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21191,7 +21194,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT103">
         <v>1.25</v>
@@ -21295,7 +21298,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21677,7 +21680,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21868,7 +21871,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22441,7 +22444,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22823,7 +22826,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23104,7 +23107,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.53</v>
@@ -23205,7 +23208,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23587,7 +23590,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23778,7 +23781,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -24351,7 +24354,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24542,7 +24545,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -25115,7 +25118,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25497,7 +25500,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25688,7 +25691,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25778,7 +25781,7 @@
         <v>1.87</v>
       </c>
       <c r="AT127">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.15</v>
@@ -26643,7 +26646,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -27303,7 +27306,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT135">
         <v>1.5</v>
@@ -27789,7 +27792,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -28553,7 +28556,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -29317,7 +29320,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29508,7 +29511,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29789,7 +29792,7 @@
         <v>1.8</v>
       </c>
       <c r="AT148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.11</v>
@@ -29890,7 +29893,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30463,7 +30466,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30654,7 +30657,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -31418,7 +31421,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31609,7 +31612,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -32946,7 +32949,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -34182,7 +34185,7 @@
         <v>2.25</v>
       </c>
       <c r="AT171">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.49</v>
@@ -34370,7 +34373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS172">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT172">
         <v>0.6899999999999999</v>
@@ -34474,7 +34477,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -35238,7 +35241,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35620,7 +35623,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -36002,7 +36005,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36575,7 +36578,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36957,7 +36960,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -37339,7 +37342,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37530,7 +37533,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -39058,7 +39061,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39145,7 +39148,7 @@
         <v>2.29</v>
       </c>
       <c r="AS197">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT197">
         <v>1.93</v>
@@ -39249,7 +39252,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39530,7 +39533,7 @@
         <v>1.12</v>
       </c>
       <c r="AT199">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.29</v>
@@ -39631,7 +39634,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39822,7 +39825,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -40013,7 +40016,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40395,7 +40398,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40968,7 +40971,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41350,7 +41353,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41541,7 +41544,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41732,7 +41735,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42496,7 +42499,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42777,7 +42780,7 @@
         <v>1.63</v>
       </c>
       <c r="AT216">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU216">
         <v>1.32</v>
@@ -42965,7 +42968,7 @@
         <v>0.3</v>
       </c>
       <c r="AS217">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT217">
         <v>0.63</v>
@@ -43069,7 +43072,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43451,7 +43454,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43833,7 +43836,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44302,7 +44305,7 @@
         <v>1.09</v>
       </c>
       <c r="AS224">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT224">
         <v>1.19</v>
@@ -45361,7 +45364,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45552,7 +45555,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45934,7 +45937,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46406,7 +46409,7 @@
         <v>1.67</v>
       </c>
       <c r="AT235">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU235">
         <v>1.25</v>
@@ -46507,7 +46510,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46698,7 +46701,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -47271,7 +47274,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47462,7 +47465,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47653,7 +47656,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47844,7 +47847,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -48035,7 +48038,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48226,7 +48229,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48504,7 +48507,7 @@
         <v>1.09</v>
       </c>
       <c r="AS246">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT246">
         <v>1.33</v>
@@ -48889,7 +48892,7 @@
         <v>1.07</v>
       </c>
       <c r="AT248">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU248">
         <v>1.49</v>
@@ -49372,7 +49375,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49754,7 +49757,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -50327,7 +50330,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50900,7 +50903,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -51091,7 +51094,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51473,7 +51476,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -52046,7 +52049,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52237,7 +52240,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52428,7 +52431,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52619,7 +52622,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52810,7 +52813,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -53001,7 +53004,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53192,7 +53195,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53282,7 +53285,7 @@
         <v>1.8</v>
       </c>
       <c r="AT271">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU271">
         <v>1.4</v>
@@ -53470,7 +53473,7 @@
         <v>1.18</v>
       </c>
       <c r="AS272">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT272">
         <v>1.2</v>
@@ -53765,7 +53768,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -53956,7 +53959,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54720,7 +54723,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54911,7 +54914,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -55102,7 +55105,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55293,7 +55296,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55484,7 +55487,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -56248,7 +56251,7 @@
         <v>251</v>
       </c>
       <c r="P287" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56439,7 +56442,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56630,7 +56633,7 @@
         <v>252</v>
       </c>
       <c r="P289" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q289">
         <v>2</v>
@@ -56908,7 +56911,7 @@
         <v>1.42</v>
       </c>
       <c r="AS290">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT290">
         <v>1.4</v>
@@ -57012,7 +57015,7 @@
         <v>117</v>
       </c>
       <c r="P291" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q291">
         <v>5</v>
@@ -57394,7 +57397,7 @@
         <v>255</v>
       </c>
       <c r="P293" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57776,7 +57779,7 @@
         <v>256</v>
       </c>
       <c r="P295" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57967,7 +57970,7 @@
         <v>257</v>
       </c>
       <c r="P296" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -58158,7 +58161,7 @@
         <v>162</v>
       </c>
       <c r="P297" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -59776,7 +59779,7 @@
         <v>1.87</v>
       </c>
       <c r="AT305">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU305">
         <v>1.59</v>
@@ -60259,7 +60262,7 @@
         <v>99</v>
       </c>
       <c r="P308" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q308">
         <v>0</v>
@@ -60450,7 +60453,7 @@
         <v>230</v>
       </c>
       <c r="P309" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q309">
         <v>6</v>
@@ -60641,7 +60644,7 @@
         <v>263</v>
       </c>
       <c r="P310" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q310">
         <v>5</v>
@@ -60832,7 +60835,7 @@
         <v>89</v>
       </c>
       <c r="P311" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q311">
         <v>6</v>
@@ -61596,7 +61599,7 @@
         <v>264</v>
       </c>
       <c r="P315" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -61683,7 +61686,7 @@
         <v>0.93</v>
       </c>
       <c r="AS315">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT315">
         <v>0.88</v>
@@ -61787,7 +61790,7 @@
         <v>265</v>
       </c>
       <c r="P316" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q316">
         <v>2</v>
@@ -62360,7 +62363,7 @@
         <v>266</v>
       </c>
       <c r="P319" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -62551,7 +62554,7 @@
         <v>267</v>
       </c>
       <c r="P320" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -63023,7 +63026,7 @@
         <v>2.07</v>
       </c>
       <c r="AT322">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU322">
         <v>2</v>
@@ -63315,7 +63318,7 @@
         <v>269</v>
       </c>
       <c r="P324" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q324">
         <v>7</v>
@@ -64079,7 +64082,7 @@
         <v>89</v>
       </c>
       <c r="P328" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q328">
         <v>5</v>
@@ -64270,7 +64273,7 @@
         <v>270</v>
       </c>
       <c r="P329" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q329">
         <v>9</v>
@@ -64461,7 +64464,7 @@
         <v>271</v>
       </c>
       <c r="P330" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q330">
         <v>5</v>
@@ -65034,7 +65037,7 @@
         <v>89</v>
       </c>
       <c r="P333" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q333">
         <v>5</v>
@@ -65225,7 +65228,7 @@
         <v>273</v>
       </c>
       <c r="P334" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65613,10 +65616,10 @@
         <v>1</v>
       </c>
       <c r="R336">
+        <v>11</v>
+      </c>
+      <c r="S336">
         <v>12</v>
-      </c>
-      <c r="S336">
-        <v>13</v>
       </c>
       <c r="T336">
         <v>2.8</v>
@@ -65798,7 +65801,7 @@
         <v>275</v>
       </c>
       <c r="P337" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66180,7 +66183,7 @@
         <v>132</v>
       </c>
       <c r="P339" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q339">
         <v>1</v>
@@ -66322,6 +66325,197 @@
       </c>
       <c r="BK339">
         <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>5188816</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45158.29166666666</v>
+      </c>
+      <c r="F340">
+        <v>31</v>
+      </c>
+      <c r="G340" t="s">
+        <v>74</v>
+      </c>
+      <c r="H340" t="s">
+        <v>70</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>2</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340" t="s">
+        <v>276</v>
+      </c>
+      <c r="P340" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q340">
+        <v>2</v>
+      </c>
+      <c r="R340">
+        <v>10</v>
+      </c>
+      <c r="S340">
+        <v>12</v>
+      </c>
+      <c r="T340">
+        <v>2.88</v>
+      </c>
+      <c r="U340">
+        <v>2.05</v>
+      </c>
+      <c r="V340">
+        <v>4</v>
+      </c>
+      <c r="W340">
+        <v>1.5</v>
+      </c>
+      <c r="X340">
+        <v>2.5</v>
+      </c>
+      <c r="Y340">
+        <v>3.4</v>
+      </c>
+      <c r="Z340">
+        <v>1.3</v>
+      </c>
+      <c r="AA340">
+        <v>10</v>
+      </c>
+      <c r="AB340">
+        <v>1.06</v>
+      </c>
+      <c r="AC340">
+        <v>2.12</v>
+      </c>
+      <c r="AD340">
+        <v>3.35</v>
+      </c>
+      <c r="AE340">
+        <v>3.25</v>
+      </c>
+      <c r="AF340">
+        <v>1.08</v>
+      </c>
+      <c r="AG340">
+        <v>7</v>
+      </c>
+      <c r="AH340">
+        <v>1.4</v>
+      </c>
+      <c r="AI340">
+        <v>2.75</v>
+      </c>
+      <c r="AJ340">
+        <v>2.16</v>
+      </c>
+      <c r="AK340">
+        <v>1.65</v>
+      </c>
+      <c r="AL340">
+        <v>1.91</v>
+      </c>
+      <c r="AM340">
+        <v>1.8</v>
+      </c>
+      <c r="AN340">
+        <v>1.25</v>
+      </c>
+      <c r="AO340">
+        <v>1.25</v>
+      </c>
+      <c r="AP340">
+        <v>1.68</v>
+      </c>
+      <c r="AQ340">
+        <v>1.07</v>
+      </c>
+      <c r="AR340">
+        <v>1.07</v>
+      </c>
+      <c r="AS340">
+        <v>1.19</v>
+      </c>
+      <c r="AT340">
+        <v>1</v>
+      </c>
+      <c r="AU340">
+        <v>1.16</v>
+      </c>
+      <c r="AV340">
+        <v>1.04</v>
+      </c>
+      <c r="AW340">
+        <v>2.2</v>
+      </c>
+      <c r="AX340">
+        <v>1.54</v>
+      </c>
+      <c r="AY340">
+        <v>5.75</v>
+      </c>
+      <c r="AZ340">
+        <v>2.9</v>
+      </c>
+      <c r="BA340">
+        <v>1.42</v>
+      </c>
+      <c r="BB340">
+        <v>1.83</v>
+      </c>
+      <c r="BC340">
+        <v>2.29</v>
+      </c>
+      <c r="BD340">
+        <v>3.1</v>
+      </c>
+      <c r="BE340">
+        <v>4.4</v>
+      </c>
+      <c r="BF340">
+        <v>4</v>
+      </c>
+      <c r="BG340">
+        <v>5</v>
+      </c>
+      <c r="BH340">
+        <v>4</v>
+      </c>
+      <c r="BI340">
+        <v>6</v>
+      </c>
+      <c r="BJ340">
+        <v>8</v>
+      </c>
+      <c r="BK340">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,18 @@
     <t>['23', '30']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['22', '66']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['16', '20']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -1078,9 +1090,6 @@
     <t>['16', '22', '58', '62']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1121,9 +1130,6 @@
   </si>
   <si>
     <t>['6', '61']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['4', '8']</t>
@@ -1253,6 +1259,18 @@
   </si>
   <si>
     <t>['9', '61', '68', '72']</t>
+  </si>
+  <si>
+    <t>['38', '45+3', '88']</t>
+  </si>
+  <si>
+    <t>['70', '79']</t>
+  </si>
+  <si>
+    <t>['50', '90']</t>
+  </si>
+  <si>
+    <t>['3', '21']</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK350"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1876,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2049,7 +2067,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2136,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT3">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2327,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
         <v>1.38</v>
@@ -2518,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2622,7 +2640,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2712,7 +2730,7 @@
         <v>1.69</v>
       </c>
       <c r="AT6">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2900,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT7">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3091,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -3577,7 +3595,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3667,7 +3685,7 @@
         <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3855,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3959,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4150,7 +4168,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4237,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT14">
         <v>1.12</v>
@@ -5192,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT19">
         <v>0.63</v>
@@ -5386,7 +5404,7 @@
         <v>1.71</v>
       </c>
       <c r="AT20">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5574,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT21">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5869,7 +5887,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6720,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
         <v>1.47</v>
@@ -6911,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -7105,7 +7123,7 @@
         <v>0.88</v>
       </c>
       <c r="AT29">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU29">
         <v>1.32</v>
@@ -7397,7 +7415,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7484,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7588,7 +7606,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7675,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7869,7 +7887,7 @@
         <v>1.13</v>
       </c>
       <c r="AT33">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU33">
         <v>1.69</v>
@@ -7970,7 +7988,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8060,7 +8078,7 @@
         <v>1.12</v>
       </c>
       <c r="AT34">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -8161,7 +8179,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8251,7 +8269,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU35">
         <v>1.23</v>
@@ -8442,7 +8460,7 @@
         <v>1.24</v>
       </c>
       <c r="AT36">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU36">
         <v>2.03</v>
@@ -8543,7 +8561,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8630,10 +8648,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
+        <v>1.12</v>
+      </c>
+      <c r="AT37">
         <v>1.19</v>
-      </c>
-      <c r="AT37">
-        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8734,7 +8752,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8824,7 +8842,7 @@
         <v>1.19</v>
       </c>
       <c r="AT38">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8925,7 +8943,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9012,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT39">
         <v>1.19</v>
@@ -9203,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -9394,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT41">
         <v>1.35</v>
@@ -9588,7 +9606,7 @@
         <v>2.29</v>
       </c>
       <c r="AT42">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU42">
         <v>1.7</v>
@@ -9776,10 +9794,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU43">
         <v>1.76</v>
@@ -10158,7 +10176,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
         <v>1.12</v>
@@ -10262,7 +10280,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10453,7 +10471,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10540,10 +10558,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT47">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>1</v>
@@ -10644,7 +10662,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10731,10 +10749,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
+        <v>1.81</v>
+      </c>
+      <c r="AT48">
         <v>1.87</v>
-      </c>
-      <c r="AT48">
-        <v>1.93</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10922,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT49">
         <v>1.06</v>
@@ -11113,10 +11131,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT50">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -11217,7 +11235,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11304,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
         <v>1.25</v>
@@ -11408,7 +11426,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11495,7 +11513,7 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11599,7 +11617,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11689,7 +11707,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11790,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11880,7 +11898,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11981,7 +11999,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12363,7 +12381,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12450,7 +12468,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
         <v>1.12</v>
@@ -12832,10 +12850,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT59">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU59">
         <v>2.11</v>
@@ -13026,7 +13044,7 @@
         <v>1.24</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU60">
         <v>1.71</v>
@@ -13127,7 +13145,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13214,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
         <v>0.6899999999999999</v>
@@ -13408,7 +13426,7 @@
         <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU62">
         <v>1.34</v>
@@ -13596,10 +13614,10 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT63">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU63">
         <v>2.1</v>
@@ -13700,7 +13718,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q64">
         <v>12</v>
@@ -13787,10 +13805,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT64">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU64">
         <v>1.45</v>
@@ -13891,7 +13909,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13981,7 +13999,7 @@
         <v>1.12</v>
       </c>
       <c r="AT65">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -14082,7 +14100,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14169,7 +14187,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.33</v>
@@ -14742,7 +14760,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT69">
         <v>1.35</v>
@@ -14933,7 +14951,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -15037,7 +15055,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15127,7 +15145,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15318,7 +15336,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15419,7 +15437,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15697,10 +15715,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>0.52</v>
@@ -15801,7 +15819,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15888,7 +15906,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT75">
         <v>1.33</v>
@@ -16082,7 +16100,7 @@
         <v>2.29</v>
       </c>
       <c r="AT76">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -16270,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -16565,7 +16583,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16756,7 +16774,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16843,10 +16861,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -17034,7 +17052,7 @@
         <v>1.75</v>
       </c>
       <c r="AS81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>1.35</v>
@@ -17329,7 +17347,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -17416,7 +17434,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT83">
         <v>1.06</v>
@@ -17798,10 +17816,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU85">
         <v>1.9</v>
@@ -17902,7 +17920,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17992,7 +18010,7 @@
         <v>1.07</v>
       </c>
       <c r="AT86">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU86">
         <v>1.59</v>
@@ -18180,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT87">
         <v>0.63</v>
@@ -18284,7 +18302,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18374,7 +18392,7 @@
         <v>1.12</v>
       </c>
       <c r="AT88">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU88">
         <v>1.38</v>
@@ -18944,10 +18962,10 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU91">
         <v>1.31</v>
@@ -19048,7 +19066,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19138,7 +19156,7 @@
         <v>1.19</v>
       </c>
       <c r="AT92">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU92">
         <v>1.26</v>
@@ -19239,7 +19257,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19520,7 +19538,7 @@
         <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU94">
         <v>1.45</v>
@@ -19711,7 +19729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19899,7 +19917,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT96">
         <v>1.19</v>
@@ -20194,7 +20212,7 @@
         <v>89</v>
       </c>
       <c r="P98" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20472,7 +20490,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>1.12</v>
@@ -20663,7 +20681,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>1.25</v>
@@ -21048,7 +21066,7 @@
         <v>2.29</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -21149,7 +21167,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21340,7 +21358,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21427,7 +21445,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT104">
         <v>1.47</v>
@@ -21618,10 +21636,10 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT105">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU105">
         <v>2.09</v>
@@ -21809,10 +21827,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT106">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU106">
         <v>1.5</v>
@@ -21913,7 +21931,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22000,7 +22018,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT107">
         <v>0.6899999999999999</v>
@@ -22191,10 +22209,10 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT108">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU108">
         <v>1.23</v>
@@ -22382,7 +22400,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT109">
         <v>1.33</v>
@@ -22486,7 +22504,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22576,7 +22594,7 @@
         <v>1.12</v>
       </c>
       <c r="AT110">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU110">
         <v>1.32</v>
@@ -22767,7 +22785,7 @@
         <v>1.69</v>
       </c>
       <c r="AT111">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU111">
         <v>1.51</v>
@@ -22868,7 +22886,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23250,7 +23268,7 @@
         <v>89</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23531,7 +23549,7 @@
         <v>1.63</v>
       </c>
       <c r="AT115">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU115">
         <v>1.26</v>
@@ -23632,7 +23650,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23719,7 +23737,7 @@
         <v>1.83</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT116">
         <v>1.38</v>
@@ -23823,7 +23841,7 @@
         <v>107</v>
       </c>
       <c r="P117" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -24101,7 +24119,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
         <v>1.19</v>
@@ -24292,7 +24310,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
         <v>1.06</v>
@@ -24396,7 +24414,7 @@
         <v>110</v>
       </c>
       <c r="P120" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24483,10 +24501,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT120">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24587,7 +24605,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24868,7 +24886,7 @@
         <v>1.71</v>
       </c>
       <c r="AT122">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.54</v>
@@ -25056,7 +25074,7 @@
         <v>0.2</v>
       </c>
       <c r="AS123">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>0.63</v>
@@ -25160,7 +25178,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -25250,7 +25268,7 @@
         <v>2.29</v>
       </c>
       <c r="AT124">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25438,10 +25456,10 @@
         <v>1.75</v>
       </c>
       <c r="AS125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25542,7 +25560,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>16</v>
@@ -25733,7 +25751,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25820,7 +25838,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -26011,10 +26029,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU128">
         <v>1.22</v>
@@ -26202,10 +26220,10 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU129">
         <v>1.4</v>
@@ -26393,7 +26411,7 @@
         <v>1.67</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT130">
         <v>1.35</v>
@@ -26584,10 +26602,10 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT131">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU131">
         <v>1.9</v>
@@ -26688,7 +26706,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26778,7 +26796,7 @@
         <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU132">
         <v>1.24</v>
@@ -26966,10 +26984,10 @@
         <v>1.8</v>
       </c>
       <c r="AS133">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU133">
         <v>1.42</v>
@@ -27539,7 +27557,7 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27834,7 +27852,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27921,7 +27939,7 @@
         <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT138">
         <v>1.38</v>
@@ -28306,7 +28324,7 @@
         <v>1.24</v>
       </c>
       <c r="AT140">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU140">
         <v>1.55</v>
@@ -28494,10 +28512,10 @@
         <v>1.83</v>
       </c>
       <c r="AS141">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU141">
         <v>1.31</v>
@@ -28598,7 +28616,7 @@
         <v>89</v>
       </c>
       <c r="P142" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28688,7 +28706,7 @@
         <v>1.07</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28876,7 +28894,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT143">
         <v>0.6899999999999999</v>
@@ -29070,7 +29088,7 @@
         <v>1.13</v>
       </c>
       <c r="AT144">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -29261,7 +29279,7 @@
         <v>0.88</v>
       </c>
       <c r="AT145">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU145">
         <v>1.66</v>
@@ -29362,7 +29380,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29449,7 +29467,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT146">
         <v>0.63</v>
@@ -29553,7 +29571,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29640,10 +29658,10 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT147">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU147">
         <v>1.13</v>
@@ -29831,7 +29849,7 @@
         <v>1.33</v>
       </c>
       <c r="AS148">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29935,7 +29953,7 @@
         <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30216,7 +30234,7 @@
         <v>2.29</v>
       </c>
       <c r="AT150">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU150">
         <v>1.41</v>
@@ -30404,7 +30422,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT151">
         <v>1.19</v>
@@ -30508,7 +30526,7 @@
         <v>138</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30595,10 +30613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT152">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU152">
         <v>1.43</v>
@@ -30699,7 +30717,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -31168,10 +31186,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT155">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU155">
         <v>1.89</v>
@@ -31362,7 +31380,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU156">
         <v>1.46</v>
@@ -31463,7 +31481,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31550,7 +31568,7 @@
         <v>1.43</v>
       </c>
       <c r="AS157">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT157">
         <v>1.06</v>
@@ -31654,7 +31672,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31932,10 +31950,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT159">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU159">
         <v>1.99</v>
@@ -32123,7 +32141,7 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT160">
         <v>1.12</v>
@@ -32505,7 +32523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS162">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
         <v>1.35</v>
@@ -32699,7 +32717,7 @@
         <v>1.13</v>
       </c>
       <c r="AT163">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU163">
         <v>1.43</v>
@@ -32890,7 +32908,7 @@
         <v>1.71</v>
       </c>
       <c r="AT164">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU164">
         <v>1.44</v>
@@ -32991,7 +33009,7 @@
         <v>191</v>
       </c>
       <c r="P165" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33269,7 +33287,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT166">
         <v>1.38</v>
@@ -33460,10 +33478,10 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT167">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU167">
         <v>1.26</v>
@@ -33654,7 +33672,7 @@
         <v>1.07</v>
       </c>
       <c r="AT168">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU168">
         <v>1.54</v>
@@ -34033,10 +34051,10 @@
         <v>1.57</v>
       </c>
       <c r="AS170">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT170">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU170">
         <v>1.37</v>
@@ -34519,7 +34537,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34606,10 +34624,10 @@
         <v>1.57</v>
       </c>
       <c r="AS173">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT173">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU173">
         <v>1.04</v>
@@ -34797,10 +34815,10 @@
         <v>1.17</v>
       </c>
       <c r="AS174">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT174">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU174">
         <v>1.22</v>
@@ -34988,10 +35006,10 @@
         <v>0.14</v>
       </c>
       <c r="AS175">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT175">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU175">
         <v>1.61</v>
@@ -35179,7 +35197,7 @@
         <v>1.43</v>
       </c>
       <c r="AS176">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT176">
         <v>1.47</v>
@@ -35283,7 +35301,7 @@
         <v>89</v>
       </c>
       <c r="P177" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35370,10 +35388,10 @@
         <v>1.71</v>
       </c>
       <c r="AS177">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU177">
         <v>1.32</v>
@@ -35561,7 +35579,7 @@
         <v>1.67</v>
       </c>
       <c r="AS178">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT178">
         <v>1.38</v>
@@ -35665,7 +35683,7 @@
         <v>93</v>
       </c>
       <c r="P179" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35943,7 +35961,7 @@
         <v>0.25</v>
       </c>
       <c r="AS180">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT180">
         <v>0.63</v>
@@ -36047,7 +36065,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36325,10 +36343,10 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT182">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU182">
         <v>1.43</v>
@@ -36620,7 +36638,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -36707,10 +36725,10 @@
         <v>1.88</v>
       </c>
       <c r="AS184">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT184">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU184">
         <v>1.34</v>
@@ -37002,7 +37020,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -37092,7 +37110,7 @@
         <v>1.12</v>
       </c>
       <c r="AT186">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU186">
         <v>1.32</v>
@@ -37384,7 +37402,7 @@
         <v>202</v>
       </c>
       <c r="P188" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -37575,7 +37593,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37662,10 +37680,10 @@
         <v>1.75</v>
       </c>
       <c r="AS189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT189">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU189">
         <v>1.38</v>
@@ -37856,7 +37874,7 @@
         <v>1.63</v>
       </c>
       <c r="AT190">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU190">
         <v>1.29</v>
@@ -38044,7 +38062,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -38235,10 +38253,10 @@
         <v>1.25</v>
       </c>
       <c r="AS192">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT192">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU192">
         <v>1.29</v>
@@ -38426,10 +38444,10 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT193">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU193">
         <v>1.28</v>
@@ -38617,10 +38635,10 @@
         <v>1.25</v>
       </c>
       <c r="AS194">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT194">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU194">
         <v>1.08</v>
@@ -38999,7 +39017,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT196">
         <v>0.6899999999999999</v>
@@ -39103,7 +39121,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39193,7 +39211,7 @@
         <v>1.19</v>
       </c>
       <c r="AT197">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU197">
         <v>1.14</v>
@@ -39294,7 +39312,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39676,7 +39694,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39763,10 +39781,10 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT200">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU200">
         <v>1.61</v>
@@ -39867,7 +39885,7 @@
         <v>157</v>
       </c>
       <c r="P201" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39954,7 +39972,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT201">
         <v>1.35</v>
@@ -40058,7 +40076,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -40145,7 +40163,7 @@
         <v>1.11</v>
       </c>
       <c r="AS202">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT202">
         <v>1.33</v>
@@ -40336,7 +40354,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT203">
         <v>1.47</v>
@@ -40440,7 +40458,7 @@
         <v>211</v>
       </c>
       <c r="P204" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40530,7 +40548,7 @@
         <v>1.24</v>
       </c>
       <c r="AT204">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU204">
         <v>1.44</v>
@@ -41013,7 +41031,7 @@
         <v>89</v>
       </c>
       <c r="P207" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41100,10 +41118,10 @@
         <v>2</v>
       </c>
       <c r="AS207">
+        <v>1.94</v>
+      </c>
+      <c r="AT207">
         <v>1.87</v>
-      </c>
-      <c r="AT207">
-        <v>1.93</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41395,7 +41413,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41586,7 +41604,7 @@
         <v>214</v>
       </c>
       <c r="P210" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41676,7 +41694,7 @@
         <v>1.71</v>
       </c>
       <c r="AT210">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU210">
         <v>1.48</v>
@@ -41777,7 +41795,7 @@
         <v>215</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41864,10 +41882,10 @@
         <v>1.56</v>
       </c>
       <c r="AS211">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT211">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU211">
         <v>1.47</v>
@@ -42055,7 +42073,7 @@
         <v>0.6</v>
       </c>
       <c r="AS212">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT212">
         <v>0.6899999999999999</v>
@@ -42246,7 +42264,7 @@
         <v>0.78</v>
       </c>
       <c r="AS213">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT213">
         <v>1.19</v>
@@ -42541,7 +42559,7 @@
         <v>218</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -43114,7 +43132,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43204,7 +43222,7 @@
         <v>1.24</v>
       </c>
       <c r="AT218">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU218">
         <v>1.45</v>
@@ -43392,10 +43410,10 @@
         <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT219">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU219">
         <v>1.07</v>
@@ -43496,7 +43514,7 @@
         <v>122</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43586,7 +43604,7 @@
         <v>1.5</v>
       </c>
       <c r="AT220">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU220">
         <v>1.49</v>
@@ -43878,7 +43896,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43968,7 +43986,7 @@
         <v>1.07</v>
       </c>
       <c r="AT222">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU222">
         <v>1.5</v>
@@ -44156,10 +44174,10 @@
         <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT223">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU223">
         <v>1.4</v>
@@ -44538,10 +44556,10 @@
         <v>0.11</v>
       </c>
       <c r="AS225">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT225">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU225">
         <v>1.37</v>
@@ -44732,7 +44750,7 @@
         <v>1.71</v>
       </c>
       <c r="AT226">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -44920,7 +44938,7 @@
         <v>1.6</v>
       </c>
       <c r="AS227">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT227">
         <v>1.25</v>
@@ -45111,7 +45129,7 @@
         <v>0.8</v>
       </c>
       <c r="AS228">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT228">
         <v>1</v>
@@ -45302,10 +45320,10 @@
         <v>2.11</v>
       </c>
       <c r="AS229">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT229">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU229">
         <v>1.29</v>
@@ -45406,7 +45424,7 @@
         <v>166</v>
       </c>
       <c r="P230" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -45597,7 +45615,7 @@
         <v>157</v>
       </c>
       <c r="P231" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45684,10 +45702,10 @@
         <v>1.4</v>
       </c>
       <c r="AS231">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT231">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU231">
         <v>1.31</v>
@@ -45878,7 +45896,7 @@
         <v>1.63</v>
       </c>
       <c r="AT232">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU232">
         <v>1.35</v>
@@ -45979,7 +45997,7 @@
         <v>227</v>
       </c>
       <c r="P233" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46260,7 +46278,7 @@
         <v>1.12</v>
       </c>
       <c r="AT234">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU234">
         <v>1.31</v>
@@ -46448,7 +46466,7 @@
         <v>1.1</v>
       </c>
       <c r="AS235">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT235">
         <v>1</v>
@@ -46552,7 +46570,7 @@
         <v>89</v>
       </c>
       <c r="P236" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46639,10 +46657,10 @@
         <v>2.1</v>
       </c>
       <c r="AS236">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT236">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU236">
         <v>1.35</v>
@@ -46743,7 +46761,7 @@
         <v>93</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>285</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46830,10 +46848,10 @@
         <v>1.4</v>
       </c>
       <c r="AS237">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT237">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -47021,7 +47039,7 @@
         <v>0.64</v>
       </c>
       <c r="AS238">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT238">
         <v>0.6899999999999999</v>
@@ -47212,7 +47230,7 @@
         <v>1.1</v>
       </c>
       <c r="AS239">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT239">
         <v>1.06</v>
@@ -47316,7 +47334,7 @@
         <v>89</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>2</v>
@@ -47406,7 +47424,7 @@
         <v>0.88</v>
       </c>
       <c r="AT240">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47507,7 +47525,7 @@
         <v>229</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q241">
         <v>7</v>
@@ -47594,7 +47612,7 @@
         <v>1.18</v>
       </c>
       <c r="AS241">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT241">
         <v>1.47</v>
@@ -47698,7 +47716,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47785,7 +47803,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT242">
         <v>1.38</v>
@@ -47889,7 +47907,7 @@
         <v>230</v>
       </c>
       <c r="P243" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q243">
         <v>5</v>
@@ -47979,7 +47997,7 @@
         <v>1.69</v>
       </c>
       <c r="AT243">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48080,7 +48098,7 @@
         <v>231</v>
       </c>
       <c r="P244" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48170,7 +48188,7 @@
         <v>2.29</v>
       </c>
       <c r="AT244">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48271,7 +48289,7 @@
         <v>232</v>
       </c>
       <c r="P245" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q245">
         <v>12</v>
@@ -48358,7 +48376,7 @@
         <v>1.36</v>
       </c>
       <c r="AS245">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT245">
         <v>1.35</v>
@@ -48743,7 +48761,7 @@
         <v>1.5</v>
       </c>
       <c r="AT247">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU247">
         <v>1.49</v>
@@ -49122,7 +49140,7 @@
         <v>0.27</v>
       </c>
       <c r="AS249">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT249">
         <v>0.63</v>
@@ -49313,10 +49331,10 @@
         <v>1.4</v>
       </c>
       <c r="AS250">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT250">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU250">
         <v>1.59</v>
@@ -49417,7 +49435,7 @@
         <v>234</v>
       </c>
       <c r="P251" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49507,7 +49525,7 @@
         <v>1.69</v>
       </c>
       <c r="AT251">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU251">
         <v>1.71</v>
@@ -49695,7 +49713,7 @@
         <v>1.45</v>
       </c>
       <c r="AS252">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT252">
         <v>1.25</v>
@@ -49799,7 +49817,7 @@
         <v>155</v>
       </c>
       <c r="P253" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q253">
         <v>10</v>
@@ -49886,7 +49904,7 @@
         <v>0.91</v>
       </c>
       <c r="AS253">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT253">
         <v>1.19</v>
@@ -50080,7 +50098,7 @@
         <v>0.88</v>
       </c>
       <c r="AT254">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU254">
         <v>1.51</v>
@@ -50372,7 +50390,7 @@
         <v>89</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50462,7 +50480,7 @@
         <v>1.71</v>
       </c>
       <c r="AT256">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU256">
         <v>1.41</v>
@@ -50650,7 +50668,7 @@
         <v>1.08</v>
       </c>
       <c r="AS257">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT257">
         <v>1.12</v>
@@ -50945,7 +50963,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -51136,7 +51154,7 @@
         <v>238</v>
       </c>
       <c r="P260" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51226,7 +51244,7 @@
         <v>1.5</v>
       </c>
       <c r="AT260">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU260">
         <v>1.44</v>
@@ -51414,10 +51432,10 @@
         <v>1.6</v>
       </c>
       <c r="AS261">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT261">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU261">
         <v>1.02</v>
@@ -51518,7 +51536,7 @@
         <v>239</v>
       </c>
       <c r="P262" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q262">
         <v>5</v>
@@ -51987,7 +52005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS264">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT264">
         <v>0.63</v>
@@ -52091,7 +52109,7 @@
         <v>89</v>
       </c>
       <c r="P265" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q265">
         <v>9</v>
@@ -52178,7 +52196,7 @@
         <v>1.17</v>
       </c>
       <c r="AS265">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT265">
         <v>1.47</v>
@@ -52282,7 +52300,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q266">
         <v>8</v>
@@ -52369,10 +52387,10 @@
         <v>1.55</v>
       </c>
       <c r="AS266">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT266">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU266">
         <v>1.27</v>
@@ -52473,7 +52491,7 @@
         <v>241</v>
       </c>
       <c r="P267" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52560,10 +52578,10 @@
         <v>1.27</v>
       </c>
       <c r="AS267">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT267">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU267">
         <v>1.49</v>
@@ -52664,7 +52682,7 @@
         <v>242</v>
       </c>
       <c r="P268" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52751,7 +52769,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT268">
         <v>1.25</v>
@@ -52855,7 +52873,7 @@
         <v>243</v>
       </c>
       <c r="P269" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -52945,7 +52963,7 @@
         <v>2.29</v>
       </c>
       <c r="AT269">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU269">
         <v>1.55</v>
@@ -53046,7 +53064,7 @@
         <v>87</v>
       </c>
       <c r="P270" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q270">
         <v>4</v>
@@ -53136,7 +53154,7 @@
         <v>1.07</v>
       </c>
       <c r="AT270">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU270">
         <v>1.47</v>
@@ -53237,7 +53255,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53324,7 +53342,7 @@
         <v>1.08</v>
       </c>
       <c r="AS271">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT271">
         <v>1</v>
@@ -53518,7 +53536,7 @@
         <v>1.19</v>
       </c>
       <c r="AT272">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU272">
         <v>1.16</v>
@@ -53706,7 +53724,7 @@
         <v>0.54</v>
       </c>
       <c r="AS273">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT273">
         <v>0.6899999999999999</v>
@@ -53810,7 +53828,7 @@
         <v>110</v>
       </c>
       <c r="P274" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -54001,7 +54019,7 @@
         <v>223</v>
       </c>
       <c r="P275" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54088,10 +54106,10 @@
         <v>1.82</v>
       </c>
       <c r="AS275">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT275">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU275">
         <v>1.37</v>
@@ -54279,10 +54297,10 @@
         <v>0.09</v>
       </c>
       <c r="AS276">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT276">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU276">
         <v>1.04</v>
@@ -54661,7 +54679,7 @@
         <v>0.92</v>
       </c>
       <c r="AS278">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT278">
         <v>1.19</v>
@@ -54765,7 +54783,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -54956,7 +54974,7 @@
         <v>89</v>
       </c>
       <c r="P280" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q280">
         <v>9</v>
@@ -55147,7 +55165,7 @@
         <v>246</v>
       </c>
       <c r="P281" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55234,7 +55252,7 @@
         <v>0.75</v>
       </c>
       <c r="AS281">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT281">
         <v>1</v>
@@ -55338,7 +55356,7 @@
         <v>247</v>
       </c>
       <c r="P282" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q282">
         <v>5</v>
@@ -55529,7 +55547,7 @@
         <v>248</v>
       </c>
       <c r="P283" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55619,7 +55637,7 @@
         <v>0.88</v>
       </c>
       <c r="AT283">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU283">
         <v>1.48</v>
@@ -55998,7 +56016,7 @@
         <v>1.31</v>
       </c>
       <c r="AS285">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT285">
         <v>1.25</v>
@@ -56192,7 +56210,7 @@
         <v>1.69</v>
       </c>
       <c r="AT286">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU286">
         <v>1.7</v>
@@ -56293,7 +56311,7 @@
         <v>91</v>
       </c>
       <c r="P287" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q287">
         <v>6</v>
@@ -56484,7 +56502,7 @@
         <v>251</v>
       </c>
       <c r="P288" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q288">
         <v>4</v>
@@ -56571,7 +56589,7 @@
         <v>1.43</v>
       </c>
       <c r="AS288">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT288">
         <v>1.47</v>
@@ -56675,7 +56693,7 @@
         <v>252</v>
       </c>
       <c r="P289" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q289">
         <v>2</v>
@@ -56866,7 +56884,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q290">
         <v>2</v>
@@ -56953,7 +56971,7 @@
         <v>1.38</v>
       </c>
       <c r="AS290">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT290">
         <v>1.38</v>
@@ -57147,7 +57165,7 @@
         <v>1.19</v>
       </c>
       <c r="AT291">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU291">
         <v>1.13</v>
@@ -57248,7 +57266,7 @@
         <v>117</v>
       </c>
       <c r="P292" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q292">
         <v>5</v>
@@ -57526,7 +57544,7 @@
         <v>1.36</v>
       </c>
       <c r="AS293">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT293">
         <v>1.35</v>
@@ -57720,7 +57738,7 @@
         <v>1.12</v>
       </c>
       <c r="AT294">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU294">
         <v>1.29</v>
@@ -57821,7 +57839,7 @@
         <v>256</v>
       </c>
       <c r="P295" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57908,10 +57926,10 @@
         <v>2.15</v>
       </c>
       <c r="AS295">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT295">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU295">
         <v>1.47</v>
@@ -58099,10 +58117,10 @@
         <v>1.92</v>
       </c>
       <c r="AS296">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT296">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU296">
         <v>1.07</v>
@@ -58203,7 +58221,7 @@
         <v>162</v>
       </c>
       <c r="P297" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58293,7 +58311,7 @@
         <v>0.88</v>
       </c>
       <c r="AT297">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU297">
         <v>1.52</v>
@@ -58481,7 +58499,7 @@
         <v>1.23</v>
       </c>
       <c r="AS298">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT298">
         <v>1.33</v>
@@ -58672,10 +58690,10 @@
         <v>1.85</v>
       </c>
       <c r="AS299">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT299">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU299">
         <v>1.48</v>
@@ -58863,10 +58881,10 @@
         <v>1.54</v>
       </c>
       <c r="AS300">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT300">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU300">
         <v>1.32</v>
@@ -59057,7 +59075,7 @@
         <v>1.13</v>
       </c>
       <c r="AT301">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU301">
         <v>1.39</v>
@@ -59436,10 +59454,10 @@
         <v>1.31</v>
       </c>
       <c r="AS303">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT303">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU303">
         <v>2.05</v>
@@ -59818,10 +59836,10 @@
         <v>1.5</v>
       </c>
       <c r="AS305">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT305">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU305">
         <v>1.37</v>
@@ -60009,10 +60027,10 @@
         <v>1.54</v>
       </c>
       <c r="AS306">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT306">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU306">
         <v>1.47</v>
@@ -60200,7 +60218,7 @@
         <v>1.23</v>
       </c>
       <c r="AS307">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT307">
         <v>1</v>
@@ -60304,7 +60322,7 @@
         <v>99</v>
       </c>
       <c r="P308" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q308">
         <v>0</v>
@@ -60391,10 +60409,10 @@
         <v>0.15</v>
       </c>
       <c r="AS308">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT308">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU308">
         <v>1.48</v>
@@ -60495,7 +60513,7 @@
         <v>230</v>
       </c>
       <c r="P309" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q309">
         <v>6</v>
@@ -60686,7 +60704,7 @@
         <v>263</v>
       </c>
       <c r="P310" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q310">
         <v>5</v>
@@ -60776,7 +60794,7 @@
         <v>1.5</v>
       </c>
       <c r="AT310">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU310">
         <v>1.51</v>
@@ -61068,7 +61086,7 @@
         <v>89</v>
       </c>
       <c r="P312" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q312">
         <v>6</v>
@@ -61346,7 +61364,7 @@
         <v>1.07</v>
       </c>
       <c r="AS313">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT313">
         <v>1.19</v>
@@ -61450,7 +61468,7 @@
         <v>264</v>
       </c>
       <c r="P314" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q314">
         <v>2</v>
@@ -61537,10 +61555,10 @@
         <v>1.46</v>
       </c>
       <c r="AS314">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT314">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU314">
         <v>1.18</v>
@@ -61731,7 +61749,7 @@
         <v>0.88</v>
       </c>
       <c r="AT315">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU315">
         <v>1.47</v>
@@ -61832,7 +61850,7 @@
         <v>265</v>
       </c>
       <c r="P316" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q316">
         <v>3</v>
@@ -62023,7 +62041,7 @@
         <v>266</v>
       </c>
       <c r="P317" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q317">
         <v>3</v>
@@ -62492,7 +62510,7 @@
         <v>0.5</v>
       </c>
       <c r="AS319">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT319">
         <v>0.63</v>
@@ -62596,7 +62614,7 @@
         <v>267</v>
       </c>
       <c r="P320" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -62877,7 +62895,7 @@
         <v>2.29</v>
       </c>
       <c r="AT321">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU321">
         <v>1.56</v>
@@ -63065,7 +63083,7 @@
         <v>1.14</v>
       </c>
       <c r="AS322">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT322">
         <v>1</v>
@@ -63256,7 +63274,7 @@
         <v>0.93</v>
       </c>
       <c r="AS323">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT323">
         <v>1</v>
@@ -63360,7 +63378,7 @@
         <v>269</v>
       </c>
       <c r="P324" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q324">
         <v>7</v>
@@ -63447,10 +63465,10 @@
         <v>1.38</v>
       </c>
       <c r="AS324">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT324">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU324">
         <v>1.48</v>
@@ -63641,7 +63659,7 @@
         <v>1.71</v>
       </c>
       <c r="AT325">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU325">
         <v>1.33</v>
@@ -63829,10 +63847,10 @@
         <v>2.21</v>
       </c>
       <c r="AS326">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT326">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU326">
         <v>1.29</v>
@@ -64020,10 +64038,10 @@
         <v>1.43</v>
       </c>
       <c r="AS327">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT327">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU327">
         <v>1.51</v>
@@ -64124,7 +64142,7 @@
         <v>270</v>
       </c>
       <c r="P328" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q328">
         <v>9</v>
@@ -64214,7 +64232,7 @@
         <v>1.24</v>
       </c>
       <c r="AT328">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU328">
         <v>1.46</v>
@@ -64315,7 +64333,7 @@
         <v>89</v>
       </c>
       <c r="P329" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q329">
         <v>5</v>
@@ -64402,7 +64420,7 @@
         <v>1.21</v>
       </c>
       <c r="AS329">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT329">
         <v>1.33</v>
@@ -64506,7 +64524,7 @@
         <v>271</v>
       </c>
       <c r="P330" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q330">
         <v>5</v>
@@ -64593,7 +64611,7 @@
         <v>0.93</v>
       </c>
       <c r="AS330">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT330">
         <v>1.06</v>
@@ -64784,10 +64802,10 @@
         <v>2.27</v>
       </c>
       <c r="AS331">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT331">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU331">
         <v>1.52</v>
@@ -65079,7 +65097,7 @@
         <v>89</v>
       </c>
       <c r="P333" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q333">
         <v>5</v>
@@ -65169,7 +65187,7 @@
         <v>1.63</v>
       </c>
       <c r="AT333">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU333">
         <v>1.38</v>
@@ -65270,7 +65288,7 @@
         <v>273</v>
       </c>
       <c r="P334" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65357,10 +65375,10 @@
         <v>2.08</v>
       </c>
       <c r="AS334">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT334">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AU334">
         <v>1.96</v>
@@ -65461,7 +65479,7 @@
         <v>132</v>
       </c>
       <c r="P335" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q335">
         <v>1</v>
@@ -65548,7 +65566,7 @@
         <v>0.47</v>
       </c>
       <c r="AS335">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT335">
         <v>0.63</v>
@@ -65739,10 +65757,10 @@
         <v>0.36</v>
       </c>
       <c r="AS336">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT336">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU336">
         <v>1.5</v>
@@ -65930,10 +65948,10 @@
         <v>1.36</v>
       </c>
       <c r="AS337">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT337">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU337">
         <v>1.37</v>
@@ -66034,7 +66052,7 @@
         <v>275</v>
       </c>
       <c r="P338" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66121,10 +66139,10 @@
         <v>1.4</v>
       </c>
       <c r="AS338">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT338">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU338">
         <v>1.63</v>
@@ -66315,7 +66333,7 @@
         <v>1.5</v>
       </c>
       <c r="AT339">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU339">
         <v>1.5</v>
@@ -66607,7 +66625,7 @@
         <v>277</v>
       </c>
       <c r="P341" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q341">
         <v>6</v>
@@ -66697,7 +66715,7 @@
         <v>1.13</v>
       </c>
       <c r="AT341">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU341">
         <v>1.35</v>
@@ -66989,7 +67007,7 @@
         <v>279</v>
       </c>
       <c r="P343" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q343">
         <v>8</v>
@@ -67076,10 +67094,10 @@
         <v>1.14</v>
       </c>
       <c r="AS343">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT343">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU343">
         <v>1.28</v>
@@ -67180,7 +67198,7 @@
         <v>280</v>
       </c>
       <c r="P344" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67371,7 +67389,7 @@
         <v>281</v>
       </c>
       <c r="P345" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67458,10 +67476,10 @@
         <v>1.4</v>
       </c>
       <c r="AS345">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT345">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU345">
         <v>1.2</v>
@@ -67562,7 +67580,7 @@
         <v>282</v>
       </c>
       <c r="P346" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q346">
         <v>8</v>
@@ -67753,7 +67771,7 @@
         <v>89</v>
       </c>
       <c r="P347" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q347">
         <v>7</v>
@@ -68031,7 +68049,7 @@
         <v>0.93</v>
       </c>
       <c r="AS348">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT348">
         <v>1.06</v>
@@ -68222,7 +68240,7 @@
         <v>1.5</v>
       </c>
       <c r="AS349">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT349">
         <v>1.47</v>
@@ -68326,7 +68344,7 @@
         <v>284</v>
       </c>
       <c r="P350" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q350">
         <v>5</v>
@@ -68468,6 +68486,2107 @@
       </c>
       <c r="BK350">
         <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:63">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>5188828</v>
+      </c>
+      <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s">
+        <v>64</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F351">
+        <v>33</v>
+      </c>
+      <c r="G351" t="s">
+        <v>85</v>
+      </c>
+      <c r="H351" t="s">
+        <v>69</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351" t="s">
+        <v>285</v>
+      </c>
+      <c r="P351" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q351">
+        <v>1</v>
+      </c>
+      <c r="R351">
+        <v>8</v>
+      </c>
+      <c r="S351">
+        <v>9</v>
+      </c>
+      <c r="T351">
+        <v>4.71</v>
+      </c>
+      <c r="U351">
+        <v>2</v>
+      </c>
+      <c r="V351">
+        <v>2.69</v>
+      </c>
+      <c r="W351">
+        <v>1.5</v>
+      </c>
+      <c r="X351">
+        <v>2.49</v>
+      </c>
+      <c r="Y351">
+        <v>3.34</v>
+      </c>
+      <c r="Z351">
+        <v>1.3</v>
+      </c>
+      <c r="AA351">
+        <v>7.7</v>
+      </c>
+      <c r="AB351">
+        <v>1.05</v>
+      </c>
+      <c r="AC351">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AD351">
+        <v>6.53</v>
+      </c>
+      <c r="AE351">
+        <v>1.18</v>
+      </c>
+      <c r="AF351">
+        <v>1.08</v>
+      </c>
+      <c r="AG351">
+        <v>6.5</v>
+      </c>
+      <c r="AH351">
+        <v>1.42</v>
+      </c>
+      <c r="AI351">
+        <v>2.62</v>
+      </c>
+      <c r="AJ351">
+        <v>2.2</v>
+      </c>
+      <c r="AK351">
+        <v>1.62</v>
+      </c>
+      <c r="AL351">
+        <v>2.15</v>
+      </c>
+      <c r="AM351">
+        <v>1.68</v>
+      </c>
+      <c r="AN351">
+        <v>1.61</v>
+      </c>
+      <c r="AO351">
+        <v>1.27</v>
+      </c>
+      <c r="AP351">
+        <v>1.23</v>
+      </c>
+      <c r="AQ351">
+        <v>1.07</v>
+      </c>
+      <c r="AR351">
+        <v>1.88</v>
+      </c>
+      <c r="AS351">
+        <v>1.06</v>
+      </c>
+      <c r="AT351">
+        <v>1.82</v>
+      </c>
+      <c r="AU351">
+        <v>1.3</v>
+      </c>
+      <c r="AV351">
+        <v>1.57</v>
+      </c>
+      <c r="AW351">
+        <v>2.87</v>
+      </c>
+      <c r="AX351">
+        <v>2.7</v>
+      </c>
+      <c r="AY351">
+        <v>7</v>
+      </c>
+      <c r="AZ351">
+        <v>1.7</v>
+      </c>
+      <c r="BA351">
+        <v>1.23</v>
+      </c>
+      <c r="BB351">
+        <v>1.49</v>
+      </c>
+      <c r="BC351">
+        <v>1.81</v>
+      </c>
+      <c r="BD351">
+        <v>2</v>
+      </c>
+      <c r="BE351">
+        <v>2.6</v>
+      </c>
+      <c r="BF351">
+        <v>4</v>
+      </c>
+      <c r="BG351">
+        <v>5</v>
+      </c>
+      <c r="BH351">
+        <v>3</v>
+      </c>
+      <c r="BI351">
+        <v>14</v>
+      </c>
+      <c r="BJ351">
+        <v>7</v>
+      </c>
+      <c r="BK351">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:63">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>5188829</v>
+      </c>
+      <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>64</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F352">
+        <v>33</v>
+      </c>
+      <c r="G352" t="s">
+        <v>84</v>
+      </c>
+      <c r="H352" t="s">
+        <v>72</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>2</v>
+      </c>
+      <c r="K352">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>3</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>89</v>
+      </c>
+      <c r="P352" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q352">
+        <v>2</v>
+      </c>
+      <c r="R352">
+        <v>4</v>
+      </c>
+      <c r="S352">
+        <v>6</v>
+      </c>
+      <c r="T352">
+        <v>4.02</v>
+      </c>
+      <c r="U352">
+        <v>2.16</v>
+      </c>
+      <c r="V352">
+        <v>2.95</v>
+      </c>
+      <c r="W352">
+        <v>1.44</v>
+      </c>
+      <c r="X352">
+        <v>2.81</v>
+      </c>
+      <c r="Y352">
+        <v>3.21</v>
+      </c>
+      <c r="Z352">
+        <v>1.36</v>
+      </c>
+      <c r="AA352">
+        <v>7.5</v>
+      </c>
+      <c r="AB352">
+        <v>1.07</v>
+      </c>
+      <c r="AC352">
+        <v>2.4</v>
+      </c>
+      <c r="AD352">
+        <v>3.29</v>
+      </c>
+      <c r="AE352">
+        <v>2.58</v>
+      </c>
+      <c r="AF352">
+        <v>1.07</v>
+      </c>
+      <c r="AG352">
+        <v>7.5</v>
+      </c>
+      <c r="AH352">
+        <v>1.36</v>
+      </c>
+      <c r="AI352">
+        <v>3</v>
+      </c>
+      <c r="AJ352">
+        <v>2</v>
+      </c>
+      <c r="AK352">
+        <v>1.75</v>
+      </c>
+      <c r="AL352">
+        <v>1.88</v>
+      </c>
+      <c r="AM352">
+        <v>1.9</v>
+      </c>
+      <c r="AN352">
+        <v>1.67</v>
+      </c>
+      <c r="AO352">
+        <v>1.35</v>
+      </c>
+      <c r="AP352">
+        <v>1.33</v>
+      </c>
+      <c r="AQ352">
+        <v>1.4</v>
+      </c>
+      <c r="AR352">
+        <v>2.19</v>
+      </c>
+      <c r="AS352">
+        <v>1.31</v>
+      </c>
+      <c r="AT352">
+        <v>2.24</v>
+      </c>
+      <c r="AU352">
+        <v>1.43</v>
+      </c>
+      <c r="AV352">
+        <v>1.36</v>
+      </c>
+      <c r="AW352">
+        <v>2.79</v>
+      </c>
+      <c r="AX352">
+        <v>2.34</v>
+      </c>
+      <c r="AY352">
+        <v>8.5</v>
+      </c>
+      <c r="AZ352">
+        <v>1.85</v>
+      </c>
+      <c r="BA352">
+        <v>1.43</v>
+      </c>
+      <c r="BB352">
+        <v>1.62</v>
+      </c>
+      <c r="BC352">
+        <v>1.98</v>
+      </c>
+      <c r="BD352">
+        <v>2.48</v>
+      </c>
+      <c r="BE352">
+        <v>4</v>
+      </c>
+      <c r="BF352">
+        <v>3</v>
+      </c>
+      <c r="BG352">
+        <v>4</v>
+      </c>
+      <c r="BH352">
+        <v>3</v>
+      </c>
+      <c r="BI352">
+        <v>2</v>
+      </c>
+      <c r="BJ352">
+        <v>6</v>
+      </c>
+      <c r="BK352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:63">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>5188838</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45172.20833333334</v>
+      </c>
+      <c r="F353">
+        <v>33</v>
+      </c>
+      <c r="G353" t="s">
+        <v>71</v>
+      </c>
+      <c r="H353" t="s">
+        <v>82</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>2</v>
+      </c>
+      <c r="M353">
+        <v>2</v>
+      </c>
+      <c r="N353">
+        <v>4</v>
+      </c>
+      <c r="O353" t="s">
+        <v>286</v>
+      </c>
+      <c r="P353" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q353">
+        <v>3</v>
+      </c>
+      <c r="R353">
+        <v>9</v>
+      </c>
+      <c r="S353">
+        <v>12</v>
+      </c>
+      <c r="T353">
+        <v>3.25</v>
+      </c>
+      <c r="U353">
+        <v>2.06</v>
+      </c>
+      <c r="V353">
+        <v>3.25</v>
+      </c>
+      <c r="W353">
+        <v>1.4</v>
+      </c>
+      <c r="X353">
+        <v>2.75</v>
+      </c>
+      <c r="Y353">
+        <v>2.75</v>
+      </c>
+      <c r="Z353">
+        <v>1.4</v>
+      </c>
+      <c r="AA353">
+        <v>8</v>
+      </c>
+      <c r="AB353">
+        <v>1.08</v>
+      </c>
+      <c r="AC353">
+        <v>2.25</v>
+      </c>
+      <c r="AD353">
+        <v>3.55</v>
+      </c>
+      <c r="AE353">
+        <v>3.04</v>
+      </c>
+      <c r="AF353">
+        <v>1.02</v>
+      </c>
+      <c r="AG353">
+        <v>9</v>
+      </c>
+      <c r="AH353">
+        <v>1.28</v>
+      </c>
+      <c r="AI353">
+        <v>3.26</v>
+      </c>
+      <c r="AJ353">
+        <v>1.97</v>
+      </c>
+      <c r="AK353">
+        <v>1.91</v>
+      </c>
+      <c r="AL353">
+        <v>1.73</v>
+      </c>
+      <c r="AM353">
+        <v>2</v>
+      </c>
+      <c r="AN353">
+        <v>1.37</v>
+      </c>
+      <c r="AO353">
+        <v>1.28</v>
+      </c>
+      <c r="AP353">
+        <v>1.5</v>
+      </c>
+      <c r="AQ353">
+        <v>1.8</v>
+      </c>
+      <c r="AR353">
+        <v>1.33</v>
+      </c>
+      <c r="AS353">
+        <v>1.75</v>
+      </c>
+      <c r="AT353">
+        <v>1.31</v>
+      </c>
+      <c r="AU353">
+        <v>1.4</v>
+      </c>
+      <c r="AV353">
+        <v>1.24</v>
+      </c>
+      <c r="AW353">
+        <v>2.64</v>
+      </c>
+      <c r="AX353">
+        <v>2.47</v>
+      </c>
+      <c r="AY353">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ353">
+        <v>1.74</v>
+      </c>
+      <c r="BA353">
+        <v>1.29</v>
+      </c>
+      <c r="BB353">
+        <v>1.64</v>
+      </c>
+      <c r="BC353">
+        <v>1.98</v>
+      </c>
+      <c r="BD353">
+        <v>2.52</v>
+      </c>
+      <c r="BE353">
+        <v>3.6</v>
+      </c>
+      <c r="BF353">
+        <v>3</v>
+      </c>
+      <c r="BG353">
+        <v>4</v>
+      </c>
+      <c r="BH353">
+        <v>6</v>
+      </c>
+      <c r="BI353">
+        <v>8</v>
+      </c>
+      <c r="BJ353">
+        <v>9</v>
+      </c>
+      <c r="BK353">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:63">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>5188836</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s">
+        <v>64</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45172.25</v>
+      </c>
+      <c r="F354">
+        <v>33</v>
+      </c>
+      <c r="G354" t="s">
+        <v>68</v>
+      </c>
+      <c r="H354" t="s">
+        <v>74</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354" t="s">
+        <v>89</v>
+      </c>
+      <c r="P354" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q354">
+        <v>7</v>
+      </c>
+      <c r="R354">
+        <v>3</v>
+      </c>
+      <c r="S354">
+        <v>10</v>
+      </c>
+      <c r="T354">
+        <v>1.95</v>
+      </c>
+      <c r="U354">
+        <v>2.4</v>
+      </c>
+      <c r="V354">
+        <v>6.5</v>
+      </c>
+      <c r="W354">
+        <v>1.3</v>
+      </c>
+      <c r="X354">
+        <v>3.4</v>
+      </c>
+      <c r="Y354">
+        <v>2.5</v>
+      </c>
+      <c r="Z354">
+        <v>1.5</v>
+      </c>
+      <c r="AA354">
+        <v>6</v>
+      </c>
+      <c r="AB354">
+        <v>1.13</v>
+      </c>
+      <c r="AC354">
+        <v>1.36</v>
+      </c>
+      <c r="AD354">
+        <v>5</v>
+      </c>
+      <c r="AE354">
+        <v>8.4</v>
+      </c>
+      <c r="AF354">
+        <v>1.03</v>
+      </c>
+      <c r="AG354">
+        <v>9</v>
+      </c>
+      <c r="AH354">
+        <v>1.18</v>
+      </c>
+      <c r="AI354">
+        <v>4.2</v>
+      </c>
+      <c r="AJ354">
+        <v>1.67</v>
+      </c>
+      <c r="AK354">
+        <v>2.15</v>
+      </c>
+      <c r="AL354">
+        <v>1.83</v>
+      </c>
+      <c r="AM354">
+        <v>1.83</v>
+      </c>
+      <c r="AN354">
+        <v>1.1</v>
+      </c>
+      <c r="AO354">
+        <v>1.16</v>
+      </c>
+      <c r="AP354">
+        <v>2.23</v>
+      </c>
+      <c r="AQ354">
+        <v>2.07</v>
+      </c>
+      <c r="AR354">
+        <v>1.06</v>
+      </c>
+      <c r="AS354">
+        <v>2</v>
+      </c>
+      <c r="AT354">
+        <v>1.06</v>
+      </c>
+      <c r="AU354">
+        <v>1.94</v>
+      </c>
+      <c r="AV354">
+        <v>1.13</v>
+      </c>
+      <c r="AW354">
+        <v>3.07</v>
+      </c>
+      <c r="AX354">
+        <v>1.3</v>
+      </c>
+      <c r="AY354">
+        <v>10.7</v>
+      </c>
+      <c r="AZ354">
+        <v>4.54</v>
+      </c>
+      <c r="BA354">
+        <v>1.24</v>
+      </c>
+      <c r="BB354">
+        <v>1.54</v>
+      </c>
+      <c r="BC354">
+        <v>1.8</v>
+      </c>
+      <c r="BD354">
+        <v>2.3</v>
+      </c>
+      <c r="BE354">
+        <v>3.1</v>
+      </c>
+      <c r="BF354">
+        <v>3</v>
+      </c>
+      <c r="BG354">
+        <v>3</v>
+      </c>
+      <c r="BH354">
+        <v>9</v>
+      </c>
+      <c r="BI354">
+        <v>7</v>
+      </c>
+      <c r="BJ354">
+        <v>12</v>
+      </c>
+      <c r="BK354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:63">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>5188832</v>
+      </c>
+      <c r="C355" t="s">
+        <v>63</v>
+      </c>
+      <c r="D355" t="s">
+        <v>64</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45172.25</v>
+      </c>
+      <c r="F355">
+        <v>33</v>
+      </c>
+      <c r="G355" t="s">
+        <v>66</v>
+      </c>
+      <c r="H355" t="s">
+        <v>79</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>2</v>
+      </c>
+      <c r="N355">
+        <v>3</v>
+      </c>
+      <c r="O355" t="s">
+        <v>251</v>
+      </c>
+      <c r="P355" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q355">
+        <v>5</v>
+      </c>
+      <c r="R355">
+        <v>3</v>
+      </c>
+      <c r="S355">
+        <v>8</v>
+      </c>
+      <c r="T355">
+        <v>3</v>
+      </c>
+      <c r="U355">
+        <v>2.05</v>
+      </c>
+      <c r="V355">
+        <v>3.4</v>
+      </c>
+      <c r="W355">
+        <v>1.44</v>
+      </c>
+      <c r="X355">
+        <v>2.63</v>
+      </c>
+      <c r="Y355">
+        <v>3.25</v>
+      </c>
+      <c r="Z355">
+        <v>1.33</v>
+      </c>
+      <c r="AA355">
+        <v>10</v>
+      </c>
+      <c r="AB355">
+        <v>1.06</v>
+      </c>
+      <c r="AC355">
+        <v>2.19</v>
+      </c>
+      <c r="AD355">
+        <v>3.32</v>
+      </c>
+      <c r="AE355">
+        <v>3.37</v>
+      </c>
+      <c r="AF355">
+        <v>1.06</v>
+      </c>
+      <c r="AG355">
+        <v>7.5</v>
+      </c>
+      <c r="AH355">
+        <v>1.36</v>
+      </c>
+      <c r="AI355">
+        <v>2.9</v>
+      </c>
+      <c r="AJ355">
+        <v>2.1</v>
+      </c>
+      <c r="AK355">
+        <v>1.7</v>
+      </c>
+      <c r="AL355">
+        <v>1.83</v>
+      </c>
+      <c r="AM355">
+        <v>1.83</v>
+      </c>
+      <c r="AN355">
+        <v>1.35</v>
+      </c>
+      <c r="AO355">
+        <v>1.25</v>
+      </c>
+      <c r="AP355">
+        <v>1.47</v>
+      </c>
+      <c r="AQ355">
+        <v>1.13</v>
+      </c>
+      <c r="AR355">
+        <v>1.31</v>
+      </c>
+      <c r="AS355">
+        <v>1.06</v>
+      </c>
+      <c r="AT355">
+        <v>1.41</v>
+      </c>
+      <c r="AU355">
+        <v>1.48</v>
+      </c>
+      <c r="AV355">
+        <v>1.34</v>
+      </c>
+      <c r="AW355">
+        <v>2.82</v>
+      </c>
+      <c r="AX355">
+        <v>1.78</v>
+      </c>
+      <c r="AY355">
+        <v>8.9</v>
+      </c>
+      <c r="AZ355">
+        <v>2.43</v>
+      </c>
+      <c r="BA355">
+        <v>1.23</v>
+      </c>
+      <c r="BB355">
+        <v>1.46</v>
+      </c>
+      <c r="BC355">
+        <v>1.85</v>
+      </c>
+      <c r="BD355">
+        <v>2.15</v>
+      </c>
+      <c r="BE355">
+        <v>2.95</v>
+      </c>
+      <c r="BF355">
+        <v>4</v>
+      </c>
+      <c r="BG355">
+        <v>5</v>
+      </c>
+      <c r="BH355">
+        <v>7</v>
+      </c>
+      <c r="BI355">
+        <v>6</v>
+      </c>
+      <c r="BJ355">
+        <v>11</v>
+      </c>
+      <c r="BK355">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:63">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>5188835</v>
+      </c>
+      <c r="C356" t="s">
+        <v>63</v>
+      </c>
+      <c r="D356" t="s">
+        <v>64</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F356">
+        <v>33</v>
+      </c>
+      <c r="G356" t="s">
+        <v>76</v>
+      </c>
+      <c r="H356" t="s">
+        <v>80</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>253</v>
+      </c>
+      <c r="P356" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q356">
+        <v>7</v>
+      </c>
+      <c r="R356">
+        <v>1</v>
+      </c>
+      <c r="S356">
+        <v>8</v>
+      </c>
+      <c r="T356">
+        <v>2.55</v>
+      </c>
+      <c r="U356">
+        <v>2.1</v>
+      </c>
+      <c r="V356">
+        <v>4</v>
+      </c>
+      <c r="W356">
+        <v>1.39</v>
+      </c>
+      <c r="X356">
+        <v>3.03</v>
+      </c>
+      <c r="Y356">
+        <v>2.95</v>
+      </c>
+      <c r="Z356">
+        <v>1.41</v>
+      </c>
+      <c r="AA356">
+        <v>8</v>
+      </c>
+      <c r="AB356">
+        <v>1.08</v>
+      </c>
+      <c r="AC356">
+        <v>1.96</v>
+      </c>
+      <c r="AD356">
+        <v>3.7</v>
+      </c>
+      <c r="AE356">
+        <v>3.67</v>
+      </c>
+      <c r="AF356">
+        <v>1.05</v>
+      </c>
+      <c r="AG356">
+        <v>7.8</v>
+      </c>
+      <c r="AH356">
+        <v>1.25</v>
+      </c>
+      <c r="AI356">
+        <v>3.5</v>
+      </c>
+      <c r="AJ356">
+        <v>1.94</v>
+      </c>
+      <c r="AK356">
+        <v>1.94</v>
+      </c>
+      <c r="AL356">
+        <v>1.8</v>
+      </c>
+      <c r="AM356">
+        <v>1.91</v>
+      </c>
+      <c r="AN356">
+        <v>1.22</v>
+      </c>
+      <c r="AO356">
+        <v>1.22</v>
+      </c>
+      <c r="AP356">
+        <v>1.8</v>
+      </c>
+      <c r="AQ356">
+        <v>1.87</v>
+      </c>
+      <c r="AR356">
+        <v>1.27</v>
+      </c>
+      <c r="AS356">
+        <v>1.94</v>
+      </c>
+      <c r="AT356">
+        <v>1.19</v>
+      </c>
+      <c r="AU356">
+        <v>1.68</v>
+      </c>
+      <c r="AV356">
+        <v>1.52</v>
+      </c>
+      <c r="AW356">
+        <v>3.2</v>
+      </c>
+      <c r="AX356">
+        <v>1.62</v>
+      </c>
+      <c r="AY356">
+        <v>9.1</v>
+      </c>
+      <c r="AZ356">
+        <v>2.79</v>
+      </c>
+      <c r="BA356">
+        <v>1.32</v>
+      </c>
+      <c r="BB356">
+        <v>1.63</v>
+      </c>
+      <c r="BC356">
+        <v>2</v>
+      </c>
+      <c r="BD356">
+        <v>2.51</v>
+      </c>
+      <c r="BE356">
+        <v>3.4</v>
+      </c>
+      <c r="BF356">
+        <v>6</v>
+      </c>
+      <c r="BG356">
+        <v>3</v>
+      </c>
+      <c r="BH356">
+        <v>7</v>
+      </c>
+      <c r="BI356">
+        <v>5</v>
+      </c>
+      <c r="BJ356">
+        <v>13</v>
+      </c>
+      <c r="BK356">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:63">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>5188834</v>
+      </c>
+      <c r="C357" t="s">
+        <v>63</v>
+      </c>
+      <c r="D357" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F357">
+        <v>33</v>
+      </c>
+      <c r="G357" t="s">
+        <v>67</v>
+      </c>
+      <c r="H357" t="s">
+        <v>73</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357" t="s">
+        <v>89</v>
+      </c>
+      <c r="P357" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q357">
+        <v>3</v>
+      </c>
+      <c r="R357">
+        <v>6</v>
+      </c>
+      <c r="S357">
+        <v>9</v>
+      </c>
+      <c r="T357">
+        <v>4.8</v>
+      </c>
+      <c r="U357">
+        <v>2.04</v>
+      </c>
+      <c r="V357">
+        <v>2.49</v>
+      </c>
+      <c r="W357">
+        <v>1.44</v>
+      </c>
+      <c r="X357">
+        <v>2.63</v>
+      </c>
+      <c r="Y357">
+        <v>3.25</v>
+      </c>
+      <c r="Z357">
+        <v>1.33</v>
+      </c>
+      <c r="AA357">
+        <v>9</v>
+      </c>
+      <c r="AB357">
+        <v>1.07</v>
+      </c>
+      <c r="AC357">
+        <v>3.61</v>
+      </c>
+      <c r="AD357">
+        <v>3.65</v>
+      </c>
+      <c r="AE357">
+        <v>1.99</v>
+      </c>
+      <c r="AF357">
+        <v>1.06</v>
+      </c>
+      <c r="AG357">
+        <v>7.2</v>
+      </c>
+      <c r="AH357">
+        <v>1.33</v>
+      </c>
+      <c r="AI357">
+        <v>3.1</v>
+      </c>
+      <c r="AJ357">
+        <v>2</v>
+      </c>
+      <c r="AK357">
+        <v>1.75</v>
+      </c>
+      <c r="AL357">
+        <v>2</v>
+      </c>
+      <c r="AM357">
+        <v>1.73</v>
+      </c>
+      <c r="AN357">
+        <v>1.9</v>
+      </c>
+      <c r="AO357">
+        <v>1.22</v>
+      </c>
+      <c r="AP357">
+        <v>1.15</v>
+      </c>
+      <c r="AQ357">
+        <v>1.8</v>
+      </c>
+      <c r="AR357">
+        <v>1.93</v>
+      </c>
+      <c r="AS357">
+        <v>1.75</v>
+      </c>
+      <c r="AT357">
+        <v>1.87</v>
+      </c>
+      <c r="AU357">
+        <v>1.06</v>
+      </c>
+      <c r="AV357">
+        <v>1.14</v>
+      </c>
+      <c r="AW357">
+        <v>2.2</v>
+      </c>
+      <c r="AX357">
+        <v>2.82</v>
+      </c>
+      <c r="AY357">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ357">
+        <v>1.62</v>
+      </c>
+      <c r="BA357">
+        <v>1.45</v>
+      </c>
+      <c r="BB357">
+        <v>1.79</v>
+      </c>
+      <c r="BC357">
+        <v>2.29</v>
+      </c>
+      <c r="BD357">
+        <v>2.47</v>
+      </c>
+      <c r="BE357">
+        <v>4.2</v>
+      </c>
+      <c r="BF357">
+        <v>3</v>
+      </c>
+      <c r="BG357">
+        <v>9</v>
+      </c>
+      <c r="BH357">
+        <v>4</v>
+      </c>
+      <c r="BI357">
+        <v>6</v>
+      </c>
+      <c r="BJ357">
+        <v>7</v>
+      </c>
+      <c r="BK357">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:63">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>5188837</v>
+      </c>
+      <c r="C358" t="s">
+        <v>63</v>
+      </c>
+      <c r="D358" t="s">
+        <v>64</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F358">
+        <v>33</v>
+      </c>
+      <c r="G358" t="s">
+        <v>70</v>
+      </c>
+      <c r="H358" t="s">
+        <v>83</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>2</v>
+      </c>
+      <c r="K358">
+        <v>3</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358">
+        <v>2</v>
+      </c>
+      <c r="N358">
+        <v>3</v>
+      </c>
+      <c r="O358" t="s">
+        <v>287</v>
+      </c>
+      <c r="P358" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q358">
+        <v>5</v>
+      </c>
+      <c r="R358">
+        <v>5</v>
+      </c>
+      <c r="S358">
+        <v>10</v>
+      </c>
+      <c r="T358">
+        <v>3.49</v>
+      </c>
+      <c r="U358">
+        <v>2.21</v>
+      </c>
+      <c r="V358">
+        <v>3.21</v>
+      </c>
+      <c r="W358">
+        <v>1.4</v>
+      </c>
+      <c r="X358">
+        <v>2.75</v>
+      </c>
+      <c r="Y358">
+        <v>3</v>
+      </c>
+      <c r="Z358">
+        <v>1.36</v>
+      </c>
+      <c r="AA358">
+        <v>8</v>
+      </c>
+      <c r="AB358">
+        <v>1.08</v>
+      </c>
+      <c r="AC358">
+        <v>2.73</v>
+      </c>
+      <c r="AD358">
+        <v>3.34</v>
+      </c>
+      <c r="AE358">
+        <v>2.55</v>
+      </c>
+      <c r="AF358">
+        <v>1.02</v>
+      </c>
+      <c r="AG358">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH358">
+        <v>1.29</v>
+      </c>
+      <c r="AI358">
+        <v>3.2</v>
+      </c>
+      <c r="AJ358">
+        <v>2.06</v>
+      </c>
+      <c r="AK358">
+        <v>1.82</v>
+      </c>
+      <c r="AL358">
+        <v>1.73</v>
+      </c>
+      <c r="AM358">
+        <v>2</v>
+      </c>
+      <c r="AN358">
+        <v>1.46</v>
+      </c>
+      <c r="AO358">
+        <v>1.29</v>
+      </c>
+      <c r="AP358">
+        <v>1.4</v>
+      </c>
+      <c r="AQ358">
+        <v>1.19</v>
+      </c>
+      <c r="AR358">
+        <v>1.13</v>
+      </c>
+      <c r="AS358">
+        <v>1.12</v>
+      </c>
+      <c r="AT358">
+        <v>1.25</v>
+      </c>
+      <c r="AU358">
+        <v>1.21</v>
+      </c>
+      <c r="AV358">
+        <v>1.2</v>
+      </c>
+      <c r="AW358">
+        <v>2.41</v>
+      </c>
+      <c r="AX358">
+        <v>1.94</v>
+      </c>
+      <c r="AY358">
+        <v>8.4</v>
+      </c>
+      <c r="AZ358">
+        <v>2.18</v>
+      </c>
+      <c r="BA358">
+        <v>1.42</v>
+      </c>
+      <c r="BB358">
+        <v>1.74</v>
+      </c>
+      <c r="BC358">
+        <v>2.15</v>
+      </c>
+      <c r="BD358">
+        <v>3.1</v>
+      </c>
+      <c r="BE358">
+        <v>4.4</v>
+      </c>
+      <c r="BF358">
+        <v>3</v>
+      </c>
+      <c r="BG358">
+        <v>5</v>
+      </c>
+      <c r="BH358">
+        <v>13</v>
+      </c>
+      <c r="BI358">
+        <v>5</v>
+      </c>
+      <c r="BJ358">
+        <v>16</v>
+      </c>
+      <c r="BK358">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:63">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>5188831</v>
+      </c>
+      <c r="C359" t="s">
+        <v>63</v>
+      </c>
+      <c r="D359" t="s">
+        <v>64</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F359">
+        <v>33</v>
+      </c>
+      <c r="G359" t="s">
+        <v>86</v>
+      </c>
+      <c r="H359" t="s">
+        <v>78</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359">
+        <v>1</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" t="s">
+        <v>223</v>
+      </c>
+      <c r="P359" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q359">
+        <v>5</v>
+      </c>
+      <c r="R359">
+        <v>2</v>
+      </c>
+      <c r="S359">
+        <v>7</v>
+      </c>
+      <c r="T359">
+        <v>2.53</v>
+      </c>
+      <c r="U359">
+        <v>2.19</v>
+      </c>
+      <c r="V359">
+        <v>4</v>
+      </c>
+      <c r="W359">
+        <v>1.33</v>
+      </c>
+      <c r="X359">
+        <v>3.25</v>
+      </c>
+      <c r="Y359">
+        <v>2.63</v>
+      </c>
+      <c r="Z359">
+        <v>1.44</v>
+      </c>
+      <c r="AA359">
+        <v>6.5</v>
+      </c>
+      <c r="AB359">
+        <v>1.11</v>
+      </c>
+      <c r="AC359">
+        <v>1.73</v>
+      </c>
+      <c r="AD359">
+        <v>3.82</v>
+      </c>
+      <c r="AE359">
+        <v>4.67</v>
+      </c>
+      <c r="AF359">
+        <v>1.01</v>
+      </c>
+      <c r="AG359">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH359">
+        <v>1.25</v>
+      </c>
+      <c r="AI359">
+        <v>3.75</v>
+      </c>
+      <c r="AJ359">
+        <v>1.79</v>
+      </c>
+      <c r="AK359">
+        <v>2.09</v>
+      </c>
+      <c r="AL359">
+        <v>1.62</v>
+      </c>
+      <c r="AM359">
+        <v>2.2</v>
+      </c>
+      <c r="AN359">
+        <v>1.27</v>
+      </c>
+      <c r="AO359">
+        <v>1.27</v>
+      </c>
+      <c r="AP359">
+        <v>1.89</v>
+      </c>
+      <c r="AQ359">
+        <v>1.87</v>
+      </c>
+      <c r="AR359">
+        <v>0.33</v>
+      </c>
+      <c r="AS359">
+        <v>1.81</v>
+      </c>
+      <c r="AT359">
+        <v>0.38</v>
+      </c>
+      <c r="AU359">
+        <v>1.34</v>
+      </c>
+      <c r="AV359">
+        <v>1.26</v>
+      </c>
+      <c r="AW359">
+        <v>2.6</v>
+      </c>
+      <c r="AX359">
+        <v>1.81</v>
+      </c>
+      <c r="AY359">
+        <v>9</v>
+      </c>
+      <c r="AZ359">
+        <v>2.37</v>
+      </c>
+      <c r="BA359">
+        <v>1.25</v>
+      </c>
+      <c r="BB359">
+        <v>1.44</v>
+      </c>
+      <c r="BC359">
+        <v>1.95</v>
+      </c>
+      <c r="BD359">
+        <v>2.19</v>
+      </c>
+      <c r="BE359">
+        <v>2.7</v>
+      </c>
+      <c r="BF359">
+        <v>4</v>
+      </c>
+      <c r="BG359">
+        <v>6</v>
+      </c>
+      <c r="BH359">
+        <v>11</v>
+      </c>
+      <c r="BI359">
+        <v>10</v>
+      </c>
+      <c r="BJ359">
+        <v>15</v>
+      </c>
+      <c r="BK359">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="1:63">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>5188830</v>
+      </c>
+      <c r="C360" t="s">
+        <v>63</v>
+      </c>
+      <c r="D360" t="s">
+        <v>64</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F360">
+        <v>33</v>
+      </c>
+      <c r="G360" t="s">
+        <v>81</v>
+      </c>
+      <c r="H360" t="s">
+        <v>65</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360" t="s">
+        <v>89</v>
+      </c>
+      <c r="P360" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q360">
+        <v>4</v>
+      </c>
+      <c r="R360">
+        <v>3</v>
+      </c>
+      <c r="S360">
+        <v>7</v>
+      </c>
+      <c r="T360">
+        <v>2.8</v>
+      </c>
+      <c r="U360">
+        <v>2.2</v>
+      </c>
+      <c r="V360">
+        <v>3.3</v>
+      </c>
+      <c r="W360">
+        <v>1.36</v>
+      </c>
+      <c r="X360">
+        <v>3.22</v>
+      </c>
+      <c r="Y360">
+        <v>2.74</v>
+      </c>
+      <c r="Z360">
+        <v>1.47</v>
+      </c>
+      <c r="AA360">
+        <v>6.5</v>
+      </c>
+      <c r="AB360">
+        <v>1.11</v>
+      </c>
+      <c r="AC360">
+        <v>2.75</v>
+      </c>
+      <c r="AD360">
+        <v>3.42</v>
+      </c>
+      <c r="AE360">
+        <v>2.49</v>
+      </c>
+      <c r="AF360">
+        <v>1.02</v>
+      </c>
+      <c r="AG360">
+        <v>10</v>
+      </c>
+      <c r="AH360">
+        <v>1.22</v>
+      </c>
+      <c r="AI360">
+        <v>3.8</v>
+      </c>
+      <c r="AJ360">
+        <v>1.85</v>
+      </c>
+      <c r="AK360">
+        <v>2.03</v>
+      </c>
+      <c r="AL360">
+        <v>1.6</v>
+      </c>
+      <c r="AM360">
+        <v>2.2</v>
+      </c>
+      <c r="AN360">
+        <v>1.33</v>
+      </c>
+      <c r="AO360">
+        <v>1.25</v>
+      </c>
+      <c r="AP360">
+        <v>1.6</v>
+      </c>
+      <c r="AQ360">
+        <v>1.19</v>
+      </c>
+      <c r="AR360">
+        <v>1.31</v>
+      </c>
+      <c r="AS360">
+        <v>1.18</v>
+      </c>
+      <c r="AT360">
+        <v>1.29</v>
+      </c>
+      <c r="AU360">
+        <v>1.48</v>
+      </c>
+      <c r="AV360">
+        <v>1.23</v>
+      </c>
+      <c r="AW360">
+        <v>2.71</v>
+      </c>
+      <c r="AX360">
+        <v>1.87</v>
+      </c>
+      <c r="AY360">
+        <v>8.6</v>
+      </c>
+      <c r="AZ360">
+        <v>2.26</v>
+      </c>
+      <c r="BA360">
+        <v>1.4</v>
+      </c>
+      <c r="BB360">
+        <v>1.61</v>
+      </c>
+      <c r="BC360">
+        <v>2</v>
+      </c>
+      <c r="BD360">
+        <v>2.46</v>
+      </c>
+      <c r="BE360">
+        <v>3.9</v>
+      </c>
+      <c r="BF360">
+        <v>0</v>
+      </c>
+      <c r="BG360">
+        <v>3</v>
+      </c>
+      <c r="BH360">
+        <v>8</v>
+      </c>
+      <c r="BI360">
+        <v>4</v>
+      </c>
+      <c r="BJ360">
+        <v>8</v>
+      </c>
+      <c r="BK360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:63">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>5188833</v>
+      </c>
+      <c r="C361" t="s">
+        <v>63</v>
+      </c>
+      <c r="D361" t="s">
+        <v>64</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F361">
+        <v>33</v>
+      </c>
+      <c r="G361" t="s">
+        <v>75</v>
+      </c>
+      <c r="H361" t="s">
+        <v>77</v>
+      </c>
+      <c r="I361">
+        <v>2</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>288</v>
+      </c>
+      <c r="P361" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q361">
+        <v>3</v>
+      </c>
+      <c r="R361">
+        <v>6</v>
+      </c>
+      <c r="S361">
+        <v>9</v>
+      </c>
+      <c r="T361">
+        <v>2.69</v>
+      </c>
+      <c r="U361">
+        <v>2.02</v>
+      </c>
+      <c r="V361">
+        <v>4.3</v>
+      </c>
+      <c r="W361">
+        <v>1.41</v>
+      </c>
+      <c r="X361">
+        <v>2.96</v>
+      </c>
+      <c r="Y361">
+        <v>3.03</v>
+      </c>
+      <c r="Z361">
+        <v>1.39</v>
+      </c>
+      <c r="AA361">
+        <v>8</v>
+      </c>
+      <c r="AB361">
+        <v>1.08</v>
+      </c>
+      <c r="AC361">
+        <v>2.26</v>
+      </c>
+      <c r="AD361">
+        <v>3.5</v>
+      </c>
+      <c r="AE361">
+        <v>3.07</v>
+      </c>
+      <c r="AF361">
+        <v>1.05</v>
+      </c>
+      <c r="AG361">
+        <v>7.8</v>
+      </c>
+      <c r="AH361">
+        <v>1.33</v>
+      </c>
+      <c r="AI361">
+        <v>3.1</v>
+      </c>
+      <c r="AJ361">
+        <v>2.08</v>
+      </c>
+      <c r="AK361">
+        <v>1.8</v>
+      </c>
+      <c r="AL361">
+        <v>1.83</v>
+      </c>
+      <c r="AM361">
+        <v>1.83</v>
+      </c>
+      <c r="AN361">
+        <v>1.25</v>
+      </c>
+      <c r="AO361">
+        <v>1.26</v>
+      </c>
+      <c r="AP361">
+        <v>1.6</v>
+      </c>
+      <c r="AQ361">
+        <v>1.63</v>
+      </c>
+      <c r="AR361">
+        <v>1.31</v>
+      </c>
+      <c r="AS361">
+        <v>1.71</v>
+      </c>
+      <c r="AT361">
+        <v>1.24</v>
+      </c>
+      <c r="AU361">
+        <v>1.27</v>
+      </c>
+      <c r="AV361">
+        <v>1.45</v>
+      </c>
+      <c r="AW361">
+        <v>2.72</v>
+      </c>
+      <c r="AX361">
+        <v>1.78</v>
+      </c>
+      <c r="AY361">
+        <v>9.1</v>
+      </c>
+      <c r="AZ361">
+        <v>2.42</v>
+      </c>
+      <c r="BA361">
+        <v>1.27</v>
+      </c>
+      <c r="BB361">
+        <v>1.51</v>
+      </c>
+      <c r="BC361">
+        <v>2</v>
+      </c>
+      <c r="BD361">
+        <v>2.24</v>
+      </c>
+      <c r="BE361">
+        <v>3.1</v>
+      </c>
+      <c r="BF361">
+        <v>4</v>
+      </c>
+      <c r="BG361">
+        <v>5</v>
+      </c>
+      <c r="BH361">
+        <v>2</v>
+      </c>
+      <c r="BI361">
+        <v>10</v>
+      </c>
+      <c r="BJ361">
+        <v>6</v>
+      </c>
+      <c r="BK361">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK380"/>
+  <dimension ref="A1:BK383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT4" t="n">
         <v>1.29</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3948,7 +3948,7 @@
         <v>1.59</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.22</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT25" t="n">
         <v>1.29</v>
@@ -5978,7 +5978,7 @@
         <v>1.82</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1.11</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU39" t="n">
         <v>1.18</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT45" t="n">
         <v>1.06</v>
@@ -9835,7 +9835,7 @@
         <v>1.72</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU46" t="n">
         <v>1.63</v>
@@ -10241,7 +10241,7 @@
         <v>1.88</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT51" t="n">
         <v>1.18</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT52" t="n">
         <v>0.9399999999999999</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT53" t="n">
         <v>2.17</v>
@@ -13286,7 +13286,7 @@
         <v>1.06</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -14301,7 +14301,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT77" t="n">
         <v>1.11</v>
@@ -16331,7 +16331,7 @@
         <v>1.59</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU78" t="n">
         <v>1.7</v>
@@ -16937,7 +16937,7 @@
         <v>1.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT81" t="n">
         <v>1.33</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT86" t="n">
         <v>1.33</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
         <v>1.11</v>
@@ -19579,7 +19579,7 @@
         <v>1.72</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -19982,10 +19982,10 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU96" t="n">
         <v>1.44</v>
@@ -21609,7 +21609,7 @@
         <v>1.12</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -23639,7 +23639,7 @@
         <v>1.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -23842,7 +23842,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU115" t="n">
         <v>1.26</v>
@@ -24451,7 +24451,7 @@
         <v>1.61</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU118" t="n">
         <v>1.16</v>
@@ -24651,7 +24651,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT119" t="n">
         <v>1.06</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT120" t="n">
         <v>1.82</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT121" t="n">
         <v>1.18</v>
@@ -25869,7 +25869,7 @@
         <v>1.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT125" t="n">
         <v>1.29</v>
@@ -27493,7 +27493,7 @@
         <v>1.8</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT133" t="n">
         <v>1.33</v>
@@ -27902,7 +27902,7 @@
         <v>1.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU139" t="n">
         <v>1.23</v>
@@ -28917,7 +28917,7 @@
         <v>1.17</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU140" t="n">
         <v>1.55</v>
@@ -29320,7 +29320,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT142" t="n">
         <v>1.24</v>
@@ -30538,7 +30538,7 @@
         <v>1.33</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>0.9399999999999999</v>
@@ -31150,7 +31150,7 @@
         <v>2.06</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU151" t="n">
         <v>1.86</v>
@@ -33380,7 +33380,7 @@
         <v>1.86</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT162" t="n">
         <v>1.33</v>
@@ -33586,7 +33586,7 @@
         <v>1.24</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU163" t="n">
         <v>1.43</v>
@@ -34598,7 +34598,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT168" t="n">
         <v>1.82</v>
@@ -35613,7 +35613,7 @@
         <v>1.57</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT173" t="n">
         <v>1.35</v>
@@ -36225,7 +36225,7 @@
         <v>2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU176" t="n">
         <v>1.82</v>
@@ -37240,7 +37240,7 @@
         <v>2.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -37440,7 +37440,7 @@
         <v>1.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT182" t="n">
         <v>1.29</v>
@@ -37643,7 +37643,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT183" t="n">
         <v>1.06</v>
@@ -38458,7 +38458,7 @@
         <v>1.72</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU187" t="n">
         <v>1.8</v>
@@ -39876,7 +39876,7 @@
         <v>1.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT194" t="n">
         <v>1.33</v>
@@ -40082,7 +40082,7 @@
         <v>1.24</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU195" t="n">
         <v>1.38</v>
@@ -40488,7 +40488,7 @@
         <v>1.29</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU197" t="n">
         <v>1.14</v>
@@ -41500,7 +41500,7 @@
         <v>1.11</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT202" t="n">
         <v>1.25</v>
@@ -41706,7 +41706,7 @@
         <v>1.88</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU203" t="n">
         <v>1.36</v>
@@ -42312,7 +42312,7 @@
         <v>0.22</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT206" t="n">
         <v>0.76</v>
@@ -42518,7 +42518,7 @@
         <v>2</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -43736,7 +43736,7 @@
         <v>1.88</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU213" t="n">
         <v>1.31</v>
@@ -44951,7 +44951,7 @@
         <v>1.22</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT219" t="n">
         <v>1.24</v>
@@ -45360,7 +45360,7 @@
         <v>0.83</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU221" t="n">
         <v>1.56</v>
@@ -45560,7 +45560,7 @@
         <v>1.44</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT222" t="n">
         <v>1.29</v>
@@ -45763,7 +45763,7 @@
         <v>1.56</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT223" t="n">
         <v>1.35</v>
@@ -46984,7 +46984,7 @@
         <v>1.61</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU229" t="n">
         <v>1.29</v>
@@ -47796,7 +47796,7 @@
         <v>1.17</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU233" t="n">
         <v>1.5</v>
@@ -47999,7 +47999,7 @@
         <v>1.22</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU234" t="n">
         <v>1.31</v>
@@ -49417,10 +49417,10 @@
         <v>1.18</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU241" t="n">
         <v>0.99</v>
@@ -50838,7 +50838,7 @@
         <v>1.09</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT248" t="n">
         <v>0.9399999999999999</v>
@@ -51447,7 +51447,7 @@
         <v>0.27</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT251" t="n">
         <v>0.76</v>
@@ -51856,7 +51856,7 @@
         <v>1.06</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU253" t="n">
         <v>1.29</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU258" t="n">
         <v>1.41</v>
@@ -53480,7 +53480,7 @@
         <v>1.11</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU261" t="n">
         <v>1.45</v>
@@ -53883,7 +53883,7 @@
         <v>1.6</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT263" t="n">
         <v>1.29</v>
@@ -54898,7 +54898,7 @@
         <v>1.27</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT268" t="n">
         <v>1.29</v>
@@ -55710,7 +55710,7 @@
         <v>0.09</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT272" t="n">
         <v>0.35</v>
@@ -56322,7 +56322,7 @@
         <v>1.67</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU275" t="n">
         <v>1.37</v>
@@ -56931,7 +56931,7 @@
         <v>1.12</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU278" t="n">
         <v>1.28</v>
@@ -58349,7 +58349,7 @@
         <v>1.31</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT285" t="n">
         <v>1.18</v>
@@ -58961,7 +58961,7 @@
         <v>1.61</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU288" t="n">
         <v>1.35</v>
@@ -59364,7 +59364,7 @@
         <v>0.5</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT290" t="n">
         <v>0.65</v>
@@ -59976,7 +59976,7 @@
         <v>1.67</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU293" t="n">
         <v>1.35</v>
@@ -60379,7 +60379,7 @@
         <v>1.92</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT295" t="n">
         <v>1.82</v>
@@ -63018,7 +63018,7 @@
         <v>0.15</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT308" t="n">
         <v>0.35</v>
@@ -63221,7 +63221,7 @@
         <v>1.07</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT309" t="n">
         <v>1.06</v>
@@ -63427,7 +63427,7 @@
         <v>1.59</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU310" t="n">
         <v>1.51</v>
@@ -63630,7 +63630,7 @@
         <v>1.24</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU311" t="n">
         <v>1.35</v>
@@ -64036,7 +64036,7 @@
         <v>1.82</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU313" t="n">
         <v>1.39</v>
@@ -64439,7 +64439,7 @@
         <v>0.5</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT315" t="n">
         <v>0.76</v>
@@ -66063,7 +66063,7 @@
         <v>1.38</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT323" t="n">
         <v>1.29</v>
@@ -68299,7 +68299,7 @@
         <v>2.06</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU334" t="n">
         <v>1.96</v>
@@ -70529,7 +70529,7 @@
         <v>0.93</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT345" t="n">
         <v>1.06</v>
@@ -71344,7 +71344,7 @@
         <v>1.06</v>
       </c>
       <c r="AT349" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU349" t="n">
         <v>1.28</v>
@@ -71547,7 +71547,7 @@
         <v>0.83</v>
       </c>
       <c r="AT350" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU350" t="n">
         <v>1.48</v>
@@ -71950,7 +71950,7 @@
         <v>2.19</v>
       </c>
       <c r="AS352" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT352" t="n">
         <v>2.17</v>
@@ -72965,10 +72965,10 @@
         <v>1.93</v>
       </c>
       <c r="AS357" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU357" t="n">
         <v>1.06</v>
@@ -76013,7 +76013,7 @@
         <v>1.29</v>
       </c>
       <c r="AT372" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU372" t="n">
         <v>1.15</v>
@@ -77689,6 +77689,615 @@
       </c>
       <c r="BK380" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>5188857</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>45186.25</v>
+      </c>
+      <c r="F381" t="n">
+        <v>35</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>2</v>
+      </c>
+      <c r="K381" t="n">
+        <v>2</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>3</v>
+      </c>
+      <c r="N381" t="n">
+        <v>3</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>['8', '35', '69']</t>
+        </is>
+      </c>
+      <c r="Q381" t="n">
+        <v>4</v>
+      </c>
+      <c r="R381" t="n">
+        <v>5</v>
+      </c>
+      <c r="S381" t="n">
+        <v>9</v>
+      </c>
+      <c r="T381" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U381" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V381" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W381" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X381" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ381" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA381" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB381" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC381" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD381" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE381" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF381" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG381" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH381" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ381" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK381" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>5188858</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E382" s="2" t="n">
+        <v>45186.25</v>
+      </c>
+      <c r="F382" t="n">
+        <v>35</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q382" t="n">
+        <v>3</v>
+      </c>
+      <c r="R382" t="n">
+        <v>10</v>
+      </c>
+      <c r="S382" t="n">
+        <v>13</v>
+      </c>
+      <c r="T382" t="n">
+        <v>4</v>
+      </c>
+      <c r="U382" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V382" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W382" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X382" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB382" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC382" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD382" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE382" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF382" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG382" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH382" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI382" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ382" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK382" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL382" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM382" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN382" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO382" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP382" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ382" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR382" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS382" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT382" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU382" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV382" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW382" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX382" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY382" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ382" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA382" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB382" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC382" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD382" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE382" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF382" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG382" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH382" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI382" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ382" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK382" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>5188856</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E383" s="2" t="n">
+        <v>45186.29166666666</v>
+      </c>
+      <c r="F383" t="n">
+        <v>35</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>1</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
+      <c r="K383" t="n">
+        <v>1</v>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>1</v>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q383" t="n">
+        <v>3</v>
+      </c>
+      <c r="R383" t="n">
+        <v>6</v>
+      </c>
+      <c r="S383" t="n">
+        <v>9</v>
+      </c>
+      <c r="T383" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U383" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V383" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W383" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X383" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB383" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC383" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD383" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE383" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF383" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG383" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH383" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI383" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ383" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK383" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL383" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN383" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO383" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP383" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ383" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR383" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS383" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT383" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU383" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV383" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW383" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX383" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY383" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ383" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA383" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB383" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC383" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD383" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE383" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF383" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG383" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH383" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI383" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ383" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK383" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK383"/>
+  <dimension ref="A1:BK389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT7" t="n">
         <v>0.35</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT8" t="n">
         <v>1.11</v>
@@ -2324,7 +2324,7 @@
         <v>1.24</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.17</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT21" t="n">
         <v>1.82</v>
@@ -4963,7 +4963,7 @@
         <v>2.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU22" t="n">
         <v>1.87</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT23" t="n">
         <v>1.06</v>
@@ -5369,7 +5369,7 @@
         <v>1.72</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5775,7 +5775,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU26" t="n">
         <v>1.2</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT27" t="n">
         <v>1.56</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT28" t="n">
         <v>0.9399999999999999</v>
@@ -6790,7 +6790,7 @@
         <v>1.24</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT37" t="n">
         <v>1.29</v>
@@ -9226,7 +9226,7 @@
         <v>2.06</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.76</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU44" t="n">
         <v>1.49</v>
@@ -9632,7 +9632,7 @@
         <v>1.82</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU45" t="n">
         <v>0.84</v>
@@ -10241,7 +10241,7 @@
         <v>1.88</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT49" t="n">
         <v>1.06</v>
@@ -10850,7 +10850,7 @@
         <v>1.82</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU51" t="n">
         <v>1.03</v>
@@ -12065,10 +12065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU57" t="n">
         <v>1.08</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -12677,7 +12677,7 @@
         <v>1.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.71</v>
@@ -12880,7 +12880,7 @@
         <v>1.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -13283,10 +13283,10 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -13486,7 +13486,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>1.33</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT65" t="n">
         <v>1.29</v>
@@ -13895,7 +13895,7 @@
         <v>2.06</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU66" t="n">
         <v>1.92</v>
@@ -15722,7 +15722,7 @@
         <v>1.61</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.36</v>
@@ -16534,7 +16534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -16734,10 +16734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.83</v>
@@ -17143,7 +17143,7 @@
         <v>1.17</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU82" t="n">
         <v>1.57</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT83" t="n">
         <v>1.06</v>
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT87" t="n">
         <v>0.76</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT88" t="n">
         <v>1.82</v>
@@ -18564,7 +18564,7 @@
         <v>0.83</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU89" t="n">
         <v>1.53</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -19579,7 +19579,7 @@
         <v>1.72</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -20391,7 +20391,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU98" t="n">
         <v>1.6</v>
@@ -20594,7 +20594,7 @@
         <v>1.61</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU99" t="n">
         <v>1.17</v>
@@ -20797,7 +20797,7 @@
         <v>2.06</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU100" t="n">
         <v>1.93</v>
@@ -21203,7 +21203,7 @@
         <v>2.17</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT104" t="n">
         <v>1.56</v>
@@ -21809,7 +21809,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT105" t="n">
         <v>2.17</v>
@@ -22218,7 +22218,7 @@
         <v>1.88</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU107" t="n">
         <v>0.98</v>
@@ -22621,10 +22621,10 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.67</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT110" t="n">
         <v>1.33</v>
@@ -23842,7 +23842,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU115" t="n">
         <v>1.26</v>
@@ -24042,7 +24042,7 @@
         <v>1.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT116" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.24</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU117" t="n">
         <v>1.32</v>
@@ -25060,7 +25060,7 @@
         <v>1.06</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -26684,7 +26684,7 @@
         <v>1.11</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.4</v>
@@ -26884,7 +26884,7 @@
         <v>1.67</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT130" t="n">
         <v>1.33</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT131" t="n">
         <v>0.35</v>
@@ -27290,7 +27290,7 @@
         <v>1.2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT132" t="n">
         <v>2.17</v>
@@ -27699,7 +27699,7 @@
         <v>0.83</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU134" t="n">
         <v>1.6</v>
@@ -28102,7 +28102,7 @@
         <v>0.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT136" t="n">
         <v>1.11</v>
@@ -28308,7 +28308,7 @@
         <v>1.59</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU137" t="n">
         <v>1.48</v>
@@ -28917,7 +28917,7 @@
         <v>1.17</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU140" t="n">
         <v>1.55</v>
@@ -29117,7 +29117,7 @@
         <v>1.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT141" t="n">
         <v>1.35</v>
@@ -29323,7 +29323,7 @@
         <v>1.06</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29526,7 +29526,7 @@
         <v>1.61</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU143" t="n">
         <v>1.24</v>
@@ -31350,7 +31350,7 @@
         <v>1.5</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT152" t="n">
         <v>2.17</v>
@@ -31556,7 +31556,7 @@
         <v>1.67</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31756,10 +31756,10 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU154" t="n">
         <v>1.23</v>
@@ -31959,7 +31959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT155" t="n">
         <v>1.82</v>
@@ -32365,7 +32365,7 @@
         <v>1.43</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT157" t="n">
         <v>1.06</v>
@@ -32571,7 +32571,7 @@
         <v>1.72</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU158" t="n">
         <v>1.7</v>
@@ -32977,7 +32977,7 @@
         <v>1.11</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU160" t="n">
         <v>1.49</v>
@@ -33586,7 +33586,7 @@
         <v>1.24</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU163" t="n">
         <v>1.43</v>
@@ -33989,7 +33989,7 @@
         <v>0.14</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT165" t="n">
         <v>0.76</v>
@@ -34192,7 +34192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT166" t="n">
         <v>1.29</v>
@@ -34398,7 +34398,7 @@
         <v>1.88</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.26</v>
@@ -34804,7 +34804,7 @@
         <v>0.83</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU169" t="n">
         <v>1.67</v>
@@ -35004,7 +35004,7 @@
         <v>1.57</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT170" t="n">
         <v>1.33</v>
@@ -35413,7 +35413,7 @@
         <v>1.29</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU172" t="n">
         <v>1.18</v>
@@ -36019,7 +36019,7 @@
         <v>0.14</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT175" t="n">
         <v>0.35</v>
@@ -36222,7 +36222,7 @@
         <v>1.43</v>
       </c>
       <c r="AS176" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT176" t="n">
         <v>1.56</v>
@@ -36834,7 +36834,7 @@
         <v>1.17</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU179" t="n">
         <v>1.46</v>
@@ -37034,7 +37034,7 @@
         <v>0.25</v>
       </c>
       <c r="AS180" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT180" t="n">
         <v>0.76</v>
@@ -37846,7 +37846,7 @@
         <v>1.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT184" t="n">
         <v>2.17</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT186" t="n">
         <v>1.29</v>
@@ -38661,7 +38661,7 @@
         <v>1.59</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU188" t="n">
         <v>1.43</v>
@@ -38861,7 +38861,7 @@
         <v>1.75</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT189" t="n">
         <v>1.82</v>
@@ -39473,7 +39473,7 @@
         <v>1.06</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU192" t="n">
         <v>1.29</v>
@@ -40285,7 +40285,7 @@
         <v>2.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU196" t="n">
         <v>2.03</v>
@@ -40488,7 +40488,7 @@
         <v>1.29</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU197" t="n">
         <v>1.14</v>
@@ -40691,7 +40691,7 @@
         <v>0.83</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU198" t="n">
         <v>1.62</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT199" t="n">
         <v>0.9399999999999999</v>
@@ -41094,7 +41094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT200" t="n">
         <v>1.29</v>
@@ -41297,7 +41297,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT201" t="n">
         <v>1.33</v>
@@ -41503,7 +41503,7 @@
         <v>1.24</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU202" t="n">
         <v>1.43</v>
@@ -42515,10 +42515,10 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -42924,7 +42924,7 @@
         <v>1.24</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -43533,7 +43533,7 @@
         <v>1.06</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU212" t="n">
         <v>1.36</v>
@@ -44139,7 +44139,7 @@
         <v>0.89</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT215" t="n">
         <v>1.11</v>
@@ -44954,7 +44954,7 @@
         <v>1.82</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU219" t="n">
         <v>1.07</v>
@@ -45969,7 +45969,7 @@
         <v>1.29</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU224" t="n">
         <v>1.15</v>
@@ -46169,7 +46169,7 @@
         <v>0.11</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT225" t="n">
         <v>0.35</v>
@@ -46575,10 +46575,10 @@
         <v>1.6</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46778,7 +46778,7 @@
         <v>0.8</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT228" t="n">
         <v>1.11</v>
@@ -46984,7 +46984,7 @@
         <v>1.61</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU229" t="n">
         <v>1.29</v>
@@ -47187,7 +47187,7 @@
         <v>1.24</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU230" t="n">
         <v>1.36</v>
@@ -47996,10 +47996,10 @@
         <v>2</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU234" t="n">
         <v>1.31</v>
@@ -48605,10 +48605,10 @@
         <v>1.4</v>
       </c>
       <c r="AS237" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU237" t="n">
         <v>1.61</v>
@@ -48808,10 +48808,10 @@
         <v>0.64</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU238" t="n">
         <v>1.38</v>
@@ -50432,7 +50432,7 @@
         <v>1.4</v>
       </c>
       <c r="AS246" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT246" t="n">
         <v>1.29</v>
@@ -50638,7 +50638,7 @@
         <v>1.72</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU247" t="n">
         <v>1.71</v>
@@ -51247,7 +51247,7 @@
         <v>1.29</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU250" t="n">
         <v>1.16</v>
@@ -51653,7 +51653,7 @@
         <v>1.88</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU252" t="n">
         <v>1.32</v>
@@ -52259,10 +52259,10 @@
         <v>1.08</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU255" t="n">
         <v>1.28</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU258" t="n">
         <v>1.41</v>
@@ -53074,7 +53074,7 @@
         <v>1.72</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU259" t="n">
         <v>1.67</v>
@@ -54086,7 +54086,7 @@
         <v>1.09</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT264" t="n">
         <v>1.06</v>
@@ -54289,7 +54289,7 @@
         <v>0.5</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT265" t="n">
         <v>0.76</v>
@@ -54492,7 +54492,7 @@
         <v>1.08</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT266" t="n">
         <v>0.9399999999999999</v>
@@ -55101,7 +55101,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT269" t="n">
         <v>1.35</v>
@@ -55510,7 +55510,7 @@
         <v>1.61</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU271" t="n">
         <v>1.28</v>
@@ -55913,10 +55913,10 @@
         <v>0.54</v>
       </c>
       <c r="AS273" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56928,7 +56928,7 @@
         <v>0.92</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT278" t="n">
         <v>1.06</v>
@@ -57131,10 +57131,10 @@
         <v>1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU279" t="n">
         <v>1.29</v>
@@ -57540,7 +57540,7 @@
         <v>1.67</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU281" t="n">
         <v>1.35</v>
@@ -58149,7 +58149,7 @@
         <v>0.83</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU284" t="n">
         <v>1.48</v>
@@ -58352,7 +58352,7 @@
         <v>1.24</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU285" t="n">
         <v>1.43</v>
@@ -59367,7 +59367,7 @@
         <v>1.06</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU290" t="n">
         <v>1.48</v>
@@ -59567,7 +59567,7 @@
         <v>1.38</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT291" t="n">
         <v>1.29</v>
@@ -60176,7 +60176,7 @@
         <v>0.08</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT294" t="n">
         <v>0.35</v>
@@ -61803,7 +61803,7 @@
         <v>1.06</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU302" t="n">
         <v>1.27</v>
@@ -62003,7 +62003,7 @@
         <v>1.85</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT303" t="n">
         <v>1.82</v>
@@ -62209,7 +62209,7 @@
         <v>1.67</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU304" t="n">
         <v>1.33</v>
@@ -62409,7 +62409,7 @@
         <v>1.5</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT305" t="n">
         <v>1.29</v>
@@ -62612,7 +62612,7 @@
         <v>1.23</v>
       </c>
       <c r="AS306" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT306" t="n">
         <v>0.9399999999999999</v>
@@ -63224,7 +63224,7 @@
         <v>1.06</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU309" t="n">
         <v>1.44</v>
@@ -63427,7 +63427,7 @@
         <v>1.59</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU310" t="n">
         <v>1.51</v>
@@ -63833,7 +63833,7 @@
         <v>1.67</v>
       </c>
       <c r="AT312" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU312" t="n">
         <v>1.38</v>
@@ -64033,7 +64033,7 @@
         <v>1.07</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT313" t="n">
         <v>1.06</v>
@@ -64848,7 +64848,7 @@
         <v>1.72</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU317" t="n">
         <v>1.69</v>
@@ -65048,10 +65048,10 @@
         <v>1.46</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU318" t="n">
         <v>1.18</v>
@@ -65454,7 +65454,7 @@
         <v>1.27</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT320" t="n">
         <v>1.33</v>
@@ -66875,7 +66875,7 @@
         <v>1.43</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT327" t="n">
         <v>1.29</v>
@@ -67284,7 +67284,7 @@
         <v>1.11</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU329" t="n">
         <v>1.52</v>
@@ -67687,7 +67687,7 @@
         <v>1.4</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT331" t="n">
         <v>1.29</v>
@@ -67890,7 +67890,7 @@
         <v>2.27</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT332" t="n">
         <v>2.17</v>
@@ -68299,7 +68299,7 @@
         <v>2.06</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU334" t="n">
         <v>1.96</v>
@@ -68499,7 +68499,7 @@
         <v>0.47</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT335" t="n">
         <v>0.76</v>
@@ -69108,7 +69108,7 @@
         <v>1.4</v>
       </c>
       <c r="AS338" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT338" t="n">
         <v>1.33</v>
@@ -69314,7 +69314,7 @@
         <v>1.59</v>
       </c>
       <c r="AT339" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU339" t="n">
         <v>1.5</v>
@@ -70126,7 +70126,7 @@
         <v>2.17</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU343" t="n">
         <v>1.55</v>
@@ -70935,7 +70935,7 @@
         <v>1.4</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT347" t="n">
         <v>1.29</v>
@@ -71141,7 +71141,7 @@
         <v>1.67</v>
       </c>
       <c r="AT348" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU348" t="n">
         <v>1.33</v>
@@ -72153,10 +72153,10 @@
         <v>1.33</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT353" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU353" t="n">
         <v>1.4</v>
@@ -72356,7 +72356,7 @@
         <v>1.31</v>
       </c>
       <c r="AS354" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT354" t="n">
         <v>1.33</v>
@@ -72762,7 +72762,7 @@
         <v>1.13</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT356" t="n">
         <v>1.35</v>
@@ -72968,7 +72968,7 @@
         <v>1.82</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU357" t="n">
         <v>1.06</v>
@@ -73371,7 +73371,7 @@
         <v>1.27</v>
       </c>
       <c r="AS359" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT359" t="n">
         <v>1.29</v>
@@ -73983,7 +73983,7 @@
         <v>2.06</v>
       </c>
       <c r="AT362" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU362" t="n">
         <v>1.91</v>
@@ -74183,10 +74183,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS363" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT363" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU363" t="n">
         <v>1.35</v>
@@ -74795,7 +74795,7 @@
         <v>1.67</v>
       </c>
       <c r="AT366" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU366" t="n">
         <v>1.37</v>
@@ -75198,7 +75198,7 @@
         <v>1.38</v>
       </c>
       <c r="AS368" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT368" t="n">
         <v>1.29</v>
@@ -75404,7 +75404,7 @@
         <v>1.59</v>
       </c>
       <c r="AT369" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU369" t="n">
         <v>1.49</v>
@@ -75604,10 +75604,10 @@
         <v>1.33</v>
       </c>
       <c r="AS370" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT370" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU370" t="n">
         <v>1.38</v>
@@ -78043,7 +78043,7 @@
         <v>1.06</v>
       </c>
       <c r="AT382" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU382" t="n">
         <v>1.46</v>
@@ -78298,6 +78298,1224 @@
       </c>
       <c r="BK383" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>5188861</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E384" s="2" t="n">
+        <v>45192.08333333334</v>
+      </c>
+      <c r="F384" t="n">
+        <v>36</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1</v>
+      </c>
+      <c r="K384" t="n">
+        <v>1</v>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="n">
+        <v>1</v>
+      </c>
+      <c r="N384" t="n">
+        <v>2</v>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q384" t="n">
+        <v>7</v>
+      </c>
+      <c r="R384" t="n">
+        <v>5</v>
+      </c>
+      <c r="S384" t="n">
+        <v>12</v>
+      </c>
+      <c r="T384" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U384" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V384" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W384" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X384" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC384" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD384" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE384" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG384" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH384" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI384" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ384" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK384" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL384" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM384" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN384" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO384" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP384" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT384" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU384" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV384" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW384" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX384" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY384" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ384" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA384" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB384" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC384" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD384" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE384" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF384" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG384" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH384" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI384" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ384" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK384" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>5188863</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E385" s="2" t="n">
+        <v>45192.08333333334</v>
+      </c>
+      <c r="F385" t="n">
+        <v>36</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>0</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>1</v>
+      </c>
+      <c r="N385" t="n">
+        <v>1</v>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" t="n">
+        <v>7</v>
+      </c>
+      <c r="S385" t="n">
+        <v>7</v>
+      </c>
+      <c r="T385" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U385" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V385" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W385" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X385" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD385" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE385" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF385" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG385" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH385" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI385" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ385" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK385" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL385" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM385" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN385" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO385" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP385" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ385" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR385" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS385" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT385" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU385" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV385" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW385" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX385" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY385" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ385" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA385" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB385" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC385" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD385" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE385" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF385" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG385" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH385" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI385" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ385" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK385" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>5188867</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E386" s="2" t="n">
+        <v>45192.20833333334</v>
+      </c>
+      <c r="F386" t="n">
+        <v>36</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>2</v>
+      </c>
+      <c r="K386" t="n">
+        <v>2</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>6</v>
+      </c>
+      <c r="N386" t="n">
+        <v>6</v>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>['36', '45+6', '73', '78', '85', '88']</t>
+        </is>
+      </c>
+      <c r="Q386" t="n">
+        <v>4</v>
+      </c>
+      <c r="R386" t="n">
+        <v>5</v>
+      </c>
+      <c r="S386" t="n">
+        <v>9</v>
+      </c>
+      <c r="T386" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U386" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V386" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W386" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X386" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AD386" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE386" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF386" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG386" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH386" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI386" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ386" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK386" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL386" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM386" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN386" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO386" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP386" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ386" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR386" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS386" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT386" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU386" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV386" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW386" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX386" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AY386" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ386" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA386" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB386" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC386" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD386" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE386" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF386" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG386" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH386" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI386" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ386" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK386" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>5188862</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="n">
+        <v>45192.25</v>
+      </c>
+      <c r="F387" t="n">
+        <v>36</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>1</v>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q387" t="n">
+        <v>13</v>
+      </c>
+      <c r="R387" t="n">
+        <v>4</v>
+      </c>
+      <c r="S387" t="n">
+        <v>17</v>
+      </c>
+      <c r="T387" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U387" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V387" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W387" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X387" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD387" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE387" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF387" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG387" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH387" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI387" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ387" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK387" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL387" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM387" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN387" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO387" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP387" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ387" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR387" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS387" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT387" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU387" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV387" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW387" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX387" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY387" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ387" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA387" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB387" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC387" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD387" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE387" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF387" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG387" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH387" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI387" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ387" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK387" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>5188864</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E388" s="2" t="n">
+        <v>45192.25</v>
+      </c>
+      <c r="F388" t="n">
+        <v>36</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>1</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>1</v>
+      </c>
+      <c r="L388" t="n">
+        <v>3</v>
+      </c>
+      <c r="M388" t="n">
+        <v>1</v>
+      </c>
+      <c r="N388" t="n">
+        <v>4</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>['41', '56', '90+3']</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q388" t="n">
+        <v>4</v>
+      </c>
+      <c r="R388" t="n">
+        <v>9</v>
+      </c>
+      <c r="S388" t="n">
+        <v>13</v>
+      </c>
+      <c r="T388" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U388" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V388" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="W388" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X388" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD388" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE388" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF388" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG388" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH388" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI388" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ388" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK388" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL388" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM388" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN388" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO388" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP388" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ388" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR388" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS388" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT388" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU388" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV388" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW388" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX388" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY388" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ388" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA388" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB388" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC388" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD388" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE388" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF388" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG388" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH388" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI388" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ388" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK388" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>5188866</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E389" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F389" t="n">
+        <v>36</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>1</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q389" t="n">
+        <v>8</v>
+      </c>
+      <c r="R389" t="n">
+        <v>2</v>
+      </c>
+      <c r="S389" t="n">
+        <v>10</v>
+      </c>
+      <c r="T389" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U389" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V389" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W389" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X389" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB389" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC389" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD389" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE389" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF389" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG389" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH389" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI389" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ389" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK389" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL389" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM389" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN389" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP389" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ389" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR389" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS389" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT389" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU389" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV389" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW389" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX389" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY389" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ389" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA389" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB389" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC389" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD389" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE389" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF389" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG389" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH389" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI389" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ389" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK389" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK389"/>
+  <dimension ref="A1:BK394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.35</v>
@@ -1918,7 +1918,7 @@
         <v>1.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT9" t="n">
         <v>0.61</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.56</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT18" t="n">
         <v>1.29</v>
@@ -4354,7 +4354,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.22</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.32</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU30" t="n">
         <v>1.61</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU33" t="n">
         <v>1.69</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU35" t="n">
         <v>1.23</v>
@@ -7805,7 +7805,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU36" t="n">
         <v>2.03</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT38" t="n">
         <v>2.17</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>0.61</v>
@@ -10647,7 +10647,7 @@
         <v>1.61</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.37</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT62" t="n">
         <v>1.29</v>
@@ -13489,7 +13489,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU64" t="n">
         <v>1.45</v>
@@ -13692,7 +13692,7 @@
         <v>1.16</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.18</v>
@@ -14098,7 +14098,7 @@
         <v>1.72</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT73" t="n">
         <v>1.06</v>
@@ -15925,7 +15925,7 @@
         <v>2.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -16328,7 +16328,7 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>1.06</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>2.17</v>
@@ -18158,7 +18158,7 @@
         <v>1.22</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU87" t="n">
         <v>1.46</v>
@@ -18361,7 +18361,7 @@
         <v>1.16</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -18561,7 +18561,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT89" t="n">
         <v>0.61</v>
@@ -18970,7 +18970,7 @@
         <v>1.72</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU91" t="n">
         <v>1.31</v>
@@ -19170,7 +19170,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT92" t="n">
         <v>1.35</v>
@@ -19779,7 +19779,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -20185,7 +20185,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT97" t="n">
         <v>1.29</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1.11</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU101" t="n">
         <v>1.29</v>
@@ -21403,7 +21403,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT103" t="n">
         <v>1.33</v>
@@ -22421,7 +22421,7 @@
         <v>1.06</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.23</v>
@@ -22827,7 +22827,7 @@
         <v>1.16</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU110" t="n">
         <v>1.32</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT112" t="n">
         <v>1.11</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9399999999999999</v>
@@ -24245,7 +24245,7 @@
         <v>0.86</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT117" t="n">
         <v>1.05</v>
@@ -24857,7 +24857,7 @@
         <v>1.24</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU120" t="n">
         <v>1.47</v>
@@ -25463,10 +25463,10 @@
         <v>0.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU123" t="n">
         <v>1.87</v>
@@ -25872,7 +25872,7 @@
         <v>1.82</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU125" t="n">
         <v>1.04</v>
@@ -27090,7 +27090,7 @@
         <v>2.06</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.9</v>
@@ -27496,7 +27496,7 @@
         <v>1.24</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU133" t="n">
         <v>1.42</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT134" t="n">
         <v>1.18</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT135" t="n">
         <v>1.56</v>
@@ -28305,7 +28305,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
         <v>1.05</v>
@@ -29726,10 +29726,10 @@
         <v>1.4</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU144" t="n">
         <v>1.45</v>
@@ -29929,10 +29929,10 @@
         <v>1.4</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU145" t="n">
         <v>1.66</v>
@@ -30135,7 +30135,7 @@
         <v>1.06</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU146" t="n">
         <v>1.22</v>
@@ -30338,7 +30338,7 @@
         <v>1.88</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU147" t="n">
         <v>1.13</v>
@@ -31147,7 +31147,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.06</v>
@@ -31962,7 +31962,7 @@
         <v>2.06</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU155" t="n">
         <v>1.89</v>
@@ -32162,10 +32162,10 @@
         <v>0</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.46</v>
@@ -32771,10 +32771,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU159" t="n">
         <v>1.99</v>
@@ -33583,7 +33583,7 @@
         <v>2.17</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT163" t="n">
         <v>1.88</v>
@@ -33992,7 +33992,7 @@
         <v>1.16</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU165" t="n">
         <v>1.27</v>
@@ -34601,7 +34601,7 @@
         <v>1.06</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU168" t="n">
         <v>1.54</v>
@@ -34801,7 +34801,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT169" t="n">
         <v>1.11</v>
@@ -35410,7 +35410,7 @@
         <v>0.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT172" t="n">
         <v>0.61</v>
@@ -35819,7 +35819,7 @@
         <v>1.06</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU174" t="n">
         <v>1.22</v>
@@ -36022,7 +36022,7 @@
         <v>1.17</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU175" t="n">
         <v>1.61</v>
@@ -37037,7 +37037,7 @@
         <v>2.06</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37443,7 +37443,7 @@
         <v>1.24</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU182" t="n">
         <v>1.43</v>
@@ -38658,7 +38658,7 @@
         <v>1.25</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT188" t="n">
         <v>1.18</v>
@@ -38864,7 +38864,7 @@
         <v>1.72</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU189" t="n">
         <v>1.38</v>
@@ -39067,7 +39067,7 @@
         <v>1.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU190" t="n">
         <v>1.29</v>
@@ -39879,7 +39879,7 @@
         <v>1.82</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU194" t="n">
         <v>1.08</v>
@@ -40079,7 +40079,7 @@
         <v>0.75</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT195" t="n">
         <v>1.06</v>
@@ -40282,7 +40282,7 @@
         <v>0.67</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT196" t="n">
         <v>0.61</v>
@@ -40485,7 +40485,7 @@
         <v>2.29</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT197" t="n">
         <v>1.88</v>
@@ -40688,7 +40688,7 @@
         <v>0.9</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT198" t="n">
         <v>1.05</v>
@@ -42315,7 +42315,7 @@
         <v>1.06</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU206" t="n">
         <v>1.43</v>
@@ -42718,7 +42718,7 @@
         <v>1.22</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT208" t="n">
         <v>1.06</v>
@@ -42921,7 +42921,7 @@
         <v>1.44</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT209" t="n">
         <v>1.11</v>
@@ -43127,7 +43127,7 @@
         <v>1.67</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU210" t="n">
         <v>1.48</v>
@@ -43330,7 +43330,7 @@
         <v>1.11</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU211" t="n">
         <v>1.47</v>
@@ -44545,10 +44545,10 @@
         <v>0.3</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU217" t="n">
         <v>1.19</v>
@@ -44751,7 +44751,7 @@
         <v>1.17</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU218" t="n">
         <v>1.45</v>
@@ -45154,7 +45154,7 @@
         <v>2</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT220" t="n">
         <v>2.17</v>
@@ -45357,7 +45357,7 @@
         <v>1</v>
       </c>
       <c r="AS221" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT221" t="n">
         <v>1.56</v>
@@ -45966,7 +45966,7 @@
         <v>1.09</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT224" t="n">
         <v>1.05</v>
@@ -46172,7 +46172,7 @@
         <v>1.72</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU225" t="n">
         <v>1.37</v>
@@ -47184,7 +47184,7 @@
         <v>1.1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT230" t="n">
         <v>1.18</v>
@@ -47390,7 +47390,7 @@
         <v>1.06</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU231" t="n">
         <v>1.31</v>
@@ -49214,10 +49214,10 @@
         <v>1.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU240" t="n">
         <v>1.51</v>
@@ -49620,7 +49620,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT242" t="n">
         <v>1.29</v>
@@ -49826,7 +49826,7 @@
         <v>1.72</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU243" t="n">
         <v>1.72</v>
@@ -50026,7 +50026,7 @@
         <v>1.36</v>
       </c>
       <c r="AS244" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT244" t="n">
         <v>1.33</v>
@@ -50232,7 +50232,7 @@
         <v>2.17</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU245" t="n">
         <v>1.52</v>
@@ -50435,7 +50435,7 @@
         <v>2.06</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU246" t="n">
         <v>1.59</v>
@@ -51041,7 +51041,7 @@
         <v>1.4</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT249" t="n">
         <v>1.35</v>
@@ -51244,7 +51244,7 @@
         <v>1.09</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT250" t="n">
         <v>1.18</v>
@@ -51450,7 +51450,7 @@
         <v>1.24</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU251" t="n">
         <v>1.42</v>
@@ -52056,7 +52056,7 @@
         <v>2.18</v>
       </c>
       <c r="AS254" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT254" t="n">
         <v>2.17</v>
@@ -52665,10 +52665,10 @@
         <v>1.55</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU257" t="n">
         <v>1.44</v>
@@ -53680,7 +53680,7 @@
         <v>1.25</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT262" t="n">
         <v>1.33</v>
@@ -54292,7 +54292,7 @@
         <v>1.17</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU265" t="n">
         <v>1.48</v>
@@ -54901,7 +54901,7 @@
         <v>1.06</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU268" t="n">
         <v>1.47</v>
@@ -55713,7 +55713,7 @@
         <v>1.82</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU272" t="n">
         <v>1.04</v>
@@ -56116,7 +56116,7 @@
         <v>1.18</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT274" t="n">
         <v>1.33</v>
@@ -56525,7 +56525,7 @@
         <v>1.88</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU276" t="n">
         <v>1.37</v>
@@ -56725,7 +56725,7 @@
         <v>1</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT277" t="n">
         <v>1.06</v>
@@ -57334,7 +57334,7 @@
         <v>0.75</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT280" t="n">
         <v>1.11</v>
@@ -57740,7 +57740,7 @@
         <v>1.38</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT282" t="n">
         <v>1.33</v>
@@ -57946,7 +57946,7 @@
         <v>1.17</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU283" t="n">
         <v>1.51</v>
@@ -58146,7 +58146,7 @@
         <v>1.33</v>
       </c>
       <c r="AS284" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT284" t="n">
         <v>1.33</v>
@@ -58555,7 +58555,7 @@
         <v>1.72</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU286" t="n">
         <v>1.7</v>
@@ -59770,10 +59770,10 @@
         <v>1.42</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU292" t="n">
         <v>1.13</v>
@@ -60179,7 +60179,7 @@
         <v>1.16</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU294" t="n">
         <v>1.29</v>
@@ -60382,7 +60382,7 @@
         <v>1.82</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU295" t="n">
         <v>1.07</v>
@@ -60785,7 +60785,7 @@
         <v>1.17</v>
       </c>
       <c r="AS297" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT297" t="n">
         <v>1.33</v>
@@ -61191,7 +61191,7 @@
         <v>1.17</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT299" t="n">
         <v>1.35</v>
@@ -61397,7 +61397,7 @@
         <v>1.61</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU300" t="n">
         <v>1.32</v>
@@ -61597,7 +61597,7 @@
         <v>1.31</v>
       </c>
       <c r="AS301" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT301" t="n">
         <v>1.33</v>
@@ -62006,7 +62006,7 @@
         <v>1.17</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU303" t="n">
         <v>1.48</v>
@@ -62818,7 +62818,7 @@
         <v>1.11</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU307" t="n">
         <v>1.47</v>
@@ -63021,7 +63021,7 @@
         <v>1.24</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU308" t="n">
         <v>1.48</v>
@@ -63424,7 +63424,7 @@
         <v>2</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT310" t="n">
         <v>1.88</v>
@@ -63627,7 +63627,7 @@
         <v>1.4</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT311" t="n">
         <v>1.56</v>
@@ -64236,7 +64236,7 @@
         <v>0.93</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT314" t="n">
         <v>1.11</v>
@@ -64442,7 +64442,7 @@
         <v>1.82</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU315" t="n">
         <v>1.09</v>
@@ -65251,7 +65251,7 @@
         <v>1.15</v>
       </c>
       <c r="AS319" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT319" t="n">
         <v>1.35</v>
@@ -65660,7 +65660,7 @@
         <v>2.17</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU321" t="n">
         <v>1.56</v>
@@ -65860,7 +65860,7 @@
         <v>1.14</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT322" t="n">
         <v>0.9399999999999999</v>
@@ -66269,7 +66269,7 @@
         <v>1.67</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU324" t="n">
         <v>1.33</v>
@@ -66878,7 +66878,7 @@
         <v>1.17</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU327" t="n">
         <v>1.51</v>
@@ -68096,7 +68096,7 @@
         <v>1.67</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU333" t="n">
         <v>1.38</v>
@@ -68296,7 +68296,7 @@
         <v>2.08</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT334" t="n">
         <v>1.88</v>
@@ -68502,7 +68502,7 @@
         <v>1.72</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU335" t="n">
         <v>1.38</v>
@@ -68705,7 +68705,7 @@
         <v>1.11</v>
       </c>
       <c r="AT336" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU336" t="n">
         <v>1.5</v>
@@ -69111,7 +69111,7 @@
         <v>2.06</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU338" t="n">
         <v>1.63</v>
@@ -69311,7 +69311,7 @@
         <v>1.43</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT339" t="n">
         <v>1.33</v>
@@ -69514,7 +69514,7 @@
         <v>1.07</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT340" t="n">
         <v>0.9399999999999999</v>
@@ -69717,7 +69717,7 @@
         <v>1.2</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT341" t="n">
         <v>1.33</v>
@@ -70938,7 +70938,7 @@
         <v>1.22</v>
       </c>
       <c r="AT347" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU347" t="n">
         <v>1.2</v>
@@ -71544,7 +71544,7 @@
         <v>1.07</v>
       </c>
       <c r="AS350" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT350" t="n">
         <v>1.06</v>
@@ -71750,7 +71750,7 @@
         <v>1.06</v>
       </c>
       <c r="AT351" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU351" t="n">
         <v>1.3</v>
@@ -72559,7 +72559,7 @@
         <v>1.06</v>
       </c>
       <c r="AS355" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT355" t="n">
         <v>1.06</v>
@@ -73171,7 +73171,7 @@
         <v>1.61</v>
       </c>
       <c r="AT358" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU358" t="n">
         <v>1.27</v>
@@ -73577,7 +73577,7 @@
         <v>1.88</v>
       </c>
       <c r="AT360" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU360" t="n">
         <v>1.34</v>
@@ -73780,7 +73780,7 @@
         <v>1.11</v>
       </c>
       <c r="AT361" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU361" t="n">
         <v>1.48</v>
@@ -73980,7 +73980,7 @@
         <v>1.12</v>
       </c>
       <c r="AS362" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT362" t="n">
         <v>1.05</v>
@@ -74386,7 +74386,7 @@
         <v>1</v>
       </c>
       <c r="AS364" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT364" t="n">
         <v>0.9399999999999999</v>
@@ -74592,7 +74592,7 @@
         <v>2.17</v>
       </c>
       <c r="AT365" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU365" t="n">
         <v>1.56</v>
@@ -74998,7 +74998,7 @@
         <v>1.72</v>
       </c>
       <c r="AT367" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AU367" t="n">
         <v>1.81</v>
@@ -75401,7 +75401,7 @@
         <v>1.25</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT369" t="n">
         <v>1.11</v>
@@ -75807,10 +75807,10 @@
         <v>1.24</v>
       </c>
       <c r="AS371" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT371" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU371" t="n">
         <v>1.5</v>
@@ -76010,7 +76010,7 @@
         <v>1.19</v>
       </c>
       <c r="AS372" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT372" t="n">
         <v>1.06</v>
@@ -79516,6 +79516,1021 @@
       </c>
       <c r="BK389" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>5188869</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="n">
+        <v>45193.04166666666</v>
+      </c>
+      <c r="F390" t="n">
+        <v>36</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="n">
+        <v>1</v>
+      </c>
+      <c r="K390" t="n">
+        <v>2</v>
+      </c>
+      <c r="L390" t="n">
+        <v>2</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1</v>
+      </c>
+      <c r="N390" t="n">
+        <v>3</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>['37', '76']</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q390" t="n">
+        <v>2</v>
+      </c>
+      <c r="R390" t="n">
+        <v>5</v>
+      </c>
+      <c r="S390" t="n">
+        <v>7</v>
+      </c>
+      <c r="T390" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U390" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V390" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W390" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X390" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB390" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC390" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD390" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE390" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF390" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG390" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH390" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI390" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ390" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK390" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL390" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM390" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN390" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO390" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP390" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ390" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR390" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS390" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT390" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU390" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV390" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW390" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC390" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD390" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE390" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF390" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG390" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH390" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI390" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ390" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK390" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>5188865</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E391" s="2" t="n">
+        <v>45193.04166666666</v>
+      </c>
+      <c r="F391" t="n">
+        <v>36</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q391" t="n">
+        <v>7</v>
+      </c>
+      <c r="R391" t="n">
+        <v>7</v>
+      </c>
+      <c r="S391" t="n">
+        <v>14</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U391" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V391" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W391" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X391" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG391" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH391" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI391" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ391" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK391" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL391" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM391" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN391" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO391" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP391" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ391" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR391" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS391" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT391" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU391" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV391" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW391" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX391" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY391" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ391" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA391" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB391" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC391" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD391" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE391" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF391" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG391" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH391" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI391" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ391" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK391" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>5188868</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="n">
+        <v>45193.16666666666</v>
+      </c>
+      <c r="F392" t="n">
+        <v>36</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>1</v>
+      </c>
+      <c r="K392" t="n">
+        <v>2</v>
+      </c>
+      <c r="L392" t="n">
+        <v>2</v>
+      </c>
+      <c r="M392" t="n">
+        <v>2</v>
+      </c>
+      <c r="N392" t="n">
+        <v>4</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>['17', '47']</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>['19', '68']</t>
+        </is>
+      </c>
+      <c r="Q392" t="n">
+        <v>8</v>
+      </c>
+      <c r="R392" t="n">
+        <v>4</v>
+      </c>
+      <c r="S392" t="n">
+        <v>12</v>
+      </c>
+      <c r="T392" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U392" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V392" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W392" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X392" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG392" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH392" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI392" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ392" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK392" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL392" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM392" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN392" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO392" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP392" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ392" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR392" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS392" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT392" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AU392" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV392" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW392" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX392" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY392" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ392" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA392" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB392" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC392" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD392" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE392" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF392" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG392" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH392" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI392" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ392" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK392" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>5188870</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="n">
+        <v>45193.16666666666</v>
+      </c>
+      <c r="F393" t="n">
+        <v>36</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>1</v>
+      </c>
+      <c r="K393" t="n">
+        <v>1</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>1</v>
+      </c>
+      <c r="N393" t="n">
+        <v>1</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" t="n">
+        <v>2</v>
+      </c>
+      <c r="S393" t="n">
+        <v>2</v>
+      </c>
+      <c r="T393" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U393" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V393" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W393" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X393" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG393" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH393" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI393" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ393" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK393" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL393" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM393" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN393" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO393" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP393" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ393" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR393" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AS393" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT393" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU393" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV393" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW393" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX393" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY393" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ393" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA393" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB393" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC393" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD393" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE393" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF393" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG393" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH393" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI393" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ393" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK393" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>5188871</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E394" s="2" t="n">
+        <v>45193.29166666666</v>
+      </c>
+      <c r="F394" t="n">
+        <v>36</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>2</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>2</v>
+      </c>
+      <c r="L394" t="n">
+        <v>3</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>3</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>['22', '33', '59']</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q394" t="n">
+        <v>5</v>
+      </c>
+      <c r="R394" t="n">
+        <v>3</v>
+      </c>
+      <c r="S394" t="n">
+        <v>8</v>
+      </c>
+      <c r="T394" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U394" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V394" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W394" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X394" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG394" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH394" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ394" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK394" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL394" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM394" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN394" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO394" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP394" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ394" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR394" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS394" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT394" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU394" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV394" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW394" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX394" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY394" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ394" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA394" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB394" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC394" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD394" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE394" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF394" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG394" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH394" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI394" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ394" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK394" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -67834,19 +67834,19 @@
         <v>4</v>
       </c>
       <c r="AV396" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW396" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX396" t="n">
         <v>7</v>
       </c>
-      <c r="AW396" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX396" t="n">
-        <v>8</v>
-      </c>
       <c r="AY396" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ396" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ396"/>
+  <dimension ref="A1:AZ400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.05</v>
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.06</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.33</v>
@@ -3389,7 +3389,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.72</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.17</v>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.29</v>
@@ -5089,7 +5089,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR27" t="n">
         <v>0.93</v>
@@ -5429,7 +5429,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR29" t="n">
         <v>1.32</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.72</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.32</v>
@@ -6789,7 +6789,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR37" t="n">
         <v>1.19</v>
@@ -7126,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.06</v>
@@ -7639,7 +7639,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -8319,7 +8319,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR46" t="n">
         <v>1.63</v>
@@ -8489,7 +8489,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR47" t="n">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -9506,7 +9506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.17</v>
@@ -10016,7 +10016,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.11</v>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.63</v>
@@ -11039,7 +11039,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -12056,10 +12056,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR68" t="n">
         <v>1.21</v>
@@ -12226,7 +12226,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.33</v>
@@ -12566,7 +12566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.72</v>
@@ -12739,7 +12739,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR72" t="n">
         <v>1.34</v>
@@ -13079,7 +13079,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR74" t="n">
         <v>0.52</v>
@@ -13926,7 +13926,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -15116,7 +15116,7 @@
         <v>1.67</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.33</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.9399999999999999</v>
@@ -16139,7 +16139,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR92" t="n">
         <v>1.26</v>
@@ -16306,7 +16306,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.11</v>
@@ -16649,7 +16649,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR95" t="n">
         <v>1.61</v>
@@ -17666,7 +17666,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.72</v>
@@ -18179,7 +18179,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR104" t="n">
         <v>1.53</v>
@@ -18516,7 +18516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.33</v>
@@ -18859,7 +18859,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR108" t="n">
         <v>1.23</v>
@@ -19369,7 +19369,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR111" t="n">
         <v>1.51</v>
@@ -19879,7 +19879,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR114" t="n">
         <v>1.62</v>
@@ -20046,7 +20046,7 @@
         <v>2.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.88</v>
@@ -21066,7 +21066,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.11</v>
@@ -21236,10 +21236,10 @@
         <v>1.6</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -21579,7 +21579,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR124" t="n">
         <v>1.44</v>
@@ -22426,7 +22426,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.33</v>
@@ -22769,7 +22769,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR131" t="n">
         <v>1.9</v>
@@ -23449,7 +23449,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR135" t="n">
         <v>1.23</v>
@@ -23956,7 +23956,7 @@
         <v>1.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.29</v>
@@ -24126,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.06</v>
@@ -24469,7 +24469,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR141" t="n">
         <v>1.31</v>
@@ -24636,7 +24636,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -26506,7 +26506,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.63</v>
@@ -27019,7 +27019,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR156" t="n">
         <v>1.46</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.05</v>
@@ -27866,7 +27866,7 @@
         <v>0.71</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.11</v>
@@ -28376,10 +28376,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR164" t="n">
         <v>1.44</v>
@@ -29056,7 +29056,7 @@
         <v>1.57</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.72</v>
@@ -29909,7 +29909,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR173" t="n">
         <v>1.04</v>
@@ -30249,7 +30249,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR175" t="n">
         <v>1.61</v>
@@ -30419,7 +30419,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -31269,7 +31269,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR181" t="n">
         <v>1.49</v>
@@ -31606,7 +31606,7 @@
         <v>1.38</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.06</v>
@@ -31946,7 +31946,7 @@
         <v>1.63</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.33</v>
@@ -32119,7 +32119,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR186" t="n">
         <v>1.32</v>
@@ -32796,10 +32796,10 @@
         <v>0.13</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR190" t="n">
         <v>1.29</v>
@@ -32966,7 +32966,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.11</v>
@@ -34499,7 +34499,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR200" t="n">
         <v>1.61</v>
@@ -35009,7 +35009,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR203" t="n">
         <v>1.36</v>
@@ -35179,7 +35179,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR204" t="n">
         <v>1.44</v>
@@ -35516,7 +35516,7 @@
         <v>0.22</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.72</v>
@@ -36196,7 +36196,7 @@
         <v>1.63</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.28</v>
@@ -36366,7 +36366,7 @@
         <v>1.56</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.72</v>
@@ -37216,7 +37216,7 @@
         <v>1.22</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.9399999999999999</v>
@@ -38069,7 +38069,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR221" t="n">
         <v>1.56</v>
@@ -38236,10 +38236,10 @@
         <v>1.44</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR222" t="n">
         <v>1.5</v>
@@ -38409,7 +38409,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR223" t="n">
         <v>1.4</v>
@@ -38749,7 +38749,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR225" t="n">
         <v>1.37</v>
@@ -38916,7 +38916,7 @@
         <v>1.33</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.33</v>
@@ -39936,7 +39936,7 @@
         <v>1.2</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.33</v>
@@ -41126,7 +41126,7 @@
         <v>1.1</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.06</v>
@@ -41469,7 +41469,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR241" t="n">
         <v>0.99</v>
@@ -42149,7 +42149,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR245" t="n">
         <v>1.52</v>
@@ -42656,7 +42656,7 @@
         <v>1.09</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.9399999999999999</v>
@@ -42829,7 +42829,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR249" t="n">
         <v>1.49</v>
@@ -44016,7 +44016,7 @@
         <v>1.5</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.29</v>
@@ -44356,7 +44356,7 @@
         <v>1.91</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.88</v>
@@ -44866,10 +44866,10 @@
         <v>1.17</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR261" t="n">
         <v>1.45</v>
@@ -45209,7 +45209,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR263" t="n">
         <v>1.02</v>
@@ -46056,7 +46056,7 @@
         <v>1.27</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.28</v>
@@ -46229,7 +46229,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR269" t="n">
         <v>1.49</v>
@@ -46399,7 +46399,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR270" t="n">
         <v>1.27</v>
@@ -46739,7 +46739,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR272" t="n">
         <v>1.04</v>
@@ -47246,10 +47246,10 @@
         <v>1.31</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR275" t="n">
         <v>1.37</v>
@@ -48266,7 +48266,7 @@
         <v>1.08</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.18</v>
@@ -49459,7 +49459,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR288" t="n">
         <v>1.35</v>
@@ -49796,7 +49796,7 @@
         <v>0.5</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ290" t="n">
         <v>0.63</v>
@@ -50306,7 +50306,7 @@
         <v>0.92</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ293" t="n">
         <v>1.06</v>
@@ -50479,7 +50479,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ294" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR294" t="n">
         <v>1.29</v>
@@ -50816,7 +50816,7 @@
         <v>2.15</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ296" t="n">
         <v>2.17</v>
@@ -51329,7 +51329,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR299" t="n">
         <v>1.39</v>
@@ -52176,7 +52176,7 @@
         <v>0.93</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ304" t="n">
         <v>1.05</v>
@@ -52349,7 +52349,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR305" t="n">
         <v>1.37</v>
@@ -52686,7 +52686,7 @@
         <v>1.54</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ307" t="n">
         <v>1.32</v>
@@ -52859,7 +52859,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ308" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR308" t="n">
         <v>1.48</v>
@@ -53026,7 +53026,7 @@
         <v>1.07</v>
       </c>
       <c r="AP309" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.05</v>
@@ -53369,7 +53369,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR311" t="n">
         <v>1.35</v>
@@ -53536,7 +53536,7 @@
         <v>0.53</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ312" t="n">
         <v>0.63</v>
@@ -54729,7 +54729,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ319" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR319" t="n">
         <v>1.47</v>
@@ -55409,7 +55409,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ323" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR323" t="n">
         <v>1.48</v>
@@ -55576,7 +55576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP324" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ324" t="n">
         <v>1.32</v>
@@ -56426,7 +56426,7 @@
         <v>1.21</v>
       </c>
       <c r="AP329" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ329" t="n">
         <v>1.18</v>
@@ -57106,7 +57106,7 @@
         <v>1.8</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.72</v>
@@ -57616,10 +57616,10 @@
         <v>0.36</v>
       </c>
       <c r="AP336" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR336" t="n">
         <v>1.5</v>
@@ -57789,7 +57789,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR337" t="n">
         <v>1.37</v>
@@ -58639,7 +58639,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ342" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR342" t="n">
         <v>1.28</v>
@@ -59656,7 +59656,7 @@
         <v>1.13</v>
       </c>
       <c r="AP348" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ348" t="n">
         <v>1.11</v>
@@ -59829,7 +59829,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ349" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR349" t="n">
         <v>1.28</v>
@@ -61019,7 +61019,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ356" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR356" t="n">
         <v>1.21</v>
@@ -61529,7 +61529,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ359" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR359" t="n">
         <v>1.68</v>
@@ -61699,7 +61699,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ360" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR360" t="n">
         <v>1.34</v>
@@ -61866,7 +61866,7 @@
         <v>1.31</v>
       </c>
       <c r="AP361" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ361" t="n">
         <v>1.28</v>
@@ -62716,7 +62716,7 @@
         <v>1.31</v>
       </c>
       <c r="AP366" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ366" t="n">
         <v>1.33</v>
@@ -62889,7 +62889,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ367" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR367" t="n">
         <v>1.81</v>
@@ -63906,7 +63906,7 @@
         <v>2.24</v>
       </c>
       <c r="AP373" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ373" t="n">
         <v>2.17</v>
@@ -64246,10 +64246,10 @@
         <v>1.25</v>
       </c>
       <c r="AP375" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ375" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR375" t="n">
         <v>1.45</v>
@@ -64589,7 +64589,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ377" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR377" t="n">
         <v>1.51</v>
@@ -64926,7 +64926,7 @@
         <v>1.06</v>
       </c>
       <c r="AP379" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ379" t="n">
         <v>1.06</v>
@@ -65269,7 +65269,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ381" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR381" t="n">
         <v>1.4</v>
@@ -65436,7 +65436,7 @@
         <v>1.87</v>
       </c>
       <c r="AP382" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ382" t="n">
         <v>1.88</v>
@@ -67309,7 +67309,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ393" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR393" t="n">
         <v>1.17</v>
@@ -67819,7 +67819,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ396" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR396" t="n">
         <v>1.16</v>
@@ -67847,6 +67847,686 @@
       </c>
       <c r="AZ396" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>5188872</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E397" s="2" t="n">
+        <v>45199.04166666666</v>
+      </c>
+      <c r="F397" t="n">
+        <v>37</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>1</v>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>1</v>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q397" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R397" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S397" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T397" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U397" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V397" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W397" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X397" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD397" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE397" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF397" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG397" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH397" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI397" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ397" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK397" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL397" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM397" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN397" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO397" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP397" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ397" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR397" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS397" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT397" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU397" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV397" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW397" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX397" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY397" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ397" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>5188874</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="n">
+        <v>45199.04166666666</v>
+      </c>
+      <c r="F398" t="n">
+        <v>37</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>2</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>2</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>['54', '70']</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q398" t="n">
+        <v>5</v>
+      </c>
+      <c r="R398" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S398" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T398" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U398" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V398" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W398" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X398" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG398" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH398" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ398" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK398" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL398" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM398" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN398" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO398" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP398" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ398" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR398" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS398" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT398" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU398" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV398" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW398" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX398" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY398" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ398" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>5188873</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="n">
+        <v>45199.08333333334</v>
+      </c>
+      <c r="F399" t="n">
+        <v>37</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" t="n">
+        <v>2</v>
+      </c>
+      <c r="L399" t="n">
+        <v>2</v>
+      </c>
+      <c r="M399" t="n">
+        <v>1</v>
+      </c>
+      <c r="N399" t="n">
+        <v>3</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>['41', '70']</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q399" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R399" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S399" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T399" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U399" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W399" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X399" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG399" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH399" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ399" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK399" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL399" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM399" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN399" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO399" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP399" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ399" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR399" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS399" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT399" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU399" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV399" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW399" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX399" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY399" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ399" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>5188875</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E400" s="2" t="n">
+        <v>45199.25</v>
+      </c>
+      <c r="F400" t="n">
+        <v>37</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>1</v>
+      </c>
+      <c r="N400" t="n">
+        <v>1</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q400" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R400" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S400" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U400" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V400" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="W400" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X400" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG400" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH400" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ400" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK400" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL400" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM400" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN400" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO400" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP400" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ400" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR400" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS400" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT400" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU400" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV400" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW400" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX400" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY400" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ400" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ400"/>
+  <dimension ref="A1:AZ407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.63</v>
@@ -1859,7 +1859,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.11</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.32</v>
@@ -2709,7 +2709,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR13" t="n">
         <v>1.28</v>
@@ -3049,7 +3049,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.47</v>
@@ -3559,7 +3559,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.72</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.18</v>
@@ -4409,7 +4409,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.05</v>
@@ -4749,7 +4749,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR25" t="n">
         <v>2.22</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.32</v>
@@ -6959,7 +6959,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR38" t="n">
         <v>1.46</v>
@@ -7129,7 +7129,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR39" t="n">
         <v>1.18</v>
@@ -7299,7 +7299,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -7466,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR41" t="n">
         <v>1.56</v>
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.28</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.49</v>
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.05</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.47</v>
@@ -8656,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.88</v>
@@ -8829,7 +8829,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR49" t="n">
         <v>1.78</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.63</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.11</v>
@@ -9509,7 +9509,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR53" t="n">
         <v>1.9</v>
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.28</v>
@@ -9849,7 +9849,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR55" t="n">
         <v>1.84</v>
@@ -10019,7 +10019,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR56" t="n">
         <v>1.74</v>
@@ -10359,7 +10359,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR58" t="n">
         <v>1.34</v>
@@ -10869,7 +10869,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR61" t="n">
         <v>1.22</v>
@@ -11376,7 +11376,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.32</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.72</v>
@@ -12229,7 +12229,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -12909,7 +12909,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR73" t="n">
         <v>1.44</v>
@@ -13076,7 +13076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.28</v>
@@ -13246,7 +13246,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.18</v>
@@ -13416,7 +13416,7 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.32</v>
@@ -13589,7 +13589,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR77" t="n">
         <v>1.68</v>
@@ -13756,10 +13756,10 @@
         <v>2</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR78" t="n">
         <v>1.7</v>
@@ -14266,10 +14266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR81" t="n">
         <v>0.95</v>
@@ -14609,7 +14609,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR83" t="n">
         <v>2.13</v>
@@ -14776,10 +14776,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR84" t="n">
         <v>1.51</v>
@@ -14949,7 +14949,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR85" t="n">
         <v>1.9</v>
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.72</v>
@@ -15629,7 +15629,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR89" t="n">
         <v>1.53</v>
@@ -16309,7 +16309,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR93" t="n">
         <v>1.47</v>
@@ -16476,7 +16476,7 @@
         <v>3</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.88</v>
@@ -16646,7 +16646,7 @@
         <v>1.33</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.32</v>
@@ -16819,7 +16819,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR96" t="n">
         <v>1.44</v>
@@ -16989,7 +16989,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR97" t="n">
         <v>1.32</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.05</v>
@@ -17836,7 +17836,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.33</v>
@@ -18009,7 +18009,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR103" t="n">
         <v>1.26</v>
@@ -18176,7 +18176,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.47</v>
@@ -18349,7 +18349,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR105" t="n">
         <v>2.09</v>
@@ -18686,10 +18686,10 @@
         <v>0.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR107" t="n">
         <v>0.98</v>
@@ -19366,7 +19366,7 @@
         <v>1.25</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.32</v>
@@ -19539,7 +19539,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR112" t="n">
         <v>1.62</v>
@@ -19706,7 +19706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.9399999999999999</v>
@@ -20219,7 +20219,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR116" t="n">
         <v>1.27</v>
@@ -20556,10 +20556,10 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR118" t="n">
         <v>1.16</v>
@@ -20726,10 +20726,10 @@
         <v>0.75</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR119" t="n">
         <v>0.99</v>
@@ -21576,7 +21576,7 @@
         <v>1.2</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.32</v>
@@ -21746,7 +21746,7 @@
         <v>1.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.28</v>
@@ -21916,10 +21916,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR126" t="n">
         <v>1.61</v>
@@ -22086,7 +22086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.9399999999999999</v>
@@ -22599,7 +22599,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR130" t="n">
         <v>1.61</v>
@@ -22939,7 +22939,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR132" t="n">
         <v>1.24</v>
@@ -23616,10 +23616,10 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR136" t="n">
         <v>1.32</v>
@@ -23786,7 +23786,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.05</v>
@@ -23959,7 +23959,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR138" t="n">
         <v>1.45</v>
@@ -24129,7 +24129,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR139" t="n">
         <v>1.23</v>
@@ -24806,10 +24806,10 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -25486,7 +25486,7 @@
         <v>1.67</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.32</v>
@@ -25656,7 +25656,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.9399999999999999</v>
@@ -25829,7 +25829,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR149" t="n">
         <v>1.52</v>
@@ -25996,7 +25996,7 @@
         <v>1.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.33</v>
@@ -26169,7 +26169,7 @@
         <v>2</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR151" t="n">
         <v>1.86</v>
@@ -26339,7 +26339,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ152" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR152" t="n">
         <v>1.43</v>
@@ -26509,7 +26509,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR153" t="n">
         <v>1.45</v>
@@ -27016,7 +27016,7 @@
         <v>0</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.63</v>
@@ -27186,10 +27186,10 @@
         <v>1.43</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR157" t="n">
         <v>1.27</v>
@@ -27356,7 +27356,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.18</v>
@@ -27869,7 +27869,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR161" t="n">
         <v>1.27</v>
@@ -28039,7 +28039,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR162" t="n">
         <v>1.41</v>
@@ -28719,7 +28719,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR166" t="n">
         <v>1.7</v>
@@ -28886,7 +28886,7 @@
         <v>1.43</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.33</v>
@@ -29566,7 +29566,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.9399999999999999</v>
@@ -29739,7 +29739,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR172" t="n">
         <v>1.18</v>
@@ -29906,7 +29906,7 @@
         <v>1.57</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.28</v>
@@ -30586,10 +30586,10 @@
         <v>1.71</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR177" t="n">
         <v>1.32</v>
@@ -30756,10 +30756,10 @@
         <v>1.67</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR178" t="n">
         <v>1.37</v>
@@ -31266,7 +31266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.47</v>
@@ -31609,7 +31609,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR183" t="n">
         <v>1.44</v>
@@ -31776,10 +31776,10 @@
         <v>1.88</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR184" t="n">
         <v>1.34</v>
@@ -31949,7 +31949,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR185" t="n">
         <v>1.46</v>
@@ -32286,10 +32286,10 @@
         <v>0.71</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR187" t="n">
         <v>1.8</v>
@@ -32456,7 +32456,7 @@
         <v>1.25</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.18</v>
@@ -32969,7 +32969,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR191" t="n">
         <v>1.5</v>
@@ -33306,7 +33306,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.33</v>
@@ -33476,7 +33476,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.32</v>
@@ -33649,7 +33649,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR195" t="n">
         <v>1.38</v>
@@ -33819,7 +33819,7 @@
         <v>2</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR196" t="n">
         <v>2.03</v>
@@ -34666,10 +34666,10 @@
         <v>1.56</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR201" t="n">
         <v>1.25</v>
@@ -35006,7 +35006,7 @@
         <v>1.11</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.47</v>
@@ -35346,10 +35346,10 @@
         <v>1.5</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR205" t="n">
         <v>1.79</v>
@@ -35856,10 +35856,10 @@
         <v>1.22</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR208" t="n">
         <v>1.47</v>
@@ -36539,7 +36539,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR212" t="n">
         <v>1.36</v>
@@ -36706,10 +36706,10 @@
         <v>0.78</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR213" t="n">
         <v>1.31</v>
@@ -36876,10 +36876,10 @@
         <v>1.5</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR214" t="n">
         <v>1.49</v>
@@ -37049,7 +37049,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR215" t="n">
         <v>1.29</v>
@@ -37726,7 +37726,7 @@
         <v>1.22</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.33</v>
@@ -37896,10 +37896,10 @@
         <v>2</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ220" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR220" t="n">
         <v>1.49</v>
@@ -39086,7 +39086,7 @@
         <v>1.6</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.11</v>
@@ -39259,7 +39259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR228" t="n">
         <v>1.58</v>
@@ -39426,7 +39426,7 @@
         <v>2.11</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.88</v>
@@ -40109,7 +40109,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR233" t="n">
         <v>1.5</v>
@@ -40446,7 +40446,7 @@
         <v>1.1</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.9399999999999999</v>
@@ -40616,10 +40616,10 @@
         <v>2.1</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ236" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR236" t="n">
         <v>1.35</v>
@@ -40959,7 +40959,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR238" t="n">
         <v>1.38</v>
@@ -41129,7 +41129,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR239" t="n">
         <v>1.45</v>
@@ -41466,7 +41466,7 @@
         <v>1.18</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.47</v>
@@ -41639,7 +41639,7 @@
         <v>2</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR242" t="n">
         <v>2.01</v>
@@ -41806,7 +41806,7 @@
         <v>1.44</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.28</v>
@@ -41979,7 +41979,7 @@
         <v>2</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR244" t="n">
         <v>2.02</v>
@@ -42146,7 +42146,7 @@
         <v>0.1</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.63</v>
@@ -42486,7 +42486,7 @@
         <v>1.36</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.33</v>
@@ -42826,7 +42826,7 @@
         <v>1.4</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ249" t="n">
         <v>1.28</v>
@@ -43336,7 +43336,7 @@
         <v>1.45</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.11</v>
@@ -43509,7 +43509,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR253" t="n">
         <v>1.29</v>
@@ -43679,7 +43679,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ254" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR254" t="n">
         <v>1.51</v>
@@ -43846,7 +43846,7 @@
         <v>1.08</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.05</v>
@@ -44019,7 +44019,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR256" t="n">
         <v>1.33</v>
@@ -44186,7 +44186,7 @@
         <v>1.55</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ257" t="n">
         <v>1.32</v>
@@ -44526,10 +44526,10 @@
         <v>0.58</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR259" t="n">
         <v>1.67</v>
@@ -44699,7 +44699,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR260" t="n">
         <v>1.53</v>
@@ -45039,7 +45039,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -45206,7 +45206,7 @@
         <v>1.6</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.32</v>
@@ -45379,7 +45379,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR264" t="n">
         <v>1.29</v>
@@ -45886,10 +45886,10 @@
         <v>2.25</v>
       </c>
       <c r="AP267" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ267" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR267" t="n">
         <v>1.55</v>
@@ -46566,7 +46566,7 @@
         <v>1.33</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.11</v>
@@ -46736,7 +46736,7 @@
         <v>0.09</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.63</v>
@@ -46909,7 +46909,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR273" t="n">
         <v>1.62</v>
@@ -47416,7 +47416,7 @@
         <v>1.82</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.72</v>
@@ -47589,7 +47589,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR277" t="n">
         <v>1.43</v>
@@ -47756,10 +47756,10 @@
         <v>0.92</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR278" t="n">
         <v>1.28</v>
@@ -48099,7 +48099,7 @@
         <v>2</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR280" t="n">
         <v>2.06</v>
@@ -48436,10 +48436,10 @@
         <v>1.38</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR282" t="n">
         <v>1.49</v>
@@ -49116,7 +49116,7 @@
         <v>1.67</v>
       </c>
       <c r="AP286" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.32</v>
@@ -49286,10 +49286,10 @@
         <v>0.77</v>
       </c>
       <c r="AP287" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR287" t="n">
         <v>1.5</v>
@@ -49456,7 +49456,7 @@
         <v>1.43</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.47</v>
@@ -49626,10 +49626,10 @@
         <v>1.36</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR289" t="n">
         <v>1.38</v>
@@ -49799,7 +49799,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ290" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR290" t="n">
         <v>1.48</v>
@@ -49966,10 +49966,10 @@
         <v>1.38</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ291" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR291" t="n">
         <v>1.24</v>
@@ -50309,7 +50309,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR293" t="n">
         <v>1.35</v>
@@ -50646,7 +50646,7 @@
         <v>1.92</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ295" t="n">
         <v>1.72</v>
@@ -50819,7 +50819,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ296" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR296" t="n">
         <v>1.47</v>
@@ -51156,10 +51156,10 @@
         <v>1</v>
       </c>
       <c r="AP298" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR298" t="n">
         <v>1.52</v>
@@ -51496,7 +51496,7 @@
         <v>1.54</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ300" t="n">
         <v>1.28</v>
@@ -53196,7 +53196,7 @@
         <v>2</v>
       </c>
       <c r="AP310" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ310" t="n">
         <v>1.88</v>
@@ -53539,7 +53539,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ312" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR312" t="n">
         <v>1.38</v>
@@ -53709,7 +53709,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR313" t="n">
         <v>1.39</v>
@@ -53879,7 +53879,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR314" t="n">
         <v>1.15</v>
@@ -54046,7 +54046,7 @@
         <v>0.5</v>
       </c>
       <c r="AP315" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ315" t="n">
         <v>0.72</v>
@@ -54219,7 +54219,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR316" t="n">
         <v>1.5</v>
@@ -54386,7 +54386,7 @@
         <v>1.21</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ317" t="n">
         <v>1.11</v>
@@ -54556,7 +54556,7 @@
         <v>1.46</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ318" t="n">
         <v>1.33</v>
@@ -54899,7 +54899,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR320" t="n">
         <v>1.32</v>
@@ -55066,7 +55066,7 @@
         <v>1.93</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ321" t="n">
         <v>1.72</v>
@@ -55746,10 +55746,10 @@
         <v>0.93</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR325" t="n">
         <v>1.42</v>
@@ -55919,7 +55919,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ326" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR326" t="n">
         <v>1.29</v>
@@ -56256,10 +56256,10 @@
         <v>0.93</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ328" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR328" t="n">
         <v>1.28</v>
@@ -56769,7 +56769,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ331" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR331" t="n">
         <v>1.35</v>
@@ -56939,7 +56939,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ332" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR332" t="n">
         <v>1.52</v>
@@ -57786,7 +57786,7 @@
         <v>1.36</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ337" t="n">
         <v>1.32</v>
@@ -58126,7 +58126,7 @@
         <v>1.43</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ339" t="n">
         <v>1.33</v>
@@ -58636,7 +58636,7 @@
         <v>1.14</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ342" t="n">
         <v>1.28</v>
@@ -58806,7 +58806,7 @@
         <v>1.19</v>
       </c>
       <c r="AP343" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ343" t="n">
         <v>1.05</v>
@@ -58979,7 +58979,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ344" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR344" t="n">
         <v>1.48</v>
@@ -59149,7 +59149,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ345" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR345" t="n">
         <v>1.45</v>
@@ -59316,10 +59316,10 @@
         <v>0.88</v>
       </c>
       <c r="AP346" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ346" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR346" t="n">
         <v>1.76</v>
@@ -59486,7 +59486,7 @@
         <v>1.4</v>
       </c>
       <c r="AP347" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ347" t="n">
         <v>1.28</v>
@@ -59999,7 +59999,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ350" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR350" t="n">
         <v>1.48</v>
@@ -60339,7 +60339,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ352" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR352" t="n">
         <v>1.43</v>
@@ -60849,7 +60849,7 @@
         <v>2</v>
       </c>
       <c r="AQ355" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR355" t="n">
         <v>1.94</v>
@@ -61016,7 +61016,7 @@
         <v>1.13</v>
       </c>
       <c r="AP356" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ356" t="n">
         <v>1.28</v>
@@ -61186,7 +61186,7 @@
         <v>1.93</v>
       </c>
       <c r="AP357" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ357" t="n">
         <v>1.88</v>
@@ -61356,7 +61356,7 @@
         <v>1.31</v>
       </c>
       <c r="AP358" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ358" t="n">
         <v>1.32</v>
@@ -61696,7 +61696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP360" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ360" t="n">
         <v>0.63</v>
@@ -62209,7 +62209,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ363" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR363" t="n">
         <v>1.35</v>
@@ -62546,7 +62546,7 @@
         <v>0.63</v>
       </c>
       <c r="AP365" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AQ365" t="n">
         <v>0.72</v>
@@ -62886,7 +62886,7 @@
         <v>0.38</v>
       </c>
       <c r="AP367" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ367" t="n">
         <v>0.63</v>
@@ -63059,7 +63059,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ368" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR368" t="n">
         <v>1.68</v>
@@ -63226,7 +63226,7 @@
         <v>1.25</v>
       </c>
       <c r="AP369" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ369" t="n">
         <v>1.11</v>
@@ -63739,7 +63739,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ372" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR372" t="n">
         <v>1.15</v>
@@ -63909,7 +63909,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ373" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AR373" t="n">
         <v>1.38</v>
@@ -64079,7 +64079,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ374" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR374" t="n">
         <v>1.28</v>
@@ -64416,7 +64416,7 @@
         <v>1.41</v>
       </c>
       <c r="AP376" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ376" t="n">
         <v>1.33</v>
@@ -64756,7 +64756,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP378" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ378" t="n">
         <v>0.9399999999999999</v>
@@ -64929,7 +64929,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ379" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR379" t="n">
         <v>1.35</v>
@@ -65096,10 +65096,10 @@
         <v>1</v>
       </c>
       <c r="AP380" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ380" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR380" t="n">
         <v>1.25</v>
@@ -65606,10 +65606,10 @@
         <v>1.12</v>
       </c>
       <c r="AP383" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ383" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR383" t="n">
         <v>1.05</v>
@@ -66289,7 +66289,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ387" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR387" t="n">
         <v>1.48</v>
@@ -66626,7 +66626,7 @@
         <v>1.25</v>
       </c>
       <c r="AP389" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ389" t="n">
         <v>1.18</v>
@@ -66796,7 +66796,7 @@
         <v>1.82</v>
       </c>
       <c r="AP390" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ390" t="n">
         <v>1.72</v>
@@ -67646,10 +67646,10 @@
         <v>0.61</v>
       </c>
       <c r="AP395" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ395" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR395" t="n">
         <v>1.05</v>
@@ -68527,6 +68527,1196 @@
       </c>
       <c r="AZ400" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>5188877</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E401" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F401" t="n">
+        <v>37</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>1</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0</v>
+      </c>
+      <c r="K401" t="n">
+        <v>1</v>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="n">
+        <v>2</v>
+      </c>
+      <c r="N401" t="n">
+        <v>3</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>['66', '71']</t>
+        </is>
+      </c>
+      <c r="Q401" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R401" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S401" t="n">
+        <v>4</v>
+      </c>
+      <c r="T401" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U401" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V401" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W401" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X401" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB401" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC401" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD401" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE401" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF401" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG401" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH401" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ401" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK401" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL401" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR401" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS401" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV401" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW401" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX401" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY401" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ401" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>5188882</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E402" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F402" t="n">
+        <v>37</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>2</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="n">
+        <v>2</v>
+      </c>
+      <c r="L402" t="n">
+        <v>3</v>
+      </c>
+      <c r="M402" t="n">
+        <v>2</v>
+      </c>
+      <c r="N402" t="n">
+        <v>5</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>['16', '22', '53']</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>['46', '77']</t>
+        </is>
+      </c>
+      <c r="Q402" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R402" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S402" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T402" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U402" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V402" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W402" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X402" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB402" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC402" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD402" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE402" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF402" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG402" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH402" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI402" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ402" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK402" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL402" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM402" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN402" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO402" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP402" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ402" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR402" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS402" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT402" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU402" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV402" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW402" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>5188881</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F403" t="n">
+        <v>37</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" t="n">
+        <v>3</v>
+      </c>
+      <c r="K403" t="n">
+        <v>3</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>5</v>
+      </c>
+      <c r="N403" t="n">
+        <v>5</v>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>['4', '20', '31', '49', '68']</t>
+        </is>
+      </c>
+      <c r="Q403" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R403" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S403" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T403" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U403" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V403" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W403" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X403" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG403" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH403" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI403" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ403" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK403" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL403" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM403" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN403" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO403" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP403" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ403" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR403" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS403" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT403" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU403" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV403" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW403" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX403" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY403" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ403" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>5188880</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F404" t="n">
+        <v>37</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>1</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K404" t="n">
+        <v>1</v>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>1</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q404" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R404" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S404" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T404" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U404" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V404" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W404" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X404" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG404" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH404" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ404" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK404" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL404" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM404" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN404" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO404" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP404" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ404" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR404" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS404" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT404" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU404" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV404" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW404" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX404" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY404" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ404" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>5188876</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E405" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F405" t="n">
+        <v>37</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>1</v>
+      </c>
+      <c r="K405" t="n">
+        <v>1</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>1</v>
+      </c>
+      <c r="N405" t="n">
+        <v>1</v>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q405" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R405" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S405" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U405" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V405" t="n">
+        <v>3</v>
+      </c>
+      <c r="W405" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X405" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD405" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE405" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF405" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG405" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH405" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI405" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ405" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK405" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL405" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM405" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN405" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO405" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP405" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ405" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AR405" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS405" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT405" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU405" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV405" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW405" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX405" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY405" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ405" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="n">
+        <v>5188879</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E406" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F406" t="n">
+        <v>37</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" t="n">
+        <v>2</v>
+      </c>
+      <c r="K406" t="n">
+        <v>2</v>
+      </c>
+      <c r="L406" t="n">
+        <v>2</v>
+      </c>
+      <c r="M406" t="n">
+        <v>3</v>
+      </c>
+      <c r="N406" t="n">
+        <v>5</v>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>['51', '85']</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>['31', '42', '46']</t>
+        </is>
+      </c>
+      <c r="Q406" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R406" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S406" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T406" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U406" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V406" t="n">
+        <v>3</v>
+      </c>
+      <c r="W406" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X406" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD406" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE406" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF406" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG406" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH406" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI406" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ406" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK406" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL406" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM406" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN406" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO406" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP406" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ406" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AR406" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS406" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT406" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU406" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV406" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW406" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX406" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY406" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ406" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>5188878</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="n">
+        <v>45200.20833333334</v>
+      </c>
+      <c r="F407" t="n">
+        <v>37</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0</v>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q407" t="n">
+        <v>5</v>
+      </c>
+      <c r="R407" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S407" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T407" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U407" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V407" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W407" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X407" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB407" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC407" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD407" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE407" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF407" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG407" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH407" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI407" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ407" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK407" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL407" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM407" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN407" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO407" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP407" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ407" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR407" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS407" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT407" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU407" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV407" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW407" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX407" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY407" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ407" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP419"/>
+  <dimension ref="A1:BP420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.05</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.16</v>
@@ -3753,7 +3753,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.25</v>
@@ -9421,7 +9421,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR41" t="n">
         <v>1.56</v>
@@ -12473,7 +12473,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR55" t="n">
         <v>1.84</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.47</v>
@@ -15525,7 +15525,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -18141,7 +18141,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR81" t="n">
         <v>0.95</v>
@@ -22498,7 +22498,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.68</v>
@@ -22937,7 +22937,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR103" t="n">
         <v>1.26</v>
@@ -25550,7 +25550,7 @@
         <v>2.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.94</v>
@@ -28823,7 +28823,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR130" t="n">
         <v>1.61</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.16</v>
@@ -35578,7 +35578,7 @@
         <v>0.71</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.21</v>
@@ -35799,7 +35799,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR162" t="n">
         <v>1.41</v>
@@ -40813,7 +40813,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR185" t="n">
         <v>1.46</v>
@@ -41900,7 +41900,7 @@
         <v>0.13</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.63</v>
@@ -44301,7 +44301,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR201" t="n">
         <v>1.25</v>
@@ -47135,7 +47135,7 @@
         <v>2</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR214" t="n">
         <v>1.49</v>
@@ -47568,7 +47568,7 @@
         <v>1.22</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.89</v>
@@ -51056,7 +51056,7 @@
         <v>1.2</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.32</v>
@@ -53675,7 +53675,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR244" t="n">
         <v>2.02</v>
@@ -56288,7 +56288,7 @@
         <v>1.5</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.47</v>
@@ -57599,7 +57599,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -61738,7 +61738,7 @@
         <v>1.08</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.11</v>
@@ -61959,7 +61959,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR282" t="n">
         <v>1.49</v>
@@ -63485,7 +63485,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR289" t="n">
         <v>1.38</v>
@@ -68496,7 +68496,7 @@
         <v>0.53</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ312" t="n">
         <v>0.6</v>
@@ -70243,7 +70243,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR320" t="n">
         <v>1.32</v>
@@ -73074,7 +73074,7 @@
         <v>1.8</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.63</v>
@@ -75475,7 +75475,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ344" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR344" t="n">
         <v>1.48</v>
@@ -80268,7 +80268,7 @@
         <v>1.31</v>
       </c>
       <c r="AP366" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ366" t="n">
         <v>1.26</v>
@@ -81794,7 +81794,7 @@
         <v>2.24</v>
       </c>
       <c r="AP373" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ373" t="n">
         <v>2.11</v>
@@ -82015,7 +82015,7 @@
         <v>1</v>
       </c>
       <c r="AQ374" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR374" t="n">
         <v>1.28</v>
@@ -87462,7 +87462,7 @@
         <v>1.35</v>
       </c>
       <c r="AP399" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ399" t="n">
         <v>1.26</v>
@@ -88555,7 +88555,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ404" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR404" t="n">
         <v>1.86</v>
@@ -91901,6 +91901,224 @@
       </c>
       <c r="BP419" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="n">
+        <v>5188894</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E420" s="2" t="n">
+        <v>45219.29166666666</v>
+      </c>
+      <c r="F420" t="n">
+        <v>39</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>1</v>
+      </c>
+      <c r="K420" t="n">
+        <v>1</v>
+      </c>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="n">
+        <v>1</v>
+      </c>
+      <c r="N420" t="n">
+        <v>2</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q420" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R420" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S420" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T420" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U420" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V420" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W420" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X420" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z420" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA420" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB420" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC420" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD420" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE420" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF420" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AG420" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH420" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI420" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ420" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK420" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL420" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM420" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN420" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO420" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP420" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ420" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR420" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS420" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT420" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU420" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV420" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW420" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX420" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY420" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ420" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA420" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB420" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC420" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD420" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE420" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF420" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BG420" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH420" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI420" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ420" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK420" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL420" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM420" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN420" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO420" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP420" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP463"/>
+  <dimension ref="A1:BP464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.14</v>
@@ -3535,7 +3535,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR24" t="n">
         <v>1.94</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.24</v>
@@ -10293,7 +10293,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR45" t="n">
         <v>0.84</v>
@@ -12909,7 +12909,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR57" t="n">
         <v>1.08</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.1</v>
@@ -18359,7 +18359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR82" t="n">
         <v>1.57</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.1</v>
@@ -22065,7 +22065,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR99" t="n">
         <v>1.17</v>
@@ -22280,7 +22280,7 @@
         <v>2</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.14</v>
@@ -25989,7 +25989,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR117" t="n">
         <v>1.32</v>
@@ -27294,7 +27294,7 @@
         <v>0.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.67</v>
@@ -30349,7 +30349,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -33398,7 +33398,7 @@
         <v>0.83</v>
       </c>
       <c r="AP151" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.19</v>
@@ -35142,7 +35142,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.24</v>
@@ -35363,7 +35363,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR160" t="n">
         <v>1.49</v>
@@ -43208,7 +43208,7 @@
         <v>0.67</v>
       </c>
       <c r="AP196" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.57</v>
@@ -43647,7 +43647,7 @@
         <v>1</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR198" t="n">
         <v>1.62</v>
@@ -49315,7 +49315,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR224" t="n">
         <v>1.15</v>
@@ -53236,7 +53236,7 @@
         <v>1.36</v>
       </c>
       <c r="AP242" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.48</v>
@@ -53890,7 +53890,7 @@
         <v>1.36</v>
       </c>
       <c r="AP245" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.33</v>
@@ -56509,7 +56509,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR257" t="n">
         <v>1.28</v>
@@ -61738,7 +61738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP281" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.24</v>
@@ -61959,7 +61959,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR282" t="n">
         <v>1.29</v>
@@ -65444,7 +65444,7 @@
         <v>1.31</v>
       </c>
       <c r="AP298" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ298" t="n">
         <v>1.29</v>
@@ -67409,7 +67409,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR307" t="n">
         <v>1.33</v>
@@ -67845,7 +67845,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR309" t="n">
         <v>1.44</v>
@@ -70676,7 +70676,7 @@
         <v>1.14</v>
       </c>
       <c r="AP322" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ322" t="n">
         <v>0.86</v>
@@ -73292,7 +73292,7 @@
         <v>2.08</v>
       </c>
       <c r="AP334" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ334" t="n">
         <v>2.1</v>
@@ -75257,7 +75257,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ343" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR343" t="n">
         <v>1.55</v>
@@ -77652,7 +77652,7 @@
         <v>1.06</v>
       </c>
       <c r="AP354" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ354" t="n">
         <v>1.24</v>
@@ -79832,10 +79832,10 @@
         <v>1.12</v>
       </c>
       <c r="AP364" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ364" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR364" t="n">
         <v>1.91</v>
@@ -84413,7 +84413,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ385" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR385" t="n">
         <v>1.28</v>
@@ -85718,7 +85718,7 @@
         <v>1.29</v>
       </c>
       <c r="AP391" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ391" t="n">
         <v>1.29</v>
@@ -89642,7 +89642,7 @@
         <v>1.72</v>
       </c>
       <c r="AP409" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ409" t="n">
         <v>1.76</v>
@@ -94223,7 +94223,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ430" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR430" t="n">
         <v>1.39</v>
@@ -94438,7 +94438,7 @@
         <v>1.32</v>
       </c>
       <c r="AP431" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ431" t="n">
         <v>1.33</v>
@@ -97493,7 +97493,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ445" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR445" t="n">
         <v>1.49</v>
@@ -98144,7 +98144,7 @@
         <v>0.75</v>
       </c>
       <c r="AP448" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ448" t="n">
         <v>0.71</v>
@@ -101493,6 +101493,224 @@
       </c>
       <c r="BP463" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="n">
+        <v>7262032</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E464" s="2" t="n">
+        <v>45255.04166666666</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q464" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R464" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S464" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T464" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U464" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V464" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W464" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X464" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z464" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB464" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC464" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD464" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE464" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF464" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG464" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH464" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI464" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ464" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK464" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL464" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM464" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN464" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO464" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP464" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ464" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR464" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS464" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT464" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU464" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV464" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW464" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX464" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY464" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ464" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA464" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB464" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC464" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD464" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE464" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF464" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BG464" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH464" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI464" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ464" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK464" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL464" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM464" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN464" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO464" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP464" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP465"/>
+  <dimension ref="A1:BP466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.57</v>
@@ -4189,7 +4189,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>0.93</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.29</v>
@@ -10511,7 +10511,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.63</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -15307,7 +15307,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.21</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.71</v>
@@ -21626,7 +21626,7 @@
         <v>2.2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.48</v>
@@ -23155,7 +23155,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR104" t="n">
         <v>1.53</v>
@@ -25335,7 +25335,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR114" t="n">
         <v>1.62</v>
@@ -25986,7 +25986,7 @@
         <v>0.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.23</v>
@@ -29913,7 +29913,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR135" t="n">
         <v>1.23</v>
@@ -31872,7 +31872,7 @@
         <v>1.4</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.76</v>
@@ -36014,7 +36014,7 @@
         <v>2.17</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ163" t="n">
         <v>2.1</v>
@@ -38851,7 +38851,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -39941,7 +39941,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR181" t="n">
         <v>1.49</v>
@@ -42990,7 +42990,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.19</v>
@@ -44955,7 +44955,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR204" t="n">
         <v>1.36</v>
@@ -46042,7 +46042,7 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.14</v>
@@ -48661,7 +48661,7 @@
         <v>1</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR221" t="n">
         <v>1.56</v>
@@ -50620,7 +50620,7 @@
         <v>1.1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.1</v>
@@ -53021,7 +53021,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR241" t="n">
         <v>0.99</v>
@@ -57160,7 +57160,7 @@
         <v>1.25</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.33</v>
@@ -57599,7 +57599,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR262" t="n">
         <v>1.45</v>
@@ -59779,7 +59779,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR272" t="n">
         <v>1.37</v>
@@ -60866,7 +60866,7 @@
         <v>1</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ277" t="n">
         <v>1.24</v>
@@ -63267,7 +63267,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR288" t="n">
         <v>1.35</v>
@@ -65662,7 +65662,7 @@
         <v>1.17</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ299" t="n">
         <v>1.14</v>
@@ -68278,10 +68278,10 @@
         <v>1.4</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR311" t="n">
         <v>1.35</v>
@@ -75036,7 +75036,7 @@
         <v>1.2</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ342" t="n">
         <v>1.29</v>
@@ -76565,7 +76565,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ349" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR349" t="n">
         <v>1.28</v>
@@ -79832,7 +79832,7 @@
         <v>1</v>
       </c>
       <c r="AP364" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ364" t="n">
         <v>0.86</v>
@@ -83541,7 +83541,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ381" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR381" t="n">
         <v>1.4</v>
@@ -85936,7 +85936,7 @@
         <v>1.33</v>
       </c>
       <c r="AP392" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ392" t="n">
         <v>1.24</v>
@@ -87247,7 +87247,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ398" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR398" t="n">
         <v>1.45</v>
@@ -89860,7 +89860,7 @@
         <v>1.33</v>
       </c>
       <c r="AP410" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ410" t="n">
         <v>1.24</v>
@@ -92261,7 +92261,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ421" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR421" t="n">
         <v>1.49</v>
@@ -93566,7 +93566,7 @@
         <v>1.21</v>
       </c>
       <c r="AP427" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ427" t="n">
         <v>1.18</v>
@@ -98798,7 +98798,7 @@
         <v>0.7</v>
       </c>
       <c r="AP451" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ451" t="n">
         <v>0.67</v>
@@ -100327,7 +100327,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ458" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR458" t="n">
         <v>1.29</v>
@@ -101632,7 +101632,7 @@
         <v>1.6</v>
       </c>
       <c r="AP464" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AQ464" t="n">
         <v>1.58</v>
@@ -101850,7 +101850,7 @@
         <v>1.6</v>
       </c>
       <c r="AP465" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AQ465" t="n">
         <v>1.56</v>
@@ -101929,6 +101929,224 @@
       </c>
       <c r="BP465" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="n">
+        <v>7271615</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E466" s="2" t="n">
+        <v>45262.08680555555</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="n">
+        <v>1</v>
+      </c>
+      <c r="N466" t="n">
+        <v>2</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q466" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R466" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S466" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T466" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U466" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V466" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W466" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X466" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD466" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE466" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF466" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG466" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH466" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI466" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ466" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK466" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL466" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM466" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN466" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO466" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AP466" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ466" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR466" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS466" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT466" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU466" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV466" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW466" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX466" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY466" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ466" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA466" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB466" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC466" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD466" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE466" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF466" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG466" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH466" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI466" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ466" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK466" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL466" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM466" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN466" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO466" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP466" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
